--- a/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
+++ b/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16380" tabRatio="669" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16380" tabRatio="669" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="7" r:id="rId1"/>
@@ -2226,7 +2226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2247,6 +2247,22 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2265,9 +2281,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2275,7 +2313,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="24">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -2608,7 +2668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2792,7 +2854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4630,6 +4694,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4642,7 +4707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G165" sqref="G165"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -10713,6 +10780,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10725,14 +10793,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="46.5" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1">
@@ -15870,6 +15952,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16293,7 +16376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -16492,6 +16577,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16504,7 +16590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>

--- a/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
+++ b/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32380" windowHeight="20320" tabRatio="669" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22380" tabRatio="669" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MIOs" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3938" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1118">
   <si>
     <t>Platform Reference ID</t>
   </si>
@@ -2585,9 +2585,6 @@
   </si>
   <si>
     <t>added subsite</t>
-  </si>
-  <si>
-    <t>Pull Mode?</t>
   </si>
   <si>
     <t>Size Per Sample</t>
@@ -3410,6 +3407,12 @@
   </si>
   <si>
     <t>Southern Summit</t>
+  </si>
+  <si>
+    <t>RT Data Full</t>
+  </si>
+  <si>
+    <t>Pull Mode</t>
   </si>
 </sst>
 </file>
@@ -4397,7 +4400,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4406,7 +4409,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="25"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="24"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="24" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
@@ -4421,9 +4423,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4441,14 +4440,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="866">
     <cellStyle name="20% - Accent3" xfId="25" builtinId="38"/>
@@ -5733,8 +5738,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
   </cols>
@@ -7899,44 +7904,44 @@
     <col min="14" max="14" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13" s="14" customFormat="1">
+      <c r="A1" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>719</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>1067</v>
-      </c>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="23" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>714</v>
       </c>
     </row>
@@ -8037,7 +8042,7 @@
         <f t="shared" si="0"/>
         <v>RS01LV01A</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>285</v>
       </c>
       <c r="G5" t="str">
@@ -8151,7 +8156,7 @@
         <f t="shared" ref="G8:G18" si="1">IF(ISBLANK(F8),"N/A",F8&amp;"-"&amp;C8&amp;D8)</f>
         <v>RS01SBVM-DP01A</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="24" t="s">
         <v>664</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -8212,7 +8217,7 @@
         <f t="shared" si="0"/>
         <v>RS01SC01A</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>285</v>
       </c>
       <c r="G10" t="str">
@@ -8320,7 +8325,7 @@
         <f t="shared" si="0"/>
         <v>RS01LV01B</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>294</v>
       </c>
       <c r="G13" t="str">
@@ -8465,7 +8470,7 @@
         <f t="shared" si="0"/>
         <v>CE04LV01C</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>277</v>
       </c>
       <c r="G17" t="str">
@@ -8481,7 +8486,7 @@
       <c r="J17" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="21" t="s">
         <v>837</v>
       </c>
       <c r="M17" t="s">
@@ -8573,7 +8578,7 @@
         <f t="shared" ref="G20:G31" si="2">IF(ISBLANK(F20),"N/A",F20&amp;"-"&amp;C20&amp;D20)</f>
         <v>CE04OSHY-DP01B</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="24" t="s">
         <v>678</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -8684,7 +8689,7 @@
       <c r="J23" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="26" t="s">
         <v>635</v>
       </c>
     </row>
@@ -8755,7 +8760,7 @@
       <c r="K25" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="L25" s="24"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
@@ -8793,7 +8798,7 @@
       <c r="K26" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
@@ -8911,7 +8916,7 @@
         <f t="shared" si="0"/>
         <v>RS03LV03A</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="21" t="s">
         <v>304</v>
       </c>
       <c r="G30" t="str">
@@ -9028,7 +9033,7 @@
         <f t="shared" ref="G33:G43" si="3">IF(ISBLANK(F33),"N/A",F33&amp;"-"&amp;C33&amp;D33)</f>
         <v>RS03AXVM-DP03A</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="24" t="s">
         <v>690</v>
       </c>
       <c r="K33" s="3" t="s">
@@ -9095,7 +9100,7 @@
         <f t="shared" si="0"/>
         <v>RS03SC03A</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="21" t="s">
         <v>304</v>
       </c>
       <c r="G35" t="str">
@@ -9410,7 +9415,7 @@
       <c r="K43" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="L43" s="23" t="s">
+      <c r="L43" s="21" t="s">
         <v>838</v>
       </c>
     </row>
@@ -9456,7 +9461,7 @@
         <v>836</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>429</v>
@@ -9472,13 +9477,13 @@
       <c r="B2" t="s">
         <v>558</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>113</v>
       </c>
       <c r="F2" t="s">
@@ -9492,14 +9497,14 @@
       <c r="B3" t="s">
         <v>559</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>1070</v>
+      <c r="D3" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1069</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -9515,11 +9520,11 @@
       <c r="C4" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>1051</v>
+      <c r="D4" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1050</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -9535,11 +9540,11 @@
       <c r="C5" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>1052</v>
+      <c r="D5" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1051</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9555,11 +9560,11 @@
       <c r="C6" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>1053</v>
+      <c r="D6" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1052</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -9575,11 +9580,11 @@
       <c r="C7" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>1054</v>
+      <c r="D7" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1053</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9598,8 +9603,8 @@
       <c r="D8" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>1069</v>
+      <c r="E8" s="13" t="s">
+        <v>1068</v>
       </c>
       <c r="F8" t="s">
         <v>435</v>
@@ -9620,7 +9625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -9653,7 +9658,7 @@
         <v>631</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>714</v>
@@ -9675,8 +9680,8 @@
         <f>C2 &amp; IF(ISBLANK(D2),"", " " &amp; D2)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>1069</v>
+      <c r="F2" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9695,8 +9700,8 @@
         <f t="shared" ref="E3:E32" si="0">C3 &amp; IF(ISBLANK(D3),"", " " &amp; D3)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>1069</v>
+      <c r="F3" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9715,8 +9720,8 @@
         <f t="shared" si="0"/>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>1069</v>
+      <c r="F4" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9735,8 +9740,8 @@
         <f t="shared" si="0"/>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>1069</v>
+      <c r="F5" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9755,8 +9760,8 @@
         <f t="shared" si="0"/>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>1069</v>
+      <c r="F6" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9775,8 +9780,8 @@
         <f t="shared" si="0"/>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>1069</v>
+      <c r="F7" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9795,8 +9800,8 @@
         <f t="shared" si="0"/>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>1069</v>
+      <c r="F8" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9815,8 +9820,8 @@
         <f t="shared" si="0"/>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>1069</v>
+      <c r="F9" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9830,13 +9835,13 @@
         <f>VLOOKUP(LEFT(A10,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>1069</v>
+      <c r="F10" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -9855,8 +9860,8 @@
         <f t="shared" si="0"/>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>1069</v>
+      <c r="F11" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9875,8 +9880,8 @@
         <f t="shared" si="0"/>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>1069</v>
+      <c r="F12" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9895,8 +9900,8 @@
         <f t="shared" si="0"/>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>1069</v>
+      <c r="F13" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9915,8 +9920,8 @@
         <f t="shared" si="0"/>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>1069</v>
+      <c r="F14" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9935,8 +9940,8 @@
         <f t="shared" si="0"/>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>1069</v>
+      <c r="F15" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9950,13 +9955,13 @@
         <f>VLOOKUP(LEFT(A16,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>1069</v>
+      <c r="F16" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -9975,8 +9980,8 @@
         <f t="shared" si="0"/>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>1069</v>
+      <c r="F17" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -9995,8 +10000,8 @@
         <f t="shared" si="0"/>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>1069</v>
+      <c r="F18" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10015,8 +10020,8 @@
         <f t="shared" si="0"/>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>1069</v>
+      <c r="F19" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10030,13 +10035,13 @@
         <f>VLOOKUP(LEFT(A20,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>1069</v>
+      <c r="F20" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10055,8 +10060,8 @@
         <f t="shared" si="0"/>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>1069</v>
+      <c r="F21" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10075,8 +10080,8 @@
         <f t="shared" si="0"/>
         <v>Global Station Papa</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>1069</v>
+      <c r="F22" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10090,13 +10095,13 @@
         <f>VLOOKUP(LEFT(A23,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="13"/>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>Global Station Papa</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>1069</v>
+      <c r="F23" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10115,8 +10120,8 @@
         <f t="shared" si="0"/>
         <v>Global Station Papa</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>1069</v>
+      <c r="F24" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10135,8 +10140,8 @@
         <f t="shared" si="0"/>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>1069</v>
+      <c r="F25" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10155,8 +10160,8 @@
         <f t="shared" si="0"/>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>1069</v>
+      <c r="F26" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10170,13 +10175,13 @@
         <f>VLOOKUP(LEFT(A27,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="13"/>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>1069</v>
+      <c r="F27" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -10195,8 +10200,8 @@
         <f t="shared" si="0"/>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>1069</v>
+      <c r="F28" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -10207,15 +10212,15 @@
         <f>VLOOKUP(LEFT(A29,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Regional</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>673</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>Regional Shore</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>1073</v>
+      <c r="F29" s="13" t="s">
+        <v>1072</v>
       </c>
       <c r="G29" t="s">
         <v>716</v>
@@ -10261,8 +10266,8 @@
         <f t="shared" si="0"/>
         <v>Regional Axial</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>1071</v>
+      <c r="F31" s="13" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -10273,15 +10278,15 @@
         <f>VLOOKUP(LEFT(A32,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Regional</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>715</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>Regional Mid Plate</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>1072</v>
+      <c r="F32" s="13" t="s">
+        <v>1071</v>
       </c>
       <c r="G32" t="s">
         <v>716</v>
@@ -10302,8 +10307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10311,9 +10316,9 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" customWidth="1"/>
     <col min="4" max="4" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -10329,13 +10334,13 @@
       <c r="D1" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>631</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -10355,15 +10360,15 @@
       <c r="D2" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="9" t="str">
+      <c r="E2" s="8" t="str">
         <f>VLOOKUP(LEFT(A2,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="9" t="str">
-        <f>E2 &amp; IF(ISBLANK(F2),""," " &amp; F2)</f>
+      <c r="G2" s="8" t="str">
+        <f t="shared" ref="G2:G33" si="0">E2 &amp; IF(ISBLANK(F2),""," " &amp; F2)</f>
         <v>Coastal Endurance Oregon Inshore</v>
       </c>
     </row>
@@ -10380,15 +10385,15 @@
       <c r="D3" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="8" t="str">
         <f>VLOOKUP(LEFT(A3,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="9" t="str">
-        <f>E3 &amp; IF(ISBLANK(F3),""," " &amp; F3)</f>
+      <c r="G3" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Oregon Inshore</v>
       </c>
     </row>
@@ -10405,15 +10410,15 @@
       <c r="D4" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="8" t="str">
         <f>VLOOKUP(LEFT(A4,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="9" t="str">
-        <f>E4 &amp; IF(ISBLANK(F4),""," " &amp; F4)</f>
+      <c r="G4" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Oregon Shelf</v>
       </c>
     </row>
@@ -10430,15 +10435,15 @@
       <c r="D5" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="E5" s="8" t="str">
         <f>VLOOKUP(LEFT(A5,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="9" t="str">
-        <f>E5 &amp; IF(ISBLANK(F5),""," " &amp; F5)</f>
+      <c r="G5" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Oregon Shelf</v>
       </c>
     </row>
@@ -10455,15 +10460,15 @@
       <c r="D6" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="9" t="str">
+      <c r="E6" s="8" t="str">
         <f>VLOOKUP(LEFT(A6,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="9" t="str">
-        <f>E6 &amp; IF(ISBLANK(F6),""," " &amp; F6)</f>
+      <c r="G6" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Oregon Shelf</v>
       </c>
     </row>
@@ -10480,15 +10485,15 @@
       <c r="D7" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="9" t="str">
+      <c r="E7" s="8" t="str">
         <f>VLOOKUP(LEFT(A7,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="9" t="str">
-        <f>E7 &amp; IF(ISBLANK(F7),""," " &amp; F7)</f>
+      <c r="G7" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Oregon Offshore</v>
       </c>
     </row>
@@ -10505,15 +10510,15 @@
       <c r="D8" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E8" s="8" t="str">
         <f>VLOOKUP(LEFT(A8,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="9" t="str">
-        <f>E8 &amp; IF(ISBLANK(F8),""," " &amp; F8)</f>
+      <c r="G8" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Oregon Offshore</v>
       </c>
     </row>
@@ -10530,15 +10535,15 @@
       <c r="D9" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="8" t="str">
         <f>VLOOKUP(LEFT(A9,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="9" t="str">
-        <f>E9 &amp; IF(ISBLANK(F9),""," " &amp; F9)</f>
+      <c r="G9" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Oregon Offshore</v>
       </c>
     </row>
@@ -10555,15 +10560,15 @@
       <c r="D10" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="9" t="str">
+      <c r="E10" s="8" t="str">
         <f>VLOOKUP(LEFT(A10,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G10" s="9" t="str">
-        <f>E10 &amp; IF(ISBLANK(F10),""," " &amp; F10)</f>
+      <c r="F10" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G10" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Mobile Zone</v>
       </c>
     </row>
@@ -10580,15 +10585,15 @@
       <c r="D11" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="8" t="str">
         <f>VLOOKUP(LEFT(A11,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="9" t="str">
-        <f>E11 &amp; IF(ISBLANK(F11),""," " &amp; F11)</f>
+      <c r="G11" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Washington Inshore</v>
       </c>
     </row>
@@ -10605,15 +10610,15 @@
       <c r="D12" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="9" t="str">
+      <c r="E12" s="8" t="str">
         <f>VLOOKUP(LEFT(A12,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="9" t="str">
-        <f>E12 &amp; IF(ISBLANK(F12),""," " &amp; F12)</f>
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Washington Inshore</v>
       </c>
     </row>
@@ -10630,15 +10635,15 @@
       <c r="D13" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="9" t="str">
+      <c r="E13" s="8" t="str">
         <f>VLOOKUP(LEFT(A13,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="9" t="str">
-        <f>E13 &amp; IF(ISBLANK(F13),""," " &amp; F13)</f>
+      <c r="G13" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Washington Shelf</v>
       </c>
     </row>
@@ -10655,15 +10660,15 @@
       <c r="D14" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="9" t="str">
+      <c r="E14" s="8" t="str">
         <f>VLOOKUP(LEFT(A14,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="9" t="str">
-        <f>E14 &amp; IF(ISBLANK(F14),""," " &amp; F14)</f>
+      <c r="G14" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Washington Shelf</v>
       </c>
     </row>
@@ -10680,15 +10685,15 @@
       <c r="D15" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="9" t="str">
+      <c r="E15" s="8" t="str">
         <f>VLOOKUP(LEFT(A15,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="9" t="str">
-        <f>E15 &amp; IF(ISBLANK(F15),""," " &amp; F15)</f>
+      <c r="G15" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Washington Offshore</v>
       </c>
     </row>
@@ -10705,15 +10710,15 @@
       <c r="D16" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E16" s="8" t="str">
         <f>VLOOKUP(LEFT(A16,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G16" s="9" t="str">
-        <f>E16 &amp; IF(ISBLANK(F16),""," " &amp; F16)</f>
+      <c r="G16" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Endurance Washington Offshore</v>
       </c>
     </row>
@@ -10730,15 +10735,15 @@
       <c r="D17" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="9" t="str">
+      <c r="E17" s="8" t="str">
         <f>VLOOKUP(LEFT(A17,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="9" t="str">
-        <f>E17 &amp; IF(ISBLANK(F17),""," " &amp; F17)</f>
+      <c r="G17" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Pioneer Central</v>
       </c>
     </row>
@@ -10755,15 +10760,15 @@
       <c r="D18" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="9" t="str">
+      <c r="E18" s="8" t="str">
         <f>VLOOKUP(LEFT(A18,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="9" t="str">
-        <f>E18 &amp; IF(ISBLANK(F18),""," " &amp; F18)</f>
+      <c r="G18" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Pioneer Central</v>
       </c>
     </row>
@@ -10780,15 +10785,15 @@
       <c r="D19" t="s">
         <v>169</v>
       </c>
-      <c r="E19" s="9" t="str">
+      <c r="E19" s="8" t="str">
         <f>VLOOKUP(LEFT(A19,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G19" s="9" t="str">
-        <f>E19 &amp; IF(ISBLANK(F19),""," " &amp; F19)</f>
+      <c r="F19" s="12" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Pioneer Central Inshore</v>
       </c>
     </row>
@@ -10805,15 +10810,15 @@
       <c r="D20" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="9" t="str">
+      <c r="E20" s="8" t="str">
         <f>VLOOKUP(LEFT(A20,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G20" s="9" t="str">
-        <f>E20 &amp; IF(ISBLANK(F20),""," " &amp; F20)</f>
+      <c r="F20" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G20" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Pioneer Central Offshore</v>
       </c>
     </row>
@@ -10830,15 +10835,15 @@
       <c r="D21" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="9" t="str">
+      <c r="E21" s="8" t="str">
         <f>VLOOKUP(LEFT(A21,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="9" t="str">
-        <f>E21 &amp; IF(ISBLANK(F21),""," " &amp; F21)</f>
+      <c r="G21" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Pioneer Upstream Inshore</v>
       </c>
     </row>
@@ -10855,15 +10860,15 @@
       <c r="D22" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="9" t="str">
+      <c r="E22" s="8" t="str">
         <f>VLOOKUP(LEFT(A22,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G22" s="9" t="str">
-        <f>E22 &amp; IF(ISBLANK(F22),""," " &amp; F22)</f>
+      <c r="G22" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Pioneer Upstream Offshore</v>
       </c>
     </row>
@@ -10880,15 +10885,15 @@
       <c r="D23" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="9" t="str">
+      <c r="E23" s="8" t="str">
         <f>VLOOKUP(LEFT(A23,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G23" s="9" t="str">
-        <f>E23 &amp; IF(ISBLANK(F23),""," " &amp; F23)</f>
+      <c r="G23" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Pioneer Inshore</v>
       </c>
     </row>
@@ -10905,15 +10910,15 @@
       <c r="D24" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="9" t="str">
+      <c r="E24" s="8" t="str">
         <f>VLOOKUP(LEFT(A24,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G24" s="9" t="str">
-        <f>E24 &amp; IF(ISBLANK(F24),""," " &amp; F24)</f>
+      <c r="G24" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Pioneer Inshore</v>
       </c>
     </row>
@@ -10930,15 +10935,15 @@
       <c r="D25" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="9" t="str">
+      <c r="E25" s="8" t="str">
         <f>VLOOKUP(LEFT(A25,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G25" s="9" t="str">
-        <f>E25 &amp; IF(ISBLANK(F25),""," " &amp; F25)</f>
+      <c r="G25" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Pioneer Offshore</v>
       </c>
     </row>
@@ -10955,15 +10960,15 @@
       <c r="D26" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="9" t="str">
+      <c r="E26" s="8" t="str">
         <f>VLOOKUP(LEFT(A26,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G26" s="9" t="str">
-        <f>E26 &amp; IF(ISBLANK(F26),""," " &amp; F26)</f>
+      <c r="G26" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Pioneer Offshore</v>
       </c>
     </row>
@@ -10980,15 +10985,15 @@
       <c r="D27" t="s">
         <v>242</v>
       </c>
-      <c r="E27" s="9" t="str">
+      <c r="E27" s="8" t="str">
         <f>VLOOKUP(LEFT(A27,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G27" s="9" t="str">
-        <f>E27 &amp; IF(ISBLANK(F27),""," " &amp; F27)</f>
+      <c r="F27" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G27" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Coastal Pioneer Mobile Zone</v>
       </c>
     </row>
@@ -11005,15 +11010,15 @@
       <c r="D28" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="9" t="str">
+      <c r="E28" s="8" t="str">
         <f>VLOOKUP(LEFT(A28,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G28" s="9" t="str">
-        <f>E28 &amp; IF(ISBLANK(F28),""," " &amp; F28)</f>
+      <c r="G28" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Global Argentine Basin Surface</v>
       </c>
     </row>
@@ -11030,15 +11035,15 @@
       <c r="D29" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="9" t="str">
+      <c r="E29" s="8" t="str">
         <f>VLOOKUP(LEFT(A29,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G29" s="9" t="str">
-        <f>E29 &amp; IF(ISBLANK(F29),""," " &amp; F29)</f>
+      <c r="G29" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Global Argentine Basin Subsurface</v>
       </c>
     </row>
@@ -11055,15 +11060,15 @@
       <c r="D30" t="s">
         <v>200</v>
       </c>
-      <c r="E30" s="9" t="str">
+      <c r="E30" s="8" t="str">
         <f>VLOOKUP(LEFT(A30,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G30" s="9" t="str">
-        <f>E30 &amp; IF(ISBLANK(F30),""," " &amp; F30)</f>
+      <c r="F30" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G30" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Global Argentine Basin Mesoscale Flanking A</v>
       </c>
     </row>
@@ -11080,15 +11085,15 @@
       <c r="D31" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="9" t="str">
+      <c r="E31" s="8" t="str">
         <f>VLOOKUP(LEFT(A31,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G31" s="9" t="str">
-        <f>E31 &amp; IF(ISBLANK(F31),""," " &amp; F31)</f>
+      <c r="F31" s="12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G31" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Global Argentine Basin Mesoscale Flanking B</v>
       </c>
     </row>
@@ -11105,15 +11110,15 @@
       <c r="D32" t="s">
         <v>253</v>
       </c>
-      <c r="E32" s="9" t="str">
+      <c r="E32" s="8" t="str">
         <f>VLOOKUP(LEFT(A32,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G32" s="9" t="str">
-        <f>E32 &amp; IF(ISBLANK(F32),""," " &amp; F32)</f>
+      <c r="F32" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G32" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Global Argentine Basin Mobile Zone</v>
       </c>
     </row>
@@ -11130,15 +11135,15 @@
       <c r="D33" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="9" t="str">
+      <c r="E33" s="8" t="str">
         <f>VLOOKUP(LEFT(A33,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G33" s="9" t="str">
-        <f>E33 &amp; IF(ISBLANK(F33),""," " &amp; F33)</f>
+      <c r="G33" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Global Irminger Sea Surface</v>
       </c>
     </row>
@@ -11155,15 +11160,15 @@
       <c r="D34" t="s">
         <v>210</v>
       </c>
-      <c r="E34" s="9" t="str">
+      <c r="E34" s="8" t="str">
         <f>VLOOKUP(LEFT(A34,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G34" s="9" t="str">
-        <f>E34 &amp; IF(ISBLANK(F34),""," " &amp; F34)</f>
+      <c r="G34" s="8" t="str">
+        <f t="shared" ref="G34:G65" si="1">E34 &amp; IF(ISBLANK(F34),""," " &amp; F34)</f>
         <v>Global Irminger Sea Subsurface</v>
       </c>
     </row>
@@ -11180,15 +11185,15 @@
       <c r="D35" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="9" t="str">
+      <c r="E35" s="8" t="str">
         <f>VLOOKUP(LEFT(A35,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G35" s="9" t="str">
-        <f>E35 &amp; IF(ISBLANK(F35),""," " &amp; F35)</f>
+      <c r="F35" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G35" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Irminger Sea Mesoscale Flanking A</v>
       </c>
     </row>
@@ -11205,15 +11210,15 @@
       <c r="D36" t="s">
         <v>214</v>
       </c>
-      <c r="E36" s="9" t="str">
+      <c r="E36" s="8" t="str">
         <f>VLOOKUP(LEFT(A36,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G36" s="9" t="str">
-        <f>E36 &amp; IF(ISBLANK(F36),""," " &amp; F36)</f>
+      <c r="F36" s="12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G36" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Irminger Sea Mesoscale Flanking B</v>
       </c>
     </row>
@@ -11230,15 +11235,15 @@
       <c r="D37" t="s">
         <v>261</v>
       </c>
-      <c r="E37" s="9" t="str">
+      <c r="E37" s="8" t="str">
         <f>VLOOKUP(LEFT(A37,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G37" s="9" t="str">
-        <f>E37 &amp; IF(ISBLANK(F37),""," " &amp; F37)</f>
+      <c r="F37" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G37" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Irminger Sea Mobile Zone</v>
       </c>
     </row>
@@ -11255,15 +11260,15 @@
       <c r="D38" t="s">
         <v>216</v>
       </c>
-      <c r="E38" s="9" t="str">
+      <c r="E38" s="8" t="str">
         <f>VLOOKUP(LEFT(A38,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G38" s="9" t="str">
-        <f>E38 &amp; IF(ISBLANK(F38),""," " &amp; F38)</f>
+      <c r="G38" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Station Papa Subsurface</v>
       </c>
     </row>
@@ -11280,15 +11285,15 @@
       <c r="D39" t="s">
         <v>219</v>
       </c>
-      <c r="E39" s="9" t="str">
+      <c r="E39" s="8" t="str">
         <f>VLOOKUP(LEFT(A39,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G39" s="9" t="str">
-        <f>E39 &amp; IF(ISBLANK(F39),""," " &amp; F39)</f>
+      <c r="F39" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G39" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Station Papa Mesoscale Flanking A</v>
       </c>
     </row>
@@ -11305,15 +11310,15 @@
       <c r="D40" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="9" t="str">
+      <c r="E40" s="8" t="str">
         <f>VLOOKUP(LEFT(A40,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G40" s="9" t="str">
-        <f>E40 &amp; IF(ISBLANK(F40),""," " &amp; F40)</f>
+      <c r="F40" s="12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G40" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Station Papa Mesoscale Flanking B</v>
       </c>
     </row>
@@ -11330,15 +11335,15 @@
       <c r="D41" t="s">
         <v>266</v>
       </c>
-      <c r="E41" s="9" t="str">
+      <c r="E41" s="8" t="str">
         <f>VLOOKUP(LEFT(A41,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G41" s="9" t="str">
-        <f>E41 &amp; IF(ISBLANK(F41),""," " &amp; F41)</f>
+      <c r="F41" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G41" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Station Papa Mobile Zone</v>
       </c>
     </row>
@@ -11355,15 +11360,15 @@
       <c r="D42" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="9" t="str">
+      <c r="E42" s="8" t="str">
         <f>VLOOKUP(LEFT(A42,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G42" s="9" t="str">
-        <f>E42 &amp; IF(ISBLANK(F42),""," " &amp; F42)</f>
+      <c r="G42" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Southern Ocean Surface</v>
       </c>
     </row>
@@ -11380,15 +11385,15 @@
       <c r="D43" t="s">
         <v>226</v>
       </c>
-      <c r="E43" s="9" t="str">
+      <c r="E43" s="8" t="str">
         <f>VLOOKUP(LEFT(A43,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G43" s="9" t="str">
-        <f>E43 &amp; IF(ISBLANK(F43),""," " &amp; F43)</f>
+      <c r="G43" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Southern Ocean Subsurface</v>
       </c>
     </row>
@@ -11405,15 +11410,15 @@
       <c r="D44" t="s">
         <v>228</v>
       </c>
-      <c r="E44" s="9" t="str">
+      <c r="E44" s="8" t="str">
         <f>VLOOKUP(LEFT(A44,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G44" s="9" t="str">
-        <f>E44 &amp; IF(ISBLANK(F44),""," " &amp; F44)</f>
+      <c r="F44" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G44" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Southern Ocean Mesoscale Flanking A</v>
       </c>
     </row>
@@ -11430,15 +11435,15 @@
       <c r="D45" t="s">
         <v>230</v>
       </c>
-      <c r="E45" s="9" t="str">
+      <c r="E45" s="8" t="str">
         <f>VLOOKUP(LEFT(A45,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G45" s="9" t="str">
-        <f>E45 &amp; IF(ISBLANK(F45),""," " &amp; F45)</f>
+      <c r="F45" s="12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G45" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Southern Ocean Mesoscale Flanking B</v>
       </c>
     </row>
@@ -11455,37 +11460,37 @@
       <c r="D46" t="s">
         <v>271</v>
       </c>
-      <c r="E46" s="9" t="str">
+      <c r="E46" s="8" t="str">
         <f>VLOOKUP(LEFT(A46,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G46" s="9" t="str">
-        <f>E46 &amp; IF(ISBLANK(F46),""," " &amp; F46)</f>
+      <c r="F46" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G46" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Global Southern Ocean Mobile Zone</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B47" t="s">
         <v>1089</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E47" s="9" t="str">
+      <c r="E47" s="8" t="str">
         <f>VLOOKUP(LEFT(A47,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Shore</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G47" s="9" t="str">
-        <f>E47 &amp; IF(ISBLANK(F47),""," " &amp; F47)</f>
+      <c r="F47" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G47" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Shore Pacific City</v>
       </c>
       <c r="H47" t="s">
@@ -11505,15 +11510,15 @@
       <c r="D48" t="s">
         <v>284</v>
       </c>
-      <c r="E48" s="9" t="str">
+      <c r="E48" s="8" t="str">
         <f>VLOOKUP(LEFT(A48,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Hydrate Ridge</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="G48" s="9" t="str">
-        <f>E48 &amp; IF(ISBLANK(F48),""," " &amp; F48)</f>
+      <c r="G48" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Hydrate Ridge Slope Base</v>
       </c>
     </row>
@@ -11530,15 +11535,15 @@
       <c r="D49" t="s">
         <v>289</v>
       </c>
-      <c r="E49" s="9" t="str">
+      <c r="E49" s="8" t="str">
         <f>VLOOKUP(LEFT(A49,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Hydrate Ridge</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="G49" s="9" t="str">
-        <f>E49 &amp; IF(ISBLANK(F49),""," " &amp; F49)</f>
+      <c r="G49" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Hydrate Ridge Slope Base</v>
       </c>
     </row>
@@ -11555,15 +11560,15 @@
       <c r="D50" t="s">
         <v>293</v>
       </c>
-      <c r="E50" s="9" t="str">
+      <c r="E50" s="8" t="str">
         <f>VLOOKUP(LEFT(A50,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Hydrate Ridge</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G50" s="9" t="str">
-        <f>E50 &amp; IF(ISBLANK(F50),""," " &amp; F50)</f>
+      <c r="F50" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G50" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Hydrate Ridge Southern Summit</v>
       </c>
     </row>
@@ -11580,15 +11585,15 @@
       <c r="D51" t="s">
         <v>295</v>
       </c>
-      <c r="E51" s="9" t="str">
+      <c r="E51" s="8" t="str">
         <f>VLOOKUP(LEFT(A51,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Hydrate Ridge</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G51" s="9" t="str">
-        <f>E51 &amp; IF(ISBLANK(F51),""," " &amp; F51)</f>
+      <c r="F51" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G51" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Hydrate Ridge Southern Summit</v>
       </c>
     </row>
@@ -11605,15 +11610,15 @@
       <c r="D52" t="s">
         <v>297</v>
       </c>
-      <c r="E52" s="9" t="str">
+      <c r="E52" s="8" t="str">
         <f>VLOOKUP(LEFT(A52,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Axial</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G52" s="9" t="str">
-        <f>E52 &amp; IF(ISBLANK(F52),""," " &amp; F52)</f>
+      <c r="G52" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Axial Ashes</v>
       </c>
     </row>
@@ -11630,15 +11635,15 @@
       <c r="D53" t="s">
         <v>301</v>
       </c>
-      <c r="E53" s="9" t="str">
+      <c r="E53" s="8" t="str">
         <f>VLOOKUP(LEFT(A53,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Axial</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G53" s="9" t="str">
-        <f>E53 &amp; IF(ISBLANK(F53),""," " &amp; F53)</f>
+      <c r="F53" s="12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G53" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Axial Base</v>
       </c>
     </row>
@@ -11655,15 +11660,15 @@
       <c r="D54" t="s">
         <v>303</v>
       </c>
-      <c r="E54" s="9" t="str">
+      <c r="E54" s="8" t="str">
         <f>VLOOKUP(LEFT(A54,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Axial</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G54" s="9" t="str">
-        <f>E54 &amp; IF(ISBLANK(F54),""," " &amp; F54)</f>
+      <c r="F54" s="12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G54" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Axial Base</v>
       </c>
     </row>
@@ -11680,15 +11685,15 @@
       <c r="D55" t="s">
         <v>305</v>
       </c>
-      <c r="E55" s="9" t="str">
+      <c r="E55" s="8" t="str">
         <f>VLOOKUP(LEFT(A55,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Axial</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="G55" s="9" t="str">
-        <f>E55 &amp; IF(ISBLANK(F55),""," " &amp; F55)</f>
+      <c r="G55" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Axial Central Caldera</v>
       </c>
     </row>
@@ -11705,15 +11710,15 @@
       <c r="D56" t="s">
         <v>307</v>
       </c>
-      <c r="E56" s="9" t="str">
+      <c r="E56" s="8" t="str">
         <f>VLOOKUP(LEFT(A56,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Axial</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="G56" s="9" t="str">
-        <f>E56 &amp; IF(ISBLANK(F56),""," " &amp; F56)</f>
+      <c r="G56" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Axial Eastern Caldera</v>
       </c>
     </row>
@@ -11730,15 +11735,15 @@
       <c r="D57" t="s">
         <v>309</v>
       </c>
-      <c r="E57" s="9" t="str">
+      <c r="E57" s="8" t="str">
         <f>VLOOKUP(LEFT(A57,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Axial</v>
       </c>
-      <c r="F57" s="13" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G57" s="9" t="str">
-        <f>E57 &amp; IF(ISBLANK(F57),""," " &amp; F57)</f>
+      <c r="F57" s="12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G57" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Axial International District</v>
       </c>
     </row>
@@ -11755,15 +11760,15 @@
       <c r="D58" t="s">
         <v>311</v>
       </c>
-      <c r="E58" s="9" t="str">
+      <c r="E58" s="8" t="str">
         <f>VLOOKUP(LEFT(A58,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Axial</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G58" s="9" t="str">
-        <f>E58 &amp; IF(ISBLANK(F58),""," " &amp; F58)</f>
+      <c r="F58" s="12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G58" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Axial International District</v>
       </c>
     </row>
@@ -11777,13 +11782,13 @@
       <c r="C59" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E59" s="9" t="str">
+      <c r="E59" s="8" t="str">
         <f>VLOOKUP(LEFT(A59,4),Sites!$A$2:$E$32,5,FALSE)</f>
         <v>Regional Mid Plate</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="9" t="str">
-        <f>E59 &amp; IF(ISBLANK(F59),""," " &amp; F59)</f>
+      <c r="F59" s="12"/>
+      <c r="G59" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Regional Mid Plate</v>
       </c>
       <c r="H59" t="s">
@@ -11808,103 +11813,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="I183" sqref="I183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.5" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="34.5" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="37.5" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
     <col min="15" max="15" width="6.83203125" customWidth="1"/>
     <col min="16" max="16" width="6.5" customWidth="1"/>
     <col min="17" max="17" width="28.83203125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="22" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="22" customWidth="1"/>
-    <col min="20" max="20" width="15.83203125" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="20" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="20" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
     <col min="22" max="22" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" s="32" customFormat="1">
+      <c r="A1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Q1" s="30" t="s">
         <v>633</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="31" t="s">
         <v>722</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="U1" s="25" t="s">
+      <c r="T1" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="U1" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="V1" s="15" t="s">
-        <v>1103</v>
-      </c>
-      <c r="W1" s="25" t="s">
+      <c r="V1" s="14" t="s">
+        <v>1102</v>
+      </c>
+      <c r="W1" s="23" t="s">
         <v>719</v>
       </c>
     </row>
@@ -11915,7 +11920,7 @@
       <c r="B2" t="s">
         <v>825</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="25">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -11953,14 +11958,14 @@
       <c r="O2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="16">
         <v>41572</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="16">
         <v>41575</v>
       </c>
       <c r="T2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -12009,14 +12014,14 @@
       <c r="O3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="16">
         <v>41572</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="16">
         <v>41575</v>
       </c>
       <c r="T3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -12065,14 +12070,14 @@
       <c r="O4" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="16">
         <v>41572</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="16">
         <v>41575</v>
       </c>
       <c r="T4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -12121,14 +12126,14 @@
       <c r="O5" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="16">
         <v>41572</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="16">
         <v>41575</v>
       </c>
       <c r="T5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -12177,14 +12182,14 @@
       <c r="O6" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="16">
         <v>41572</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="16">
         <v>41575</v>
       </c>
       <c r="T6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -12233,14 +12238,14 @@
       <c r="O7" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="16">
         <v>41572</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="16">
         <v>41575</v>
       </c>
       <c r="T7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -12250,7 +12255,7 @@
       <c r="B8" t="s">
         <v>825</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="25">
         <v>1</v>
       </c>
       <c r="D8" t="s">
@@ -12288,8 +12293,8 @@
       <c r="O8" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
@@ -12337,8 +12342,8 @@
       <c r="O9" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
@@ -12347,7 +12352,7 @@
       <c r="B10" t="s">
         <v>825</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="25">
         <v>1</v>
       </c>
       <c r="D10" t="s">
@@ -12388,14 +12393,14 @@
       <c r="O10" t="s">
         <v>7</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="17">
         <v>41487</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="17">
         <v>41151</v>
       </c>
       <c r="T10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -12405,16 +12410,16 @@
       <c r="B11" t="s">
         <v>825</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="25">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G11" s="16" t="str">
+        <v>1082</v>
+      </c>
+      <c r="G11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>PN</v>
       </c>
@@ -12450,13 +12455,13 @@
       <c r="P11" t="s">
         <v>635</v>
       </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
       <c r="U11" s="3" t="s">
         <v>843</v>
       </c>
       <c r="V11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>844</v>
@@ -12472,7 +12477,7 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>LJ</v>
       </c>
@@ -12508,15 +12513,15 @@
       <c r="P12" t="s">
         <v>635</v>
       </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="19">
+      <c r="Q12" s="27"/>
+      <c r="R12" s="17">
         <v>41487</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="17">
         <v>41151</v>
       </c>
       <c r="T12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>439</v>
@@ -12538,7 +12543,7 @@
       <c r="F13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MJ</v>
       </c>
@@ -12574,20 +12579,20 @@
       <c r="P13" t="s">
         <v>635</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="17">
         <v>41487</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S13" s="17">
         <v>41151</v>
       </c>
       <c r="T13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>442</v>
@@ -12600,7 +12605,7 @@
       <c r="B14" t="s">
         <v>825</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="25">
         <v>1</v>
       </c>
       <c r="D14" t="s">
@@ -12641,8 +12646,8 @@
       <c r="O14" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
@@ -12690,8 +12695,8 @@
       <c r="O15" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
@@ -12739,8 +12744,8 @@
       <c r="O16" t="s">
         <v>7</v>
       </c>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
@@ -12788,8 +12793,8 @@
       <c r="O17" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
@@ -12798,7 +12803,7 @@
       <c r="B18" t="s">
         <v>825</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="25">
         <v>1</v>
       </c>
       <c r="D18" t="s">
@@ -12839,8 +12844,8 @@
       <c r="O18" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
@@ -12888,8 +12893,8 @@
       <c r="O19" t="s">
         <v>7</v>
       </c>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
@@ -12898,7 +12903,7 @@
       <c r="B20" t="s">
         <v>825</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="25">
         <v>1</v>
       </c>
       <c r="D20" t="s">
@@ -12939,14 +12944,14 @@
       <c r="O20" t="s">
         <v>7</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R20" s="17">
         <v>41487</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S20" s="17">
         <v>41151</v>
       </c>
       <c r="T20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -12962,7 +12967,7 @@
       <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>LJ</v>
       </c>
@@ -12998,23 +13003,23 @@
       <c r="P21" t="s">
         <v>635</v>
       </c>
-      <c r="Q21" s="30" t="s">
-        <v>1087</v>
-      </c>
-      <c r="R21" s="19">
+      <c r="Q21" s="27" t="s">
+        <v>1086</v>
+      </c>
+      <c r="R21" s="17">
         <v>41487</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="17">
         <v>41151</v>
       </c>
       <c r="T21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V21" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>450</v>
@@ -13027,16 +13032,16 @@
       <c r="B22" t="s">
         <v>825</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="25">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F22" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G22" s="16" t="str">
+        <v>1079</v>
+      </c>
+      <c r="G22" s="15" t="str">
         <f t="shared" ref="G22:G23" si="4">MID(D22,10,2)</f>
         <v>PN</v>
       </c>
@@ -13072,13 +13077,13 @@
       <c r="P22" t="s">
         <v>635</v>
       </c>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
       <c r="U22" s="3" t="s">
         <v>843</v>
       </c>
       <c r="V22" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>844</v>
@@ -13091,16 +13096,16 @@
       <c r="B23" t="s">
         <v>825</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="25">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F23" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G23" s="16" t="str">
+        <v>1076</v>
+      </c>
+      <c r="G23" s="15" t="str">
         <f t="shared" si="4"/>
         <v>LV</v>
       </c>
@@ -13136,13 +13141,13 @@
       <c r="P23" t="s">
         <v>635</v>
       </c>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
       <c r="U23" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V23" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>442</v>
@@ -13152,7 +13157,7 @@
       <c r="A24" t="s">
         <v>277</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="25">
         <v>1</v>
       </c>
       <c r="D24" t="s">
@@ -13164,7 +13169,7 @@
       <c r="F24" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>DP</v>
       </c>
@@ -13200,14 +13205,14 @@
       <c r="P24" t="s">
         <v>635</v>
       </c>
-      <c r="Q24" s="30" t="s">
-        <v>1111</v>
-      </c>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
+      <c r="Q24" s="27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
       <c r="U24" s="3"/>
       <c r="V24" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="W24" s="3"/>
     </row>
@@ -13215,7 +13220,7 @@
       <c r="A25" t="s">
         <v>277</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
@@ -13227,7 +13232,7 @@
       <c r="F25" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>PC</v>
       </c>
@@ -13263,13 +13268,13 @@
       <c r="P25" t="s">
         <v>635</v>
       </c>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
       <c r="U25" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V25" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>442</v>
@@ -13283,7 +13288,7 @@
         <v>825</v>
       </c>
       <c r="D26" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E26" t="s">
         <v>65</v>
@@ -13291,7 +13296,7 @@
       <c r="F26" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="15" t="str">
         <f t="shared" ref="G26" si="9">MID(D26,10,2)</f>
         <v>SC</v>
       </c>
@@ -13327,8 +13332,8 @@
       <c r="P26" t="s">
         <v>635</v>
       </c>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
       <c r="U26" s="3" t="s">
         <v>439</v>
       </c>
@@ -13352,7 +13357,7 @@
       <c r="F27" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="16" t="str">
+      <c r="G27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>SF</v>
       </c>
@@ -13388,14 +13393,14 @@
       <c r="P27" t="s">
         <v>635</v>
       </c>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
       <c r="U27" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V27" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>446</v>
@@ -13408,7 +13413,7 @@
       <c r="B28" t="s">
         <v>825</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="25">
         <v>1</v>
       </c>
       <c r="D28" t="s">
@@ -13449,8 +13454,8 @@
       <c r="O28" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
@@ -13498,8 +13503,8 @@
       <c r="O29" t="s">
         <v>7</v>
       </c>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
@@ -13547,8 +13552,8 @@
       <c r="O30" t="s">
         <v>7</v>
       </c>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
@@ -13596,15 +13601,15 @@
       <c r="O31" t="s">
         <v>7</v>
       </c>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>234</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="28">
+      <c r="C32" s="25">
         <v>1</v>
       </c>
       <c r="D32" t="s">
@@ -13646,15 +13651,15 @@
       <c r="O32" t="s">
         <v>7</v>
       </c>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>234</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="28">
+      <c r="C33" s="25">
         <v>1</v>
       </c>
       <c r="D33" t="s">
@@ -13696,15 +13701,15 @@
       <c r="O33" t="s">
         <v>7</v>
       </c>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>234</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="28">
+      <c r="C34" s="25">
         <v>1</v>
       </c>
       <c r="D34" t="s">
@@ -13746,15 +13751,15 @@
       <c r="O34" t="s">
         <v>7</v>
       </c>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>234</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="28">
+      <c r="C35" s="25">
         <v>1</v>
       </c>
       <c r="D35" t="s">
@@ -13796,15 +13801,15 @@
       <c r="O35" t="s">
         <v>7</v>
       </c>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>234</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="28">
+      <c r="C36" s="25">
         <v>1</v>
       </c>
       <c r="D36" t="s">
@@ -13846,15 +13851,15 @@
       <c r="O36" t="s">
         <v>7</v>
       </c>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>234</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="28">
+      <c r="C37" s="25">
         <v>1</v>
       </c>
       <c r="D37" t="s">
@@ -13896,8 +13901,8 @@
       <c r="O37" t="s">
         <v>7</v>
       </c>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
@@ -13906,7 +13911,7 @@
       <c r="B38" t="s">
         <v>825</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="25">
         <v>1</v>
       </c>
       <c r="D38" t="s">
@@ -13947,8 +13952,8 @@
       <c r="O38" t="s">
         <v>7</v>
       </c>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
@@ -13996,8 +14001,8 @@
       <c r="O39" t="s">
         <v>7</v>
       </c>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
@@ -14045,8 +14050,8 @@
       <c r="O40" t="s">
         <v>7</v>
       </c>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
@@ -14094,8 +14099,8 @@
       <c r="O41" t="s">
         <v>7</v>
       </c>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
@@ -14143,8 +14148,8 @@
       <c r="O42" t="s">
         <v>7</v>
       </c>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
@@ -14192,8 +14197,8 @@
       <c r="O43" t="s">
         <v>7</v>
       </c>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
@@ -14202,7 +14207,7 @@
       <c r="B44" t="s">
         <v>825</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="25">
         <v>1</v>
       </c>
       <c r="D44" t="s">
@@ -14243,8 +14248,8 @@
       <c r="O44" t="s">
         <v>7</v>
       </c>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
@@ -14292,8 +14297,8 @@
       <c r="O45" t="s">
         <v>7</v>
       </c>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
@@ -14302,7 +14307,7 @@
       <c r="B46" t="s">
         <v>825</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="25">
         <v>1</v>
       </c>
       <c r="D46" t="s">
@@ -14343,8 +14348,8 @@
       <c r="O46" t="s">
         <v>7</v>
       </c>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
@@ -14392,8 +14397,8 @@
       <c r="O47" t="s">
         <v>7</v>
       </c>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
@@ -14441,8 +14446,8 @@
       <c r="O48" t="s">
         <v>7</v>
       </c>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
@@ -14490,8 +14495,8 @@
       <c r="O49" t="s">
         <v>7</v>
       </c>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
@@ -14539,8 +14544,8 @@
       <c r="O50" t="s">
         <v>7</v>
       </c>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" t="s">
@@ -14588,8 +14593,8 @@
       <c r="O51" t="s">
         <v>7</v>
       </c>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" t="s">
@@ -14598,7 +14603,7 @@
       <c r="B52" t="s">
         <v>825</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="25">
         <v>1</v>
       </c>
       <c r="D52" t="s">
@@ -14639,14 +14644,14 @@
       <c r="O52" t="s">
         <v>7</v>
       </c>
-      <c r="R52" s="18">
+      <c r="R52" s="16">
         <v>41572</v>
       </c>
-      <c r="S52" s="18">
+      <c r="S52" s="16">
         <v>41575</v>
       </c>
       <c r="T52" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -14695,21 +14700,21 @@
       <c r="O53" t="s">
         <v>7</v>
       </c>
-      <c r="R53" s="18">
+      <c r="R53" s="16">
         <v>41572</v>
       </c>
-      <c r="S53" s="18">
+      <c r="S53" s="16">
         <v>41575</v>
       </c>
       <c r="T53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="25">
         <v>1</v>
       </c>
       <c r="D54" t="s">
@@ -14753,14 +14758,14 @@
       <c r="Q54" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="R54" s="18">
+      <c r="R54" s="16">
         <v>41572</v>
       </c>
-      <c r="S54" s="18">
+      <c r="S54" s="16">
         <v>41575</v>
       </c>
       <c r="T54" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -14770,7 +14775,7 @@
       <c r="B55" t="s">
         <v>825</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="25">
         <v>1</v>
       </c>
       <c r="D55" t="s">
@@ -14811,8 +14816,8 @@
       <c r="O55" t="s">
         <v>7</v>
       </c>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
@@ -14860,8 +14865,8 @@
       <c r="O56" t="s">
         <v>7</v>
       </c>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
@@ -14909,8 +14914,8 @@
       <c r="O57" t="s">
         <v>7</v>
       </c>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" t="s">
@@ -14958,8 +14963,8 @@
       <c r="O58" t="s">
         <v>7</v>
       </c>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" t="s">
@@ -15007,8 +15012,8 @@
       <c r="O59" t="s">
         <v>7</v>
       </c>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
@@ -15056,8 +15061,8 @@
       <c r="O60" t="s">
         <v>7</v>
       </c>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
@@ -15066,7 +15071,7 @@
       <c r="B61" t="s">
         <v>825</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="25">
         <v>1</v>
       </c>
       <c r="D61" t="s">
@@ -15107,14 +15112,14 @@
       <c r="O61" t="s">
         <v>27</v>
       </c>
-      <c r="R61" s="20">
+      <c r="R61" s="18">
         <v>41600</v>
       </c>
-      <c r="S61" s="21">
+      <c r="S61" s="19">
         <v>41613</v>
       </c>
       <c r="T61" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -15163,14 +15168,14 @@
       <c r="O62" t="s">
         <v>27</v>
       </c>
-      <c r="R62" s="20">
+      <c r="R62" s="18">
         <v>41600</v>
       </c>
-      <c r="S62" s="21">
+      <c r="S62" s="19">
         <v>41613</v>
       </c>
       <c r="T62" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -15219,14 +15224,14 @@
       <c r="O63" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="20">
+      <c r="R63" s="18">
         <v>41600</v>
       </c>
-      <c r="S63" s="21">
+      <c r="S63" s="19">
         <v>41613</v>
       </c>
       <c r="T63" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -15275,14 +15280,14 @@
       <c r="O64" t="s">
         <v>27</v>
       </c>
-      <c r="R64" s="20">
+      <c r="R64" s="18">
         <v>41600</v>
       </c>
-      <c r="S64" s="21">
+      <c r="S64" s="19">
         <v>41613</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -15331,14 +15336,14 @@
       <c r="O65" t="s">
         <v>27</v>
       </c>
-      <c r="R65" s="20">
+      <c r="R65" s="18">
         <v>41600</v>
       </c>
-      <c r="S65" s="21">
+      <c r="S65" s="19">
         <v>41613</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -15387,8 +15392,8 @@
       <c r="O66" t="s">
         <v>27</v>
       </c>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
@@ -15397,7 +15402,7 @@
       <c r="B67" t="s">
         <v>825</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C67" s="25">
         <v>1</v>
       </c>
       <c r="D67" t="s">
@@ -15438,8 +15443,8 @@
       <c r="O67" t="s">
         <v>27</v>
       </c>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
@@ -15487,14 +15492,14 @@
       <c r="O68" t="s">
         <v>27</v>
       </c>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>170</v>
       </c>
-      <c r="C69" s="28">
+      <c r="C69" s="25">
         <v>1</v>
       </c>
       <c r="D69" t="s">
@@ -15538,14 +15543,14 @@
       <c r="Q69" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="R69" s="20">
+      <c r="R69" s="18">
         <v>41600</v>
       </c>
-      <c r="S69" s="21">
+      <c r="S69" s="19">
         <v>41613</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -15597,21 +15602,21 @@
       <c r="Q70" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="R70" s="20">
+      <c r="R70" s="18">
         <v>41600</v>
       </c>
-      <c r="S70" s="21">
+      <c r="S70" s="19">
         <v>41613</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>172</v>
       </c>
-      <c r="C71" s="28">
+      <c r="C71" s="25">
         <v>1</v>
       </c>
       <c r="D71" t="s">
@@ -15655,14 +15660,14 @@
       <c r="Q71" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="R71" s="20">
+      <c r="R71" s="18">
         <v>41600</v>
       </c>
-      <c r="S71" s="21">
+      <c r="S71" s="19">
         <v>41613</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -15714,21 +15719,21 @@
       <c r="Q72" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="R72" s="20">
+      <c r="R72" s="18">
         <v>41600</v>
       </c>
-      <c r="S72" s="21">
+      <c r="S72" s="19">
         <v>41613</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="28">
+      <c r="C73" s="25">
         <v>1</v>
       </c>
       <c r="D73" t="s">
@@ -15772,14 +15777,14 @@
       <c r="Q73" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="R73" s="20">
+      <c r="R73" s="18">
         <v>41600</v>
       </c>
-      <c r="S73" s="21">
+      <c r="S73" s="19">
         <v>41613</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -15831,21 +15836,21 @@
       <c r="Q74" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="R74" s="20">
+      <c r="R74" s="18">
         <v>41600</v>
       </c>
-      <c r="S74" s="21">
+      <c r="S74" s="19">
         <v>41613</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>177</v>
       </c>
-      <c r="C75" s="28">
+      <c r="C75" s="25">
         <v>1</v>
       </c>
       <c r="D75" t="s">
@@ -15889,14 +15894,14 @@
       <c r="Q75" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="R75" s="20">
+      <c r="R75" s="18">
         <v>41600</v>
       </c>
-      <c r="S75" s="21">
+      <c r="S75" s="19">
         <v>41613</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -15948,14 +15953,14 @@
       <c r="Q76" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="R76" s="20">
+      <c r="R76" s="18">
         <v>41600</v>
       </c>
-      <c r="S76" s="21">
+      <c r="S76" s="19">
         <v>41613</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -15965,7 +15970,7 @@
       <c r="B77" t="s">
         <v>825</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="25">
         <v>1</v>
       </c>
       <c r="D77" t="s">
@@ -16006,8 +16011,8 @@
       <c r="O77" t="s">
         <v>27</v>
       </c>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
@@ -16055,8 +16060,8 @@
       <c r="O78" t="s">
         <v>27</v>
       </c>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
@@ -16104,8 +16109,8 @@
       <c r="O79" t="s">
         <v>27</v>
       </c>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
@@ -16153,8 +16158,8 @@
       <c r="O80" t="s">
         <v>27</v>
       </c>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" t="s">
@@ -16202,8 +16207,8 @@
       <c r="O81" t="s">
         <v>27</v>
       </c>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" t="s">
@@ -16251,8 +16256,8 @@
       <c r="O82" t="s">
         <v>27</v>
       </c>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" t="s">
@@ -16261,7 +16266,7 @@
       <c r="B83" t="s">
         <v>825</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C83" s="25">
         <v>1</v>
       </c>
       <c r="D83" t="s">
@@ -16302,8 +16307,8 @@
       <c r="O83" t="s">
         <v>27</v>
       </c>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" t="s">
@@ -16351,14 +16356,14 @@
       <c r="O84" t="s">
         <v>27</v>
       </c>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="28">
+      <c r="C85" s="25">
         <v>1</v>
       </c>
       <c r="D85" t="s">
@@ -16402,14 +16407,14 @@
       <c r="Q85" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="R85" s="20">
+      <c r="R85" s="18">
         <v>41600</v>
       </c>
-      <c r="S85" s="21">
+      <c r="S85" s="19">
         <v>41613</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -16419,7 +16424,7 @@
       <c r="B86" t="s">
         <v>825</v>
       </c>
-      <c r="C86" s="28">
+      <c r="C86" s="25">
         <v>1</v>
       </c>
       <c r="D86" t="s">
@@ -16460,8 +16465,8 @@
       <c r="O86" t="s">
         <v>27</v>
       </c>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
@@ -16509,8 +16514,8 @@
       <c r="O87" t="s">
         <v>27</v>
       </c>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
@@ -16558,8 +16563,8 @@
       <c r="O88" t="s">
         <v>27</v>
       </c>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
@@ -16607,8 +16612,8 @@
       <c r="O89" t="s">
         <v>27</v>
       </c>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
@@ -16656,8 +16661,8 @@
       <c r="O90" t="s">
         <v>27</v>
       </c>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
@@ -16705,14 +16710,14 @@
       <c r="O91" t="s">
         <v>27</v>
       </c>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>243</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C92" s="25">
         <v>1</v>
       </c>
       <c r="D92" t="s">
@@ -16757,21 +16762,21 @@
       <c r="O92" t="s">
         <v>27</v>
       </c>
-      <c r="R92" s="20">
+      <c r="R92" s="18">
         <v>41600</v>
       </c>
-      <c r="S92" s="21">
+      <c r="S92" s="19">
         <v>41613</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>243</v>
       </c>
-      <c r="C93" s="28">
+      <c r="C93" s="25">
         <v>1</v>
       </c>
       <c r="D93" t="s">
@@ -16816,21 +16821,21 @@
       <c r="O93" t="s">
         <v>27</v>
       </c>
-      <c r="R93" s="20">
+      <c r="R93" s="18">
         <v>41600</v>
       </c>
-      <c r="S93" s="21">
+      <c r="S93" s="19">
         <v>41613</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>243</v>
       </c>
-      <c r="C94" s="28">
+      <c r="C94" s="25">
         <v>1</v>
       </c>
       <c r="D94" t="s">
@@ -16875,21 +16880,21 @@
       <c r="O94" t="s">
         <v>27</v>
       </c>
-      <c r="R94" s="20">
+      <c r="R94" s="18">
         <v>41600</v>
       </c>
-      <c r="S94" s="21">
+      <c r="S94" s="19">
         <v>41613</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>243</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C95" s="25">
         <v>1</v>
       </c>
       <c r="D95" t="s">
@@ -16931,21 +16936,21 @@
       <c r="O95" t="s">
         <v>27</v>
       </c>
-      <c r="R95" s="20">
+      <c r="R95" s="18">
         <v>41600</v>
       </c>
-      <c r="S95" s="21">
+      <c r="S95" s="19">
         <v>41613</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="28">
+      <c r="C96" s="25">
         <v>1</v>
       </c>
       <c r="D96" t="s">
@@ -16987,21 +16992,21 @@
       <c r="O96" t="s">
         <v>27</v>
       </c>
-      <c r="R96" s="20">
+      <c r="R96" s="18">
         <v>41600</v>
       </c>
-      <c r="S96" s="21">
+      <c r="S96" s="19">
         <v>41613</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C97" s="25">
         <v>1</v>
       </c>
       <c r="D97" t="s">
@@ -17043,21 +17048,21 @@
       <c r="O97" t="s">
         <v>27</v>
       </c>
-      <c r="R97" s="20">
+      <c r="R97" s="18">
         <v>41600</v>
       </c>
-      <c r="S97" s="21">
+      <c r="S97" s="19">
         <v>41613</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>243</v>
       </c>
-      <c r="C98" s="28">
+      <c r="C98" s="25">
         <v>1</v>
       </c>
       <c r="D98" t="s">
@@ -17099,21 +17104,21 @@
       <c r="O98" t="s">
         <v>27</v>
       </c>
-      <c r="R98" s="20">
+      <c r="R98" s="18">
         <v>41600</v>
       </c>
-      <c r="S98" s="21">
+      <c r="S98" s="19">
         <v>41613</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>243</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C99" s="25">
         <v>1</v>
       </c>
       <c r="D99" t="s">
@@ -17155,21 +17160,21 @@
       <c r="O99" t="s">
         <v>27</v>
       </c>
-      <c r="R99" s="20">
+      <c r="R99" s="18">
         <v>41600</v>
       </c>
-      <c r="S99" s="21">
+      <c r="S99" s="19">
         <v>41613</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>243</v>
       </c>
-      <c r="C100" s="28">
+      <c r="C100" s="25">
         <v>1</v>
       </c>
       <c r="D100" t="s">
@@ -17211,14 +17216,14 @@
       <c r="O100" t="s">
         <v>27</v>
       </c>
-      <c r="R100" s="20">
+      <c r="R100" s="18">
         <v>41600</v>
       </c>
-      <c r="S100" s="21">
+      <c r="S100" s="19">
         <v>41613</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -17228,7 +17233,7 @@
       <c r="B101" t="s">
         <v>825</v>
       </c>
-      <c r="C101" s="28">
+      <c r="C101" s="25">
         <v>1</v>
       </c>
       <c r="D101" t="s">
@@ -17269,8 +17274,8 @@
       <c r="O101" t="s">
         <v>27</v>
       </c>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="16"/>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
@@ -17318,8 +17323,8 @@
       <c r="O102" t="s">
         <v>27</v>
       </c>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
@@ -17367,8 +17372,8 @@
       <c r="O103" t="s">
         <v>27</v>
       </c>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
+      <c r="R103" s="16"/>
+      <c r="S103" s="16"/>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="s">
@@ -17416,8 +17421,8 @@
       <c r="O104" t="s">
         <v>27</v>
       </c>
-      <c r="R104" s="18"/>
-      <c r="S104" s="18"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="16"/>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="s">
@@ -17426,7 +17431,7 @@
       <c r="B105" t="s">
         <v>825</v>
       </c>
-      <c r="C105" s="28">
+      <c r="C105" s="25">
         <v>1</v>
       </c>
       <c r="D105" t="s">
@@ -17467,8 +17472,8 @@
       <c r="O105" t="s">
         <v>27</v>
       </c>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
+      <c r="R105" s="16"/>
+      <c r="S105" s="16"/>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="s">
@@ -17516,8 +17521,8 @@
       <c r="O106" t="s">
         <v>27</v>
       </c>
-      <c r="R106" s="18"/>
-      <c r="S106" s="18"/>
+      <c r="R106" s="16"/>
+      <c r="S106" s="16"/>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
@@ -17565,8 +17570,8 @@
       <c r="O107" t="s">
         <v>27</v>
       </c>
-      <c r="R107" s="18"/>
-      <c r="S107" s="18"/>
+      <c r="R107" s="16"/>
+      <c r="S107" s="16"/>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
@@ -17614,8 +17619,8 @@
       <c r="O108" t="s">
         <v>27</v>
       </c>
-      <c r="R108" s="18"/>
-      <c r="S108" s="18"/>
+      <c r="R108" s="16"/>
+      <c r="S108" s="16"/>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
@@ -17663,8 +17668,8 @@
       <c r="O109" t="s">
         <v>27</v>
       </c>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
+      <c r="R109" s="16"/>
+      <c r="S109" s="16"/>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
@@ -17673,7 +17678,7 @@
       <c r="B110" t="s">
         <v>825</v>
       </c>
-      <c r="C110" s="28">
+      <c r="C110" s="25">
         <v>1</v>
       </c>
       <c r="D110" t="s">
@@ -17697,8 +17702,8 @@
         <f>VLOOKUP(G110,NTypes!A$2:B$31,2,FALSE)</f>
         <v>Low Power Sub-surface Mooring</v>
       </c>
-      <c r="J110" s="14" t="s">
-        <v>855</v>
+      <c r="J110" s="13" t="s">
+        <v>854</v>
       </c>
       <c r="K110" t="str">
         <f>VLOOKUP(A110,Subsites!A$2:G$59,7,FALSE)</f>
@@ -17717,8 +17722,8 @@
       <c r="O110" t="s">
         <v>27</v>
       </c>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
+      <c r="R110" s="16"/>
+      <c r="S110" s="16"/>
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
@@ -17766,8 +17771,8 @@
       <c r="O111" t="s">
         <v>27</v>
       </c>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
+      <c r="R111" s="16"/>
+      <c r="S111" s="16"/>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
@@ -17776,7 +17781,7 @@
       <c r="B112" t="s">
         <v>825</v>
       </c>
-      <c r="C112" s="28">
+      <c r="C112" s="25">
         <v>1</v>
       </c>
       <c r="D112" t="s">
@@ -17800,8 +17805,8 @@
         <f>VLOOKUP(G112,NTypes!A$2:B$31,2,FALSE)</f>
         <v>Low Power Sub-surface Mooring</v>
       </c>
-      <c r="J112" s="14" t="s">
-        <v>869</v>
+      <c r="J112" s="13" t="s">
+        <v>868</v>
       </c>
       <c r="K112" t="str">
         <f>VLOOKUP(A112,Subsites!A$2:G$59,7,FALSE)</f>
@@ -17820,8 +17825,8 @@
       <c r="O112" t="s">
         <v>27</v>
       </c>
-      <c r="R112" s="18"/>
-      <c r="S112" s="18"/>
+      <c r="R112" s="16"/>
+      <c r="S112" s="16"/>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" t="s">
@@ -17869,14 +17874,14 @@
       <c r="O113" t="s">
         <v>27</v>
       </c>
-      <c r="R113" s="18"/>
-      <c r="S113" s="18"/>
+      <c r="R113" s="16"/>
+      <c r="S113" s="16"/>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" t="s">
         <v>255</v>
       </c>
-      <c r="C114" s="28">
+      <c r="C114" s="25">
         <v>1</v>
       </c>
       <c r="D114" t="s">
@@ -17918,14 +17923,14 @@
       <c r="O114" t="s">
         <v>27</v>
       </c>
-      <c r="R114" s="18"/>
-      <c r="S114" s="18"/>
+      <c r="R114" s="16"/>
+      <c r="S114" s="16"/>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" t="s">
         <v>255</v>
       </c>
-      <c r="C115" s="28">
+      <c r="C115" s="25">
         <v>1</v>
       </c>
       <c r="D115" t="s">
@@ -17967,14 +17972,14 @@
       <c r="O115" t="s">
         <v>27</v>
       </c>
-      <c r="R115" s="18"/>
-      <c r="S115" s="18"/>
+      <c r="R115" s="16"/>
+      <c r="S115" s="16"/>
     </row>
     <row r="116" spans="1:19">
       <c r="A116" t="s">
         <v>255</v>
       </c>
-      <c r="C116" s="28">
+      <c r="C116" s="25">
         <v>1</v>
       </c>
       <c r="D116" t="s">
@@ -18016,8 +18021,8 @@
       <c r="O116" t="s">
         <v>27</v>
       </c>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
+      <c r="R116" s="16"/>
+      <c r="S116" s="16"/>
     </row>
     <row r="117" spans="1:19">
       <c r="A117" t="s">
@@ -18026,7 +18031,7 @@
       <c r="B117" t="s">
         <v>825</v>
       </c>
-      <c r="C117" s="28">
+      <c r="C117" s="25">
         <v>1</v>
       </c>
       <c r="D117" t="s">
@@ -18067,8 +18072,8 @@
       <c r="O117" t="s">
         <v>27</v>
       </c>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
+      <c r="R117" s="16"/>
+      <c r="S117" s="16"/>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" t="s">
@@ -18116,8 +18121,8 @@
       <c r="O118" t="s">
         <v>27</v>
       </c>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
+      <c r="R118" s="16"/>
+      <c r="S118" s="16"/>
     </row>
     <row r="119" spans="1:19">
       <c r="A119" t="s">
@@ -18165,8 +18170,8 @@
       <c r="O119" t="s">
         <v>27</v>
       </c>
-      <c r="R119" s="18"/>
-      <c r="S119" s="18"/>
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
     </row>
     <row r="120" spans="1:19">
       <c r="A120" t="s">
@@ -18214,8 +18219,8 @@
       <c r="O120" t="s">
         <v>27</v>
       </c>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
+      <c r="R120" s="16"/>
+      <c r="S120" s="16"/>
     </row>
     <row r="121" spans="1:19">
       <c r="A121" t="s">
@@ -18224,7 +18229,7 @@
       <c r="B121" t="s">
         <v>825</v>
       </c>
-      <c r="C121" s="28">
+      <c r="C121" s="25">
         <v>1</v>
       </c>
       <c r="D121" t="s">
@@ -18265,8 +18270,8 @@
       <c r="O121" t="s">
         <v>27</v>
       </c>
-      <c r="R121" s="18"/>
-      <c r="S121" s="18"/>
+      <c r="R121" s="16"/>
+      <c r="S121" s="16"/>
     </row>
     <row r="122" spans="1:19">
       <c r="A122" t="s">
@@ -18314,8 +18319,8 @@
       <c r="O122" t="s">
         <v>27</v>
       </c>
-      <c r="R122" s="18"/>
-      <c r="S122" s="18"/>
+      <c r="R122" s="16"/>
+      <c r="S122" s="16"/>
     </row>
     <row r="123" spans="1:19">
       <c r="A123" t="s">
@@ -18363,8 +18368,8 @@
       <c r="O123" t="s">
         <v>27</v>
       </c>
-      <c r="R123" s="18"/>
-      <c r="S123" s="18"/>
+      <c r="R123" s="16"/>
+      <c r="S123" s="16"/>
     </row>
     <row r="124" spans="1:19">
       <c r="A124" t="s">
@@ -18412,8 +18417,8 @@
       <c r="O124" t="s">
         <v>27</v>
       </c>
-      <c r="R124" s="18"/>
-      <c r="S124" s="18"/>
+      <c r="R124" s="16"/>
+      <c r="S124" s="16"/>
     </row>
     <row r="125" spans="1:19">
       <c r="A125" t="s">
@@ -18422,7 +18427,7 @@
       <c r="B125" t="s">
         <v>825</v>
       </c>
-      <c r="C125" s="28">
+      <c r="C125" s="25">
         <v>1</v>
       </c>
       <c r="D125" t="s">
@@ -18446,8 +18451,8 @@
         <f>VLOOKUP(G125,NTypes!A$2:B$31,2,FALSE)</f>
         <v>Low Power Sub-surface Mooring</v>
       </c>
-      <c r="J125" s="14" t="s">
-        <v>855</v>
+      <c r="J125" s="13" t="s">
+        <v>854</v>
       </c>
       <c r="K125" t="str">
         <f>VLOOKUP(A125,Subsites!A$2:G$59,7,FALSE)</f>
@@ -18466,8 +18471,8 @@
       <c r="O125" t="s">
         <v>27</v>
       </c>
-      <c r="R125" s="18"/>
-      <c r="S125" s="18"/>
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
     </row>
     <row r="126" spans="1:19">
       <c r="A126" t="s">
@@ -18515,8 +18520,8 @@
       <c r="O126" t="s">
         <v>27</v>
       </c>
-      <c r="R126" s="18"/>
-      <c r="S126" s="18"/>
+      <c r="R126" s="16"/>
+      <c r="S126" s="16"/>
     </row>
     <row r="127" spans="1:19">
       <c r="A127" t="s">
@@ -18525,7 +18530,7 @@
       <c r="B127" t="s">
         <v>825</v>
       </c>
-      <c r="C127" s="28">
+      <c r="C127" s="25">
         <v>1</v>
       </c>
       <c r="D127" t="s">
@@ -18549,8 +18554,8 @@
         <f>VLOOKUP(G127,NTypes!A$2:B$31,2,FALSE)</f>
         <v>Low Power Sub-surface Mooring</v>
       </c>
-      <c r="J127" s="14" t="s">
-        <v>869</v>
+      <c r="J127" s="13" t="s">
+        <v>868</v>
       </c>
       <c r="K127" t="str">
         <f>VLOOKUP(A127,Subsites!A$2:G$59,7,FALSE)</f>
@@ -18569,8 +18574,8 @@
       <c r="O127" t="s">
         <v>27</v>
       </c>
-      <c r="R127" s="18"/>
-      <c r="S127" s="18"/>
+      <c r="R127" s="16"/>
+      <c r="S127" s="16"/>
     </row>
     <row r="128" spans="1:19">
       <c r="A128" t="s">
@@ -18618,14 +18623,14 @@
       <c r="O128" t="s">
         <v>27</v>
       </c>
-      <c r="R128" s="18"/>
-      <c r="S128" s="18"/>
+      <c r="R128" s="16"/>
+      <c r="S128" s="16"/>
     </row>
     <row r="129" spans="1:19">
       <c r="A129" t="s">
         <v>263</v>
       </c>
-      <c r="C129" s="28">
+      <c r="C129" s="25">
         <v>1</v>
       </c>
       <c r="D129" t="s">
@@ -18667,14 +18672,14 @@
       <c r="O129" t="s">
         <v>27</v>
       </c>
-      <c r="R129" s="18"/>
-      <c r="S129" s="18"/>
+      <c r="R129" s="16"/>
+      <c r="S129" s="16"/>
     </row>
     <row r="130" spans="1:19">
       <c r="A130" t="s">
         <v>263</v>
       </c>
-      <c r="C130" s="28">
+      <c r="C130" s="25">
         <v>1</v>
       </c>
       <c r="D130" t="s">
@@ -18716,14 +18721,14 @@
       <c r="O130" t="s">
         <v>27</v>
       </c>
-      <c r="R130" s="18"/>
-      <c r="S130" s="18"/>
+      <c r="R130" s="16"/>
+      <c r="S130" s="16"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" t="s">
         <v>263</v>
       </c>
-      <c r="C131" s="28">
+      <c r="C131" s="25">
         <v>1</v>
       </c>
       <c r="D131" t="s">
@@ -18765,8 +18770,8 @@
       <c r="O131" t="s">
         <v>27</v>
       </c>
-      <c r="R131" s="18"/>
-      <c r="S131" s="18"/>
+      <c r="R131" s="16"/>
+      <c r="S131" s="16"/>
     </row>
     <row r="132" spans="1:19">
       <c r="A132" t="s">
@@ -18775,7 +18780,7 @@
       <c r="B132" t="s">
         <v>825</v>
       </c>
-      <c r="C132" s="28">
+      <c r="C132" s="25">
         <v>1</v>
       </c>
       <c r="D132" t="s">
@@ -18816,10 +18821,10 @@
       <c r="O132" t="s">
         <v>27</v>
       </c>
-      <c r="R132" s="22">
+      <c r="R132" s="20">
         <v>41472</v>
       </c>
-      <c r="S132" s="22">
+      <c r="S132" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -18869,10 +18874,10 @@
       <c r="O133" t="s">
         <v>27</v>
       </c>
-      <c r="R133" s="22">
+      <c r="R133" s="20">
         <v>41472</v>
       </c>
-      <c r="S133" s="22">
+      <c r="S133" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -18922,10 +18927,10 @@
       <c r="O134" t="s">
         <v>27</v>
       </c>
-      <c r="R134" s="22">
+      <c r="R134" s="20">
         <v>41472</v>
       </c>
-      <c r="S134" s="22">
+      <c r="S134" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -18975,10 +18980,10 @@
       <c r="O135" t="s">
         <v>27</v>
       </c>
-      <c r="R135" s="22">
+      <c r="R135" s="20">
         <v>41472</v>
       </c>
-      <c r="S135" s="22">
+      <c r="S135" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -19028,10 +19033,10 @@
       <c r="O136" t="s">
         <v>27</v>
       </c>
-      <c r="R136" s="22">
+      <c r="R136" s="20">
         <v>41472</v>
       </c>
-      <c r="S136" s="22">
+      <c r="S136" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -19042,7 +19047,7 @@
       <c r="B137" t="s">
         <v>825</v>
       </c>
-      <c r="C137" s="28">
+      <c r="C137" s="25">
         <v>1</v>
       </c>
       <c r="D137" t="s">
@@ -19066,8 +19071,8 @@
         <f>VLOOKUP(G137,NTypes!A$2:B$31,2,FALSE)</f>
         <v>Low Power Sub-surface Mooring</v>
       </c>
-      <c r="J137" s="14" t="s">
-        <v>855</v>
+      <c r="J137" s="13" t="s">
+        <v>854</v>
       </c>
       <c r="K137" t="str">
         <f>VLOOKUP(A137,Subsites!A$2:G$59,7,FALSE)</f>
@@ -19086,10 +19091,10 @@
       <c r="O137" t="s">
         <v>27</v>
       </c>
-      <c r="R137" s="22">
+      <c r="R137" s="20">
         <v>41472</v>
       </c>
-      <c r="S137" s="22">
+      <c r="S137" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -19139,10 +19144,10 @@
       <c r="O138" t="s">
         <v>27</v>
       </c>
-      <c r="R138" s="22">
+      <c r="R138" s="20">
         <v>41472</v>
       </c>
-      <c r="S138" s="22">
+      <c r="S138" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -19153,7 +19158,7 @@
       <c r="B139" t="s">
         <v>825</v>
       </c>
-      <c r="C139" s="28">
+      <c r="C139" s="25">
         <v>1</v>
       </c>
       <c r="D139" t="s">
@@ -19177,8 +19182,8 @@
         <f>VLOOKUP(G139,NTypes!A$2:B$31,2,FALSE)</f>
         <v>Low Power Sub-surface Mooring</v>
       </c>
-      <c r="J139" s="14" t="s">
-        <v>869</v>
+      <c r="J139" s="13" t="s">
+        <v>868</v>
       </c>
       <c r="K139" t="str">
         <f>VLOOKUP(A139,Subsites!A$2:G$59,7,FALSE)</f>
@@ -19197,10 +19202,10 @@
       <c r="O139" t="s">
         <v>27</v>
       </c>
-      <c r="R139" s="22">
+      <c r="R139" s="20">
         <v>41472</v>
       </c>
-      <c r="S139" s="22">
+      <c r="S139" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -19250,10 +19255,10 @@
       <c r="O140" t="s">
         <v>27</v>
       </c>
-      <c r="R140" s="22">
+      <c r="R140" s="20">
         <v>41472</v>
       </c>
-      <c r="S140" s="22">
+      <c r="S140" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -19261,7 +19266,7 @@
       <c r="A141" t="s">
         <v>268</v>
       </c>
-      <c r="C141" s="28">
+      <c r="C141" s="25">
         <v>1</v>
       </c>
       <c r="D141" t="s">
@@ -19303,10 +19308,10 @@
       <c r="O141" t="s">
         <v>27</v>
       </c>
-      <c r="R141" s="22">
+      <c r="R141" s="20">
         <v>41472</v>
       </c>
-      <c r="S141" s="22">
+      <c r="S141" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -19314,7 +19319,7 @@
       <c r="A142" t="s">
         <v>268</v>
       </c>
-      <c r="C142" s="28">
+      <c r="C142" s="25">
         <v>1</v>
       </c>
       <c r="D142" t="s">
@@ -19356,10 +19361,10 @@
       <c r="O142" t="s">
         <v>27</v>
       </c>
-      <c r="R142" s="22">
+      <c r="R142" s="20">
         <v>41472</v>
       </c>
-      <c r="S142" s="22">
+      <c r="S142" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -19367,7 +19372,7 @@
       <c r="A143" t="s">
         <v>268</v>
       </c>
-      <c r="C143" s="28">
+      <c r="C143" s="25">
         <v>1</v>
       </c>
       <c r="D143" t="s">
@@ -19409,10 +19414,10 @@
       <c r="O143" t="s">
         <v>27</v>
       </c>
-      <c r="R143" s="22">
+      <c r="R143" s="20">
         <v>41472</v>
       </c>
-      <c r="S143" s="22">
+      <c r="S143" s="20">
         <v>41489</v>
       </c>
     </row>
@@ -19423,7 +19428,7 @@
       <c r="B144" t="s">
         <v>825</v>
       </c>
-      <c r="C144" s="28">
+      <c r="C144" s="25">
         <v>1</v>
       </c>
       <c r="D144" t="s">
@@ -19464,8 +19469,8 @@
       <c r="O144" t="s">
         <v>27</v>
       </c>
-      <c r="R144" s="18"/>
-      <c r="S144" s="18"/>
+      <c r="R144" s="16"/>
+      <c r="S144" s="16"/>
     </row>
     <row r="145" spans="1:19">
       <c r="A145" t="s">
@@ -19513,8 +19518,8 @@
       <c r="O145" t="s">
         <v>27</v>
       </c>
-      <c r="R145" s="18"/>
-      <c r="S145" s="18"/>
+      <c r="R145" s="16"/>
+      <c r="S145" s="16"/>
     </row>
     <row r="146" spans="1:19">
       <c r="A146" t="s">
@@ -19562,8 +19567,8 @@
       <c r="O146" t="s">
         <v>27</v>
       </c>
-      <c r="R146" s="18"/>
-      <c r="S146" s="18"/>
+      <c r="R146" s="16"/>
+      <c r="S146" s="16"/>
     </row>
     <row r="147" spans="1:19">
       <c r="A147" t="s">
@@ -19611,8 +19616,8 @@
       <c r="O147" t="s">
         <v>27</v>
       </c>
-      <c r="R147" s="18"/>
-      <c r="S147" s="18"/>
+      <c r="R147" s="16"/>
+      <c r="S147" s="16"/>
     </row>
     <row r="148" spans="1:19">
       <c r="A148" t="s">
@@ -19621,7 +19626,7 @@
       <c r="B148" t="s">
         <v>825</v>
       </c>
-      <c r="C148" s="28">
+      <c r="C148" s="25">
         <v>1</v>
       </c>
       <c r="D148" t="s">
@@ -19662,8 +19667,8 @@
       <c r="O148" t="s">
         <v>27</v>
       </c>
-      <c r="R148" s="18"/>
-      <c r="S148" s="18"/>
+      <c r="R148" s="16"/>
+      <c r="S148" s="16"/>
     </row>
     <row r="149" spans="1:19">
       <c r="A149" t="s">
@@ -19711,8 +19716,8 @@
       <c r="O149" t="s">
         <v>27</v>
       </c>
-      <c r="R149" s="18"/>
-      <c r="S149" s="18"/>
+      <c r="R149" s="16"/>
+      <c r="S149" s="16"/>
     </row>
     <row r="150" spans="1:19">
       <c r="A150" t="s">
@@ -19760,8 +19765,8 @@
       <c r="O150" t="s">
         <v>27</v>
       </c>
-      <c r="R150" s="18"/>
-      <c r="S150" s="18"/>
+      <c r="R150" s="16"/>
+      <c r="S150" s="16"/>
     </row>
     <row r="151" spans="1:19">
       <c r="A151" t="s">
@@ -19809,8 +19814,8 @@
       <c r="O151" t="s">
         <v>27</v>
       </c>
-      <c r="R151" s="18"/>
-      <c r="S151" s="18"/>
+      <c r="R151" s="16"/>
+      <c r="S151" s="16"/>
     </row>
     <row r="152" spans="1:19">
       <c r="A152" t="s">
@@ -19858,8 +19863,8 @@
       <c r="O152" t="s">
         <v>27</v>
       </c>
-      <c r="R152" s="18"/>
-      <c r="S152" s="18"/>
+      <c r="R152" s="16"/>
+      <c r="S152" s="16"/>
     </row>
     <row r="153" spans="1:19">
       <c r="A153" t="s">
@@ -19868,7 +19873,7 @@
       <c r="B153" t="s">
         <v>825</v>
       </c>
-      <c r="C153" s="28">
+      <c r="C153" s="25">
         <v>1</v>
       </c>
       <c r="D153" t="s">
@@ -19892,8 +19897,8 @@
         <f>VLOOKUP(G153,NTypes!A$2:B$31,2,FALSE)</f>
         <v>Low Power Sub-surface Mooring</v>
       </c>
-      <c r="J153" s="14" t="s">
-        <v>855</v>
+      <c r="J153" s="13" t="s">
+        <v>854</v>
       </c>
       <c r="K153" t="str">
         <f>VLOOKUP(A153,Subsites!A$2:G$59,7,FALSE)</f>
@@ -19912,8 +19917,8 @@
       <c r="O153" t="s">
         <v>27</v>
       </c>
-      <c r="R153" s="18"/>
-      <c r="S153" s="18"/>
+      <c r="R153" s="16"/>
+      <c r="S153" s="16"/>
     </row>
     <row r="154" spans="1:19">
       <c r="A154" t="s">
@@ -19961,8 +19966,8 @@
       <c r="O154" t="s">
         <v>27</v>
       </c>
-      <c r="R154" s="18"/>
-      <c r="S154" s="18"/>
+      <c r="R154" s="16"/>
+      <c r="S154" s="16"/>
     </row>
     <row r="155" spans="1:19">
       <c r="A155" t="s">
@@ -19971,7 +19976,7 @@
       <c r="B155" t="s">
         <v>825</v>
       </c>
-      <c r="C155" s="28">
+      <c r="C155" s="25">
         <v>1</v>
       </c>
       <c r="D155" t="s">
@@ -19995,8 +20000,8 @@
         <f>VLOOKUP(G155,NTypes!A$2:B$31,2,FALSE)</f>
         <v>Low Power Sub-surface Mooring</v>
       </c>
-      <c r="J155" s="14" t="s">
-        <v>869</v>
+      <c r="J155" s="13" t="s">
+        <v>868</v>
       </c>
       <c r="K155" t="str">
         <f>VLOOKUP(A155,Subsites!A$2:G$59,7,FALSE)</f>
@@ -20015,8 +20020,8 @@
       <c r="O155" t="s">
         <v>27</v>
       </c>
-      <c r="R155" s="18"/>
-      <c r="S155" s="18"/>
+      <c r="R155" s="16"/>
+      <c r="S155" s="16"/>
     </row>
     <row r="156" spans="1:19">
       <c r="A156" t="s">
@@ -20064,14 +20069,14 @@
       <c r="O156" t="s">
         <v>27</v>
       </c>
-      <c r="R156" s="18"/>
-      <c r="S156" s="18"/>
+      <c r="R156" s="16"/>
+      <c r="S156" s="16"/>
     </row>
     <row r="157" spans="1:19">
       <c r="A157" t="s">
         <v>273</v>
       </c>
-      <c r="C157" s="28">
+      <c r="C157" s="25">
         <v>1</v>
       </c>
       <c r="D157" t="s">
@@ -20113,14 +20118,14 @@
       <c r="O157" t="s">
         <v>27</v>
       </c>
-      <c r="R157" s="18"/>
-      <c r="S157" s="18"/>
+      <c r="R157" s="16"/>
+      <c r="S157" s="16"/>
     </row>
     <row r="158" spans="1:19">
       <c r="A158" t="s">
         <v>273</v>
       </c>
-      <c r="C158" s="28">
+      <c r="C158" s="25">
         <v>1</v>
       </c>
       <c r="D158" t="s">
@@ -20162,14 +20167,14 @@
       <c r="O158" t="s">
         <v>27</v>
       </c>
-      <c r="R158" s="18"/>
-      <c r="S158" s="18"/>
+      <c r="R158" s="16"/>
+      <c r="S158" s="16"/>
     </row>
     <row r="159" spans="1:19">
       <c r="A159" t="s">
         <v>273</v>
       </c>
-      <c r="C159" s="28">
+      <c r="C159" s="25">
         <v>1</v>
       </c>
       <c r="D159" t="s">
@@ -20211,24 +20216,24 @@
       <c r="O159" t="s">
         <v>27</v>
       </c>
-      <c r="R159" s="18"/>
-      <c r="S159" s="18"/>
+      <c r="R159" s="16"/>
+      <c r="S159" s="16"/>
     </row>
     <row r="160" spans="1:19">
       <c r="A160" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B160" t="s">
         <v>825</v>
       </c>
-      <c r="C160" s="28">
+      <c r="C160" s="25">
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F160" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G160" s="3" t="str">
         <f t="shared" ref="G160:G167" si="34">MID(D160,10,2)</f>
@@ -20242,7 +20247,7 @@
         <f>VLOOKUP(G160,NTypes!A$2:B$31,2,FALSE)</f>
         <v>Shore Station</v>
       </c>
-      <c r="J160" s="14"/>
+      <c r="J160" s="13"/>
       <c r="K160" t="str">
         <f>VLOOKUP(A160,Subsites!A$2:G$59,7,FALSE)</f>
         <v>Regional Shore Pacific City</v>
@@ -20260,24 +20265,24 @@
       <c r="O160" t="s">
         <v>435</v>
       </c>
-      <c r="R160" s="18"/>
-      <c r="S160" s="18"/>
+      <c r="R160" s="16"/>
+      <c r="S160" s="16"/>
     </row>
     <row r="161" spans="1:23">
       <c r="A161" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B161" t="s">
         <v>825</v>
       </c>
       <c r="D161" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E161" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F161" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G161" s="3" t="str">
         <f t="shared" si="34"/>
@@ -20311,24 +20316,24 @@
       <c r="O161" t="s">
         <v>435</v>
       </c>
-      <c r="R161" s="18"/>
-      <c r="S161" s="18"/>
+      <c r="R161" s="16"/>
+      <c r="S161" s="16"/>
     </row>
     <row r="162" spans="1:23">
       <c r="A162" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B162" t="s">
         <v>825</v>
       </c>
       <c r="D162" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E162" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F162" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G162" s="3" t="str">
         <f t="shared" si="34"/>
@@ -20362,24 +20367,24 @@
       <c r="O162" t="s">
         <v>435</v>
       </c>
-      <c r="R162" s="18"/>
-      <c r="S162" s="18"/>
+      <c r="R162" s="16"/>
+      <c r="S162" s="16"/>
     </row>
     <row r="163" spans="1:23">
       <c r="A163" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B163" t="s">
         <v>825</v>
       </c>
       <c r="D163" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E163" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F163" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G163" s="3" t="str">
         <f t="shared" si="34"/>
@@ -20413,24 +20418,24 @@
       <c r="O163" t="s">
         <v>435</v>
       </c>
-      <c r="R163" s="18"/>
-      <c r="S163" s="18"/>
+      <c r="R163" s="16"/>
+      <c r="S163" s="16"/>
     </row>
     <row r="164" spans="1:23">
       <c r="A164" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B164" t="s">
         <v>825</v>
       </c>
       <c r="D164" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E164" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F164" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G164" s="3" t="str">
         <f t="shared" si="34"/>
@@ -20464,24 +20469,24 @@
       <c r="O164" t="s">
         <v>435</v>
       </c>
-      <c r="R164" s="18"/>
-      <c r="S164" s="18"/>
+      <c r="R164" s="16"/>
+      <c r="S164" s="16"/>
     </row>
     <row r="165" spans="1:23">
       <c r="A165" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B165" t="s">
         <v>825</v>
       </c>
       <c r="D165" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E165" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F165" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G165" s="3" t="str">
         <f t="shared" si="34"/>
@@ -20515,24 +20520,24 @@
       <c r="O165" t="s">
         <v>435</v>
       </c>
-      <c r="R165" s="18"/>
-      <c r="S165" s="18"/>
+      <c r="R165" s="16"/>
+      <c r="S165" s="16"/>
     </row>
     <row r="166" spans="1:23">
       <c r="A166" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B166" t="s">
         <v>825</v>
       </c>
       <c r="D166" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E166" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F166" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G166" s="3" t="str">
         <f t="shared" si="34"/>
@@ -20566,24 +20571,24 @@
       <c r="O166" t="s">
         <v>435</v>
       </c>
-      <c r="R166" s="18"/>
-      <c r="S166" s="18"/>
+      <c r="R166" s="16"/>
+      <c r="S166" s="16"/>
     </row>
     <row r="167" spans="1:23">
       <c r="A167" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B167" t="s">
         <v>825</v>
       </c>
       <c r="D167" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E167" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F167" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G167" s="3" t="str">
         <f t="shared" si="34"/>
@@ -20617,8 +20622,8 @@
       <c r="O167" t="s">
         <v>435</v>
       </c>
-      <c r="R167" s="18"/>
-      <c r="S167" s="18"/>
+      <c r="R167" s="16"/>
+      <c r="S167" s="16"/>
     </row>
     <row r="168" spans="1:23">
       <c r="A168" t="s">
@@ -20627,14 +20632,14 @@
       <c r="B168" t="s">
         <v>825</v>
       </c>
-      <c r="C168" s="28">
+      <c r="C168" s="25">
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F168" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G168" s="3" t="str">
         <f t="shared" ref="G168" si="37">MID(D168,10,2)</f>
@@ -20669,13 +20674,16 @@
       <c r="O168" t="s">
         <v>435</v>
       </c>
-      <c r="R168" s="18"/>
-      <c r="S168" s="18"/>
+      <c r="P168" t="s">
+        <v>635</v>
+      </c>
+      <c r="R168" s="16"/>
+      <c r="S168" s="16"/>
       <c r="U168" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V168" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="W168" s="3" t="s">
         <v>442</v>
@@ -20685,7 +20693,7 @@
       <c r="A169" t="s">
         <v>285</v>
       </c>
-      <c r="C169" s="28">
+      <c r="C169" s="25">
         <v>1</v>
       </c>
       <c r="D169" t="s">
@@ -20730,11 +20738,14 @@
       <c r="O169" t="s">
         <v>435</v>
       </c>
-      <c r="R169" s="18"/>
-      <c r="S169" s="18"/>
+      <c r="P169" t="s">
+        <v>635</v>
+      </c>
+      <c r="R169" s="16"/>
+      <c r="S169" s="16"/>
       <c r="U169" s="3"/>
       <c r="V169" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="W169" s="3"/>
     </row>
@@ -20742,7 +20753,7 @@
       <c r="A170" t="s">
         <v>285</v>
       </c>
-      <c r="C170" s="28">
+      <c r="C170" s="25">
         <v>1</v>
       </c>
       <c r="D170" t="s">
@@ -20787,13 +20798,16 @@
       <c r="O170" t="s">
         <v>435</v>
       </c>
-      <c r="R170" s="18"/>
-      <c r="S170" s="18"/>
+      <c r="P170" t="s">
+        <v>635</v>
+      </c>
+      <c r="R170" s="16"/>
+      <c r="S170" s="16"/>
       <c r="U170" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V170" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="W170" s="3" t="s">
         <v>450</v>
@@ -20803,7 +20817,7 @@
       <c r="A171" t="s">
         <v>285</v>
       </c>
-      <c r="C171" s="28">
+      <c r="C171" s="25">
         <v>1</v>
       </c>
       <c r="D171" t="s">
@@ -20845,13 +20859,16 @@
       <c r="O171" t="s">
         <v>435</v>
       </c>
-      <c r="R171" s="18"/>
-      <c r="S171" s="18"/>
+      <c r="P171" t="s">
+        <v>635</v>
+      </c>
+      <c r="R171" s="16"/>
+      <c r="S171" s="16"/>
       <c r="U171" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V171" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="W171" s="3" t="s">
         <v>442</v>
@@ -20865,7 +20882,7 @@
         <v>825</v>
       </c>
       <c r="D172" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>70</v>
@@ -20906,8 +20923,11 @@
       <c r="O172" t="s">
         <v>435</v>
       </c>
-      <c r="R172" s="18"/>
-      <c r="S172" s="18"/>
+      <c r="P172" t="s">
+        <v>635</v>
+      </c>
+      <c r="R172" s="16"/>
+      <c r="S172" s="16"/>
       <c r="U172" s="3" t="s">
         <v>439</v>
       </c>
@@ -20964,14 +20984,17 @@
       <c r="O173" t="s">
         <v>435</v>
       </c>
-      <c r="Q173" s="30"/>
-      <c r="R173" s="18"/>
-      <c r="S173" s="18"/>
+      <c r="P173" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q173" s="27"/>
+      <c r="R173" s="16"/>
+      <c r="S173" s="16"/>
       <c r="U173" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V173" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="W173" s="3" t="s">
         <v>446</v>
@@ -20984,14 +21007,14 @@
       <c r="B174" t="s">
         <v>825</v>
       </c>
-      <c r="C174" s="28">
+      <c r="C174" s="25">
         <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G174" s="3" t="str">
         <f t="shared" ref="G174" si="45">MID(D174,10,2)</f>
@@ -21026,13 +21049,16 @@
       <c r="O174" t="s">
         <v>435</v>
       </c>
-      <c r="R174" s="18"/>
-      <c r="S174" s="18"/>
+      <c r="P174" t="s">
+        <v>635</v>
+      </c>
+      <c r="R174" s="16"/>
+      <c r="S174" s="16"/>
       <c r="U174" s="3" t="s">
         <v>843</v>
       </c>
       <c r="V174" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="W174" s="3" t="s">
         <v>840</v>
@@ -21042,7 +21068,7 @@
       <c r="A175" t="s">
         <v>290</v>
       </c>
-      <c r="C175" s="28">
+      <c r="C175" s="25">
         <v>1</v>
       </c>
       <c r="D175" t="s">
@@ -21087,17 +21113,20 @@
       <c r="O175" t="s">
         <v>435</v>
       </c>
-      <c r="R175" s="22">
+      <c r="P175" t="s">
+        <v>635</v>
+      </c>
+      <c r="R175" s="20">
         <v>41453</v>
       </c>
-      <c r="S175" s="22">
+      <c r="S175" s="20">
         <v>41121</v>
       </c>
       <c r="U175" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V175" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="W175" s="3" t="s">
         <v>461</v>
@@ -21110,14 +21139,14 @@
       <c r="B176" t="s">
         <v>825</v>
       </c>
-      <c r="C176" s="28">
+      <c r="C176" s="25">
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F176" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G176" s="3" t="str">
         <f t="shared" ref="G176:G177" si="49">MID(D176,10,2)</f>
@@ -21152,13 +21181,16 @@
       <c r="O176" t="s">
         <v>435</v>
       </c>
-      <c r="U176" s="29" t="s">
+      <c r="P176" t="s">
+        <v>635</v>
+      </c>
+      <c r="U176" s="26" t="s">
         <v>843</v>
       </c>
       <c r="V176" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W176" s="29" t="s">
+        <v>1081</v>
+      </c>
+      <c r="W176" s="26" t="s">
         <v>844</v>
       </c>
     </row>
@@ -21169,14 +21201,14 @@
       <c r="B177" t="s">
         <v>825</v>
       </c>
-      <c r="C177" s="28">
+      <c r="C177" s="25">
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F177" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G177" s="3" t="str">
         <f t="shared" si="49"/>
@@ -21211,11 +21243,14 @@
       <c r="O177" t="s">
         <v>435</v>
       </c>
+      <c r="P177" t="s">
+        <v>635</v>
+      </c>
       <c r="U177" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V177" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="W177" s="3" t="s">
         <v>442</v>
@@ -21225,7 +21260,7 @@
       <c r="A178" t="s">
         <v>294</v>
       </c>
-      <c r="C178" s="28">
+      <c r="C178" s="25">
         <v>1</v>
       </c>
       <c r="D178" t="s">
@@ -21270,13 +21305,16 @@
       <c r="O178" t="s">
         <v>435</v>
       </c>
-      <c r="R178" s="18"/>
-      <c r="S178" s="18"/>
+      <c r="P178" t="s">
+        <v>635</v>
+      </c>
+      <c r="R178" s="16"/>
+      <c r="S178" s="16"/>
       <c r="U178" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V178" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="W178" s="3" t="s">
         <v>450</v>
@@ -21286,7 +21324,7 @@
       <c r="A179" t="s">
         <v>296</v>
       </c>
-      <c r="C179" s="28">
+      <c r="C179" s="25">
         <v>1</v>
       </c>
       <c r="D179" t="s">
@@ -21331,13 +21369,16 @@
       <c r="O179" t="s">
         <v>435</v>
       </c>
-      <c r="R179" s="18"/>
-      <c r="S179" s="18"/>
+      <c r="P179" t="s">
+        <v>635</v>
+      </c>
+      <c r="R179" s="16"/>
+      <c r="S179" s="16"/>
       <c r="U179" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V179" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="W179" s="3" t="s">
         <v>442</v>
@@ -21350,14 +21391,14 @@
       <c r="B180" t="s">
         <v>825</v>
       </c>
-      <c r="C180" s="28">
+      <c r="C180" s="25">
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F180" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G180" s="3" t="str">
         <f t="shared" si="53"/>
@@ -21392,13 +21433,16 @@
       <c r="O180" t="s">
         <v>435</v>
       </c>
-      <c r="R180" s="18"/>
-      <c r="S180" s="18"/>
+      <c r="P180" t="s">
+        <v>635</v>
+      </c>
+      <c r="R180" s="16"/>
+      <c r="S180" s="16"/>
       <c r="U180" s="3" t="s">
         <v>843</v>
       </c>
       <c r="V180" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="W180" s="3" t="s">
         <v>844</v>
@@ -21412,10 +21456,10 @@
         <v>75</v>
       </c>
       <c r="E181" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F181" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G181" s="3" t="str">
         <f t="shared" si="53"/>
@@ -21450,16 +21494,19 @@
       <c r="O181" t="s">
         <v>435</v>
       </c>
-      <c r="R181" s="22">
+      <c r="P181" t="s">
+        <v>635</v>
+      </c>
+      <c r="R181" s="20">
         <v>41487</v>
       </c>
-      <c r="S181" s="22" t="s">
+      <c r="S181" s="20" t="s">
         <v>723</v>
       </c>
       <c r="V181" t="s">
-        <v>1085</v>
-      </c>
-      <c r="W181" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W181" s="8" t="s">
         <v>451</v>
       </c>
     </row>
@@ -21467,7 +21514,7 @@
       <c r="A182" t="s">
         <v>298</v>
       </c>
-      <c r="C182" s="28">
+      <c r="C182" s="25">
         <v>1</v>
       </c>
       <c r="D182" t="s">
@@ -21512,17 +21559,20 @@
       <c r="O182" t="s">
         <v>435</v>
       </c>
-      <c r="R182" s="22">
+      <c r="P182" t="s">
+        <v>635</v>
+      </c>
+      <c r="R182" s="20">
         <v>41487</v>
       </c>
-      <c r="S182" s="22" t="s">
+      <c r="S182" s="20" t="s">
         <v>723</v>
       </c>
       <c r="U182" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V182" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="W182" s="3" t="s">
         <v>442</v>
@@ -21535,14 +21585,14 @@
       <c r="B183" t="s">
         <v>825</v>
       </c>
-      <c r="C183" s="28">
+      <c r="C183" s="25">
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F183" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G183" s="3" t="str">
         <f t="shared" si="59"/>
@@ -21577,11 +21627,14 @@
       <c r="O183" t="s">
         <v>435</v>
       </c>
+      <c r="P183" t="s">
+        <v>635</v>
+      </c>
       <c r="U183" s="3" t="s">
         <v>843</v>
       </c>
       <c r="V183" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="W183" s="3" t="s">
         <v>844</v>
@@ -21594,14 +21647,14 @@
       <c r="B184" t="s">
         <v>825</v>
       </c>
-      <c r="C184" s="28">
+      <c r="C184" s="25">
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F184" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G184" s="3" t="str">
         <f t="shared" si="59"/>
@@ -21636,11 +21689,14 @@
       <c r="O184" t="s">
         <v>435</v>
       </c>
+      <c r="P184" t="s">
+        <v>635</v>
+      </c>
       <c r="U184" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V184" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="W184" s="3" t="s">
         <v>442</v>
@@ -21650,7 +21706,7 @@
       <c r="A185" t="s">
         <v>302</v>
       </c>
-      <c r="C185" s="28">
+      <c r="C185" s="25">
         <v>1</v>
       </c>
       <c r="D185" t="s">
@@ -21695,17 +21751,20 @@
       <c r="O185" t="s">
         <v>435</v>
       </c>
-      <c r="R185" s="22">
+      <c r="P185" t="s">
+        <v>635</v>
+      </c>
+      <c r="R185" s="20">
         <v>41487</v>
       </c>
-      <c r="S185" s="22" t="s">
+      <c r="S185" s="20" t="s">
         <v>723</v>
       </c>
       <c r="U185" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V185" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="W185" s="3" t="s">
         <v>461</v>
@@ -21715,7 +21774,7 @@
       <c r="A186" t="s">
         <v>304</v>
       </c>
-      <c r="C186" s="28">
+      <c r="C186" s="25">
         <v>1</v>
       </c>
       <c r="D186" t="s">
@@ -21760,11 +21819,14 @@
       <c r="O186" t="s">
         <v>435</v>
       </c>
-      <c r="R186" s="18"/>
-      <c r="S186" s="18"/>
+      <c r="P186" t="s">
+        <v>635</v>
+      </c>
+      <c r="R186" s="16"/>
+      <c r="S186" s="16"/>
       <c r="U186" s="3"/>
       <c r="V186" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="W186" s="3"/>
     </row>
@@ -21772,7 +21834,7 @@
       <c r="A187" t="s">
         <v>304</v>
       </c>
-      <c r="C187" s="28">
+      <c r="C187" s="25">
         <v>1</v>
       </c>
       <c r="D187" t="s">
@@ -21817,13 +21879,16 @@
       <c r="O187" t="s">
         <v>435</v>
       </c>
-      <c r="R187" s="18"/>
-      <c r="S187" s="18"/>
+      <c r="P187" t="s">
+        <v>635</v>
+      </c>
+      <c r="R187" s="16"/>
+      <c r="S187" s="16"/>
       <c r="U187" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V187" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="W187" s="3" t="s">
         <v>450</v>
@@ -21833,7 +21898,7 @@
       <c r="A188" t="s">
         <v>304</v>
       </c>
-      <c r="C188" s="28">
+      <c r="C188" s="25">
         <v>1</v>
       </c>
       <c r="D188" t="s">
@@ -21875,13 +21940,16 @@
       <c r="O188" t="s">
         <v>435</v>
       </c>
-      <c r="R188" s="18"/>
-      <c r="S188" s="18"/>
+      <c r="P188" t="s">
+        <v>635</v>
+      </c>
+      <c r="R188" s="16"/>
+      <c r="S188" s="16"/>
       <c r="U188" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V188" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="W188" s="3" t="s">
         <v>442</v>
@@ -21895,7 +21963,7 @@
         <v>825</v>
       </c>
       <c r="D189" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E189" t="s">
         <v>81</v>
@@ -21936,8 +22004,11 @@
       <c r="O189" t="s">
         <v>435</v>
       </c>
-      <c r="R189" s="18"/>
-      <c r="S189" s="18"/>
+      <c r="P189" t="s">
+        <v>635</v>
+      </c>
+      <c r="R189" s="16"/>
+      <c r="S189" s="16"/>
       <c r="U189" s="3" t="s">
         <v>439</v>
       </c>
@@ -21994,14 +22065,17 @@
       <c r="O190" t="s">
         <v>435</v>
       </c>
-      <c r="Q190" s="30"/>
-      <c r="R190" s="18"/>
-      <c r="S190" s="18"/>
+      <c r="P190" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q190" s="27"/>
+      <c r="R190" s="16"/>
+      <c r="S190" s="16"/>
       <c r="U190" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V190" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="W190" s="3" t="s">
         <v>446</v>
@@ -22011,7 +22085,7 @@
       <c r="A191" t="s">
         <v>306</v>
       </c>
-      <c r="C191" s="28">
+      <c r="C191" s="25">
         <v>1</v>
       </c>
       <c r="D191" t="s">
@@ -22056,17 +22130,20 @@
       <c r="O191" t="s">
         <v>435</v>
       </c>
-      <c r="R191" s="22">
+      <c r="P191" t="s">
+        <v>635</v>
+      </c>
+      <c r="R191" s="20">
         <v>41487</v>
       </c>
-      <c r="S191" s="22" t="s">
+      <c r="S191" s="20" t="s">
         <v>723</v>
       </c>
       <c r="U191" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V191" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="W191" s="3" t="s">
         <v>439</v>
@@ -22076,7 +22153,7 @@
       <c r="A192" t="s">
         <v>308</v>
       </c>
-      <c r="C192" s="28">
+      <c r="C192" s="25">
         <v>1</v>
       </c>
       <c r="D192" t="s">
@@ -22121,17 +22198,20 @@
       <c r="O192" t="s">
         <v>435</v>
       </c>
-      <c r="R192" s="22">
+      <c r="P192" t="s">
+        <v>635</v>
+      </c>
+      <c r="R192" s="20">
         <v>41487</v>
       </c>
-      <c r="S192" s="22" t="s">
+      <c r="S192" s="20" t="s">
         <v>723</v>
       </c>
       <c r="U192" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V192" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="W192" s="3" t="s">
         <v>450</v>
@@ -22141,7 +22221,7 @@
       <c r="A193" t="s">
         <v>310</v>
       </c>
-      <c r="C193" s="28">
+      <c r="C193" s="25">
         <v>1</v>
       </c>
       <c r="D193" t="s">
@@ -22186,17 +22266,20 @@
       <c r="O193" t="s">
         <v>435</v>
       </c>
-      <c r="R193" s="22">
+      <c r="P193" t="s">
+        <v>635</v>
+      </c>
+      <c r="R193" s="20">
         <v>41487</v>
       </c>
-      <c r="S193" s="22" t="s">
+      <c r="S193" s="20" t="s">
         <v>723</v>
       </c>
       <c r="U193" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V193" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="W193" s="3" t="s">
         <v>461</v>
@@ -22206,7 +22289,7 @@
       <c r="A194" t="s">
         <v>312</v>
       </c>
-      <c r="C194" s="28">
+      <c r="C194" s="25">
         <v>1</v>
       </c>
       <c r="D194" t="s">
@@ -22251,17 +22334,20 @@
       <c r="O194" t="s">
         <v>435</v>
       </c>
-      <c r="R194" s="22">
+      <c r="P194" t="s">
+        <v>635</v>
+      </c>
+      <c r="R194" s="20">
         <v>41487</v>
       </c>
-      <c r="S194" s="22" t="s">
+      <c r="S194" s="20" t="s">
         <v>723</v>
       </c>
       <c r="U194" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V194" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="W194" s="3" t="s">
         <v>446</v>
@@ -22274,14 +22360,14 @@
       <c r="B195" t="s">
         <v>825</v>
       </c>
-      <c r="C195" s="28">
+      <c r="C195" s="25">
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F195" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G195" s="3" t="str">
         <f t="shared" ref="G195" si="67">MID(D195,10,2)</f>
@@ -22316,14 +22402,17 @@
       <c r="O195" t="s">
         <v>435</v>
       </c>
+      <c r="P195" t="s">
+        <v>635</v>
+      </c>
       <c r="T195" s="3"/>
-      <c r="U195" s="29" t="s">
+      <c r="U195" s="26" t="s">
         <v>843</v>
       </c>
       <c r="V195" t="s">
-        <v>1092</v>
-      </c>
-      <c r="W195" s="29" t="s">
+        <v>1091</v>
+      </c>
+      <c r="W195" s="26" t="s">
         <v>840</v>
       </c>
     </row>
@@ -22350,7 +22439,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22394,7 +22483,7 @@
         <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>569</v>
@@ -22412,7 +22501,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>569</v>
@@ -22457,13 +22546,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B6" t="s">
         <v>1059</v>
       </c>
-      <c r="B6" t="s">
-        <v>1060</v>
-      </c>
       <c r="C6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -22493,7 +22582,7 @@
         <v>570</v>
       </c>
       <c r="C8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>569</v>
@@ -22556,7 +22645,7 @@
         <v>287</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C12" t="s">
         <v>288</v>
@@ -22577,10 +22666,10 @@
         <v>660</v>
       </c>
       <c r="B13" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C13" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -22624,7 +22713,7 @@
         <v>291</v>
       </c>
       <c r="B16" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C16" t="s">
         <v>292</v>
@@ -22661,7 +22750,7 @@
         <v>280</v>
       </c>
       <c r="B18" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C18" t="s">
         <v>281</v>
@@ -22677,10 +22766,10 @@
         <v>841</v>
       </c>
       <c r="B19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -22688,7 +22777,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B20" t="s">
         <v>561</v>
@@ -22719,10 +22808,10 @@
         <v>657</v>
       </c>
       <c r="B22" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C22" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>569</v>
@@ -22765,10 +22854,10 @@
         <v>663</v>
       </c>
       <c r="B25" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C25" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>569</v>
@@ -22797,7 +22886,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B27" t="s">
         <v>721</v>
@@ -22811,7 +22900,7 @@
         <v>635</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -22847,7 +22936,7 @@
         <v>674</v>
       </c>
       <c r="B30" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>569</v>
@@ -22858,7 +22947,7 @@
         <v>635</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -22866,10 +22955,10 @@
         <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C31" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -22893,10 +22982,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22904,11 +22993,12 @@
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>630</v>
@@ -22923,16 +23013,19 @@
         <v>824</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>846</v>
+        <v>1117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>849</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>725</v>
       </c>
@@ -22940,7 +23033,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>727</v>
       </c>
@@ -22948,7 +23041,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>729</v>
       </c>
@@ -22956,7 +23049,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>731</v>
       </c>
@@ -22964,7 +23057,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>733</v>
       </c>
@@ -22972,7 +23065,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>735</v>
       </c>
@@ -22980,7 +23073,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>737</v>
       </c>
@@ -22988,7 +23081,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>739</v>
       </c>
@@ -22996,7 +23089,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>741</v>
       </c>
@@ -23004,7 +23097,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>743</v>
       </c>
@@ -23012,7 +23105,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>745</v>
       </c>
@@ -23020,7 +23113,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>747</v>
       </c>
@@ -23028,7 +23121,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>749</v>
       </c>
@@ -23036,7 +23129,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>751</v>
       </c>
@@ -23044,7 +23137,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>753</v>
       </c>
@@ -23376,19 +23469,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1046</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>630</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -23399,10 +23492,10 @@
         <v>572</v>
       </c>
       <c r="C2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D2" t="s">
         <v>851</v>
-      </c>
-      <c r="D2" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -23410,13 +23503,13 @@
         <v>725</v>
       </c>
       <c r="B3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C3" t="s">
         <v>853</v>
       </c>
-      <c r="C3" t="s">
-        <v>854</v>
-      </c>
       <c r="D3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -23424,13 +23517,13 @@
         <v>727</v>
       </c>
       <c r="B4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C4" t="s">
         <v>855</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>856</v>
-      </c>
-      <c r="D4" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -23438,13 +23531,13 @@
         <v>727</v>
       </c>
       <c r="B5" t="s">
+        <v>857</v>
+      </c>
+      <c r="C5" t="s">
         <v>858</v>
       </c>
-      <c r="C5" t="s">
-        <v>859</v>
-      </c>
       <c r="D5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -23452,13 +23545,13 @@
         <v>727</v>
       </c>
       <c r="B6" t="s">
+        <v>859</v>
+      </c>
+      <c r="C6" t="s">
         <v>860</v>
       </c>
-      <c r="C6" t="s">
-        <v>861</v>
-      </c>
       <c r="D6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -23466,13 +23559,13 @@
         <v>727</v>
       </c>
       <c r="B7" t="s">
+        <v>861</v>
+      </c>
+      <c r="C7" t="s">
         <v>862</v>
       </c>
-      <c r="C7" t="s">
-        <v>863</v>
-      </c>
       <c r="D7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -23480,13 +23573,13 @@
         <v>727</v>
       </c>
       <c r="B8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C8" t="s">
         <v>864</v>
       </c>
-      <c r="C8" t="s">
-        <v>865</v>
-      </c>
       <c r="D8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -23494,13 +23587,13 @@
         <v>727</v>
       </c>
       <c r="B9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -23508,13 +23601,13 @@
         <v>729</v>
       </c>
       <c r="B10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C10" t="s">
+        <v>866</v>
+      </c>
+      <c r="D10" t="s">
         <v>867</v>
-      </c>
-      <c r="D10" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -23522,13 +23615,13 @@
         <v>729</v>
       </c>
       <c r="B11" t="s">
+        <v>868</v>
+      </c>
+      <c r="C11" t="s">
         <v>869</v>
       </c>
-      <c r="C11" t="s">
-        <v>870</v>
-      </c>
       <c r="D11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -23539,10 +23632,10 @@
         <v>639</v>
       </c>
       <c r="C12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -23550,13 +23643,13 @@
         <v>729</v>
       </c>
       <c r="B13" t="s">
+        <v>871</v>
+      </c>
+      <c r="C13" t="s">
         <v>872</v>
       </c>
-      <c r="C13" t="s">
-        <v>873</v>
-      </c>
       <c r="D13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -23564,13 +23657,13 @@
         <v>729</v>
       </c>
       <c r="B14" t="s">
+        <v>873</v>
+      </c>
+      <c r="C14" t="s">
         <v>874</v>
       </c>
-      <c r="C14" t="s">
-        <v>875</v>
-      </c>
       <c r="D14" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -23578,13 +23671,13 @@
         <v>729</v>
       </c>
       <c r="B15" t="s">
+        <v>875</v>
+      </c>
+      <c r="C15" t="s">
         <v>876</v>
       </c>
-      <c r="C15" t="s">
-        <v>877</v>
-      </c>
       <c r="D15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -23592,13 +23685,13 @@
         <v>729</v>
       </c>
       <c r="B16" t="s">
+        <v>877</v>
+      </c>
+      <c r="C16" t="s">
         <v>878</v>
       </c>
-      <c r="C16" t="s">
-        <v>879</v>
-      </c>
       <c r="D16" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -23609,10 +23702,10 @@
         <v>572</v>
       </c>
       <c r="C17" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -23620,13 +23713,13 @@
         <v>731</v>
       </c>
       <c r="B18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C18" t="s">
+        <v>880</v>
+      </c>
+      <c r="D18" t="s">
         <v>881</v>
-      </c>
-      <c r="D18" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -23634,13 +23727,13 @@
         <v>733</v>
       </c>
       <c r="B19" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C19" t="s">
+        <v>882</v>
+      </c>
+      <c r="D19" t="s">
         <v>883</v>
-      </c>
-      <c r="D19" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -23648,13 +23741,13 @@
         <v>733</v>
       </c>
       <c r="B20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -23665,10 +23758,10 @@
         <v>639</v>
       </c>
       <c r="C21" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D21" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -23676,13 +23769,13 @@
         <v>735</v>
       </c>
       <c r="B22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C22" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D22" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -23690,10 +23783,10 @@
         <v>737</v>
       </c>
       <c r="B23" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C23" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D23" t="s">
         <v>738</v>
@@ -23707,10 +23800,10 @@
         <v>639</v>
       </c>
       <c r="C24" t="s">
+        <v>890</v>
+      </c>
+      <c r="D24" t="s">
         <v>891</v>
-      </c>
-      <c r="D24" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -23718,13 +23811,13 @@
         <v>739</v>
       </c>
       <c r="B25" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C25" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D25" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -23732,13 +23825,13 @@
         <v>739</v>
       </c>
       <c r="B26" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C26" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D26" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -23746,13 +23839,13 @@
         <v>739</v>
       </c>
       <c r="B27" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C27" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D27" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -23760,13 +23853,13 @@
         <v>739</v>
       </c>
       <c r="B28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D28" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -23774,13 +23867,13 @@
         <v>739</v>
       </c>
       <c r="B29" t="s">
+        <v>896</v>
+      </c>
+      <c r="C29" t="s">
         <v>897</v>
       </c>
-      <c r="C29" t="s">
-        <v>898</v>
-      </c>
       <c r="D29" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -23791,7 +23884,7 @@
         <v>572</v>
       </c>
       <c r="C30" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D30" t="s">
         <v>742</v>
@@ -23802,13 +23895,13 @@
         <v>743</v>
       </c>
       <c r="B31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C31" t="s">
+        <v>899</v>
+      </c>
+      <c r="D31" t="s">
         <v>900</v>
-      </c>
-      <c r="D31" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -23816,13 +23909,13 @@
         <v>743</v>
       </c>
       <c r="B32" t="s">
+        <v>901</v>
+      </c>
+      <c r="C32" t="s">
         <v>902</v>
       </c>
-      <c r="C32" t="s">
-        <v>903</v>
-      </c>
       <c r="D32" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -23830,13 +23923,13 @@
         <v>743</v>
       </c>
       <c r="B33" t="s">
+        <v>903</v>
+      </c>
+      <c r="C33" t="s">
         <v>904</v>
       </c>
-      <c r="C33" t="s">
-        <v>905</v>
-      </c>
       <c r="D33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -23844,13 +23937,13 @@
         <v>743</v>
       </c>
       <c r="B34" t="s">
+        <v>905</v>
+      </c>
+      <c r="C34" t="s">
         <v>906</v>
       </c>
-      <c r="C34" t="s">
-        <v>907</v>
-      </c>
       <c r="D34" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -23858,10 +23951,10 @@
         <v>745</v>
       </c>
       <c r="B35" t="s">
+        <v>907</v>
+      </c>
+      <c r="C35" t="s">
         <v>908</v>
-      </c>
-      <c r="C35" t="s">
-        <v>909</v>
       </c>
       <c r="D35" t="s">
         <v>746</v>
@@ -23872,10 +23965,10 @@
         <v>745</v>
       </c>
       <c r="B36" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C36" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D36" t="s">
         <v>746</v>
@@ -23886,10 +23979,10 @@
         <v>745</v>
       </c>
       <c r="B37" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C37" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D37" t="s">
         <v>746</v>
@@ -23903,7 +23996,7 @@
         <v>639</v>
       </c>
       <c r="C38" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D38" t="s">
         <v>746</v>
@@ -23914,10 +24007,10 @@
         <v>745</v>
       </c>
       <c r="B39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D39" t="s">
         <v>746</v>
@@ -23928,10 +24021,10 @@
         <v>745</v>
       </c>
       <c r="B40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C40" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D40" t="s">
         <v>746</v>
@@ -23942,10 +24035,10 @@
         <v>745</v>
       </c>
       <c r="B41" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C41" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D41" t="s">
         <v>746</v>
@@ -23956,13 +24049,13 @@
         <v>747</v>
       </c>
       <c r="B42" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C42" t="s">
+        <v>915</v>
+      </c>
+      <c r="D42" t="s">
         <v>916</v>
-      </c>
-      <c r="D42" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -23970,13 +24063,13 @@
         <v>747</v>
       </c>
       <c r="B43" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C43" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D43" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -23984,13 +24077,13 @@
         <v>747</v>
       </c>
       <c r="B44" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C44" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D44" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -23998,13 +24091,13 @@
         <v>749</v>
       </c>
       <c r="B45" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C45" t="s">
+        <v>919</v>
+      </c>
+      <c r="D45" t="s">
         <v>920</v>
-      </c>
-      <c r="D45" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -24012,13 +24105,13 @@
         <v>749</v>
       </c>
       <c r="B46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C46" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -24026,13 +24119,13 @@
         <v>749</v>
       </c>
       <c r="B47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C47" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D47" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -24043,10 +24136,10 @@
         <v>639</v>
       </c>
       <c r="C48" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D48" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -24054,13 +24147,13 @@
         <v>749</v>
       </c>
       <c r="B49" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D49" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -24068,13 +24161,13 @@
         <v>749</v>
       </c>
       <c r="B50" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C50" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D50" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -24082,13 +24175,13 @@
         <v>749</v>
       </c>
       <c r="B51" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C51" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D51" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -24099,10 +24192,10 @@
         <v>572</v>
       </c>
       <c r="C52" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D52" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -24110,13 +24203,13 @@
         <v>749</v>
       </c>
       <c r="B53" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C53" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D53" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -24124,13 +24217,13 @@
         <v>751</v>
       </c>
       <c r="B54" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C54" t="s">
+        <v>929</v>
+      </c>
+      <c r="D54" t="s">
         <v>930</v>
-      </c>
-      <c r="D54" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -24138,13 +24231,13 @@
         <v>751</v>
       </c>
       <c r="B55" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C55" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D55" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -24152,13 +24245,13 @@
         <v>753</v>
       </c>
       <c r="B56" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C56" t="s">
+        <v>932</v>
+      </c>
+      <c r="D56" t="s">
         <v>933</v>
-      </c>
-      <c r="D56" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -24166,13 +24259,13 @@
         <v>753</v>
       </c>
       <c r="B57" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C57" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D57" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -24180,13 +24273,13 @@
         <v>755</v>
       </c>
       <c r="B58" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C58" t="s">
+        <v>935</v>
+      </c>
+      <c r="D58" t="s">
         <v>936</v>
-      </c>
-      <c r="D58" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -24194,13 +24287,13 @@
         <v>757</v>
       </c>
       <c r="B59" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C59" t="s">
+        <v>937</v>
+      </c>
+      <c r="D59" t="s">
         <v>938</v>
-      </c>
-      <c r="D59" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -24208,13 +24301,13 @@
         <v>757</v>
       </c>
       <c r="B60" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C60" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D60" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -24222,13 +24315,13 @@
         <v>757</v>
       </c>
       <c r="B61" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C61" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D61" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -24236,13 +24329,13 @@
         <v>757</v>
       </c>
       <c r="B62" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C62" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D62" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -24250,13 +24343,13 @@
         <v>757</v>
       </c>
       <c r="B63" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C63" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D63" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -24267,10 +24360,10 @@
         <v>572</v>
       </c>
       <c r="C64" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D64" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -24278,13 +24371,13 @@
         <v>759</v>
       </c>
       <c r="B65" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C65" t="s">
+        <v>944</v>
+      </c>
+      <c r="D65" t="s">
         <v>945</v>
-      </c>
-      <c r="D65" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -24292,13 +24385,13 @@
         <v>759</v>
       </c>
       <c r="B66" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C66" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D66" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -24306,13 +24399,13 @@
         <v>759</v>
       </c>
       <c r="B67" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C67" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D67" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -24320,13 +24413,13 @@
         <v>759</v>
       </c>
       <c r="B68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C68" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D68" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -24334,13 +24427,13 @@
         <v>759</v>
       </c>
       <c r="B69" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C69" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D69" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -24351,10 +24444,10 @@
         <v>572</v>
       </c>
       <c r="C70" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D70" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -24362,13 +24455,13 @@
         <v>759</v>
       </c>
       <c r="B71" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C71" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D71" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -24376,13 +24469,13 @@
         <v>761</v>
       </c>
       <c r="B72" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C72" t="s">
+        <v>952</v>
+      </c>
+      <c r="D72" t="s">
         <v>953</v>
-      </c>
-      <c r="D72" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -24390,13 +24483,13 @@
         <v>763</v>
       </c>
       <c r="B73" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C73" t="s">
+        <v>954</v>
+      </c>
+      <c r="D73" t="s">
         <v>955</v>
-      </c>
-      <c r="D73" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -24404,13 +24497,13 @@
         <v>765</v>
       </c>
       <c r="B74" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C74" t="s">
+        <v>956</v>
+      </c>
+      <c r="D74" t="s">
         <v>957</v>
-      </c>
-      <c r="D74" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -24418,10 +24511,10 @@
         <v>767</v>
       </c>
       <c r="B75" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C75" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D75" t="s">
         <v>768</v>
@@ -24432,13 +24525,13 @@
         <v>769</v>
       </c>
       <c r="B76" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C76" t="s">
+        <v>959</v>
+      </c>
+      <c r="D76" t="s">
         <v>960</v>
-      </c>
-      <c r="D76" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -24446,13 +24539,13 @@
         <v>771</v>
       </c>
       <c r="B77" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C77" t="s">
+        <v>961</v>
+      </c>
+      <c r="D77" t="s">
         <v>962</v>
-      </c>
-      <c r="D77" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -24460,13 +24553,13 @@
         <v>771</v>
       </c>
       <c r="B78" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C78" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D78" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -24474,13 +24567,13 @@
         <v>771</v>
       </c>
       <c r="B79" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C79" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D79" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -24488,13 +24581,13 @@
         <v>771</v>
       </c>
       <c r="B80" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C80" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D80" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -24502,13 +24595,13 @@
         <v>775</v>
       </c>
       <c r="B81" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C81" t="s">
+        <v>966</v>
+      </c>
+      <c r="D81" t="s">
         <v>967</v>
-      </c>
-      <c r="D81" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -24516,13 +24609,13 @@
         <v>777</v>
       </c>
       <c r="B82" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C82" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D82" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -24530,13 +24623,13 @@
         <v>779</v>
       </c>
       <c r="B83" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C83" t="s">
+        <v>969</v>
+      </c>
+      <c r="D83" t="s">
         <v>970</v>
-      </c>
-      <c r="D83" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -24544,13 +24637,13 @@
         <v>781</v>
       </c>
       <c r="B84" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C84" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D84" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -24558,13 +24651,13 @@
         <v>783</v>
       </c>
       <c r="B85" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C85" t="s">
+        <v>972</v>
+      </c>
+      <c r="D85" t="s">
         <v>973</v>
-      </c>
-      <c r="D85" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -24572,13 +24665,13 @@
         <v>783</v>
       </c>
       <c r="B86" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C86" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D86" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -24586,13 +24679,13 @@
         <v>783</v>
       </c>
       <c r="B87" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C87" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D87" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -24603,10 +24696,10 @@
         <v>639</v>
       </c>
       <c r="C88" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D88" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -24614,13 +24707,13 @@
         <v>783</v>
       </c>
       <c r="B89" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C89" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D89" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -24628,13 +24721,13 @@
         <v>785</v>
       </c>
       <c r="B90" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C90" t="s">
+        <v>978</v>
+      </c>
+      <c r="D90" t="s">
         <v>979</v>
-      </c>
-      <c r="D90" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -24642,13 +24735,13 @@
         <v>787</v>
       </c>
       <c r="B91" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C91" t="s">
+        <v>980</v>
+      </c>
+      <c r="D91" t="s">
         <v>981</v>
-      </c>
-      <c r="D91" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -24656,13 +24749,13 @@
         <v>787</v>
       </c>
       <c r="B92" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C92" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D92" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -24670,13 +24763,13 @@
         <v>787</v>
       </c>
       <c r="B93" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C93" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D93" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -24684,13 +24777,13 @@
         <v>787</v>
       </c>
       <c r="B94" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C94" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D94" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -24701,10 +24794,10 @@
         <v>572</v>
       </c>
       <c r="C95" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D95" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -24712,13 +24805,13 @@
         <v>787</v>
       </c>
       <c r="B96" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C96" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D96" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -24726,13 +24819,13 @@
         <v>789</v>
       </c>
       <c r="B97" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C97" t="s">
+        <v>987</v>
+      </c>
+      <c r="D97" t="s">
         <v>988</v>
-      </c>
-      <c r="D97" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -24740,13 +24833,13 @@
         <v>791</v>
       </c>
       <c r="B98" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C98" t="s">
+        <v>989</v>
+      </c>
+      <c r="D98" t="s">
         <v>990</v>
-      </c>
-      <c r="D98" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -24754,13 +24847,13 @@
         <v>791</v>
       </c>
       <c r="B99" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C99" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D99" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -24768,13 +24861,13 @@
         <v>791</v>
       </c>
       <c r="B100" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C100" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D100" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -24782,13 +24875,13 @@
         <v>793</v>
       </c>
       <c r="B101" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C101" t="s">
+        <v>993</v>
+      </c>
+      <c r="D101" t="s">
         <v>994</v>
-      </c>
-      <c r="D101" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -24796,13 +24889,13 @@
         <v>793</v>
       </c>
       <c r="B102" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C102" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D102" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -24813,10 +24906,10 @@
         <v>639</v>
       </c>
       <c r="C103" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D103" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -24824,13 +24917,13 @@
         <v>793</v>
       </c>
       <c r="B104" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C104" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D104" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -24838,13 +24931,13 @@
         <v>793</v>
       </c>
       <c r="B105" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C105" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D105" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -24852,13 +24945,13 @@
         <v>793</v>
       </c>
       <c r="B106" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C106" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D106" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -24866,13 +24959,13 @@
         <v>793</v>
       </c>
       <c r="B107" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C107" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D107" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -24880,13 +24973,13 @@
         <v>795</v>
       </c>
       <c r="B108" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C108" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D108" t="s">
         <v>1002</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -24894,13 +24987,13 @@
         <v>797</v>
       </c>
       <c r="B109" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C109" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D109" t="s">
         <v>1004</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -24908,13 +25001,13 @@
         <v>797</v>
       </c>
       <c r="B110" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C110" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D110" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -24925,10 +25018,10 @@
         <v>639</v>
       </c>
       <c r="C111" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D111" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -24936,13 +25029,13 @@
         <v>799</v>
       </c>
       <c r="B112" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C112" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D112" t="s">
         <v>1008</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -24950,13 +25043,13 @@
         <v>799</v>
       </c>
       <c r="B113" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C113" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D113" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -24964,13 +25057,13 @@
         <v>801</v>
       </c>
       <c r="B114" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C114" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D114" t="s">
         <v>1011</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -24978,13 +25071,13 @@
         <v>803</v>
       </c>
       <c r="B115" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C115" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D115" t="s">
         <v>1013</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -24992,13 +25085,13 @@
         <v>803</v>
       </c>
       <c r="B116" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C116" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D116" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -25006,13 +25099,13 @@
         <v>803</v>
       </c>
       <c r="B117" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C117" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D117" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -25020,13 +25113,13 @@
         <v>805</v>
       </c>
       <c r="B118" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C118" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D118" t="s">
         <v>1017</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -25034,13 +25127,13 @@
         <v>807</v>
       </c>
       <c r="B119" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C119" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D119" t="s">
         <v>1019</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -25048,13 +25141,13 @@
         <v>809</v>
       </c>
       <c r="B120" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C120" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D120" t="s">
         <v>1021</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -25062,13 +25155,13 @@
         <v>811</v>
       </c>
       <c r="B121" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C121" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D121" t="s">
         <v>1023</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -25076,13 +25169,13 @@
         <v>813</v>
       </c>
       <c r="B122" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C122" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D122" t="s">
         <v>1025</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -25090,13 +25183,13 @@
         <v>813</v>
       </c>
       <c r="B123" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C123" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D123" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -25104,13 +25197,13 @@
         <v>813</v>
       </c>
       <c r="B124" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C124" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D124" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -25121,10 +25214,10 @@
         <v>639</v>
       </c>
       <c r="C125" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D125" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -25132,13 +25225,13 @@
         <v>813</v>
       </c>
       <c r="B126" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C126" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D126" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -25146,13 +25239,13 @@
         <v>813</v>
       </c>
       <c r="B127" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C127" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D127" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -25160,13 +25253,13 @@
         <v>813</v>
       </c>
       <c r="B128" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C128" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D128" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -25174,13 +25267,13 @@
         <v>815</v>
       </c>
       <c r="B129" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C129" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D129" t="s">
         <v>1033</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -25188,13 +25281,13 @@
         <v>815</v>
       </c>
       <c r="B130" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C130" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D130" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -25202,13 +25295,13 @@
         <v>815</v>
       </c>
       <c r="B131" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C131" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D131" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -25216,13 +25309,13 @@
         <v>817</v>
       </c>
       <c r="B132" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C132" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D132" t="s">
         <v>1037</v>
-      </c>
-      <c r="D132" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -25230,13 +25323,13 @@
         <v>819</v>
       </c>
       <c r="B133" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C133" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D133" t="s">
         <v>1039</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -25244,13 +25337,13 @@
         <v>819</v>
       </c>
       <c r="B134" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C134" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D134" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -25261,10 +25354,10 @@
         <v>639</v>
       </c>
       <c r="C135" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D135" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -25272,13 +25365,13 @@
         <v>821</v>
       </c>
       <c r="B136" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C136" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D136" t="s">
         <v>1043</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1044</v>
       </c>
     </row>
   </sheetData>
@@ -25295,7 +25388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -25303,7 +25398,7 @@
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>

--- a/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
+++ b/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1119">
   <si>
     <t>Platform Reference ID</t>
   </si>
@@ -3413,6 +3413,9 @@
   </si>
   <si>
     <t>Pull Mode</t>
+  </si>
+  <si>
+    <t>I1</t>
   </si>
 </sst>
 </file>
@@ -3532,7 +3535,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="866">
+  <cellStyleXfs count="872">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3559,6 +3562,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4455,7 +4464,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="866">
+  <cellStyles count="872">
     <cellStyle name="20% - Accent3" xfId="25" builtinId="38"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -4889,6 +4898,9 @@
     <cellStyle name="Followed Hyperlink" xfId="861" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="863" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -5320,6 +5332,9 @@
     <cellStyle name="Hyperlink" xfId="860" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="862" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="864" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="866" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="868" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="870" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -9626,7 +9641,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11168,7 +11183,7 @@
         <v>196</v>
       </c>
       <c r="G34" s="8" t="str">
-        <f t="shared" ref="G34:G65" si="1">E34 &amp; IF(ISBLANK(F34),""," " &amp; F34)</f>
+        <f t="shared" ref="G34:G59" si="1">E34 &amp; IF(ISBLANK(F34),""," " &amp; F34)</f>
         <v>Global Irminger Sea Subsurface</v>
       </c>
     </row>
@@ -11813,8 +11828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12458,7 +12473,7 @@
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="U11" s="3" t="s">
-        <v>843</v>
+        <v>1118</v>
       </c>
       <c r="V11" t="s">
         <v>1079</v>
@@ -13080,7 +13095,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="U22" s="3" t="s">
-        <v>843</v>
+        <v>1118</v>
       </c>
       <c r="V22" t="s">
         <v>1080</v>
@@ -21055,7 +21070,7 @@
       <c r="R174" s="16"/>
       <c r="S174" s="16"/>
       <c r="U174" s="3" t="s">
-        <v>843</v>
+        <v>1118</v>
       </c>
       <c r="V174" t="s">
         <v>1091</v>
@@ -21184,8 +21199,8 @@
       <c r="P176" t="s">
         <v>635</v>
       </c>
-      <c r="U176" s="26" t="s">
-        <v>843</v>
+      <c r="U176" s="3" t="s">
+        <v>1118</v>
       </c>
       <c r="V176" s="2" t="s">
         <v>1081</v>
@@ -21439,7 +21454,7 @@
       <c r="R180" s="16"/>
       <c r="S180" s="16"/>
       <c r="U180" s="3" t="s">
-        <v>843</v>
+        <v>1118</v>
       </c>
       <c r="V180" t="s">
         <v>1083</v>
@@ -21631,7 +21646,7 @@
         <v>635</v>
       </c>
       <c r="U183" s="3" t="s">
-        <v>843</v>
+        <v>1118</v>
       </c>
       <c r="V183" t="s">
         <v>1087</v>
@@ -22406,8 +22421,8 @@
         <v>635</v>
       </c>
       <c r="T195" s="3"/>
-      <c r="U195" s="26" t="s">
-        <v>843</v>
+      <c r="U195" s="3" t="s">
+        <v>1118</v>
       </c>
       <c r="V195" t="s">
         <v>1091</v>

--- a/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
+++ b/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22380" tabRatio="669" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="38400" windowHeight="22400" tabRatio="669" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MIOs" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="1125">
   <si>
     <t>Platform Reference ID</t>
   </si>
@@ -3416,6 +3416,24 @@
   </si>
   <si>
     <t>I1</t>
+  </si>
+  <si>
+    <t>lat_north</t>
+  </si>
+  <si>
+    <t>lat_south</t>
+  </si>
+  <si>
+    <t>lon_east</t>
+  </si>
+  <si>
+    <t>lon_west</t>
+  </si>
+  <si>
+    <t>depth_min</t>
+  </si>
+  <si>
+    <t>depth_max</t>
   </si>
 </sst>
 </file>
@@ -3535,7 +3553,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="872">
+  <cellStyleXfs count="880">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4408,8 +4426,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4463,8 +4489,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="872">
+  <cellStyles count="880">
     <cellStyle name="20% - Accent3" xfId="25" builtinId="38"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -4901,6 +4930,10 @@
     <cellStyle name="Followed Hyperlink" xfId="867" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="873" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="875" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="877" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="879" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -5335,6 +5368,10 @@
     <cellStyle name="Hyperlink" xfId="866" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="868" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="870" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="872" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="874" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="876" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="878" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -10320,10 +10357,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10334,9 +10371,10 @@
     <col min="5" max="5" width="28.5" style="8" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
@@ -10358,11 +10396,29 @@
       <c r="G1" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="33" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -10387,7 +10443,7 @@
         <v>Coastal Endurance Oregon Inshore</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -10412,7 +10468,7 @@
         <v>Coastal Endurance Oregon Inshore</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -10437,7 +10493,7 @@
         <v>Coastal Endurance Oregon Shelf</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -10462,7 +10518,7 @@
         <v>Coastal Endurance Oregon Shelf</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -10487,7 +10543,7 @@
         <v>Coastal Endurance Oregon Shelf</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -10512,7 +10568,7 @@
         <v>Coastal Endurance Oregon Offshore</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>277</v>
       </c>
@@ -10537,7 +10593,7 @@
         <v>Coastal Endurance Oregon Offshore</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -10562,7 +10618,7 @@
         <v>Coastal Endurance Oregon Offshore</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>234</v>
       </c>
@@ -10586,8 +10642,26 @@
         <f t="shared" si="0"/>
         <v>Coastal Endurance Mobile Zone</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="11">
+        <v>47</v>
+      </c>
+      <c r="I10" s="11">
+        <v>44.64</v>
+      </c>
+      <c r="J10" s="11">
+        <v>-124.95</v>
+      </c>
+      <c r="K10" s="11">
+        <v>124.1</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -10612,7 +10686,7 @@
         <v>Coastal Endurance Washington Inshore</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -10637,7 +10711,7 @@
         <v>Coastal Endurance Washington Inshore</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -10662,7 +10736,7 @@
         <v>Coastal Endurance Washington Shelf</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -10687,7 +10761,7 @@
         <v>Coastal Endurance Washington Shelf</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -10712,7 +10786,7 @@
         <v>Coastal Endurance Washington Offshore</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -10737,7 +10811,7 @@
         <v>Coastal Endurance Washington Offshore</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -10762,7 +10836,7 @@
         <v>Coastal Pioneer Central</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -10787,7 +10861,7 @@
         <v>Coastal Pioneer Central</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -10812,7 +10886,7 @@
         <v>Coastal Pioneer Central Inshore</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>172</v>
       </c>
@@ -10837,7 +10911,7 @@
         <v>Coastal Pioneer Central Offshore</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>174</v>
       </c>
@@ -10862,7 +10936,7 @@
         <v>Coastal Pioneer Upstream Inshore</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -10887,7 +10961,7 @@
         <v>Coastal Pioneer Upstream Offshore</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -10912,7 +10986,7 @@
         <v>Coastal Pioneer Inshore</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -10937,7 +11011,7 @@
         <v>Coastal Pioneer Inshore</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -10962,7 +11036,7 @@
         <v>Coastal Pioneer Offshore</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -10987,7 +11061,7 @@
         <v>Coastal Pioneer Offshore</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -11011,8 +11085,26 @@
         <f t="shared" si="0"/>
         <v>Coastal Pioneer Mobile Zone</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="11">
+        <v>40.166666669999998</v>
+      </c>
+      <c r="I27" s="11">
+        <v>39.908333329999998</v>
+      </c>
+      <c r="J27" s="11">
+        <v>-70.791666669999998</v>
+      </c>
+      <c r="K27" s="11">
+        <v>-70.683333329999996</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>190</v>
       </c>
@@ -11037,7 +11129,7 @@
         <v>Global Argentine Basin Surface</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>194</v>
       </c>
@@ -11062,7 +11154,7 @@
         <v>Global Argentine Basin Subsurface</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>201</v>
       </c>
@@ -11087,7 +11179,7 @@
         <v>Global Argentine Basin Mesoscale Flanking A</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -11112,7 +11204,7 @@
         <v>Global Argentine Basin Mesoscale Flanking B</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>255</v>
       </c>
@@ -11136,8 +11228,26 @@
         <f t="shared" si="0"/>
         <v>Global Argentine Basin Mobile Zone</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="11">
+        <v>-42.507300000000001</v>
+      </c>
+      <c r="I32" s="11">
+        <v>-42.990600000000001</v>
+      </c>
+      <c r="J32" s="11">
+        <v>-42.890500000000003</v>
+      </c>
+      <c r="K32" s="11">
+        <v>-42.130299999999998</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -11162,7 +11272,7 @@
         <v>Global Irminger Sea Surface</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -11187,7 +11297,7 @@
         <v>Global Irminger Sea Subsurface</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>213</v>
       </c>
@@ -11212,7 +11322,7 @@
         <v>Global Irminger Sea Mesoscale Flanking A</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>215</v>
       </c>
@@ -11237,7 +11347,7 @@
         <v>Global Irminger Sea Mesoscale Flanking B</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>263</v>
       </c>
@@ -11261,8 +11371,26 @@
         <f t="shared" si="1"/>
         <v>Global Irminger Sea Mobile Zone</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="11">
+        <v>60.613599999999998</v>
+      </c>
+      <c r="I37" s="11">
+        <v>60.458199999999998</v>
+      </c>
+      <c r="J37" s="11">
+        <v>-38.4407</v>
+      </c>
+      <c r="K37" s="11">
+        <v>-38.075499999999998</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>217</v>
       </c>
@@ -11287,7 +11415,7 @@
         <v>Global Station Papa Subsurface</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>220</v>
       </c>
@@ -11312,7 +11440,7 @@
         <v>Global Station Papa Mesoscale Flanking A</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>222</v>
       </c>
@@ -11337,7 +11465,7 @@
         <v>Global Station Papa Mesoscale Flanking B</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>268</v>
       </c>
@@ -11361,8 +11489,26 @@
         <f t="shared" si="1"/>
         <v>Global Station Papa Mobile Zone</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" s="11">
+        <v>50.467599999999997</v>
+      </c>
+      <c r="I41" s="11">
+        <v>50.125</v>
+      </c>
+      <c r="J41" s="11">
+        <v>-144.7131</v>
+      </c>
+      <c r="K41" s="11">
+        <v>-144.2097</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -11387,7 +11533,7 @@
         <v>Global Southern Ocean Surface</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>227</v>
       </c>
@@ -11412,7 +11558,7 @@
         <v>Global Southern Ocean Subsurface</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>229</v>
       </c>
@@ -11437,7 +11583,7 @@
         <v>Global Southern Ocean Mesoscale Flanking A</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>231</v>
       </c>
@@ -11462,7 +11608,7 @@
         <v>Global Southern Ocean Mesoscale Flanking B</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>273</v>
       </c>
@@ -11486,8 +11632,26 @@
         <f t="shared" si="1"/>
         <v>Global Southern Ocean Mobile Zone</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="H46" s="11">
+        <v>-54.081400000000002</v>
+      </c>
+      <c r="I46" s="11">
+        <v>-54.470399999999998</v>
+      </c>
+      <c r="J46" s="11">
+        <v>-89.665199999999999</v>
+      </c>
+      <c r="K46" s="11">
+        <v>-88.894000000000005</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>1088</v>
       </c>
@@ -11508,11 +11672,29 @@
         <f t="shared" si="1"/>
         <v>Regional Shore Pacific City</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="11">
+        <v>45.214548999999998</v>
+      </c>
+      <c r="I47" s="11">
+        <v>45.214548999999998</v>
+      </c>
+      <c r="J47" s="11">
+        <v>-123.96768299999999</v>
+      </c>
+      <c r="K47" s="11">
+        <v>-123.96768299999999</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>285</v>
       </c>
@@ -11537,7 +11719,7 @@
         <v>Regional Hydrate Ridge Slope Base</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>290</v>
       </c>
@@ -11562,7 +11744,7 @@
         <v>Regional Hydrate Ridge Slope Base</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>294</v>
       </c>
@@ -11587,7 +11769,7 @@
         <v>Regional Hydrate Ridge Southern Summit</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>296</v>
       </c>
@@ -11612,7 +11794,7 @@
         <v>Regional Hydrate Ridge Southern Summit</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>298</v>
       </c>
@@ -11637,7 +11819,7 @@
         <v>Regional Axial Ashes</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>302</v>
       </c>
@@ -11662,7 +11844,7 @@
         <v>Regional Axial Base</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>304</v>
       </c>
@@ -11687,7 +11869,7 @@
         <v>Regional Axial Base</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>306</v>
       </c>
@@ -11712,7 +11894,7 @@
         <v>Regional Axial Central Caldera</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>308</v>
       </c>
@@ -11737,7 +11919,7 @@
         <v>Regional Axial Eastern Caldera</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>310</v>
       </c>
@@ -11762,7 +11944,7 @@
         <v>Regional Axial International District</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>312</v>
       </c>
@@ -11787,7 +11969,7 @@
         <v>Regional Axial International District</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>717</v>
       </c>
@@ -11806,7 +11988,25 @@
         <f t="shared" si="1"/>
         <v>Regional Mid Plate</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="11">
+        <v>45.755560000000003</v>
+      </c>
+      <c r="I59" s="11">
+        <v>45.755560000000003</v>
+      </c>
+      <c r="J59" s="11">
+        <v>-127.27861</v>
+      </c>
+      <c r="K59" s="11">
+        <v>-127.27861</v>
+      </c>
+      <c r="L59" s="11">
+        <v>2820</v>
+      </c>
+      <c r="M59" s="11">
+        <v>2820</v>
+      </c>
+      <c r="N59" t="s">
         <v>716</v>
       </c>
     </row>
@@ -11828,8 +12028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
+++ b/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37420" windowHeight="22240" tabRatio="669" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29120" windowHeight="22280" tabRatio="669" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="MIOs" sheetId="14" r:id="rId1"/>
@@ -16,16 +16,17 @@
     <sheet name="Classes" sheetId="16" r:id="rId7"/>
     <sheet name="Series" sheetId="17" r:id="rId8"/>
     <sheet name="InstAgents" sheetId="19" r:id="rId9"/>
-    <sheet name="PlatformAgents" sheetId="6" r:id="rId10"/>
-    <sheet name="PlatformConfigurationTypes" sheetId="5" r:id="rId11"/>
-    <sheet name="CGPlatforms" sheetId="9" r:id="rId12"/>
-    <sheet name="RSNNodes" sheetId="15" r:id="rId13"/>
+    <sheet name="Instruments" sheetId="20" r:id="rId10"/>
+    <sheet name="PlatformAgents" sheetId="6" r:id="rId11"/>
+    <sheet name="PlatformConfigurationTypes" sheetId="5" r:id="rId12"/>
+    <sheet name="CGPlatforms" sheetId="9" r:id="rId13"/>
+    <sheet name="RSNNodes" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Nodes!$A$1:$R$195</definedName>
     <definedName name="_xlnm.Extract" localSheetId="4">Nodes!$U$2:$U$50</definedName>
   </definedNames>
-  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6337" uniqueCount="1224">
   <si>
     <t>Platform Reference ID</t>
   </si>
@@ -3714,6 +3715,24 @@
   </si>
   <si>
     <t>copy</t>
+  </si>
+  <si>
+    <t>Node Reference Designator</t>
+  </si>
+  <si>
+    <t>Instrument Class</t>
+  </si>
+  <si>
+    <t>Instrument Series</t>
+  </si>
+  <si>
+    <t>waiver requested</t>
+  </si>
+  <si>
+    <t>deferred?</t>
+  </si>
+  <si>
+    <t>First Deployment Date</t>
   </si>
 </sst>
 </file>
@@ -3839,7 +3858,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="998">
+  <cellStyleXfs count="1000">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4838,8 +4857,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4891,8 +4912,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="998">
+  <cellStyles count="1000">
     <cellStyle name="20% - Accent3" xfId="25" builtinId="38"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5392,6 +5415,7 @@
     <cellStyle name="Followed Hyperlink" xfId="993" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="995" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="997" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="999" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -5889,6 +5913,7 @@
     <cellStyle name="Hyperlink" xfId="992" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="994" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="996" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="998" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -6299,6 +6324,7700 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D636"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D2" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C3" t="s">
+        <v>867</v>
+      </c>
+      <c r="D3" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" t="s">
+        <v>867</v>
+      </c>
+      <c r="D4" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C5" t="s">
+        <v>864</v>
+      </c>
+      <c r="D5" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" t="s">
+        <v>791</v>
+      </c>
+      <c r="C6" t="s">
+        <v>867</v>
+      </c>
+      <c r="D6" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" t="s">
+        <v>731</v>
+      </c>
+      <c r="C7" t="s">
+        <v>850</v>
+      </c>
+      <c r="D7" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" t="s">
+        <v>737</v>
+      </c>
+      <c r="C8" t="s">
+        <v>639</v>
+      </c>
+      <c r="D8" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" t="s">
+        <v>795</v>
+      </c>
+      <c r="C9" t="s">
+        <v>850</v>
+      </c>
+      <c r="D9" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C10" t="s">
+        <v>867</v>
+      </c>
+      <c r="D10" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" t="s">
+        <v>817</v>
+      </c>
+      <c r="C11" t="s">
+        <v>639</v>
+      </c>
+      <c r="D11" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" t="s">
+        <v>747</v>
+      </c>
+      <c r="C12" t="s">
+        <v>867</v>
+      </c>
+      <c r="D12" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" t="s">
+        <v>789</v>
+      </c>
+      <c r="C13" t="s">
+        <v>864</v>
+      </c>
+      <c r="D13" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" t="s">
+        <v>791</v>
+      </c>
+      <c r="C14" t="s">
+        <v>867</v>
+      </c>
+      <c r="D14" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" t="s">
+        <v>813</v>
+      </c>
+      <c r="C15" t="s">
+        <v>850</v>
+      </c>
+      <c r="D15" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" t="s">
+        <v>737</v>
+      </c>
+      <c r="C16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D16" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" t="s">
+        <v>757</v>
+      </c>
+      <c r="C17" t="s">
+        <v>867</v>
+      </c>
+      <c r="D17" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" t="s">
+        <v>769</v>
+      </c>
+      <c r="C18" t="s">
+        <v>864</v>
+      </c>
+      <c r="D18" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" t="s">
+        <v>781</v>
+      </c>
+      <c r="C19" t="s">
+        <v>867</v>
+      </c>
+      <c r="D19" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" t="s">
+        <v>801</v>
+      </c>
+      <c r="C20" t="s">
+        <v>864</v>
+      </c>
+      <c r="D20" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" t="s">
+        <v>813</v>
+      </c>
+      <c r="C21" t="s">
+        <v>850</v>
+      </c>
+      <c r="D21" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C22" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" t="s">
+        <v>745</v>
+      </c>
+      <c r="C23" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" t="s">
+        <v>757</v>
+      </c>
+      <c r="C24" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" t="s">
+        <v>769</v>
+      </c>
+      <c r="C25" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" t="s">
+        <v>781</v>
+      </c>
+      <c r="C26" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" t="s">
+        <v>785</v>
+      </c>
+      <c r="C27" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28" t="s">
+        <v>789</v>
+      </c>
+      <c r="C28" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" t="s">
+        <v>801</v>
+      </c>
+      <c r="C29" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30" t="s">
+        <v>811</v>
+      </c>
+      <c r="C30" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" t="s">
+        <v>727</v>
+      </c>
+      <c r="C31" t="s">
+        <v>864</v>
+      </c>
+      <c r="D31" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32" t="s">
+        <v>731</v>
+      </c>
+      <c r="C32" t="s">
+        <v>864</v>
+      </c>
+      <c r="D32" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B33" t="s">
+        <v>737</v>
+      </c>
+      <c r="C33" t="s">
+        <v>848</v>
+      </c>
+      <c r="D33" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" t="s">
+        <v>747</v>
+      </c>
+      <c r="C34" t="s">
+        <v>867</v>
+      </c>
+      <c r="D34" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35" t="s">
+        <v>761</v>
+      </c>
+      <c r="C35" t="s">
+        <v>850</v>
+      </c>
+      <c r="D35" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" t="s">
+        <v>781</v>
+      </c>
+      <c r="C36" t="s">
+        <v>867</v>
+      </c>
+      <c r="D36" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>335</v>
+      </c>
+      <c r="B37" t="s">
+        <v>789</v>
+      </c>
+      <c r="C37" t="s">
+        <v>864</v>
+      </c>
+      <c r="D37" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" t="s">
+        <v>791</v>
+      </c>
+      <c r="C38" t="s">
+        <v>867</v>
+      </c>
+      <c r="D38" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" t="s">
+        <v>811</v>
+      </c>
+      <c r="C39" t="s">
+        <v>639</v>
+      </c>
+      <c r="D39" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" t="s">
+        <v>817</v>
+      </c>
+      <c r="C40" t="s">
+        <v>864</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" t="s">
+        <v>737</v>
+      </c>
+      <c r="C41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" t="s">
+        <v>747</v>
+      </c>
+      <c r="C42" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>337</v>
+      </c>
+      <c r="B43" t="s">
+        <v>791</v>
+      </c>
+      <c r="C43" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" t="s">
+        <v>813</v>
+      </c>
+      <c r="C44" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" t="s">
+        <v>727</v>
+      </c>
+      <c r="C45" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" t="s">
+        <v>757</v>
+      </c>
+      <c r="C46" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" t="s">
+        <v>769</v>
+      </c>
+      <c r="C47" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" t="s">
+        <v>781</v>
+      </c>
+      <c r="C48" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" t="s">
+        <v>801</v>
+      </c>
+      <c r="C49" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" t="s">
+        <v>749</v>
+      </c>
+      <c r="C50" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>339</v>
+      </c>
+      <c r="B51" t="s">
+        <v>767</v>
+      </c>
+      <c r="C51" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>339</v>
+      </c>
+      <c r="B52" t="s">
+        <v>787</v>
+      </c>
+      <c r="C52" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>339</v>
+      </c>
+      <c r="B53" t="s">
+        <v>813</v>
+      </c>
+      <c r="C53" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>339</v>
+      </c>
+      <c r="B54" t="s">
+        <v>815</v>
+      </c>
+      <c r="C54" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" t="s">
+        <v>743</v>
+      </c>
+      <c r="C55" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56" t="s">
+        <v>745</v>
+      </c>
+      <c r="C56" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>340</v>
+      </c>
+      <c r="B57" t="s">
+        <v>757</v>
+      </c>
+      <c r="C57" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>340</v>
+      </c>
+      <c r="B58" t="s">
+        <v>769</v>
+      </c>
+      <c r="C58" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>340</v>
+      </c>
+      <c r="B59" t="s">
+        <v>781</v>
+      </c>
+      <c r="C59" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>340</v>
+      </c>
+      <c r="B60" t="s">
+        <v>785</v>
+      </c>
+      <c r="C60" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>340</v>
+      </c>
+      <c r="B61" t="s">
+        <v>789</v>
+      </c>
+      <c r="C61" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>340</v>
+      </c>
+      <c r="B62" t="s">
+        <v>801</v>
+      </c>
+      <c r="C62" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>340</v>
+      </c>
+      <c r="B63" t="s">
+        <v>811</v>
+      </c>
+      <c r="C63" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64" t="s">
+        <v>725</v>
+      </c>
+      <c r="C64" t="s">
+        <v>853</v>
+      </c>
+      <c r="D64" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>341</v>
+      </c>
+      <c r="B65" t="s">
+        <v>731</v>
+      </c>
+      <c r="C65" t="s">
+        <v>864</v>
+      </c>
+      <c r="D65" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>341</v>
+      </c>
+      <c r="B66" t="s">
+        <v>737</v>
+      </c>
+      <c r="C66" t="s">
+        <v>892</v>
+      </c>
+      <c r="D66" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>341</v>
+      </c>
+      <c r="B67" t="s">
+        <v>747</v>
+      </c>
+      <c r="C67" t="s">
+        <v>867</v>
+      </c>
+      <c r="D67" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B68" t="s">
+        <v>761</v>
+      </c>
+      <c r="C68" t="s">
+        <v>850</v>
+      </c>
+      <c r="D68" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>341</v>
+      </c>
+      <c r="B69" t="s">
+        <v>781</v>
+      </c>
+      <c r="C69" t="s">
+        <v>639</v>
+      </c>
+      <c r="D69" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" t="s">
+        <v>789</v>
+      </c>
+      <c r="C70" t="s">
+        <v>864</v>
+      </c>
+      <c r="D70" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>341</v>
+      </c>
+      <c r="B71" t="s">
+        <v>791</v>
+      </c>
+      <c r="C71" t="s">
+        <v>867</v>
+      </c>
+      <c r="D71" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s">
+        <v>811</v>
+      </c>
+      <c r="C72" t="s">
+        <v>639</v>
+      </c>
+      <c r="D72" s="33">
+        <v>41470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>743</v>
+      </c>
+      <c r="C73" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>747</v>
+      </c>
+      <c r="C74" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
+        <v>757</v>
+      </c>
+      <c r="C75" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
+        <v>811</v>
+      </c>
+      <c r="C76" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>743</v>
+      </c>
+      <c r="C77" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" t="s">
+        <v>747</v>
+      </c>
+      <c r="C78" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" t="s">
+        <v>789</v>
+      </c>
+      <c r="C79" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" t="s">
+        <v>791</v>
+      </c>
+      <c r="C80" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>817</v>
+      </c>
+      <c r="C81" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
+        <v>743</v>
+      </c>
+      <c r="C82" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" t="s">
+        <v>745</v>
+      </c>
+      <c r="C83" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" t="s">
+        <v>757</v>
+      </c>
+      <c r="C84" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
+        <v>769</v>
+      </c>
+      <c r="C85" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" t="s">
+        <v>781</v>
+      </c>
+      <c r="C86" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" t="s">
+        <v>785</v>
+      </c>
+      <c r="C87" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" t="s">
+        <v>789</v>
+      </c>
+      <c r="C88" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" t="s">
+        <v>801</v>
+      </c>
+      <c r="C89" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" t="s">
+        <v>813</v>
+      </c>
+      <c r="C90" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>342</v>
+      </c>
+      <c r="B91" t="s">
+        <v>737</v>
+      </c>
+      <c r="C91" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>342</v>
+      </c>
+      <c r="B92" t="s">
+        <v>747</v>
+      </c>
+      <c r="C92" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93" t="s">
+        <v>791</v>
+      </c>
+      <c r="C93" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>342</v>
+      </c>
+      <c r="B94" t="s">
+        <v>813</v>
+      </c>
+      <c r="C94" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>343</v>
+      </c>
+      <c r="B95" t="s">
+        <v>727</v>
+      </c>
+      <c r="C95" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>343</v>
+      </c>
+      <c r="B96" t="s">
+        <v>757</v>
+      </c>
+      <c r="C96" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>343</v>
+      </c>
+      <c r="B97" t="s">
+        <v>769</v>
+      </c>
+      <c r="C97" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>343</v>
+      </c>
+      <c r="B98" t="s">
+        <v>781</v>
+      </c>
+      <c r="C98" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>343</v>
+      </c>
+      <c r="B99" t="s">
+        <v>801</v>
+      </c>
+      <c r="C99" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>344</v>
+      </c>
+      <c r="B100" t="s">
+        <v>767</v>
+      </c>
+      <c r="C100" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>344</v>
+      </c>
+      <c r="B101" t="s">
+        <v>787</v>
+      </c>
+      <c r="C101" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" t="s">
+        <v>813</v>
+      </c>
+      <c r="C102" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>344</v>
+      </c>
+      <c r="B103" t="s">
+        <v>815</v>
+      </c>
+      <c r="C103" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" t="s">
+        <v>723</v>
+      </c>
+      <c r="C104" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>233</v>
+      </c>
+      <c r="B105" t="s">
+        <v>739</v>
+      </c>
+      <c r="C105" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106" t="s">
+        <v>747</v>
+      </c>
+      <c r="C106" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>233</v>
+      </c>
+      <c r="B107" t="s">
+        <v>757</v>
+      </c>
+      <c r="C107" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>233</v>
+      </c>
+      <c r="B108" t="s">
+        <v>785</v>
+      </c>
+      <c r="C108" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>237</v>
+      </c>
+      <c r="B109" t="s">
+        <v>723</v>
+      </c>
+      <c r="C109" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" t="s">
+        <v>739</v>
+      </c>
+      <c r="C110" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" t="s">
+        <v>747</v>
+      </c>
+      <c r="C111" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>237</v>
+      </c>
+      <c r="B112" t="s">
+        <v>757</v>
+      </c>
+      <c r="C112" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" t="s">
+        <v>785</v>
+      </c>
+      <c r="C113" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" t="s">
+        <v>723</v>
+      </c>
+      <c r="C114" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>238</v>
+      </c>
+      <c r="B115" t="s">
+        <v>739</v>
+      </c>
+      <c r="C115" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>747</v>
+      </c>
+      <c r="C116" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" t="s">
+        <v>757</v>
+      </c>
+      <c r="C117" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" t="s">
+        <v>785</v>
+      </c>
+      <c r="C118" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>723</v>
+      </c>
+      <c r="C119" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
+        <v>739</v>
+      </c>
+      <c r="C120" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" t="s">
+        <v>747</v>
+      </c>
+      <c r="C121" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
+        <v>757</v>
+      </c>
+      <c r="C122" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" t="s">
+        <v>785</v>
+      </c>
+      <c r="C123" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" t="s">
+        <v>723</v>
+      </c>
+      <c r="C124" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>240</v>
+      </c>
+      <c r="B125" t="s">
+        <v>739</v>
+      </c>
+      <c r="C125" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>240</v>
+      </c>
+      <c r="B126" t="s">
+        <v>747</v>
+      </c>
+      <c r="C126" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>240</v>
+      </c>
+      <c r="B127" t="s">
+        <v>757</v>
+      </c>
+      <c r="C127" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>240</v>
+      </c>
+      <c r="B128" t="s">
+        <v>785</v>
+      </c>
+      <c r="C128" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>241</v>
+      </c>
+      <c r="B129" t="s">
+        <v>723</v>
+      </c>
+      <c r="C129" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>241</v>
+      </c>
+      <c r="B130" t="s">
+        <v>739</v>
+      </c>
+      <c r="C130" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" t="s">
+        <v>747</v>
+      </c>
+      <c r="C131" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>241</v>
+      </c>
+      <c r="B132" t="s">
+        <v>757</v>
+      </c>
+      <c r="C132" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>241</v>
+      </c>
+      <c r="B133" t="s">
+        <v>785</v>
+      </c>
+      <c r="C133" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>345</v>
+      </c>
+      <c r="B134" t="s">
+        <v>727</v>
+      </c>
+      <c r="C134" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>345</v>
+      </c>
+      <c r="B135" t="s">
+        <v>747</v>
+      </c>
+      <c r="C135" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>345</v>
+      </c>
+      <c r="B136" t="s">
+        <v>781</v>
+      </c>
+      <c r="C136" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>345</v>
+      </c>
+      <c r="B137" t="s">
+        <v>789</v>
+      </c>
+      <c r="C137" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>345</v>
+      </c>
+      <c r="B138" t="s">
+        <v>791</v>
+      </c>
+      <c r="C138" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>346</v>
+      </c>
+      <c r="B139" t="s">
+        <v>731</v>
+      </c>
+      <c r="C139" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>346</v>
+      </c>
+      <c r="B140" t="s">
+        <v>737</v>
+      </c>
+      <c r="C140" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>346</v>
+      </c>
+      <c r="B141" t="s">
+        <v>795</v>
+      </c>
+      <c r="C141" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>346</v>
+      </c>
+      <c r="B142" t="s">
+        <v>811</v>
+      </c>
+      <c r="C142" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>346</v>
+      </c>
+      <c r="B143" t="s">
+        <v>817</v>
+      </c>
+      <c r="C143" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>347</v>
+      </c>
+      <c r="B144" t="s">
+        <v>747</v>
+      </c>
+      <c r="C144" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>347</v>
+      </c>
+      <c r="B145" t="s">
+        <v>789</v>
+      </c>
+      <c r="C145" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>347</v>
+      </c>
+      <c r="B146" t="s">
+        <v>791</v>
+      </c>
+      <c r="C146" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>347</v>
+      </c>
+      <c r="B147" t="s">
+        <v>813</v>
+      </c>
+      <c r="C147" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>348</v>
+      </c>
+      <c r="B148" t="s">
+        <v>737</v>
+      </c>
+      <c r="C148" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>348</v>
+      </c>
+      <c r="B149" t="s">
+        <v>757</v>
+      </c>
+      <c r="C149" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>348</v>
+      </c>
+      <c r="B150" t="s">
+        <v>769</v>
+      </c>
+      <c r="C150" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>348</v>
+      </c>
+      <c r="B151" t="s">
+        <v>781</v>
+      </c>
+      <c r="C151" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>348</v>
+      </c>
+      <c r="B152" t="s">
+        <v>801</v>
+      </c>
+      <c r="C152" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>349</v>
+      </c>
+      <c r="B153" t="s">
+        <v>813</v>
+      </c>
+      <c r="C153" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>350</v>
+      </c>
+      <c r="B154" t="s">
+        <v>743</v>
+      </c>
+      <c r="C154" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>350</v>
+      </c>
+      <c r="B155" t="s">
+        <v>745</v>
+      </c>
+      <c r="C155" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>350</v>
+      </c>
+      <c r="B156" t="s">
+        <v>757</v>
+      </c>
+      <c r="C156" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>350</v>
+      </c>
+      <c r="B157" t="s">
+        <v>769</v>
+      </c>
+      <c r="C157" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>350</v>
+      </c>
+      <c r="B158" t="s">
+        <v>781</v>
+      </c>
+      <c r="C158" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>350</v>
+      </c>
+      <c r="B159" t="s">
+        <v>785</v>
+      </c>
+      <c r="C159" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>350</v>
+      </c>
+      <c r="B160" t="s">
+        <v>789</v>
+      </c>
+      <c r="C160" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>350</v>
+      </c>
+      <c r="B161" t="s">
+        <v>801</v>
+      </c>
+      <c r="C161" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>350</v>
+      </c>
+      <c r="B162" t="s">
+        <v>811</v>
+      </c>
+      <c r="C162" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>351</v>
+      </c>
+      <c r="B163" t="s">
+        <v>737</v>
+      </c>
+      <c r="C163" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>351</v>
+      </c>
+      <c r="B164" t="s">
+        <v>747</v>
+      </c>
+      <c r="C164" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>351</v>
+      </c>
+      <c r="B165" t="s">
+        <v>781</v>
+      </c>
+      <c r="C165" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>351</v>
+      </c>
+      <c r="B166" t="s">
+        <v>789</v>
+      </c>
+      <c r="C166" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>351</v>
+      </c>
+      <c r="B167" t="s">
+        <v>791</v>
+      </c>
+      <c r="C167" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168" t="s">
+        <v>727</v>
+      </c>
+      <c r="C168" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>352</v>
+      </c>
+      <c r="B169" t="s">
+        <v>731</v>
+      </c>
+      <c r="C169" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>352</v>
+      </c>
+      <c r="B170" t="s">
+        <v>795</v>
+      </c>
+      <c r="C170" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>352</v>
+      </c>
+      <c r="B171" t="s">
+        <v>811</v>
+      </c>
+      <c r="C171" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>352</v>
+      </c>
+      <c r="B172" t="s">
+        <v>817</v>
+      </c>
+      <c r="C172" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>353</v>
+      </c>
+      <c r="B173" t="s">
+        <v>737</v>
+      </c>
+      <c r="C173" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>353</v>
+      </c>
+      <c r="B174" t="s">
+        <v>747</v>
+      </c>
+      <c r="C174" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>353</v>
+      </c>
+      <c r="B175" t="s">
+        <v>791</v>
+      </c>
+      <c r="C175" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>353</v>
+      </c>
+      <c r="B176" t="s">
+        <v>813</v>
+      </c>
+      <c r="C176" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>354</v>
+      </c>
+      <c r="B177" t="s">
+        <v>727</v>
+      </c>
+      <c r="C177" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>757</v>
+      </c>
+      <c r="C178" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" t="s">
+        <v>769</v>
+      </c>
+      <c r="C179" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>354</v>
+      </c>
+      <c r="B180" t="s">
+        <v>781</v>
+      </c>
+      <c r="C180" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>354</v>
+      </c>
+      <c r="B181" t="s">
+        <v>801</v>
+      </c>
+      <c r="C181" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>355</v>
+      </c>
+      <c r="B182" t="s">
+        <v>767</v>
+      </c>
+      <c r="C182" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>355</v>
+      </c>
+      <c r="B183" t="s">
+        <v>787</v>
+      </c>
+      <c r="C183" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>355</v>
+      </c>
+      <c r="B184" t="s">
+        <v>813</v>
+      </c>
+      <c r="C184" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>355</v>
+      </c>
+      <c r="B185" t="s">
+        <v>815</v>
+      </c>
+      <c r="C185" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>356</v>
+      </c>
+      <c r="B186" t="s">
+        <v>743</v>
+      </c>
+      <c r="C186" t="s">
+        <v>903</v>
+      </c>
+      <c r="D186" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>356</v>
+      </c>
+      <c r="B187" t="s">
+        <v>745</v>
+      </c>
+      <c r="C187" t="s">
+        <v>903</v>
+      </c>
+      <c r="D187" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>356</v>
+      </c>
+      <c r="B188" t="s">
+        <v>757</v>
+      </c>
+      <c r="C188" t="s">
+        <v>903</v>
+      </c>
+      <c r="D188" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>356</v>
+      </c>
+      <c r="B189" t="s">
+        <v>769</v>
+      </c>
+      <c r="C189" t="s">
+        <v>903</v>
+      </c>
+      <c r="D189" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>356</v>
+      </c>
+      <c r="B190" t="s">
+        <v>781</v>
+      </c>
+      <c r="C190" t="s">
+        <v>903</v>
+      </c>
+      <c r="D190" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>356</v>
+      </c>
+      <c r="B191" t="s">
+        <v>785</v>
+      </c>
+      <c r="C191" t="s">
+        <v>903</v>
+      </c>
+      <c r="D191" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>356</v>
+      </c>
+      <c r="B192" t="s">
+        <v>789</v>
+      </c>
+      <c r="C192" t="s">
+        <v>903</v>
+      </c>
+      <c r="D192" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>356</v>
+      </c>
+      <c r="B193" t="s">
+        <v>801</v>
+      </c>
+      <c r="C193" t="s">
+        <v>903</v>
+      </c>
+      <c r="D193" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>356</v>
+      </c>
+      <c r="B194" t="s">
+        <v>811</v>
+      </c>
+      <c r="C194" t="s">
+        <v>903</v>
+      </c>
+      <c r="D194" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" t="s">
+        <v>743</v>
+      </c>
+      <c r="C195" t="s">
+        <v>857</v>
+      </c>
+      <c r="D195" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" t="s">
+        <v>745</v>
+      </c>
+      <c r="C196" t="s">
+        <v>857</v>
+      </c>
+      <c r="D196" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" t="s">
+        <v>757</v>
+      </c>
+      <c r="C197" t="s">
+        <v>857</v>
+      </c>
+      <c r="D197" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" t="s">
+        <v>785</v>
+      </c>
+      <c r="C198" t="s">
+        <v>903</v>
+      </c>
+      <c r="D198" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" t="s">
+        <v>811</v>
+      </c>
+      <c r="C199" t="s">
+        <v>857</v>
+      </c>
+      <c r="D199" s="33">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>357</v>
+      </c>
+      <c r="B200" t="s">
+        <v>725</v>
+      </c>
+      <c r="C200" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>357</v>
+      </c>
+      <c r="B201" t="s">
+        <v>747</v>
+      </c>
+      <c r="C201" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>357</v>
+      </c>
+      <c r="B202" t="s">
+        <v>781</v>
+      </c>
+      <c r="C202" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>357</v>
+      </c>
+      <c r="B203" t="s">
+        <v>789</v>
+      </c>
+      <c r="C203" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>357</v>
+      </c>
+      <c r="B204" t="s">
+        <v>791</v>
+      </c>
+      <c r="C204" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>358</v>
+      </c>
+      <c r="B205" t="s">
+        <v>731</v>
+      </c>
+      <c r="C205" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>358</v>
+      </c>
+      <c r="B206" t="s">
+        <v>737</v>
+      </c>
+      <c r="C206" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>358</v>
+      </c>
+      <c r="B207" t="s">
+        <v>795</v>
+      </c>
+      <c r="C207" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>358</v>
+      </c>
+      <c r="B208" t="s">
+        <v>811</v>
+      </c>
+      <c r="C208" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>359</v>
+      </c>
+      <c r="B209" t="s">
+        <v>737</v>
+      </c>
+      <c r="C209" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>359</v>
+      </c>
+      <c r="B210" t="s">
+        <v>747</v>
+      </c>
+      <c r="C210" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>359</v>
+      </c>
+      <c r="B211" t="s">
+        <v>791</v>
+      </c>
+      <c r="C211" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>359</v>
+      </c>
+      <c r="B212" t="s">
+        <v>813</v>
+      </c>
+      <c r="C212" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>360</v>
+      </c>
+      <c r="B213" t="s">
+        <v>727</v>
+      </c>
+      <c r="C213" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>360</v>
+      </c>
+      <c r="B214" t="s">
+        <v>757</v>
+      </c>
+      <c r="C214" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>360</v>
+      </c>
+      <c r="B215" t="s">
+        <v>769</v>
+      </c>
+      <c r="C215" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>360</v>
+      </c>
+      <c r="B216" t="s">
+        <v>781</v>
+      </c>
+      <c r="C216" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>360</v>
+      </c>
+      <c r="B217" t="s">
+        <v>801</v>
+      </c>
+      <c r="C217" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>361</v>
+      </c>
+      <c r="B218" t="s">
+        <v>767</v>
+      </c>
+      <c r="C218" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>361</v>
+      </c>
+      <c r="B219" t="s">
+        <v>787</v>
+      </c>
+      <c r="C219" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>361</v>
+      </c>
+      <c r="B220" t="s">
+        <v>813</v>
+      </c>
+      <c r="C220" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>361</v>
+      </c>
+      <c r="B221" t="s">
+        <v>815</v>
+      </c>
+      <c r="C221" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>362</v>
+      </c>
+      <c r="B222" t="s">
+        <v>727</v>
+      </c>
+      <c r="C222" t="s">
+        <v>871</v>
+      </c>
+      <c r="D222" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>362</v>
+      </c>
+      <c r="B223" t="s">
+        <v>747</v>
+      </c>
+      <c r="C223" t="s">
+        <v>867</v>
+      </c>
+      <c r="D223" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>362</v>
+      </c>
+      <c r="B224" t="s">
+        <v>781</v>
+      </c>
+      <c r="C224" t="s">
+        <v>867</v>
+      </c>
+      <c r="D224" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>362</v>
+      </c>
+      <c r="B225" t="s">
+        <v>791</v>
+      </c>
+      <c r="C225" t="s">
+        <v>867</v>
+      </c>
+      <c r="D225" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>362</v>
+      </c>
+      <c r="B226" t="s">
+        <v>813</v>
+      </c>
+      <c r="C226" t="s">
+        <v>850</v>
+      </c>
+      <c r="D226" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>363</v>
+      </c>
+      <c r="B227" t="s">
+        <v>737</v>
+      </c>
+      <c r="C227" t="s">
+        <v>867</v>
+      </c>
+      <c r="D227" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>363</v>
+      </c>
+      <c r="B228" t="s">
+        <v>789</v>
+      </c>
+      <c r="C228" t="s">
+        <v>864</v>
+      </c>
+      <c r="D228" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>363</v>
+      </c>
+      <c r="B229" t="s">
+        <v>795</v>
+      </c>
+      <c r="C229" t="s">
+        <v>864</v>
+      </c>
+      <c r="D229" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>363</v>
+      </c>
+      <c r="B230" t="s">
+        <v>817</v>
+      </c>
+      <c r="C230" t="s">
+        <v>639</v>
+      </c>
+      <c r="D230" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>364</v>
+      </c>
+      <c r="B231" t="s">
+        <v>737</v>
+      </c>
+      <c r="C231" t="s">
+        <v>639</v>
+      </c>
+      <c r="D231" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>364</v>
+      </c>
+      <c r="B232" t="s">
+        <v>781</v>
+      </c>
+      <c r="C232" t="s">
+        <v>867</v>
+      </c>
+      <c r="D232" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>364</v>
+      </c>
+      <c r="B233" t="s">
+        <v>813</v>
+      </c>
+      <c r="C233" t="s">
+        <v>850</v>
+      </c>
+      <c r="D233" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>365</v>
+      </c>
+      <c r="B234" t="s">
+        <v>747</v>
+      </c>
+      <c r="C234" t="s">
+        <v>867</v>
+      </c>
+      <c r="D234" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>365</v>
+      </c>
+      <c r="B235" t="s">
+        <v>757</v>
+      </c>
+      <c r="C235" t="s">
+        <v>867</v>
+      </c>
+      <c r="D235" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>365</v>
+      </c>
+      <c r="B236" t="s">
+        <v>769</v>
+      </c>
+      <c r="C236" t="s">
+        <v>864</v>
+      </c>
+      <c r="D236" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>365</v>
+      </c>
+      <c r="B237" t="s">
+        <v>791</v>
+      </c>
+      <c r="C237" t="s">
+        <v>867</v>
+      </c>
+      <c r="D237" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>365</v>
+      </c>
+      <c r="B238" t="s">
+        <v>801</v>
+      </c>
+      <c r="C238" t="s">
+        <v>864</v>
+      </c>
+      <c r="D238" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>366</v>
+      </c>
+      <c r="B239" t="s">
+        <v>749</v>
+      </c>
+      <c r="C239" t="s">
+        <v>850</v>
+      </c>
+      <c r="D239" s="33" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>366</v>
+      </c>
+      <c r="B240" t="s">
+        <v>767</v>
+      </c>
+      <c r="C240" t="s">
+        <v>850</v>
+      </c>
+      <c r="D240" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>366</v>
+      </c>
+      <c r="B241" t="s">
+        <v>787</v>
+      </c>
+      <c r="C241" t="s">
+        <v>850</v>
+      </c>
+      <c r="D241" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>366</v>
+      </c>
+      <c r="B242" t="s">
+        <v>815</v>
+      </c>
+      <c r="C242" t="s">
+        <v>850</v>
+      </c>
+      <c r="D242" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>367</v>
+      </c>
+      <c r="B243" t="s">
+        <v>743</v>
+      </c>
+      <c r="C243" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>367</v>
+      </c>
+      <c r="B244" t="s">
+        <v>745</v>
+      </c>
+      <c r="C244" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>367</v>
+      </c>
+      <c r="B245" t="s">
+        <v>757</v>
+      </c>
+      <c r="C245" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>367</v>
+      </c>
+      <c r="B246" t="s">
+        <v>769</v>
+      </c>
+      <c r="C246" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>367</v>
+      </c>
+      <c r="B247" t="s">
+        <v>781</v>
+      </c>
+      <c r="C247" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>367</v>
+      </c>
+      <c r="B248" t="s">
+        <v>785</v>
+      </c>
+      <c r="C248" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>367</v>
+      </c>
+      <c r="B249" t="s">
+        <v>789</v>
+      </c>
+      <c r="C249" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>367</v>
+      </c>
+      <c r="B250" t="s">
+        <v>801</v>
+      </c>
+      <c r="C250" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>367</v>
+      </c>
+      <c r="B251" t="s">
+        <v>811</v>
+      </c>
+      <c r="C251" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>368</v>
+      </c>
+      <c r="B252" t="s">
+        <v>727</v>
+      </c>
+      <c r="C252" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>29</v>
+      </c>
+      <c r="B253" t="s">
+        <v>743</v>
+      </c>
+      <c r="C253" t="s">
+        <v>857</v>
+      </c>
+      <c r="D253" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>29</v>
+      </c>
+      <c r="B254" t="s">
+        <v>745</v>
+      </c>
+      <c r="C254" t="s">
+        <v>857</v>
+      </c>
+      <c r="D254" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>29</v>
+      </c>
+      <c r="B255" t="s">
+        <v>757</v>
+      </c>
+      <c r="C255" t="s">
+        <v>857</v>
+      </c>
+      <c r="D255" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>29</v>
+      </c>
+      <c r="B256" t="s">
+        <v>785</v>
+      </c>
+      <c r="C256" t="s">
+        <v>903</v>
+      </c>
+      <c r="D256" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>29</v>
+      </c>
+      <c r="B257" t="s">
+        <v>811</v>
+      </c>
+      <c r="C257" t="s">
+        <v>903</v>
+      </c>
+      <c r="D257" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>369</v>
+      </c>
+      <c r="B258" t="s">
+        <v>727</v>
+      </c>
+      <c r="C258" t="s">
+        <v>873</v>
+      </c>
+      <c r="D258" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>30</v>
+      </c>
+      <c r="B259" t="s">
+        <v>743</v>
+      </c>
+      <c r="C259" t="s">
+        <v>857</v>
+      </c>
+      <c r="D259" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>30</v>
+      </c>
+      <c r="B260" t="s">
+        <v>745</v>
+      </c>
+      <c r="C260" t="s">
+        <v>857</v>
+      </c>
+      <c r="D260" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>30</v>
+      </c>
+      <c r="B261" t="s">
+        <v>757</v>
+      </c>
+      <c r="C261" t="s">
+        <v>857</v>
+      </c>
+      <c r="D261" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>30</v>
+      </c>
+      <c r="B262" t="s">
+        <v>785</v>
+      </c>
+      <c r="C262" t="s">
+        <v>903</v>
+      </c>
+      <c r="D262" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>30</v>
+      </c>
+      <c r="B263" t="s">
+        <v>811</v>
+      </c>
+      <c r="C263" t="s">
+        <v>903</v>
+      </c>
+      <c r="D263" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>370</v>
+      </c>
+      <c r="B264" t="s">
+        <v>727</v>
+      </c>
+      <c r="C264" t="s">
+        <v>873</v>
+      </c>
+      <c r="D264" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+      <c r="B265" t="s">
+        <v>743</v>
+      </c>
+      <c r="C265" t="s">
+        <v>903</v>
+      </c>
+      <c r="D265" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>31</v>
+      </c>
+      <c r="B266" t="s">
+        <v>745</v>
+      </c>
+      <c r="C266" t="s">
+        <v>857</v>
+      </c>
+      <c r="D266" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>31</v>
+      </c>
+      <c r="B267" t="s">
+        <v>757</v>
+      </c>
+      <c r="C267" t="s">
+        <v>857</v>
+      </c>
+      <c r="D267" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>31</v>
+      </c>
+      <c r="B268" t="s">
+        <v>785</v>
+      </c>
+      <c r="C268" t="s">
+        <v>903</v>
+      </c>
+      <c r="D268" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>31</v>
+      </c>
+      <c r="B269" t="s">
+        <v>811</v>
+      </c>
+      <c r="C269" t="s">
+        <v>903</v>
+      </c>
+      <c r="D269" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>371</v>
+      </c>
+      <c r="B270" t="s">
+        <v>725</v>
+      </c>
+      <c r="C270" t="s">
+        <v>859</v>
+      </c>
+      <c r="D270" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>32</v>
+      </c>
+      <c r="B271" t="s">
+        <v>743</v>
+      </c>
+      <c r="C271" t="s">
+        <v>857</v>
+      </c>
+      <c r="D271" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>32</v>
+      </c>
+      <c r="B272" t="s">
+        <v>745</v>
+      </c>
+      <c r="C272" t="s">
+        <v>857</v>
+      </c>
+      <c r="D272" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>32</v>
+      </c>
+      <c r="B273" t="s">
+        <v>757</v>
+      </c>
+      <c r="C273" t="s">
+        <v>857</v>
+      </c>
+      <c r="D273" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>32</v>
+      </c>
+      <c r="B274" t="s">
+        <v>785</v>
+      </c>
+      <c r="C274" t="s">
+        <v>903</v>
+      </c>
+      <c r="D274" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>32</v>
+      </c>
+      <c r="B275" t="s">
+        <v>811</v>
+      </c>
+      <c r="C275" t="s">
+        <v>903</v>
+      </c>
+      <c r="D275" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>372</v>
+      </c>
+      <c r="B276" t="s">
+        <v>737</v>
+      </c>
+      <c r="C276" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>372</v>
+      </c>
+      <c r="B277" t="s">
+        <v>747</v>
+      </c>
+      <c r="C277" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>372</v>
+      </c>
+      <c r="B278" t="s">
+        <v>791</v>
+      </c>
+      <c r="C278" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>372</v>
+      </c>
+      <c r="B279" t="s">
+        <v>813</v>
+      </c>
+      <c r="C279" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>373</v>
+      </c>
+      <c r="B280" t="s">
+        <v>727</v>
+      </c>
+      <c r="C280" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>373</v>
+      </c>
+      <c r="B281" t="s">
+        <v>781</v>
+      </c>
+      <c r="C281" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>373</v>
+      </c>
+      <c r="B282" t="s">
+        <v>789</v>
+      </c>
+      <c r="C282" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>373</v>
+      </c>
+      <c r="B283" t="s">
+        <v>795</v>
+      </c>
+      <c r="C283" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>373</v>
+      </c>
+      <c r="B284" t="s">
+        <v>817</v>
+      </c>
+      <c r="C284" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>374</v>
+      </c>
+      <c r="B285" t="s">
+        <v>747</v>
+      </c>
+      <c r="C285" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>374</v>
+      </c>
+      <c r="B286" t="s">
+        <v>781</v>
+      </c>
+      <c r="C286" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>374</v>
+      </c>
+      <c r="B287" t="s">
+        <v>791</v>
+      </c>
+      <c r="C287" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>374</v>
+      </c>
+      <c r="B288" t="s">
+        <v>801</v>
+      </c>
+      <c r="C288" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>375</v>
+      </c>
+      <c r="B289" t="s">
+        <v>737</v>
+      </c>
+      <c r="C289" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>375</v>
+      </c>
+      <c r="B290" t="s">
+        <v>757</v>
+      </c>
+      <c r="C290" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>375</v>
+      </c>
+      <c r="B291" t="s">
+        <v>769</v>
+      </c>
+      <c r="C291" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>375</v>
+      </c>
+      <c r="B292" t="s">
+        <v>813</v>
+      </c>
+      <c r="C292" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>376</v>
+      </c>
+      <c r="B293" t="s">
+        <v>767</v>
+      </c>
+      <c r="C293" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>376</v>
+      </c>
+      <c r="B294" t="s">
+        <v>787</v>
+      </c>
+      <c r="C294" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>377</v>
+      </c>
+      <c r="B295" t="s">
+        <v>743</v>
+      </c>
+      <c r="C295" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>377</v>
+      </c>
+      <c r="B296" t="s">
+        <v>745</v>
+      </c>
+      <c r="C296" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>377</v>
+      </c>
+      <c r="B297" t="s">
+        <v>757</v>
+      </c>
+      <c r="C297" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>377</v>
+      </c>
+      <c r="B298" t="s">
+        <v>769</v>
+      </c>
+      <c r="C298" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>377</v>
+      </c>
+      <c r="B299" t="s">
+        <v>781</v>
+      </c>
+      <c r="C299" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>377</v>
+      </c>
+      <c r="B300" t="s">
+        <v>785</v>
+      </c>
+      <c r="C300" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>377</v>
+      </c>
+      <c r="B301" t="s">
+        <v>789</v>
+      </c>
+      <c r="C301" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>377</v>
+      </c>
+      <c r="B302" t="s">
+        <v>801</v>
+      </c>
+      <c r="C302" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>377</v>
+      </c>
+      <c r="B303" t="s">
+        <v>811</v>
+      </c>
+      <c r="C303" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>35</v>
+      </c>
+      <c r="B304" t="s">
+        <v>743</v>
+      </c>
+      <c r="C304" t="s">
+        <v>857</v>
+      </c>
+      <c r="D304" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>35</v>
+      </c>
+      <c r="B305" t="s">
+        <v>745</v>
+      </c>
+      <c r="C305" t="s">
+        <v>857</v>
+      </c>
+      <c r="D305" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>35</v>
+      </c>
+      <c r="B306" t="s">
+        <v>757</v>
+      </c>
+      <c r="C306" t="s">
+        <v>857</v>
+      </c>
+      <c r="D306" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>35</v>
+      </c>
+      <c r="B307" t="s">
+        <v>785</v>
+      </c>
+      <c r="C307" t="s">
+        <v>903</v>
+      </c>
+      <c r="D307" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>35</v>
+      </c>
+      <c r="B308" t="s">
+        <v>811</v>
+      </c>
+      <c r="C308" t="s">
+        <v>903</v>
+      </c>
+      <c r="D308" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>378</v>
+      </c>
+      <c r="B309" t="s">
+        <v>737</v>
+      </c>
+      <c r="C309" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>378</v>
+      </c>
+      <c r="B310" t="s">
+        <v>747</v>
+      </c>
+      <c r="C310" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>378</v>
+      </c>
+      <c r="B311" t="s">
+        <v>791</v>
+      </c>
+      <c r="C311" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>378</v>
+      </c>
+      <c r="B312" t="s">
+        <v>813</v>
+      </c>
+      <c r="C312" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>379</v>
+      </c>
+      <c r="B313" t="s">
+        <v>725</v>
+      </c>
+      <c r="C313" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>379</v>
+      </c>
+      <c r="B314" t="s">
+        <v>781</v>
+      </c>
+      <c r="C314" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>379</v>
+      </c>
+      <c r="B315" t="s">
+        <v>789</v>
+      </c>
+      <c r="C315" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>379</v>
+      </c>
+      <c r="B316" t="s">
+        <v>795</v>
+      </c>
+      <c r="C316" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>379</v>
+      </c>
+      <c r="B317" t="s">
+        <v>817</v>
+      </c>
+      <c r="C317" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>380</v>
+      </c>
+      <c r="B318" t="s">
+        <v>747</v>
+      </c>
+      <c r="C318" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>380</v>
+      </c>
+      <c r="B319" t="s">
+        <v>781</v>
+      </c>
+      <c r="C319" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>380</v>
+      </c>
+      <c r="B320" t="s">
+        <v>791</v>
+      </c>
+      <c r="C320" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>380</v>
+      </c>
+      <c r="B321" t="s">
+        <v>801</v>
+      </c>
+      <c r="C321" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>381</v>
+      </c>
+      <c r="B322" t="s">
+        <v>737</v>
+      </c>
+      <c r="C322" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>381</v>
+      </c>
+      <c r="B323" t="s">
+        <v>757</v>
+      </c>
+      <c r="C323" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>381</v>
+      </c>
+      <c r="B324" t="s">
+        <v>769</v>
+      </c>
+      <c r="C324" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>381</v>
+      </c>
+      <c r="B325" t="s">
+        <v>813</v>
+      </c>
+      <c r="C325" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>382</v>
+      </c>
+      <c r="B326" t="s">
+        <v>767</v>
+      </c>
+      <c r="C326" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>382</v>
+      </c>
+      <c r="B327" t="s">
+        <v>787</v>
+      </c>
+      <c r="C327" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>56</v>
+      </c>
+      <c r="B328" t="s">
+        <v>723</v>
+      </c>
+      <c r="C328" t="s">
+        <v>848</v>
+      </c>
+      <c r="D328" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>56</v>
+      </c>
+      <c r="B329" t="s">
+        <v>735</v>
+      </c>
+      <c r="C329" t="s">
+        <v>848</v>
+      </c>
+      <c r="D329" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>56</v>
+      </c>
+      <c r="B330" t="s">
+        <v>747</v>
+      </c>
+      <c r="C330" t="s">
+        <v>848</v>
+      </c>
+      <c r="D330" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>56</v>
+      </c>
+      <c r="B331" t="s">
+        <v>757</v>
+      </c>
+      <c r="C331" t="s">
+        <v>848</v>
+      </c>
+      <c r="D331" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>56</v>
+      </c>
+      <c r="B332" t="s">
+        <v>769</v>
+      </c>
+      <c r="C332" t="s">
+        <v>848</v>
+      </c>
+      <c r="D332" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>56</v>
+      </c>
+      <c r="B333" t="s">
+        <v>785</v>
+      </c>
+      <c r="C333" t="s">
+        <v>848</v>
+      </c>
+      <c r="D333" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>59</v>
+      </c>
+      <c r="B334" t="s">
+        <v>723</v>
+      </c>
+      <c r="C334" t="s">
+        <v>848</v>
+      </c>
+      <c r="D334" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>59</v>
+      </c>
+      <c r="B335" t="s">
+        <v>735</v>
+      </c>
+      <c r="C335" t="s">
+        <v>848</v>
+      </c>
+      <c r="D335" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>59</v>
+      </c>
+      <c r="B336" t="s">
+        <v>747</v>
+      </c>
+      <c r="C336" t="s">
+        <v>848</v>
+      </c>
+      <c r="D336" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>59</v>
+      </c>
+      <c r="B337" t="s">
+        <v>757</v>
+      </c>
+      <c r="C337" t="s">
+        <v>848</v>
+      </c>
+      <c r="D337" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>59</v>
+      </c>
+      <c r="B338" t="s">
+        <v>769</v>
+      </c>
+      <c r="C338" t="s">
+        <v>848</v>
+      </c>
+      <c r="D338" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>59</v>
+      </c>
+      <c r="B339" t="s">
+        <v>785</v>
+      </c>
+      <c r="C339" t="s">
+        <v>848</v>
+      </c>
+      <c r="D339" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>60</v>
+      </c>
+      <c r="B340" t="s">
+        <v>723</v>
+      </c>
+      <c r="C340" t="s">
+        <v>848</v>
+      </c>
+      <c r="D340" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>60</v>
+      </c>
+      <c r="B341" t="s">
+        <v>735</v>
+      </c>
+      <c r="C341" t="s">
+        <v>848</v>
+      </c>
+      <c r="D341" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>60</v>
+      </c>
+      <c r="B342" t="s">
+        <v>747</v>
+      </c>
+      <c r="C342" t="s">
+        <v>848</v>
+      </c>
+      <c r="D342" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>60</v>
+      </c>
+      <c r="B343" t="s">
+        <v>757</v>
+      </c>
+      <c r="C343" t="s">
+        <v>848</v>
+      </c>
+      <c r="D343" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>60</v>
+      </c>
+      <c r="B344" t="s">
+        <v>769</v>
+      </c>
+      <c r="C344" t="s">
+        <v>848</v>
+      </c>
+      <c r="D344" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>60</v>
+      </c>
+      <c r="B345" t="s">
+        <v>785</v>
+      </c>
+      <c r="C345" t="s">
+        <v>848</v>
+      </c>
+      <c r="D345" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>247</v>
+      </c>
+      <c r="B346" t="s">
+        <v>723</v>
+      </c>
+      <c r="C346" t="s">
+        <v>572</v>
+      </c>
+      <c r="D346" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>247</v>
+      </c>
+      <c r="B347" t="s">
+        <v>739</v>
+      </c>
+      <c r="C347" t="s">
+        <v>572</v>
+      </c>
+      <c r="D347" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>247</v>
+      </c>
+      <c r="B348" t="s">
+        <v>747</v>
+      </c>
+      <c r="C348" t="s">
+        <v>572</v>
+      </c>
+      <c r="D348" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>247</v>
+      </c>
+      <c r="B349" t="s">
+        <v>757</v>
+      </c>
+      <c r="C349" t="s">
+        <v>572</v>
+      </c>
+      <c r="D349" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>247</v>
+      </c>
+      <c r="B350" t="s">
+        <v>785</v>
+      </c>
+      <c r="C350" t="s">
+        <v>572</v>
+      </c>
+      <c r="D350" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>248</v>
+      </c>
+      <c r="B351" t="s">
+        <v>723</v>
+      </c>
+      <c r="C351" t="s">
+        <v>572</v>
+      </c>
+      <c r="D351" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>248</v>
+      </c>
+      <c r="B352" t="s">
+        <v>739</v>
+      </c>
+      <c r="C352" t="s">
+        <v>572</v>
+      </c>
+      <c r="D352" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>248</v>
+      </c>
+      <c r="B353" t="s">
+        <v>747</v>
+      </c>
+      <c r="C353" t="s">
+        <v>572</v>
+      </c>
+      <c r="D353" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>248</v>
+      </c>
+      <c r="B354" t="s">
+        <v>757</v>
+      </c>
+      <c r="C354" t="s">
+        <v>572</v>
+      </c>
+      <c r="D354" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>248</v>
+      </c>
+      <c r="B355" t="s">
+        <v>785</v>
+      </c>
+      <c r="C355" t="s">
+        <v>572</v>
+      </c>
+      <c r="D355" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>249</v>
+      </c>
+      <c r="B356" t="s">
+        <v>723</v>
+      </c>
+      <c r="C356" t="s">
+        <v>572</v>
+      </c>
+      <c r="D356" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>249</v>
+      </c>
+      <c r="B357" t="s">
+        <v>739</v>
+      </c>
+      <c r="C357" t="s">
+        <v>572</v>
+      </c>
+      <c r="D357" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>249</v>
+      </c>
+      <c r="B358" t="s">
+        <v>747</v>
+      </c>
+      <c r="C358" t="s">
+        <v>572</v>
+      </c>
+      <c r="D358" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>249</v>
+      </c>
+      <c r="B359" t="s">
+        <v>757</v>
+      </c>
+      <c r="C359" t="s">
+        <v>572</v>
+      </c>
+      <c r="D359" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>249</v>
+      </c>
+      <c r="B360" t="s">
+        <v>785</v>
+      </c>
+      <c r="C360" t="s">
+        <v>572</v>
+      </c>
+      <c r="D360" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>250</v>
+      </c>
+      <c r="B361" t="s">
+        <v>723</v>
+      </c>
+      <c r="C361" t="s">
+        <v>572</v>
+      </c>
+      <c r="D361" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>250</v>
+      </c>
+      <c r="B362" t="s">
+        <v>739</v>
+      </c>
+      <c r="C362" t="s">
+        <v>572</v>
+      </c>
+      <c r="D362" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>250</v>
+      </c>
+      <c r="B363" t="s">
+        <v>747</v>
+      </c>
+      <c r="C363" t="s">
+        <v>572</v>
+      </c>
+      <c r="D363" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>250</v>
+      </c>
+      <c r="B364" t="s">
+        <v>757</v>
+      </c>
+      <c r="C364" t="s">
+        <v>572</v>
+      </c>
+      <c r="D364" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>250</v>
+      </c>
+      <c r="B365" t="s">
+        <v>785</v>
+      </c>
+      <c r="C365" t="s">
+        <v>572</v>
+      </c>
+      <c r="D365" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>251</v>
+      </c>
+      <c r="B366" t="s">
+        <v>723</v>
+      </c>
+      <c r="C366" t="s">
+        <v>572</v>
+      </c>
+      <c r="D366" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>251</v>
+      </c>
+      <c r="B367" t="s">
+        <v>739</v>
+      </c>
+      <c r="C367" t="s">
+        <v>572</v>
+      </c>
+      <c r="D367" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>251</v>
+      </c>
+      <c r="B368" t="s">
+        <v>747</v>
+      </c>
+      <c r="C368" t="s">
+        <v>572</v>
+      </c>
+      <c r="D368" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>251</v>
+      </c>
+      <c r="B369" t="s">
+        <v>757</v>
+      </c>
+      <c r="C369" t="s">
+        <v>572</v>
+      </c>
+      <c r="D369" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>251</v>
+      </c>
+      <c r="B370" t="s">
+        <v>785</v>
+      </c>
+      <c r="C370" t="s">
+        <v>572</v>
+      </c>
+      <c r="D370" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>252</v>
+      </c>
+      <c r="B371" t="s">
+        <v>723</v>
+      </c>
+      <c r="C371" t="s">
+        <v>572</v>
+      </c>
+      <c r="D371" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>252</v>
+      </c>
+      <c r="B372" t="s">
+        <v>739</v>
+      </c>
+      <c r="C372" t="s">
+        <v>572</v>
+      </c>
+      <c r="D372" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>252</v>
+      </c>
+      <c r="B373" t="s">
+        <v>747</v>
+      </c>
+      <c r="C373" t="s">
+        <v>572</v>
+      </c>
+      <c r="D373" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>252</v>
+      </c>
+      <c r="B374" t="s">
+        <v>757</v>
+      </c>
+      <c r="C374" t="s">
+        <v>572</v>
+      </c>
+      <c r="D374" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>252</v>
+      </c>
+      <c r="B375" t="s">
+        <v>785</v>
+      </c>
+      <c r="C375" t="s">
+        <v>572</v>
+      </c>
+      <c r="D375" s="33">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>383</v>
+      </c>
+      <c r="B376" t="s">
+        <v>725</v>
+      </c>
+      <c r="C376" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>383</v>
+      </c>
+      <c r="B377" t="s">
+        <v>737</v>
+      </c>
+      <c r="C377" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>383</v>
+      </c>
+      <c r="B378" t="s">
+        <v>757</v>
+      </c>
+      <c r="C378" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>383</v>
+      </c>
+      <c r="B379" t="s">
+        <v>813</v>
+      </c>
+      <c r="C379" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>384</v>
+      </c>
+      <c r="B380" t="s">
+        <v>741</v>
+      </c>
+      <c r="C380" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>384</v>
+      </c>
+      <c r="B381" t="s">
+        <v>791</v>
+      </c>
+      <c r="C381" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>385</v>
+      </c>
+      <c r="B382" t="s">
+        <v>767</v>
+      </c>
+      <c r="C382" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>385</v>
+      </c>
+      <c r="B383" t="s">
+        <v>787</v>
+      </c>
+      <c r="C383" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>385</v>
+      </c>
+      <c r="B384" t="s">
+        <v>815</v>
+      </c>
+      <c r="C384" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>386</v>
+      </c>
+      <c r="B385" t="s">
+        <v>819</v>
+      </c>
+      <c r="C385" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>387</v>
+      </c>
+      <c r="B386" t="s">
+        <v>743</v>
+      </c>
+      <c r="C386" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" t="s">
+        <v>747</v>
+      </c>
+      <c r="C387" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>755</v>
+      </c>
+      <c r="C388" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>769</v>
+      </c>
+      <c r="C389" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>387</v>
+      </c>
+      <c r="B390" t="s">
+        <v>781</v>
+      </c>
+      <c r="C390" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>387</v>
+      </c>
+      <c r="B391" t="s">
+        <v>789</v>
+      </c>
+      <c r="C391" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>387</v>
+      </c>
+      <c r="B392" t="s">
+        <v>801</v>
+      </c>
+      <c r="C392" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>388</v>
+      </c>
+      <c r="B393" t="s">
+        <v>743</v>
+      </c>
+      <c r="C393" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>388</v>
+      </c>
+      <c r="B394" t="s">
+        <v>747</v>
+      </c>
+      <c r="C394" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>388</v>
+      </c>
+      <c r="B395" t="s">
+        <v>755</v>
+      </c>
+      <c r="C395" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>388</v>
+      </c>
+      <c r="B396" t="s">
+        <v>811</v>
+      </c>
+      <c r="C396" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>389</v>
+      </c>
+      <c r="B397" t="s">
+        <v>743</v>
+      </c>
+      <c r="C397" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>389</v>
+      </c>
+      <c r="B398" t="s">
+        <v>747</v>
+      </c>
+      <c r="C398" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>389</v>
+      </c>
+      <c r="B399" t="s">
+        <v>755</v>
+      </c>
+      <c r="C399" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>389</v>
+      </c>
+      <c r="B400" t="s">
+        <v>811</v>
+      </c>
+      <c r="C400" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>390</v>
+      </c>
+      <c r="B401" t="s">
+        <v>725</v>
+      </c>
+      <c r="C401" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>390</v>
+      </c>
+      <c r="B402" t="s">
+        <v>741</v>
+      </c>
+      <c r="C402" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>390</v>
+      </c>
+      <c r="B403" t="s">
+        <v>747</v>
+      </c>
+      <c r="C403" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>390</v>
+      </c>
+      <c r="B404" t="s">
+        <v>757</v>
+      </c>
+      <c r="C404" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>390</v>
+      </c>
+      <c r="B405" t="s">
+        <v>791</v>
+      </c>
+      <c r="C405" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>391</v>
+      </c>
+      <c r="B406" t="s">
+        <v>725</v>
+      </c>
+      <c r="C406" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>391</v>
+      </c>
+      <c r="B407" t="s">
+        <v>741</v>
+      </c>
+      <c r="C407" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>391</v>
+      </c>
+      <c r="B408" t="s">
+        <v>747</v>
+      </c>
+      <c r="C408" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>391</v>
+      </c>
+      <c r="B409" t="s">
+        <v>757</v>
+      </c>
+      <c r="C409" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>391</v>
+      </c>
+      <c r="B410" t="s">
+        <v>791</v>
+      </c>
+      <c r="C410" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>254</v>
+      </c>
+      <c r="B411" t="s">
+        <v>739</v>
+      </c>
+      <c r="C411" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>254</v>
+      </c>
+      <c r="B412" t="s">
+        <v>747</v>
+      </c>
+      <c r="C412" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>254</v>
+      </c>
+      <c r="B413" t="s">
+        <v>755</v>
+      </c>
+      <c r="C413" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>259</v>
+      </c>
+      <c r="B414" t="s">
+        <v>739</v>
+      </c>
+      <c r="C414" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>259</v>
+      </c>
+      <c r="B415" t="s">
+        <v>747</v>
+      </c>
+      <c r="C415" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>259</v>
+      </c>
+      <c r="B416" t="s">
+        <v>755</v>
+      </c>
+      <c r="C416" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>260</v>
+      </c>
+      <c r="B417" t="s">
+        <v>739</v>
+      </c>
+      <c r="C417" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>260</v>
+      </c>
+      <c r="B418" t="s">
+        <v>747</v>
+      </c>
+      <c r="C418" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>260</v>
+      </c>
+      <c r="B419" t="s">
+        <v>755</v>
+      </c>
+      <c r="C419" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>392</v>
+      </c>
+      <c r="B420" t="s">
+        <v>725</v>
+      </c>
+      <c r="C420" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>392</v>
+      </c>
+      <c r="B421" t="s">
+        <v>737</v>
+      </c>
+      <c r="C421" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>392</v>
+      </c>
+      <c r="B422" t="s">
+        <v>757</v>
+      </c>
+      <c r="C422" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>392</v>
+      </c>
+      <c r="B423" t="s">
+        <v>813</v>
+      </c>
+      <c r="C423" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>393</v>
+      </c>
+      <c r="B424" t="s">
+        <v>741</v>
+      </c>
+      <c r="C424" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>393</v>
+      </c>
+      <c r="B425" t="s">
+        <v>791</v>
+      </c>
+      <c r="C425" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>394</v>
+      </c>
+      <c r="B426" t="s">
+        <v>749</v>
+      </c>
+      <c r="C426" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>394</v>
+      </c>
+      <c r="B427" t="s">
+        <v>767</v>
+      </c>
+      <c r="C427" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>394</v>
+      </c>
+      <c r="B428" t="s">
+        <v>787</v>
+      </c>
+      <c r="C428" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>394</v>
+      </c>
+      <c r="B429" t="s">
+        <v>815</v>
+      </c>
+      <c r="C429" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>395</v>
+      </c>
+      <c r="B430" t="s">
+        <v>819</v>
+      </c>
+      <c r="C430" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>396</v>
+      </c>
+      <c r="B431" t="s">
+        <v>743</v>
+      </c>
+      <c r="C431" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>396</v>
+      </c>
+      <c r="B432" t="s">
+        <v>747</v>
+      </c>
+      <c r="C432" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>396</v>
+      </c>
+      <c r="B433" t="s">
+        <v>755</v>
+      </c>
+      <c r="C433" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>396</v>
+      </c>
+      <c r="B434" t="s">
+        <v>769</v>
+      </c>
+      <c r="C434" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>396</v>
+      </c>
+      <c r="B435" t="s">
+        <v>781</v>
+      </c>
+      <c r="C435" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>396</v>
+      </c>
+      <c r="B436" t="s">
+        <v>789</v>
+      </c>
+      <c r="C436" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>396</v>
+      </c>
+      <c r="B437" t="s">
+        <v>801</v>
+      </c>
+      <c r="C437" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>397</v>
+      </c>
+      <c r="B438" t="s">
+        <v>743</v>
+      </c>
+      <c r="C438" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>397</v>
+      </c>
+      <c r="B439" t="s">
+        <v>747</v>
+      </c>
+      <c r="C439" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>397</v>
+      </c>
+      <c r="B440" t="s">
+        <v>755</v>
+      </c>
+      <c r="C440" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>397</v>
+      </c>
+      <c r="B441" t="s">
+        <v>811</v>
+      </c>
+      <c r="C441" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>398</v>
+      </c>
+      <c r="B442" t="s">
+        <v>725</v>
+      </c>
+      <c r="C442" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>398</v>
+      </c>
+      <c r="B443" t="s">
+        <v>741</v>
+      </c>
+      <c r="C443" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>398</v>
+      </c>
+      <c r="B444" t="s">
+        <v>747</v>
+      </c>
+      <c r="C444" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>398</v>
+      </c>
+      <c r="B445" t="s">
+        <v>757</v>
+      </c>
+      <c r="C445" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>398</v>
+      </c>
+      <c r="B446" t="s">
+        <v>791</v>
+      </c>
+      <c r="C446" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>399</v>
+      </c>
+      <c r="B447" t="s">
+        <v>725</v>
+      </c>
+      <c r="C447" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>399</v>
+      </c>
+      <c r="B448" t="s">
+        <v>741</v>
+      </c>
+      <c r="C448" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" t="s">
+        <v>399</v>
+      </c>
+      <c r="B449" t="s">
+        <v>747</v>
+      </c>
+      <c r="C449" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" t="s">
+        <v>399</v>
+      </c>
+      <c r="B450" t="s">
+        <v>757</v>
+      </c>
+      <c r="C450" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" t="s">
+        <v>399</v>
+      </c>
+      <c r="B451" t="s">
+        <v>791</v>
+      </c>
+      <c r="C451" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" t="s">
+        <v>262</v>
+      </c>
+      <c r="B452" t="s">
+        <v>739</v>
+      </c>
+      <c r="C452" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" t="s">
+        <v>262</v>
+      </c>
+      <c r="B453" t="s">
+        <v>747</v>
+      </c>
+      <c r="C453" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" t="s">
+        <v>262</v>
+      </c>
+      <c r="B454" t="s">
+        <v>755</v>
+      </c>
+      <c r="C454" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" t="s">
+        <v>264</v>
+      </c>
+      <c r="B455" t="s">
+        <v>739</v>
+      </c>
+      <c r="C455" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" t="s">
+        <v>264</v>
+      </c>
+      <c r="B456" t="s">
+        <v>747</v>
+      </c>
+      <c r="C456" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" t="s">
+        <v>264</v>
+      </c>
+      <c r="B457" t="s">
+        <v>755</v>
+      </c>
+      <c r="C457" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" t="s">
+        <v>265</v>
+      </c>
+      <c r="B458" t="s">
+        <v>739</v>
+      </c>
+      <c r="C458" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" t="s">
+        <v>265</v>
+      </c>
+      <c r="B459" t="s">
+        <v>747</v>
+      </c>
+      <c r="C459" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" t="s">
+        <v>265</v>
+      </c>
+      <c r="B460" t="s">
+        <v>755</v>
+      </c>
+      <c r="C460" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" t="s">
+        <v>400</v>
+      </c>
+      <c r="B461" t="s">
+        <v>819</v>
+      </c>
+      <c r="C461" t="s">
+        <v>850</v>
+      </c>
+      <c r="D461" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" t="s">
+        <v>401</v>
+      </c>
+      <c r="B462" t="s">
+        <v>743</v>
+      </c>
+      <c r="C462" t="s">
+        <v>903</v>
+      </c>
+      <c r="D462" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" t="s">
+        <v>401</v>
+      </c>
+      <c r="B463" t="s">
+        <v>747</v>
+      </c>
+      <c r="C463" t="s">
+        <v>903</v>
+      </c>
+      <c r="D463" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" t="s">
+        <v>401</v>
+      </c>
+      <c r="B464" t="s">
+        <v>755</v>
+      </c>
+      <c r="C464" t="s">
+        <v>903</v>
+      </c>
+      <c r="D464" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" t="s">
+        <v>401</v>
+      </c>
+      <c r="B465" t="s">
+        <v>769</v>
+      </c>
+      <c r="C465" t="s">
+        <v>903</v>
+      </c>
+      <c r="D465" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" t="s">
+        <v>401</v>
+      </c>
+      <c r="B466" t="s">
+        <v>781</v>
+      </c>
+      <c r="C466" t="s">
+        <v>903</v>
+      </c>
+      <c r="D466" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" t="s">
+        <v>401</v>
+      </c>
+      <c r="B467" t="s">
+        <v>789</v>
+      </c>
+      <c r="C467" t="s">
+        <v>903</v>
+      </c>
+      <c r="D467" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" t="s">
+        <v>401</v>
+      </c>
+      <c r="B468" t="s">
+        <v>801</v>
+      </c>
+      <c r="C468" t="s">
+        <v>903</v>
+      </c>
+      <c r="D468" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" t="s">
+        <v>402</v>
+      </c>
+      <c r="B469" t="s">
+        <v>743</v>
+      </c>
+      <c r="C469" t="s">
+        <v>859</v>
+      </c>
+      <c r="D469" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" t="s">
+        <v>402</v>
+      </c>
+      <c r="B470" t="s">
+        <v>747</v>
+      </c>
+      <c r="C470" t="s">
+        <v>859</v>
+      </c>
+      <c r="D470" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" t="s">
+        <v>402</v>
+      </c>
+      <c r="B471" t="s">
+        <v>755</v>
+      </c>
+      <c r="C471" t="s">
+        <v>859</v>
+      </c>
+      <c r="D471" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" t="s">
+        <v>402</v>
+      </c>
+      <c r="B472" t="s">
+        <v>811</v>
+      </c>
+      <c r="C472" t="s">
+        <v>903</v>
+      </c>
+      <c r="D472" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" t="s">
+        <v>403</v>
+      </c>
+      <c r="B473" t="s">
+        <v>743</v>
+      </c>
+      <c r="C473" t="s">
+        <v>859</v>
+      </c>
+      <c r="D473" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" t="s">
+        <v>403</v>
+      </c>
+      <c r="B474" t="s">
+        <v>747</v>
+      </c>
+      <c r="C474" t="s">
+        <v>859</v>
+      </c>
+      <c r="D474" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" t="s">
+        <v>403</v>
+      </c>
+      <c r="B475" t="s">
+        <v>755</v>
+      </c>
+      <c r="C475" t="s">
+        <v>859</v>
+      </c>
+      <c r="D475" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" t="s">
+        <v>403</v>
+      </c>
+      <c r="B476" t="s">
+        <v>811</v>
+      </c>
+      <c r="C476" t="s">
+        <v>903</v>
+      </c>
+      <c r="D476" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" t="s">
+        <v>404</v>
+      </c>
+      <c r="B477" t="s">
+        <v>725</v>
+      </c>
+      <c r="C477" t="s">
+        <v>859</v>
+      </c>
+      <c r="D477" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" t="s">
+        <v>404</v>
+      </c>
+      <c r="B478" t="s">
+        <v>741</v>
+      </c>
+      <c r="C478" t="s">
+        <v>873</v>
+      </c>
+      <c r="D478" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" t="s">
+        <v>404</v>
+      </c>
+      <c r="B479" t="s">
+        <v>747</v>
+      </c>
+      <c r="C479" t="s">
+        <v>867</v>
+      </c>
+      <c r="D479" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" t="s">
+        <v>404</v>
+      </c>
+      <c r="B480" t="s">
+        <v>757</v>
+      </c>
+      <c r="C480" t="s">
+        <v>867</v>
+      </c>
+      <c r="D480" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" t="s">
+        <v>404</v>
+      </c>
+      <c r="B481" t="s">
+        <v>791</v>
+      </c>
+      <c r="C481" t="s">
+        <v>871</v>
+      </c>
+      <c r="D481" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" t="s">
+        <v>405</v>
+      </c>
+      <c r="B482" t="s">
+        <v>725</v>
+      </c>
+      <c r="C482" t="s">
+        <v>859</v>
+      </c>
+      <c r="D482" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" t="s">
+        <v>405</v>
+      </c>
+      <c r="B483" t="s">
+        <v>741</v>
+      </c>
+      <c r="C483" t="s">
+        <v>873</v>
+      </c>
+      <c r="D483" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" t="s">
+        <v>405</v>
+      </c>
+      <c r="B484" t="s">
+        <v>747</v>
+      </c>
+      <c r="C484" t="s">
+        <v>867</v>
+      </c>
+      <c r="D484" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" t="s">
+        <v>405</v>
+      </c>
+      <c r="B485" t="s">
+        <v>757</v>
+      </c>
+      <c r="C485" t="s">
+        <v>867</v>
+      </c>
+      <c r="D485" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" t="s">
+        <v>405</v>
+      </c>
+      <c r="B486" t="s">
+        <v>791</v>
+      </c>
+      <c r="C486" t="s">
+        <v>871</v>
+      </c>
+      <c r="D486" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" t="s">
+        <v>267</v>
+      </c>
+      <c r="B487" t="s">
+        <v>739</v>
+      </c>
+      <c r="C487" t="s">
+        <v>572</v>
+      </c>
+      <c r="D487" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" t="s">
+        <v>267</v>
+      </c>
+      <c r="B488" t="s">
+        <v>747</v>
+      </c>
+      <c r="C488" t="s">
+        <v>572</v>
+      </c>
+      <c r="D488" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" t="s">
+        <v>267</v>
+      </c>
+      <c r="B489" t="s">
+        <v>755</v>
+      </c>
+      <c r="C489" t="s">
+        <v>572</v>
+      </c>
+      <c r="D489" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" t="s">
+        <v>269</v>
+      </c>
+      <c r="B490" t="s">
+        <v>739</v>
+      </c>
+      <c r="C490" t="s">
+        <v>572</v>
+      </c>
+      <c r="D490" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" t="s">
+        <v>269</v>
+      </c>
+      <c r="B491" t="s">
+        <v>747</v>
+      </c>
+      <c r="C491" t="s">
+        <v>572</v>
+      </c>
+      <c r="D491" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" t="s">
+        <v>269</v>
+      </c>
+      <c r="B492" t="s">
+        <v>755</v>
+      </c>
+      <c r="C492" t="s">
+        <v>572</v>
+      </c>
+      <c r="D492" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" t="s">
+        <v>270</v>
+      </c>
+      <c r="B493" t="s">
+        <v>739</v>
+      </c>
+      <c r="C493" t="s">
+        <v>572</v>
+      </c>
+      <c r="D493" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" t="s">
+        <v>270</v>
+      </c>
+      <c r="B494" t="s">
+        <v>747</v>
+      </c>
+      <c r="C494" t="s">
+        <v>572</v>
+      </c>
+      <c r="D494" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" t="s">
+        <v>270</v>
+      </c>
+      <c r="B495" t="s">
+        <v>755</v>
+      </c>
+      <c r="C495" t="s">
+        <v>572</v>
+      </c>
+      <c r="D495" s="33">
+        <v>41491</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" t="s">
+        <v>406</v>
+      </c>
+      <c r="B496" t="s">
+        <v>725</v>
+      </c>
+      <c r="C496" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>406</v>
+      </c>
+      <c r="B497" t="s">
+        <v>737</v>
+      </c>
+      <c r="C497" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>406</v>
+      </c>
+      <c r="B498" t="s">
+        <v>757</v>
+      </c>
+      <c r="C498" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>406</v>
+      </c>
+      <c r="B499" t="s">
+        <v>813</v>
+      </c>
+      <c r="C499" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>407</v>
+      </c>
+      <c r="B500" t="s">
+        <v>741</v>
+      </c>
+      <c r="C500" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>407</v>
+      </c>
+      <c r="B501" t="s">
+        <v>791</v>
+      </c>
+      <c r="C501" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>408</v>
+      </c>
+      <c r="B502" t="s">
+        <v>749</v>
+      </c>
+      <c r="C502" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>408</v>
+      </c>
+      <c r="B503" t="s">
+        <v>767</v>
+      </c>
+      <c r="C503" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>408</v>
+      </c>
+      <c r="B504" t="s">
+        <v>787</v>
+      </c>
+      <c r="C504" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>408</v>
+      </c>
+      <c r="B505" t="s">
+        <v>815</v>
+      </c>
+      <c r="C505" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>409</v>
+      </c>
+      <c r="B506" t="s">
+        <v>819</v>
+      </c>
+      <c r="C506" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>410</v>
+      </c>
+      <c r="B507" t="s">
+        <v>743</v>
+      </c>
+      <c r="C507" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>410</v>
+      </c>
+      <c r="B508" t="s">
+        <v>747</v>
+      </c>
+      <c r="C508" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>410</v>
+      </c>
+      <c r="B509" t="s">
+        <v>755</v>
+      </c>
+      <c r="C509" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>410</v>
+      </c>
+      <c r="B510" t="s">
+        <v>769</v>
+      </c>
+      <c r="C510" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>410</v>
+      </c>
+      <c r="B511" t="s">
+        <v>781</v>
+      </c>
+      <c r="C511" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>410</v>
+      </c>
+      <c r="B512" t="s">
+        <v>789</v>
+      </c>
+      <c r="C512" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>410</v>
+      </c>
+      <c r="B513" t="s">
+        <v>801</v>
+      </c>
+      <c r="C513" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>411</v>
+      </c>
+      <c r="B514" t="s">
+        <v>743</v>
+      </c>
+      <c r="C514" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>411</v>
+      </c>
+      <c r="B515" t="s">
+        <v>747</v>
+      </c>
+      <c r="C515" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>411</v>
+      </c>
+      <c r="B516" t="s">
+        <v>755</v>
+      </c>
+      <c r="C516" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>411</v>
+      </c>
+      <c r="B517" t="s">
+        <v>811</v>
+      </c>
+      <c r="C517" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>412</v>
+      </c>
+      <c r="B518" t="s">
+        <v>743</v>
+      </c>
+      <c r="C518" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>412</v>
+      </c>
+      <c r="B519" t="s">
+        <v>747</v>
+      </c>
+      <c r="C519" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>412</v>
+      </c>
+      <c r="B520" t="s">
+        <v>755</v>
+      </c>
+      <c r="C520" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>412</v>
+      </c>
+      <c r="B521" t="s">
+        <v>811</v>
+      </c>
+      <c r="C521" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>413</v>
+      </c>
+      <c r="B522" t="s">
+        <v>725</v>
+      </c>
+      <c r="C522" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>413</v>
+      </c>
+      <c r="B523" t="s">
+        <v>741</v>
+      </c>
+      <c r="C523" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
+        <v>413</v>
+      </c>
+      <c r="B524" t="s">
+        <v>747</v>
+      </c>
+      <c r="C524" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
+        <v>413</v>
+      </c>
+      <c r="B525" t="s">
+        <v>757</v>
+      </c>
+      <c r="C525" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
+        <v>413</v>
+      </c>
+      <c r="B526" t="s">
+        <v>791</v>
+      </c>
+      <c r="C526" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
+        <v>414</v>
+      </c>
+      <c r="B527" t="s">
+        <v>725</v>
+      </c>
+      <c r="C527" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
+        <v>414</v>
+      </c>
+      <c r="B528" t="s">
+        <v>741</v>
+      </c>
+      <c r="C528" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
+        <v>414</v>
+      </c>
+      <c r="B529" t="s">
+        <v>747</v>
+      </c>
+      <c r="C529" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
+        <v>414</v>
+      </c>
+      <c r="B530" t="s">
+        <v>757</v>
+      </c>
+      <c r="C530" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" t="s">
+        <v>414</v>
+      </c>
+      <c r="B531" t="s">
+        <v>791</v>
+      </c>
+      <c r="C531" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
+        <v>272</v>
+      </c>
+      <c r="B532" t="s">
+        <v>739</v>
+      </c>
+      <c r="C532" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" t="s">
+        <v>272</v>
+      </c>
+      <c r="B533" t="s">
+        <v>747</v>
+      </c>
+      <c r="C533" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" t="s">
+        <v>272</v>
+      </c>
+      <c r="B534" t="s">
+        <v>755</v>
+      </c>
+      <c r="C534" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" t="s">
+        <v>274</v>
+      </c>
+      <c r="B535" t="s">
+        <v>739</v>
+      </c>
+      <c r="C535" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" t="s">
+        <v>274</v>
+      </c>
+      <c r="B536" t="s">
+        <v>747</v>
+      </c>
+      <c r="C536" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" t="s">
+        <v>274</v>
+      </c>
+      <c r="B537" t="s">
+        <v>755</v>
+      </c>
+      <c r="C537" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" t="s">
+        <v>275</v>
+      </c>
+      <c r="B538" t="s">
+        <v>739</v>
+      </c>
+      <c r="C538" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" t="s">
+        <v>275</v>
+      </c>
+      <c r="B539" t="s">
+        <v>747</v>
+      </c>
+      <c r="C539" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" t="s">
+        <v>275</v>
+      </c>
+      <c r="B540" t="s">
+        <v>755</v>
+      </c>
+      <c r="C540" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" t="s">
+        <v>68</v>
+      </c>
+      <c r="B541" t="s">
+        <v>743</v>
+      </c>
+      <c r="C541" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" t="s">
+        <v>68</v>
+      </c>
+      <c r="B542" t="s">
+        <v>747</v>
+      </c>
+      <c r="C542" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" t="s">
+        <v>68</v>
+      </c>
+      <c r="B543" t="s">
+        <v>757</v>
+      </c>
+      <c r="C543" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" t="s">
+        <v>68</v>
+      </c>
+      <c r="B544" t="s">
+        <v>781</v>
+      </c>
+      <c r="C544" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" t="s">
+        <v>68</v>
+      </c>
+      <c r="B545" t="s">
+        <v>811</v>
+      </c>
+      <c r="C545" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
+        <v>69</v>
+      </c>
+      <c r="B546" t="s">
+        <v>727</v>
+      </c>
+      <c r="C546" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" t="s">
+        <v>69</v>
+      </c>
+      <c r="B547" t="s">
+        <v>743</v>
+      </c>
+      <c r="C547" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" t="s">
+        <v>69</v>
+      </c>
+      <c r="B548" t="s">
+        <v>747</v>
+      </c>
+      <c r="C548" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" t="s">
+        <v>69</v>
+      </c>
+      <c r="B549" t="s">
+        <v>759</v>
+      </c>
+      <c r="C549" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" t="s">
+        <v>69</v>
+      </c>
+      <c r="B550" t="s">
+        <v>761</v>
+      </c>
+      <c r="C550" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" t="s">
+        <v>69</v>
+      </c>
+      <c r="B551" t="s">
+        <v>781</v>
+      </c>
+      <c r="C551" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" t="s">
+        <v>70</v>
+      </c>
+      <c r="B552" t="s">
+        <v>727</v>
+      </c>
+      <c r="C552" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" t="s">
+        <v>70</v>
+      </c>
+      <c r="B553" t="s">
+        <v>731</v>
+      </c>
+      <c r="C553" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" t="s">
+        <v>70</v>
+      </c>
+      <c r="B554" t="s">
+        <v>743</v>
+      </c>
+      <c r="C554" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" t="s">
+        <v>70</v>
+      </c>
+      <c r="B555" t="s">
+        <v>747</v>
+      </c>
+      <c r="C555" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" t="s">
+        <v>70</v>
+      </c>
+      <c r="B556" t="s">
+        <v>755</v>
+      </c>
+      <c r="C556" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" t="s">
+        <v>70</v>
+      </c>
+      <c r="B557" t="s">
+        <v>761</v>
+      </c>
+      <c r="C557" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" t="s">
+        <v>70</v>
+      </c>
+      <c r="B558" t="s">
+        <v>791</v>
+      </c>
+      <c r="C558" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" t="s">
+        <v>70</v>
+      </c>
+      <c r="B559" t="s">
+        <v>809</v>
+      </c>
+      <c r="C559" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" t="s">
+        <v>71</v>
+      </c>
+      <c r="B560" t="s">
+        <v>743</v>
+      </c>
+      <c r="C560" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" t="s">
+        <v>71</v>
+      </c>
+      <c r="B561" t="s">
+        <v>745</v>
+      </c>
+      <c r="C561" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" t="s">
+        <v>71</v>
+      </c>
+      <c r="B562" t="s">
+        <v>757</v>
+      </c>
+      <c r="C562" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" t="s">
+        <v>71</v>
+      </c>
+      <c r="B563" t="s">
+        <v>769</v>
+      </c>
+      <c r="C563" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" t="s">
+        <v>71</v>
+      </c>
+      <c r="B564" t="s">
+        <v>781</v>
+      </c>
+      <c r="C564" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" t="s">
+        <v>71</v>
+      </c>
+      <c r="B565" t="s">
+        <v>785</v>
+      </c>
+      <c r="C565" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" t="s">
+        <v>71</v>
+      </c>
+      <c r="B566" t="s">
+        <v>789</v>
+      </c>
+      <c r="C566" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" t="s">
+        <v>71</v>
+      </c>
+      <c r="B567" t="s">
+        <v>791</v>
+      </c>
+      <c r="C567" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" t="s">
+        <v>71</v>
+      </c>
+      <c r="B568" t="s">
+        <v>801</v>
+      </c>
+      <c r="C568" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" t="s">
+        <v>71</v>
+      </c>
+      <c r="B569" t="s">
+        <v>813</v>
+      </c>
+      <c r="C569" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" t="s">
+        <v>72</v>
+      </c>
+      <c r="B570" t="s">
+        <v>763</v>
+      </c>
+      <c r="C570" t="s">
+        <v>850</v>
+      </c>
+      <c r="D570" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" t="s">
+        <v>72</v>
+      </c>
+      <c r="B571" t="s">
+        <v>773</v>
+      </c>
+      <c r="C571" t="s">
+        <v>850</v>
+      </c>
+      <c r="D571" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" t="s">
+        <v>72</v>
+      </c>
+      <c r="B572" t="s">
+        <v>797</v>
+      </c>
+      <c r="C572" t="s">
+        <v>850</v>
+      </c>
+      <c r="D572" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" t="s">
+        <v>72</v>
+      </c>
+      <c r="B573" t="s">
+        <v>811</v>
+      </c>
+      <c r="C573" t="s">
+        <v>864</v>
+      </c>
+      <c r="D573" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" t="s">
+        <v>73</v>
+      </c>
+      <c r="B574" t="s">
+        <v>763</v>
+      </c>
+      <c r="C574" t="s">
+        <v>850</v>
+      </c>
+      <c r="D574" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" t="s">
+        <v>73</v>
+      </c>
+      <c r="B575" t="s">
+        <v>775</v>
+      </c>
+      <c r="C575" t="s">
+        <v>850</v>
+      </c>
+      <c r="D575" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" t="s">
+        <v>73</v>
+      </c>
+      <c r="B576" t="s">
+        <v>779</v>
+      </c>
+      <c r="C576" t="s">
+        <v>850</v>
+      </c>
+      <c r="D576" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" t="s">
+        <v>73</v>
+      </c>
+      <c r="B577" t="s">
+        <v>797</v>
+      </c>
+      <c r="C577" t="s">
+        <v>864</v>
+      </c>
+      <c r="D577" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" t="s">
+        <v>73</v>
+      </c>
+      <c r="B578" t="s">
+        <v>811</v>
+      </c>
+      <c r="C578" t="s">
+        <v>864</v>
+      </c>
+      <c r="D578" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" t="s">
+        <v>74</v>
+      </c>
+      <c r="B579" t="s">
+        <v>725</v>
+      </c>
+      <c r="C579" t="s">
+        <v>857</v>
+      </c>
+      <c r="D579" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" t="s">
+        <v>74</v>
+      </c>
+      <c r="B580" t="s">
+        <v>731</v>
+      </c>
+      <c r="C580" t="s">
+        <v>864</v>
+      </c>
+      <c r="D580" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" t="s">
+        <v>74</v>
+      </c>
+      <c r="B581" t="s">
+        <v>753</v>
+      </c>
+      <c r="C581" t="s">
+        <v>850</v>
+      </c>
+      <c r="D581" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" t="s">
+        <v>74</v>
+      </c>
+      <c r="B582" t="s">
+        <v>765</v>
+      </c>
+      <c r="C582" t="s">
+        <v>850</v>
+      </c>
+      <c r="D582" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" t="s">
+        <v>74</v>
+      </c>
+      <c r="B583" t="s">
+        <v>783</v>
+      </c>
+      <c r="C583" t="s">
+        <v>850</v>
+      </c>
+      <c r="D583" s="33">
+        <v>41443</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" t="s">
+        <v>75</v>
+      </c>
+      <c r="B584" t="s">
+        <v>733</v>
+      </c>
+      <c r="C584" t="s">
+        <v>850</v>
+      </c>
+      <c r="D584" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" t="s">
+        <v>77</v>
+      </c>
+      <c r="B585" t="s">
+        <v>779</v>
+      </c>
+      <c r="C585" t="s">
+        <v>850</v>
+      </c>
+      <c r="D585" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" t="s">
+        <v>77</v>
+      </c>
+      <c r="B586" t="s">
+        <v>783</v>
+      </c>
+      <c r="C586" t="s">
+        <v>850</v>
+      </c>
+      <c r="D586" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" t="s">
+        <v>77</v>
+      </c>
+      <c r="B587" t="s">
+        <v>805</v>
+      </c>
+      <c r="C587" t="s">
+        <v>850</v>
+      </c>
+      <c r="D587" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" t="s">
+        <v>78</v>
+      </c>
+      <c r="B588" t="s">
+        <v>763</v>
+      </c>
+      <c r="C588" t="s">
+        <v>850</v>
+      </c>
+      <c r="D588" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" t="s">
+        <v>78</v>
+      </c>
+      <c r="B589" t="s">
+        <v>773</v>
+      </c>
+      <c r="C589" t="s">
+        <v>850</v>
+      </c>
+      <c r="D589" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" t="s">
+        <v>78</v>
+      </c>
+      <c r="B590" t="s">
+        <v>797</v>
+      </c>
+      <c r="C590" t="s">
+        <v>850</v>
+      </c>
+      <c r="D590" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" t="s">
+        <v>78</v>
+      </c>
+      <c r="B591" t="s">
+        <v>811</v>
+      </c>
+      <c r="C591" t="s">
+        <v>864</v>
+      </c>
+      <c r="D591" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" t="s">
+        <v>79</v>
+      </c>
+      <c r="B592" t="s">
+        <v>743</v>
+      </c>
+      <c r="C592" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" t="s">
+        <v>79</v>
+      </c>
+      <c r="B593" t="s">
+        <v>747</v>
+      </c>
+      <c r="C593" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" t="s">
+        <v>79</v>
+      </c>
+      <c r="B594" t="s">
+        <v>757</v>
+      </c>
+      <c r="C594" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" t="s">
+        <v>79</v>
+      </c>
+      <c r="B595" t="s">
+        <v>781</v>
+      </c>
+      <c r="C595" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" t="s">
+        <v>79</v>
+      </c>
+      <c r="B596" t="s">
+        <v>811</v>
+      </c>
+      <c r="C596" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" t="s">
+        <v>80</v>
+      </c>
+      <c r="B597" t="s">
+        <v>727</v>
+      </c>
+      <c r="C597" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" t="s">
+        <v>80</v>
+      </c>
+      <c r="B598" t="s">
+        <v>743</v>
+      </c>
+      <c r="C598" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" t="s">
+        <v>80</v>
+      </c>
+      <c r="B599" t="s">
+        <v>747</v>
+      </c>
+      <c r="C599" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" t="s">
+        <v>80</v>
+      </c>
+      <c r="B600" t="s">
+        <v>759</v>
+      </c>
+      <c r="C600" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" t="s">
+        <v>80</v>
+      </c>
+      <c r="B601" t="s">
+        <v>761</v>
+      </c>
+      <c r="C601" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" t="s">
+        <v>80</v>
+      </c>
+      <c r="B602" t="s">
+        <v>781</v>
+      </c>
+      <c r="C602" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" t="s">
+        <v>81</v>
+      </c>
+      <c r="B603" t="s">
+        <v>727</v>
+      </c>
+      <c r="C603" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" t="s">
+        <v>81</v>
+      </c>
+      <c r="B604" t="s">
+        <v>731</v>
+      </c>
+      <c r="C604" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" t="s">
+        <v>81</v>
+      </c>
+      <c r="B605" t="s">
+        <v>743</v>
+      </c>
+      <c r="C605" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" t="s">
+        <v>81</v>
+      </c>
+      <c r="B606" t="s">
+        <v>747</v>
+      </c>
+      <c r="C606" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" t="s">
+        <v>81</v>
+      </c>
+      <c r="B607" t="s">
+        <v>755</v>
+      </c>
+      <c r="C607" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" t="s">
+        <v>81</v>
+      </c>
+      <c r="B608" t="s">
+        <v>761</v>
+      </c>
+      <c r="C608" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" t="s">
+        <v>81</v>
+      </c>
+      <c r="B609" t="s">
+        <v>791</v>
+      </c>
+      <c r="C609" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" t="s">
+        <v>81</v>
+      </c>
+      <c r="B610" t="s">
+        <v>809</v>
+      </c>
+      <c r="C610" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" t="s">
+        <v>82</v>
+      </c>
+      <c r="B611" t="s">
+        <v>743</v>
+      </c>
+      <c r="C611" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" t="s">
+        <v>82</v>
+      </c>
+      <c r="B612" t="s">
+        <v>745</v>
+      </c>
+      <c r="C612" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" t="s">
+        <v>82</v>
+      </c>
+      <c r="B613" t="s">
+        <v>757</v>
+      </c>
+      <c r="C613" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="A614" t="s">
+        <v>82</v>
+      </c>
+      <c r="B614" t="s">
+        <v>769</v>
+      </c>
+      <c r="C614" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" t="s">
+        <v>82</v>
+      </c>
+      <c r="B615" t="s">
+        <v>781</v>
+      </c>
+      <c r="C615" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" t="s">
+        <v>82</v>
+      </c>
+      <c r="B616" t="s">
+        <v>785</v>
+      </c>
+      <c r="C616" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" t="s">
+        <v>82</v>
+      </c>
+      <c r="B617" t="s">
+        <v>789</v>
+      </c>
+      <c r="C617" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" t="s">
+        <v>82</v>
+      </c>
+      <c r="B618" t="s">
+        <v>791</v>
+      </c>
+      <c r="C618" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" t="s">
+        <v>82</v>
+      </c>
+      <c r="B619" t="s">
+        <v>801</v>
+      </c>
+      <c r="C619" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" t="s">
+        <v>82</v>
+      </c>
+      <c r="B620" t="s">
+        <v>813</v>
+      </c>
+      <c r="C620" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="A621" t="s">
+        <v>83</v>
+      </c>
+      <c r="B621" t="s">
+        <v>729</v>
+      </c>
+      <c r="C621" t="s">
+        <v>850</v>
+      </c>
+      <c r="D621" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4">
+      <c r="A622" t="s">
+        <v>83</v>
+      </c>
+      <c r="B622" t="s">
+        <v>763</v>
+      </c>
+      <c r="C622" t="s">
+        <v>850</v>
+      </c>
+      <c r="D622" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" t="s">
+        <v>83</v>
+      </c>
+      <c r="B623" t="s">
+        <v>773</v>
+      </c>
+      <c r="C623" t="s">
+        <v>850</v>
+      </c>
+      <c r="D623" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" t="s">
+        <v>84</v>
+      </c>
+      <c r="B624" t="s">
+        <v>729</v>
+      </c>
+      <c r="C624" t="s">
+        <v>850</v>
+      </c>
+      <c r="D624" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4">
+      <c r="A625" t="s">
+        <v>84</v>
+      </c>
+      <c r="B625" t="s">
+        <v>763</v>
+      </c>
+      <c r="C625" t="s">
+        <v>850</v>
+      </c>
+      <c r="D625" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4">
+      <c r="A626" t="s">
+        <v>84</v>
+      </c>
+      <c r="B626" t="s">
+        <v>775</v>
+      </c>
+      <c r="C626" t="s">
+        <v>850</v>
+      </c>
+      <c r="D626" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4">
+      <c r="A627" t="s">
+        <v>84</v>
+      </c>
+      <c r="B627" t="s">
+        <v>779</v>
+      </c>
+      <c r="C627" t="s">
+        <v>850</v>
+      </c>
+      <c r="D627" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" t="s">
+        <v>85</v>
+      </c>
+      <c r="B628" t="s">
+        <v>803</v>
+      </c>
+      <c r="C628" t="s">
+        <v>850</v>
+      </c>
+      <c r="D628" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4">
+      <c r="A629" t="s">
+        <v>85</v>
+      </c>
+      <c r="B629" t="s">
+        <v>807</v>
+      </c>
+      <c r="C629" t="s">
+        <v>850</v>
+      </c>
+      <c r="D629" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4">
+      <c r="A630" t="s">
+        <v>86</v>
+      </c>
+      <c r="B630" t="s">
+        <v>729</v>
+      </c>
+      <c r="C630" t="s">
+        <v>850</v>
+      </c>
+      <c r="D630" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4">
+      <c r="A631" t="s">
+        <v>86</v>
+      </c>
+      <c r="B631" t="s">
+        <v>731</v>
+      </c>
+      <c r="C631" t="s">
+        <v>864</v>
+      </c>
+      <c r="D631" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4">
+      <c r="A632" t="s">
+        <v>86</v>
+      </c>
+      <c r="B632" t="s">
+        <v>765</v>
+      </c>
+      <c r="C632" t="s">
+        <v>850</v>
+      </c>
+      <c r="D632" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4">
+      <c r="A633" t="s">
+        <v>86</v>
+      </c>
+      <c r="B633" t="s">
+        <v>779</v>
+      </c>
+      <c r="C633" t="s">
+        <v>850</v>
+      </c>
+      <c r="D633" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4">
+      <c r="A634" t="s">
+        <v>86</v>
+      </c>
+      <c r="B634" t="s">
+        <v>793</v>
+      </c>
+      <c r="C634" t="s">
+        <v>850</v>
+      </c>
+      <c r="D634" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4">
+      <c r="A635" t="s">
+        <v>86</v>
+      </c>
+      <c r="B635" t="s">
+        <v>799</v>
+      </c>
+      <c r="C635" t="s">
+        <v>850</v>
+      </c>
+      <c r="D635" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4">
+      <c r="A636" t="s">
+        <v>86</v>
+      </c>
+      <c r="B636" t="s">
+        <v>811</v>
+      </c>
+      <c r="C636" t="s">
+        <v>864</v>
+      </c>
+      <c r="D636" s="33">
+        <v>41471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6659,7 +14378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -6870,7 +14589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -8814,7 +16533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
@@ -13602,7 +21321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F26" workbookViewId="0">
+    <sheetView topLeftCell="F26" workbookViewId="0">
       <selection activeCell="X26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -26323,8 +34042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
+++ b/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40220" windowHeight="28500" tabRatio="669" activeTab="4"/>
+    <workbookView xWindow="8160" yWindow="0" windowWidth="39260" windowHeight="28400" tabRatio="669" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MIOs" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6336" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6624" uniqueCount="1245">
   <si>
     <t>Platform Reference ID</t>
   </si>
@@ -3657,9 +3657,6 @@
     <t>copy</t>
   </si>
   <si>
-    <t>Node Reference Designator</t>
-  </si>
-  <si>
     <t>Instrument Class</t>
   </si>
   <si>
@@ -3748,6 +3745,45 @@
   </si>
   <si>
     <t>CP04OSSM-AD001</t>
+  </si>
+  <si>
+    <t>Node Code</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Check MM</t>
+  </si>
+  <si>
+    <t>Deployment Notes</t>
+  </si>
+  <si>
+    <t>17km extension cable procurement late -  postponed</t>
+  </si>
+  <si>
+    <t>10km extension cable late -  postponed</t>
+  </si>
+  <si>
+    <t>This is a fall 2014 deployment - procurement ongoing</t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t>17km ext late - 2014</t>
+  </si>
+  <si>
+    <t>fall 2014</t>
+  </si>
+  <si>
+    <t>part of mooring?</t>
+  </si>
+  <si>
+    <t>push</t>
   </si>
 </sst>
 </file>
@@ -3873,7 +3909,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1088">
+  <cellStyleXfs count="1138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3900,6 +3936,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5016,9 +5102,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1088">
+  <cellStyles count="1138">
     <cellStyle name="20% - Accent3" xfId="25" builtinId="38"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5563,6 +5649,31 @@
     <cellStyle name="Followed Hyperlink" xfId="1083" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1087" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1089" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1091" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1093" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1095" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1097" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1099" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1137" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -6105,6 +6216,31 @@
     <cellStyle name="Hyperlink" xfId="1082" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1084" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1086" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1088" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1090" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1092" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1094" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1096" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1098" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1136" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -6515,34 +6651,42 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D636"/>
+  <dimension ref="A1:F636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1202</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>1203</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1204</v>
-      </c>
       <c r="D1" s="34" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>1206</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>327</v>
       </c>
@@ -6555,8 +6699,11 @@
       <c r="D2" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>327</v>
       </c>
@@ -6569,8 +6716,11 @@
       <c r="D3" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>327</v>
       </c>
@@ -6583,8 +6733,11 @@
       <c r="D4" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>327</v>
       </c>
@@ -6597,8 +6750,11 @@
       <c r="D5" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>327</v>
       </c>
@@ -6611,8 +6767,11 @@
       <c r="D6" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>328</v>
       </c>
@@ -6625,8 +6784,11 @@
       <c r="D7" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -6639,8 +6801,11 @@
       <c r="D8" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>328</v>
       </c>
@@ -6653,8 +6818,11 @@
       <c r="D9" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>328</v>
       </c>
@@ -6667,8 +6835,11 @@
       <c r="D10" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>328</v>
       </c>
@@ -6681,8 +6852,11 @@
       <c r="D11" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -6695,8 +6869,11 @@
       <c r="D12" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -6709,8 +6886,11 @@
       <c r="D13" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>329</v>
       </c>
@@ -6723,8 +6903,11 @@
       <c r="D14" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -6737,8 +6920,11 @@
       <c r="D15" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>330</v>
       </c>
@@ -6751,8 +6937,11 @@
       <c r="D16" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>330</v>
       </c>
@@ -6765,8 +6954,11 @@
       <c r="D17" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -6779,8 +6971,11 @@
       <c r="D18" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>330</v>
       </c>
@@ -6793,8 +6988,11 @@
       <c r="D19" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>330</v>
       </c>
@@ -6807,8 +7005,11 @@
       <c r="D20" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>331</v>
       </c>
@@ -6821,8 +7022,11 @@
       <c r="D21" s="33">
         <v>41562</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>332</v>
       </c>
@@ -6833,7 +7037,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>332</v>
       </c>
@@ -6844,7 +7048,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>332</v>
       </c>
@@ -6855,7 +7059,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>332</v>
       </c>
@@ -6866,7 +7070,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>332</v>
       </c>
@@ -6877,7 +7081,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>332</v>
       </c>
@@ -6888,7 +7092,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>332</v>
       </c>
@@ -6899,7 +7103,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>332</v>
       </c>
@@ -6910,7 +7114,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>332</v>
       </c>
@@ -6921,7 +7125,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>333</v>
       </c>
@@ -6931,11 +7135,14 @@
       <c r="C31" t="s">
         <v>862</v>
       </c>
-      <c r="D31" s="33">
-        <v>41470</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>333</v>
       </c>
@@ -6945,11 +7152,14 @@
       <c r="C32" t="s">
         <v>862</v>
       </c>
-      <c r="D32" s="33">
-        <v>41470</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>333</v>
       </c>
@@ -6959,11 +7169,14 @@
       <c r="C33" t="s">
         <v>846</v>
       </c>
-      <c r="D33" s="33">
-        <v>41470</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>333</v>
       </c>
@@ -6973,11 +7186,14 @@
       <c r="C34" t="s">
         <v>865</v>
       </c>
-      <c r="D34" s="33">
-        <v>41470</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>333</v>
       </c>
@@ -6987,11 +7203,14 @@
       <c r="C35" t="s">
         <v>848</v>
       </c>
-      <c r="D35" s="33">
-        <v>41470</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>333</v>
       </c>
@@ -7001,11 +7220,14 @@
       <c r="C36" t="s">
         <v>865</v>
       </c>
-      <c r="D36" s="33">
-        <v>41470</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>333</v>
       </c>
@@ -7015,11 +7237,14 @@
       <c r="C37" t="s">
         <v>862</v>
       </c>
-      <c r="D37" s="33">
-        <v>41470</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>333</v>
       </c>
@@ -7029,11 +7254,14 @@
       <c r="C38" t="s">
         <v>865</v>
       </c>
-      <c r="D38" s="33">
-        <v>41470</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>333</v>
       </c>
@@ -7043,11 +7271,14 @@
       <c r="C39" t="s">
         <v>637</v>
       </c>
-      <c r="D39" s="33">
-        <v>41470</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>334</v>
       </c>
@@ -7058,10 +7289,10 @@
         <v>862</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>335</v>
       </c>
@@ -7072,7 +7303,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>335</v>
       </c>
@@ -7083,7 +7314,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -7094,7 +7325,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>335</v>
       </c>
@@ -7105,7 +7336,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>336</v>
       </c>
@@ -7116,7 +7347,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -7127,7 +7358,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>336</v>
       </c>
@@ -7138,7 +7369,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>336</v>
       </c>
@@ -7149,7 +7380,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>336</v>
       </c>
@@ -7160,7 +7391,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>337</v>
       </c>
@@ -7171,7 +7402,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>337</v>
       </c>
@@ -7182,7 +7413,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>337</v>
       </c>
@@ -7193,7 +7424,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>337</v>
       </c>
@@ -7204,7 +7435,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>337</v>
       </c>
@@ -7215,7 +7446,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>338</v>
       </c>
@@ -7226,7 +7457,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>338</v>
       </c>
@@ -7237,7 +7468,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>338</v>
       </c>
@@ -7248,7 +7479,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>338</v>
       </c>
@@ -7259,7 +7490,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>338</v>
       </c>
@@ -7270,7 +7501,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -7281,7 +7512,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>338</v>
       </c>
@@ -7292,7 +7523,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>338</v>
       </c>
@@ -7303,7 +7534,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>338</v>
       </c>
@@ -7314,7 +7545,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>339</v>
       </c>
@@ -7327,8 +7558,11 @@
       <c r="D64" s="33">
         <v>41470</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>339</v>
       </c>
@@ -7341,8 +7575,11 @@
       <c r="D65" s="33">
         <v>41470</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>339</v>
       </c>
@@ -7355,8 +7592,11 @@
       <c r="D66" s="33">
         <v>41470</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>339</v>
       </c>
@@ -7369,8 +7609,11 @@
       <c r="D67" s="33">
         <v>41470</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>339</v>
       </c>
@@ -7383,8 +7626,11 @@
       <c r="D68" s="33">
         <v>41470</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>339</v>
       </c>
@@ -7397,8 +7643,11 @@
       <c r="D69" s="33">
         <v>41470</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>339</v>
       </c>
@@ -7411,8 +7660,11 @@
       <c r="D70" s="33">
         <v>41470</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -7425,8 +7677,11 @@
       <c r="D71" s="33">
         <v>41470</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>339</v>
       </c>
@@ -7439,8 +7694,11 @@
       <c r="D72" s="33">
         <v>41470</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -7451,7 +7709,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -7462,7 +7720,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>63</v>
       </c>
@@ -7473,7 +7731,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -7484,7 +7742,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>65</v>
       </c>
@@ -7495,7 +7753,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -7506,7 +7764,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -7517,7 +7775,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>65</v>
       </c>
@@ -7704,7 +7962,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>341</v>
       </c>
@@ -7715,7 +7973,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>341</v>
       </c>
@@ -7726,7 +7984,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>341</v>
       </c>
@@ -7737,7 +7995,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>342</v>
       </c>
@@ -7748,7 +8006,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>342</v>
       </c>
@@ -7759,7 +8017,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>342</v>
       </c>
@@ -7770,7 +8028,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>342</v>
       </c>
@@ -7781,7 +8039,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>231</v>
       </c>
@@ -7791,8 +8049,14 @@
       <c r="C104" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>231</v>
       </c>
@@ -7802,8 +8066,14 @@
       <c r="C105" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>231</v>
       </c>
@@ -7813,8 +8083,14 @@
       <c r="C106" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>231</v>
       </c>
@@ -7824,8 +8100,14 @@
       <c r="C107" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -7835,8 +8117,14 @@
       <c r="C108" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>235</v>
       </c>
@@ -7846,8 +8134,14 @@
       <c r="C109" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>235</v>
       </c>
@@ -7857,8 +8151,14 @@
       <c r="C110" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>235</v>
       </c>
@@ -7868,8 +8168,14 @@
       <c r="C111" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -7879,8 +8185,14 @@
       <c r="C112" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>235</v>
       </c>
@@ -7890,8 +8202,14 @@
       <c r="C113" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>236</v>
       </c>
@@ -7901,8 +8219,14 @@
       <c r="C114" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>236</v>
       </c>
@@ -7912,8 +8236,14 @@
       <c r="C115" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>236</v>
       </c>
@@ -7923,8 +8253,14 @@
       <c r="C116" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>236</v>
       </c>
@@ -7934,8 +8270,14 @@
       <c r="C117" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>236</v>
       </c>
@@ -7945,8 +8287,14 @@
       <c r="C118" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -7956,8 +8304,14 @@
       <c r="C119" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -7967,8 +8321,14 @@
       <c r="C120" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>237</v>
       </c>
@@ -7978,8 +8338,14 @@
       <c r="C121" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>237</v>
       </c>
@@ -7989,8 +8355,14 @@
       <c r="C122" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -8000,8 +8372,14 @@
       <c r="C123" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>238</v>
       </c>
@@ -8011,8 +8389,14 @@
       <c r="C124" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>238</v>
       </c>
@@ -8022,8 +8406,14 @@
       <c r="C125" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>238</v>
       </c>
@@ -8033,8 +8423,14 @@
       <c r="C126" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>238</v>
       </c>
@@ -8044,8 +8440,14 @@
       <c r="C127" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>238</v>
       </c>
@@ -8055,8 +8457,14 @@
       <c r="C128" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>239</v>
       </c>
@@ -8066,8 +8474,14 @@
       <c r="C129" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>239</v>
       </c>
@@ -8077,8 +8491,14 @@
       <c r="C130" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>239</v>
       </c>
@@ -8088,8 +8508,14 @@
       <c r="C131" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>239</v>
       </c>
@@ -8099,8 +8525,14 @@
       <c r="C132" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>239</v>
       </c>
@@ -8110,8 +8542,14 @@
       <c r="C133" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" s="33">
+        <v>41562</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>343</v>
       </c>
@@ -8122,7 +8560,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>343</v>
       </c>
@@ -8133,7 +8571,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>343</v>
       </c>
@@ -8144,7 +8582,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>343</v>
       </c>
@@ -8155,7 +8593,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>343</v>
       </c>
@@ -8166,7 +8604,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>344</v>
       </c>
@@ -8177,7 +8615,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>344</v>
       </c>
@@ -8188,7 +8626,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>344</v>
       </c>
@@ -8199,7 +8637,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>344</v>
       </c>
@@ -8210,7 +8648,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>344</v>
       </c>
@@ -8221,7 +8659,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>345</v>
       </c>
@@ -8584,7 +9022,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -8595,7 +9033,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -8606,7 +9044,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>352</v>
       </c>
@@ -8617,7 +9055,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>352</v>
       </c>
@@ -8628,7 +9066,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>352</v>
       </c>
@@ -8639,7 +9077,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>353</v>
       </c>
@@ -8650,7 +9088,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>353</v>
       </c>
@@ -8661,7 +9099,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>353</v>
       </c>
@@ -8672,7 +9110,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>353</v>
       </c>
@@ -8683,7 +9121,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>354</v>
       </c>
@@ -8693,11 +9131,14 @@
       <c r="C186" t="s">
         <v>901</v>
       </c>
-      <c r="D186" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>354</v>
       </c>
@@ -8707,11 +9148,14 @@
       <c r="C187" t="s">
         <v>901</v>
       </c>
-      <c r="D187" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>354</v>
       </c>
@@ -8721,11 +9165,14 @@
       <c r="C188" t="s">
         <v>901</v>
       </c>
-      <c r="D188" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>354</v>
       </c>
@@ -8735,11 +9182,14 @@
       <c r="C189" t="s">
         <v>901</v>
       </c>
-      <c r="D189" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>354</v>
       </c>
@@ -8749,11 +9199,14 @@
       <c r="C190" t="s">
         <v>901</v>
       </c>
-      <c r="D190" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>354</v>
       </c>
@@ -8763,11 +9216,14 @@
       <c r="C191" t="s">
         <v>901</v>
       </c>
-      <c r="D191" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>354</v>
       </c>
@@ -8777,11 +9233,14 @@
       <c r="C192" t="s">
         <v>901</v>
       </c>
-      <c r="D192" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>354</v>
       </c>
@@ -8791,11 +9250,14 @@
       <c r="C193" t="s">
         <v>901</v>
       </c>
-      <c r="D193" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>354</v>
       </c>
@@ -8805,11 +9267,14 @@
       <c r="C194" t="s">
         <v>901</v>
       </c>
-      <c r="D194" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -8819,11 +9284,14 @@
       <c r="C195" t="s">
         <v>855</v>
       </c>
-      <c r="D195" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -8833,11 +9301,14 @@
       <c r="C196" t="s">
         <v>855</v>
       </c>
-      <c r="D196" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -8847,11 +9318,14 @@
       <c r="C197" t="s">
         <v>855</v>
       </c>
-      <c r="D197" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -8861,11 +9335,14 @@
       <c r="C198" t="s">
         <v>901</v>
       </c>
-      <c r="D198" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -8875,11 +9352,14 @@
       <c r="C199" t="s">
         <v>855</v>
       </c>
-      <c r="D199" s="33">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>355</v>
       </c>
@@ -8890,7 +9370,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>355</v>
       </c>
@@ -8901,7 +9381,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>355</v>
       </c>
@@ -8912,7 +9392,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>355</v>
       </c>
@@ -8923,7 +9403,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>355</v>
       </c>
@@ -8934,7 +9414,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>356</v>
       </c>
@@ -8945,7 +9425,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>356</v>
       </c>
@@ -8956,7 +9436,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>356</v>
       </c>
@@ -8967,7 +9447,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>356</v>
       </c>
@@ -8978,7 +9458,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>357</v>
       </c>
@@ -8989,7 +9469,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>357</v>
       </c>
@@ -9000,7 +9480,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>357</v>
       </c>
@@ -9011,7 +9491,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>357</v>
       </c>
@@ -9022,7 +9502,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>358</v>
       </c>
@@ -9033,7 +9513,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>358</v>
       </c>
@@ -9044,7 +9524,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>358</v>
       </c>
@@ -9055,7 +9535,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>358</v>
       </c>
@@ -9066,7 +9546,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>358</v>
       </c>
@@ -9077,7 +9557,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>359</v>
       </c>
@@ -9088,7 +9568,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>359</v>
       </c>
@@ -9099,7 +9579,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>359</v>
       </c>
@@ -9110,7 +9590,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>359</v>
       </c>
@@ -9121,7 +9601,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>360</v>
       </c>
@@ -9134,8 +9614,11 @@
       <c r="D222" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>360</v>
       </c>
@@ -9148,8 +9631,11 @@
       <c r="D223" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>360</v>
       </c>
@@ -9162,8 +9648,11 @@
       <c r="D224" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>360</v>
       </c>
@@ -9176,8 +9665,11 @@
       <c r="D225" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>360</v>
       </c>
@@ -9190,8 +9682,11 @@
       <c r="D226" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>361</v>
       </c>
@@ -9204,8 +9699,11 @@
       <c r="D227" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>361</v>
       </c>
@@ -9218,8 +9716,11 @@
       <c r="D228" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>361</v>
       </c>
@@ -9232,8 +9733,11 @@
       <c r="D229" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>361</v>
       </c>
@@ -9246,8 +9750,11 @@
       <c r="D230" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="E230" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>362</v>
       </c>
@@ -9260,8 +9767,11 @@
       <c r="D231" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="E231" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>362</v>
       </c>
@@ -9274,8 +9784,11 @@
       <c r="D232" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>362</v>
       </c>
@@ -9288,8 +9801,11 @@
       <c r="D233" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="E233" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>363</v>
       </c>
@@ -9302,8 +9818,11 @@
       <c r="D234" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="E234" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>363</v>
       </c>
@@ -9316,8 +9835,11 @@
       <c r="D235" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="E235" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>363</v>
       </c>
@@ -9330,8 +9852,11 @@
       <c r="D236" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="E236" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>363</v>
       </c>
@@ -9344,8 +9869,11 @@
       <c r="D237" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="E237" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>363</v>
       </c>
@@ -9358,8 +9886,11 @@
       <c r="D238" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="E238" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>364</v>
       </c>
@@ -9370,10 +9901,10 @@
         <v>848</v>
       </c>
       <c r="D239" s="33" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>364</v>
       </c>
@@ -9386,8 +9917,11 @@
       <c r="D240" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>364</v>
       </c>
@@ -9400,8 +9934,11 @@
       <c r="D241" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="E241" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>364</v>
       </c>
@@ -9414,8 +9951,11 @@
       <c r="D242" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="E242" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>365</v>
       </c>
@@ -9426,7 +9966,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>365</v>
       </c>
@@ -9437,7 +9977,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>365</v>
       </c>
@@ -9448,7 +9988,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>365</v>
       </c>
@@ -9459,7 +9999,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>365</v>
       </c>
@@ -9470,7 +10010,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>365</v>
       </c>
@@ -9481,7 +10021,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>365</v>
       </c>
@@ -9492,7 +10032,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>365</v>
       </c>
@@ -9503,7 +10043,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>365</v>
       </c>
@@ -9514,7 +10054,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>366</v>
       </c>
@@ -9525,7 +10065,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>29</v>
       </c>
@@ -9538,8 +10078,11 @@
       <c r="D253" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="E253" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>29</v>
       </c>
@@ -9552,8 +10095,11 @@
       <c r="D254" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="E254" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>29</v>
       </c>
@@ -9566,8 +10112,11 @@
       <c r="D255" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="E255" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>29</v>
       </c>
@@ -9580,8 +10129,11 @@
       <c r="D256" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="E256" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>29</v>
       </c>
@@ -9594,8 +10146,11 @@
       <c r="D257" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="E257" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>367</v>
       </c>
@@ -9608,8 +10163,11 @@
       <c r="D258" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="E258" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>30</v>
       </c>
@@ -9622,8 +10180,11 @@
       <c r="D259" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="E259" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>30</v>
       </c>
@@ -9636,8 +10197,11 @@
       <c r="D260" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="E260" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>30</v>
       </c>
@@ -9650,8 +10214,11 @@
       <c r="D261" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="E261" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>30</v>
       </c>
@@ -9664,8 +10231,11 @@
       <c r="D262" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="E262" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>30</v>
       </c>
@@ -9678,8 +10248,11 @@
       <c r="D263" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="E263" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>368</v>
       </c>
@@ -9692,8 +10265,11 @@
       <c r="D264" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="E264" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>31</v>
       </c>
@@ -9706,8 +10282,11 @@
       <c r="D265" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="E265" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>31</v>
       </c>
@@ -9720,8 +10299,11 @@
       <c r="D266" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="E266" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>31</v>
       </c>
@@ -9734,8 +10316,11 @@
       <c r="D267" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="E267" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -9748,8 +10333,11 @@
       <c r="D268" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="269" spans="1:4">
+      <c r="E268" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>31</v>
       </c>
@@ -9762,8 +10350,11 @@
       <c r="D269" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="E269" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>369</v>
       </c>
@@ -9776,8 +10367,11 @@
       <c r="D270" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="271" spans="1:4">
+      <c r="E270" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>32</v>
       </c>
@@ -9790,8 +10384,11 @@
       <c r="D271" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="E271" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>32</v>
       </c>
@@ -9804,8 +10401,11 @@
       <c r="D272" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="E272" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>32</v>
       </c>
@@ -9818,8 +10418,11 @@
       <c r="D273" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="E273" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>32</v>
       </c>
@@ -9832,8 +10435,11 @@
       <c r="D274" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="E274" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>32</v>
       </c>
@@ -9846,8 +10452,11 @@
       <c r="D275" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="E275" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>370</v>
       </c>
@@ -9858,7 +10467,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>370</v>
       </c>
@@ -9869,7 +10478,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>370</v>
       </c>
@@ -9880,7 +10489,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>370</v>
       </c>
@@ -9891,7 +10500,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>371</v>
       </c>
@@ -9902,7 +10511,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>371</v>
       </c>
@@ -9913,7 +10522,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>371</v>
       </c>
@@ -9924,7 +10533,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>371</v>
       </c>
@@ -9935,7 +10544,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>371</v>
       </c>
@@ -9946,7 +10555,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>372</v>
       </c>
@@ -9957,7 +10566,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>372</v>
       </c>
@@ -9968,7 +10577,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>372</v>
       </c>
@@ -9979,7 +10588,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>372</v>
       </c>
@@ -9990,7 +10599,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>373</v>
       </c>
@@ -10001,7 +10610,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>373</v>
       </c>
@@ -10012,7 +10621,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>373</v>
       </c>
@@ -10023,7 +10632,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>373</v>
       </c>
@@ -10034,7 +10643,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>374</v>
       </c>
@@ -10045,7 +10654,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>374</v>
       </c>
@@ -10056,7 +10665,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>375</v>
       </c>
@@ -10067,7 +10676,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>375</v>
       </c>
@@ -10078,7 +10687,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>375</v>
       </c>
@@ -10089,7 +10698,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>375</v>
       </c>
@@ -10100,7 +10709,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>375</v>
       </c>
@@ -10111,7 +10720,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>375</v>
       </c>
@@ -10122,7 +10731,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>375</v>
       </c>
@@ -10133,7 +10742,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>375</v>
       </c>
@@ -10144,7 +10753,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>375</v>
       </c>
@@ -10155,7 +10764,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>35</v>
       </c>
@@ -10168,8 +10777,11 @@
       <c r="D304" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="305" spans="1:4">
+      <c r="E304" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>35</v>
       </c>
@@ -10182,8 +10794,11 @@
       <c r="D305" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="E305" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>35</v>
       </c>
@@ -10196,8 +10811,11 @@
       <c r="D306" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="E306" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>35</v>
       </c>
@@ -10210,8 +10828,11 @@
       <c r="D307" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="E307" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>35</v>
       </c>
@@ -10224,8 +10845,11 @@
       <c r="D308" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="E308" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>376</v>
       </c>
@@ -10236,7 +10860,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>376</v>
       </c>
@@ -10247,7 +10871,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>376</v>
       </c>
@@ -10258,7 +10882,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>376</v>
       </c>
@@ -10269,7 +10893,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>377</v>
       </c>
@@ -10280,7 +10904,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>377</v>
       </c>
@@ -10291,7 +10915,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>377</v>
       </c>
@@ -10302,7 +10926,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>377</v>
       </c>
@@ -10313,7 +10937,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>377</v>
       </c>
@@ -10324,7 +10948,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>378</v>
       </c>
@@ -10335,7 +10959,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>378</v>
       </c>
@@ -10346,7 +10970,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>378</v>
       </c>
@@ -10357,7 +10981,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>378</v>
       </c>
@@ -10368,7 +10992,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>379</v>
       </c>
@@ -10379,7 +11003,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>379</v>
       </c>
@@ -10390,7 +11014,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>379</v>
       </c>
@@ -10401,7 +11025,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>379</v>
       </c>
@@ -10412,7 +11036,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>380</v>
       </c>
@@ -10423,7 +11047,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>380</v>
       </c>
@@ -10434,7 +11058,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>56</v>
       </c>
@@ -10447,8 +11071,11 @@
       <c r="D328" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="329" spans="1:4">
+      <c r="E328" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>56</v>
       </c>
@@ -10461,8 +11088,11 @@
       <c r="D329" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="330" spans="1:4">
+      <c r="E329" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>56</v>
       </c>
@@ -10475,8 +11105,11 @@
       <c r="D330" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="331" spans="1:4">
+      <c r="E330" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>56</v>
       </c>
@@ -10489,8 +11122,11 @@
       <c r="D331" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="332" spans="1:4">
+      <c r="E331" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>56</v>
       </c>
@@ -10503,8 +11139,11 @@
       <c r="D332" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="333" spans="1:4">
+      <c r="E332" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>56</v>
       </c>
@@ -10517,8 +11156,11 @@
       <c r="D333" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="334" spans="1:4">
+      <c r="E333" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>59</v>
       </c>
@@ -10531,8 +11173,11 @@
       <c r="D334" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="335" spans="1:4">
+      <c r="E334" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>59</v>
       </c>
@@ -10545,8 +11190,11 @@
       <c r="D335" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="336" spans="1:4">
+      <c r="E335" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>59</v>
       </c>
@@ -10559,8 +11207,11 @@
       <c r="D336" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="337" spans="1:4">
+      <c r="E336" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>59</v>
       </c>
@@ -10573,8 +11224,11 @@
       <c r="D337" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="338" spans="1:4">
+      <c r="E337" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>59</v>
       </c>
@@ -10587,8 +11241,11 @@
       <c r="D338" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="339" spans="1:4">
+      <c r="E338" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>59</v>
       </c>
@@ -10601,8 +11258,11 @@
       <c r="D339" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="340" spans="1:4">
+      <c r="E339" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>60</v>
       </c>
@@ -10615,8 +11275,11 @@
       <c r="D340" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="341" spans="1:4">
+      <c r="E340" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>60</v>
       </c>
@@ -10629,8 +11292,11 @@
       <c r="D341" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="E341" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>60</v>
       </c>
@@ -10643,8 +11309,11 @@
       <c r="D342" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="343" spans="1:4">
+      <c r="E342" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>60</v>
       </c>
@@ -10657,8 +11326,11 @@
       <c r="D343" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="344" spans="1:4">
+      <c r="E343" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>60</v>
       </c>
@@ -10671,8 +11343,11 @@
       <c r="D344" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="345" spans="1:4">
+      <c r="E344" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>60</v>
       </c>
@@ -10685,8 +11360,11 @@
       <c r="D345" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="346" spans="1:4">
+      <c r="E345" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>245</v>
       </c>
@@ -10699,8 +11377,11 @@
       <c r="D346" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="347" spans="1:4">
+      <c r="E346" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>245</v>
       </c>
@@ -10713,8 +11394,11 @@
       <c r="D347" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="348" spans="1:4">
+      <c r="E347" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>245</v>
       </c>
@@ -10727,8 +11411,11 @@
       <c r="D348" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="349" spans="1:4">
+      <c r="E348" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>245</v>
       </c>
@@ -10741,8 +11428,11 @@
       <c r="D349" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="350" spans="1:4">
+      <c r="E349" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>245</v>
       </c>
@@ -10755,8 +11445,11 @@
       <c r="D350" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="351" spans="1:4">
+      <c r="E350" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>246</v>
       </c>
@@ -10769,8 +11462,11 @@
       <c r="D351" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="352" spans="1:4">
+      <c r="E351" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
       <c r="A352" t="s">
         <v>246</v>
       </c>
@@ -10783,8 +11479,11 @@
       <c r="D352" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="E352" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
       <c r="A353" t="s">
         <v>246</v>
       </c>
@@ -10797,8 +11496,11 @@
       <c r="D353" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="E353" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
       <c r="A354" t="s">
         <v>246</v>
       </c>
@@ -10811,8 +11513,11 @@
       <c r="D354" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="E354" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
       <c r="A355" t="s">
         <v>246</v>
       </c>
@@ -10825,8 +11530,11 @@
       <c r="D355" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="356" spans="1:4">
+      <c r="E355" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
       <c r="A356" t="s">
         <v>247</v>
       </c>
@@ -10839,8 +11547,11 @@
       <c r="D356" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="357" spans="1:4">
+      <c r="E356" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
       <c r="A357" t="s">
         <v>247</v>
       </c>
@@ -10853,8 +11564,11 @@
       <c r="D357" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="358" spans="1:4">
+      <c r="E357" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>247</v>
       </c>
@@ -10867,8 +11581,11 @@
       <c r="D358" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="359" spans="1:4">
+      <c r="E358" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
       <c r="A359" t="s">
         <v>247</v>
       </c>
@@ -10881,8 +11598,11 @@
       <c r="D359" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="360" spans="1:4">
+      <c r="E359" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
       <c r="A360" t="s">
         <v>247</v>
       </c>
@@ -10895,8 +11615,11 @@
       <c r="D360" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="361" spans="1:4">
+      <c r="E360" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
       <c r="A361" t="s">
         <v>248</v>
       </c>
@@ -10909,8 +11632,11 @@
       <c r="D361" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="362" spans="1:4">
+      <c r="E361" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
       <c r="A362" t="s">
         <v>248</v>
       </c>
@@ -10923,8 +11649,11 @@
       <c r="D362" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="363" spans="1:4">
+      <c r="E362" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
       <c r="A363" t="s">
         <v>248</v>
       </c>
@@ -10937,8 +11666,11 @@
       <c r="D363" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="364" spans="1:4">
+      <c r="E363" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
       <c r="A364" t="s">
         <v>248</v>
       </c>
@@ -10951,8 +11683,11 @@
       <c r="D364" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="365" spans="1:4">
+      <c r="E364" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
       <c r="A365" t="s">
         <v>248</v>
       </c>
@@ -10965,8 +11700,11 @@
       <c r="D365" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="366" spans="1:4">
+      <c r="E365" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
       <c r="A366" t="s">
         <v>249</v>
       </c>
@@ -10979,8 +11717,11 @@
       <c r="D366" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="367" spans="1:4">
+      <c r="E366" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367" t="s">
         <v>249</v>
       </c>
@@ -10993,8 +11734,11 @@
       <c r="D367" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="368" spans="1:4">
+      <c r="E367" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
       <c r="A368" t="s">
         <v>249</v>
       </c>
@@ -11007,8 +11751,11 @@
       <c r="D368" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="369" spans="1:4">
+      <c r="E368" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
       <c r="A369" t="s">
         <v>249</v>
       </c>
@@ -11021,8 +11768,11 @@
       <c r="D369" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="370" spans="1:4">
+      <c r="E369" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
       <c r="A370" t="s">
         <v>249</v>
       </c>
@@ -11035,8 +11785,11 @@
       <c r="D370" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="371" spans="1:4">
+      <c r="E370" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
       <c r="A371" t="s">
         <v>250</v>
       </c>
@@ -11049,8 +11802,11 @@
       <c r="D371" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="372" spans="1:4">
+      <c r="E371" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
       <c r="A372" t="s">
         <v>250</v>
       </c>
@@ -11063,8 +11819,11 @@
       <c r="D372" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="373" spans="1:4">
+      <c r="E372" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
       <c r="A373" t="s">
         <v>250</v>
       </c>
@@ -11077,8 +11836,11 @@
       <c r="D373" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="374" spans="1:4">
+      <c r="E373" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
       <c r="A374" t="s">
         <v>250</v>
       </c>
@@ -11091,8 +11853,11 @@
       <c r="D374" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="375" spans="1:4">
+      <c r="E374" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
       <c r="A375" t="s">
         <v>250</v>
       </c>
@@ -11105,8 +11870,11 @@
       <c r="D375" s="33">
         <v>41600</v>
       </c>
-    </row>
-    <row r="376" spans="1:4">
+      <c r="E375" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
       <c r="A376" t="s">
         <v>381</v>
       </c>
@@ -11117,7 +11885,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:5">
       <c r="A377" t="s">
         <v>381</v>
       </c>
@@ -11128,7 +11896,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:5">
       <c r="A378" t="s">
         <v>381</v>
       </c>
@@ -11139,7 +11907,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:5">
       <c r="A379" t="s">
         <v>381</v>
       </c>
@@ -11150,7 +11918,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:5">
       <c r="A380" t="s">
         <v>382</v>
       </c>
@@ -11161,7 +11929,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:5">
       <c r="A381" t="s">
         <v>382</v>
       </c>
@@ -11172,7 +11940,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:5">
       <c r="A382" t="s">
         <v>383</v>
       </c>
@@ -11183,7 +11951,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:5">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -11194,7 +11962,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:5">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -11909,7 +12677,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:5">
       <c r="A449" t="s">
         <v>397</v>
       </c>
@@ -11920,7 +12688,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:5">
       <c r="A450" t="s">
         <v>397</v>
       </c>
@@ -11931,7 +12699,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:5">
       <c r="A451" t="s">
         <v>397</v>
       </c>
@@ -11942,7 +12710,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:5">
       <c r="A452" t="s">
         <v>260</v>
       </c>
@@ -11953,7 +12721,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:5">
       <c r="A453" t="s">
         <v>260</v>
       </c>
@@ -11964,7 +12732,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:5">
       <c r="A454" t="s">
         <v>260</v>
       </c>
@@ -11975,7 +12743,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:5">
       <c r="A455" t="s">
         <v>262</v>
       </c>
@@ -11986,7 +12754,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:5">
       <c r="A456" t="s">
         <v>262</v>
       </c>
@@ -11997,7 +12765,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:5">
       <c r="A457" t="s">
         <v>262</v>
       </c>
@@ -12008,7 +12776,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:5">
       <c r="A458" t="s">
         <v>263</v>
       </c>
@@ -12019,7 +12787,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:5">
       <c r="A459" t="s">
         <v>263</v>
       </c>
@@ -12030,7 +12798,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:5">
       <c r="A460" t="s">
         <v>263</v>
       </c>
@@ -12041,7 +12809,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:5">
       <c r="A461" t="s">
         <v>398</v>
       </c>
@@ -12054,8 +12822,11 @@
       <c r="D461" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="462" spans="1:4">
+      <c r="E461" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
       <c r="A462" t="s">
         <v>399</v>
       </c>
@@ -12068,8 +12839,11 @@
       <c r="D462" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="463" spans="1:4">
+      <c r="E462" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
       <c r="A463" t="s">
         <v>399</v>
       </c>
@@ -12082,8 +12856,11 @@
       <c r="D463" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="464" spans="1:4">
+      <c r="E463" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
       <c r="A464" t="s">
         <v>399</v>
       </c>
@@ -12096,8 +12873,11 @@
       <c r="D464" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="465" spans="1:4">
+      <c r="E464" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
       <c r="A465" t="s">
         <v>399</v>
       </c>
@@ -12110,8 +12890,11 @@
       <c r="D465" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="466" spans="1:4">
+      <c r="E465" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
       <c r="A466" t="s">
         <v>399</v>
       </c>
@@ -12124,8 +12907,11 @@
       <c r="D466" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="467" spans="1:4">
+      <c r="E466" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
       <c r="A467" t="s">
         <v>399</v>
       </c>
@@ -12138,8 +12924,11 @@
       <c r="D467" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="468" spans="1:4">
+      <c r="E467" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
       <c r="A468" t="s">
         <v>399</v>
       </c>
@@ -12152,8 +12941,11 @@
       <c r="D468" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="469" spans="1:4">
+      <c r="E468" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
       <c r="A469" t="s">
         <v>400</v>
       </c>
@@ -12166,8 +12958,11 @@
       <c r="D469" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="470" spans="1:4">
+      <c r="E469" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
       <c r="A470" t="s">
         <v>400</v>
       </c>
@@ -12180,8 +12975,11 @@
       <c r="D470" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="471" spans="1:4">
+      <c r="E470" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
       <c r="A471" t="s">
         <v>400</v>
       </c>
@@ -12194,8 +12992,11 @@
       <c r="D471" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="472" spans="1:4">
+      <c r="E471" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
       <c r="A472" t="s">
         <v>400</v>
       </c>
@@ -12208,8 +13009,11 @@
       <c r="D472" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="473" spans="1:4">
+      <c r="E472" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
       <c r="A473" t="s">
         <v>401</v>
       </c>
@@ -12222,8 +13026,11 @@
       <c r="D473" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="474" spans="1:4">
+      <c r="E473" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
       <c r="A474" t="s">
         <v>401</v>
       </c>
@@ -12236,8 +13043,11 @@
       <c r="D474" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="475" spans="1:4">
+      <c r="E474" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
       <c r="A475" t="s">
         <v>401</v>
       </c>
@@ -12250,8 +13060,11 @@
       <c r="D475" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="476" spans="1:4">
+      <c r="E475" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
       <c r="A476" t="s">
         <v>401</v>
       </c>
@@ -12264,8 +13077,11 @@
       <c r="D476" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="477" spans="1:4">
+      <c r="E476" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
       <c r="A477" t="s">
         <v>402</v>
       </c>
@@ -12278,8 +13094,11 @@
       <c r="D477" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="478" spans="1:4">
+      <c r="E477" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
       <c r="A478" t="s">
         <v>402</v>
       </c>
@@ -12292,8 +13111,11 @@
       <c r="D478" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="479" spans="1:4">
+      <c r="E478" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
       <c r="A479" t="s">
         <v>402</v>
       </c>
@@ -12306,8 +13128,11 @@
       <c r="D479" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="480" spans="1:4">
+      <c r="E479" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
       <c r="A480" t="s">
         <v>402</v>
       </c>
@@ -12320,8 +13145,11 @@
       <c r="D480" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="481" spans="1:4">
+      <c r="E480" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
       <c r="A481" t="s">
         <v>402</v>
       </c>
@@ -12334,8 +13162,11 @@
       <c r="D481" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="482" spans="1:4">
+      <c r="E481" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
       <c r="A482" t="s">
         <v>403</v>
       </c>
@@ -12348,8 +13179,11 @@
       <c r="D482" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="483" spans="1:4">
+      <c r="E482" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
       <c r="A483" t="s">
         <v>403</v>
       </c>
@@ -12362,8 +13196,11 @@
       <c r="D483" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="484" spans="1:4">
+      <c r="E483" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
       <c r="A484" t="s">
         <v>403</v>
       </c>
@@ -12376,8 +13213,11 @@
       <c r="D484" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="485" spans="1:4">
+      <c r="E484" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
       <c r="A485" t="s">
         <v>403</v>
       </c>
@@ -12390,8 +13230,11 @@
       <c r="D485" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="486" spans="1:4">
+      <c r="E485" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
       <c r="A486" t="s">
         <v>403</v>
       </c>
@@ -12404,8 +13247,11 @@
       <c r="D486" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="487" spans="1:4">
+      <c r="E486" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
       <c r="A487" t="s">
         <v>265</v>
       </c>
@@ -12418,8 +13264,11 @@
       <c r="D487" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="488" spans="1:4">
+      <c r="E487" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
       <c r="A488" t="s">
         <v>265</v>
       </c>
@@ -12432,8 +13281,11 @@
       <c r="D488" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="489" spans="1:4">
+      <c r="E488" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
       <c r="A489" t="s">
         <v>265</v>
       </c>
@@ -12446,8 +13298,11 @@
       <c r="D489" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="490" spans="1:4">
+      <c r="E489" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
       <c r="A490" t="s">
         <v>267</v>
       </c>
@@ -12460,8 +13315,11 @@
       <c r="D490" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="491" spans="1:4">
+      <c r="E490" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
       <c r="A491" t="s">
         <v>267</v>
       </c>
@@ -12474,8 +13332,11 @@
       <c r="D491" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="492" spans="1:4">
+      <c r="E491" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
       <c r="A492" t="s">
         <v>267</v>
       </c>
@@ -12488,8 +13349,11 @@
       <c r="D492" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="493" spans="1:4">
+      <c r="E492" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
       <c r="A493" t="s">
         <v>268</v>
       </c>
@@ -12502,8 +13366,11 @@
       <c r="D493" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="494" spans="1:4">
+      <c r="E493" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
       <c r="A494" t="s">
         <v>268</v>
       </c>
@@ -12516,8 +13383,11 @@
       <c r="D494" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="495" spans="1:4">
+      <c r="E494" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
       <c r="A495" t="s">
         <v>268</v>
       </c>
@@ -12530,8 +13400,11 @@
       <c r="D495" s="33">
         <v>41491</v>
       </c>
-    </row>
-    <row r="496" spans="1:4">
+      <c r="E495" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
       <c r="A496" t="s">
         <v>404</v>
       </c>
@@ -13246,7 +14119,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:6">
       <c r="A561" t="s">
         <v>71</v>
       </c>
@@ -13257,7 +14130,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:6">
       <c r="A562" t="s">
         <v>71</v>
       </c>
@@ -13268,7 +14141,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:6">
       <c r="A563" t="s">
         <v>71</v>
       </c>
@@ -13279,7 +14152,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:6">
       <c r="A564" t="s">
         <v>71</v>
       </c>
@@ -13290,7 +14163,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:6">
       <c r="A565" t="s">
         <v>71</v>
       </c>
@@ -13301,7 +14174,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:6">
       <c r="A566" t="s">
         <v>71</v>
       </c>
@@ -13312,7 +14185,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:6">
       <c r="A567" t="s">
         <v>71</v>
       </c>
@@ -13323,7 +14196,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:6">
       <c r="A568" t="s">
         <v>71</v>
       </c>
@@ -13334,7 +14207,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:6">
       <c r="A569" t="s">
         <v>71</v>
       </c>
@@ -13345,7 +14218,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:6">
       <c r="A570" t="s">
         <v>72</v>
       </c>
@@ -13358,8 +14231,11 @@
       <c r="D570" s="33">
         <v>41443</v>
       </c>
-    </row>
-    <row r="571" spans="1:4">
+      <c r="E570" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6">
       <c r="A571" t="s">
         <v>72</v>
       </c>
@@ -13372,8 +14248,11 @@
       <c r="D571" s="33">
         <v>41443</v>
       </c>
-    </row>
-    <row r="572" spans="1:4">
+      <c r="E571" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6">
       <c r="A572" t="s">
         <v>72</v>
       </c>
@@ -13386,8 +14265,11 @@
       <c r="D572" s="33">
         <v>41443</v>
       </c>
-    </row>
-    <row r="573" spans="1:4">
+      <c r="E572" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6">
       <c r="A573" t="s">
         <v>72</v>
       </c>
@@ -13400,8 +14282,11 @@
       <c r="D573" s="33">
         <v>41443</v>
       </c>
-    </row>
-    <row r="574" spans="1:4">
+      <c r="E573" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6">
       <c r="A574" t="s">
         <v>73</v>
       </c>
@@ -13411,11 +14296,11 @@
       <c r="C574" t="s">
         <v>848</v>
       </c>
-      <c r="D574" s="33">
-        <v>41443</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4">
+      <c r="F574" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6">
       <c r="A575" t="s">
         <v>73</v>
       </c>
@@ -13425,11 +14310,11 @@
       <c r="C575" t="s">
         <v>848</v>
       </c>
-      <c r="D575" s="33">
-        <v>41443</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4">
+      <c r="F575" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6">
       <c r="A576" t="s">
         <v>73</v>
       </c>
@@ -13439,11 +14324,11 @@
       <c r="C576" t="s">
         <v>848</v>
       </c>
-      <c r="D576" s="33">
-        <v>41443</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
+      <c r="F576" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6">
       <c r="A577" t="s">
         <v>73</v>
       </c>
@@ -13453,11 +14338,11 @@
       <c r="C577" t="s">
         <v>862</v>
       </c>
-      <c r="D577" s="33">
-        <v>41443</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4">
+      <c r="F577" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6">
       <c r="A578" t="s">
         <v>73</v>
       </c>
@@ -13467,11 +14352,11 @@
       <c r="C578" t="s">
         <v>862</v>
       </c>
-      <c r="D578" s="33">
-        <v>41443</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4">
+      <c r="F578" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6">
       <c r="A579" t="s">
         <v>74</v>
       </c>
@@ -13481,11 +14366,11 @@
       <c r="C579" t="s">
         <v>855</v>
       </c>
-      <c r="D579" s="33">
-        <v>41443</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4">
+      <c r="F579" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6">
       <c r="A580" t="s">
         <v>74</v>
       </c>
@@ -13495,11 +14380,11 @@
       <c r="C580" t="s">
         <v>862</v>
       </c>
-      <c r="D580" s="33">
-        <v>41443</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4">
+      <c r="F580" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6">
       <c r="A581" t="s">
         <v>74</v>
       </c>
@@ -13509,11 +14394,11 @@
       <c r="C581" t="s">
         <v>848</v>
       </c>
-      <c r="D581" s="33">
-        <v>41443</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4">
+      <c r="F581" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6">
       <c r="A582" t="s">
         <v>74</v>
       </c>
@@ -13523,11 +14408,11 @@
       <c r="C582" t="s">
         <v>848</v>
       </c>
-      <c r="D582" s="33">
-        <v>41443</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
+      <c r="F582" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6">
       <c r="A583" t="s">
         <v>74</v>
       </c>
@@ -13537,11 +14422,11 @@
       <c r="C583" t="s">
         <v>848</v>
       </c>
-      <c r="D583" s="33">
-        <v>41443</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4">
+      <c r="F583" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6">
       <c r="A584" t="s">
         <v>75</v>
       </c>
@@ -13554,8 +14439,11 @@
       <c r="D584" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="585" spans="1:4">
+      <c r="E584" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6">
       <c r="A585" t="s">
         <v>77</v>
       </c>
@@ -13568,8 +14456,11 @@
       <c r="D585" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="586" spans="1:4">
+      <c r="E585" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6">
       <c r="A586" t="s">
         <v>77</v>
       </c>
@@ -13582,8 +14473,11 @@
       <c r="D586" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="587" spans="1:4">
+      <c r="E586" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6">
       <c r="A587" t="s">
         <v>77</v>
       </c>
@@ -13596,8 +14490,11 @@
       <c r="D587" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="588" spans="1:4">
+      <c r="E587" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6">
       <c r="A588" t="s">
         <v>78</v>
       </c>
@@ -13610,8 +14507,11 @@
       <c r="D588" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="589" spans="1:4">
+      <c r="E588" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6">
       <c r="A589" t="s">
         <v>78</v>
       </c>
@@ -13624,8 +14524,11 @@
       <c r="D589" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="590" spans="1:4">
+      <c r="E589" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6">
       <c r="A590" t="s">
         <v>78</v>
       </c>
@@ -13638,8 +14541,11 @@
       <c r="D590" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="591" spans="1:4">
+      <c r="E590" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6">
       <c r="A591" t="s">
         <v>78</v>
       </c>
@@ -13652,8 +14558,11 @@
       <c r="D591" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="592" spans="1:4">
+      <c r="E591" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6">
       <c r="A592" t="s">
         <v>79</v>
       </c>
@@ -13840,7 +14749,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:5">
       <c r="A609" t="s">
         <v>81</v>
       </c>
@@ -13851,7 +14760,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:5">
       <c r="A610" t="s">
         <v>81</v>
       </c>
@@ -13862,7 +14771,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:5">
       <c r="A611" t="s">
         <v>82</v>
       </c>
@@ -13873,7 +14782,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:5">
       <c r="A612" t="s">
         <v>82</v>
       </c>
@@ -13884,7 +14793,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:5">
       <c r="A613" t="s">
         <v>82</v>
       </c>
@@ -13895,7 +14804,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:5">
       <c r="A614" t="s">
         <v>82</v>
       </c>
@@ -13906,7 +14815,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:5">
       <c r="A615" t="s">
         <v>82</v>
       </c>
@@ -13917,7 +14826,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:5">
       <c r="A616" t="s">
         <v>82</v>
       </c>
@@ -13928,7 +14837,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:5">
       <c r="A617" t="s">
         <v>82</v>
       </c>
@@ -13939,7 +14848,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:5">
       <c r="A618" t="s">
         <v>82</v>
       </c>
@@ -13950,7 +14859,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:5">
       <c r="A619" t="s">
         <v>82</v>
       </c>
@@ -13961,7 +14870,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:5">
       <c r="A620" t="s">
         <v>82</v>
       </c>
@@ -13972,7 +14881,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:5">
       <c r="A621" t="s">
         <v>83</v>
       </c>
@@ -13985,8 +14894,11 @@
       <c r="D621" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="622" spans="1:4">
+      <c r="E621" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
       <c r="A622" t="s">
         <v>83</v>
       </c>
@@ -13999,8 +14911,11 @@
       <c r="D622" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="623" spans="1:4">
+      <c r="E622" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
       <c r="A623" t="s">
         <v>83</v>
       </c>
@@ -14013,8 +14928,11 @@
       <c r="D623" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="624" spans="1:4">
+      <c r="E623" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
       <c r="A624" t="s">
         <v>84</v>
       </c>
@@ -14027,8 +14945,11 @@
       <c r="D624" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="625" spans="1:4">
+      <c r="E624" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
       <c r="A625" t="s">
         <v>84</v>
       </c>
@@ -14041,8 +14962,11 @@
       <c r="D625" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="626" spans="1:4">
+      <c r="E625" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
       <c r="A626" t="s">
         <v>84</v>
       </c>
@@ -14055,8 +14979,11 @@
       <c r="D626" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="627" spans="1:4">
+      <c r="E626" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
       <c r="A627" t="s">
         <v>84</v>
       </c>
@@ -14069,8 +14996,11 @@
       <c r="D627" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="628" spans="1:4">
+      <c r="E627" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
       <c r="A628" t="s">
         <v>85</v>
       </c>
@@ -14083,8 +15013,11 @@
       <c r="D628" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="629" spans="1:4">
+      <c r="E628" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
       <c r="A629" t="s">
         <v>85</v>
       </c>
@@ -14097,8 +15030,11 @@
       <c r="D629" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="630" spans="1:4">
+      <c r="E629" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
       <c r="A630" t="s">
         <v>86</v>
       </c>
@@ -14111,8 +15047,11 @@
       <c r="D630" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="631" spans="1:4">
+      <c r="E630" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
       <c r="A631" t="s">
         <v>86</v>
       </c>
@@ -14125,8 +15064,11 @@
       <c r="D631" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="632" spans="1:4">
+      <c r="E631" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
       <c r="A632" t="s">
         <v>86</v>
       </c>
@@ -14139,8 +15081,11 @@
       <c r="D632" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="633" spans="1:4">
+      <c r="E632" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
       <c r="A633" t="s">
         <v>86</v>
       </c>
@@ -14153,8 +15098,11 @@
       <c r="D633" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="634" spans="1:4">
+      <c r="E633" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
       <c r="A634" t="s">
         <v>86</v>
       </c>
@@ -14167,8 +15115,11 @@
       <c r="D634" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="635" spans="1:4">
+      <c r="E634" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
       <c r="A635" t="s">
         <v>86</v>
       </c>
@@ -14181,8 +15132,11 @@
       <c r="D635" s="33">
         <v>41471</v>
       </c>
-    </row>
-    <row r="636" spans="1:4">
+      <c r="E635" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
       <c r="A636" t="s">
         <v>86</v>
       </c>
@@ -14194,6 +15148,9 @@
       </c>
       <c r="D636" s="33">
         <v>41471</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -18966,7 +19923,7 @@
         <v>Regional</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -19058,7 +20015,7 @@
         <v>104</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>629</v>
@@ -19789,7 +20746,7 @@
         <v>Global Argentine Basin</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19814,7 +20771,7 @@
         <v>Global Argentine Basin</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G29" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19932,7 +20889,7 @@
         <v>Global Irminger Sea</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G33" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19957,7 +20914,7 @@
         <v>Global Irminger Sea</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G34" s="8" t="str">
         <f t="shared" ref="G34:G61" si="1">E34 &amp; IF(ISBLANK(F34),""," " &amp; F34)</f>
@@ -20075,7 +21032,7 @@
         <v>Global Station Papa</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G38" s="8" t="str">
         <f t="shared" si="1"/>
@@ -20193,7 +21150,7 @@
         <v>Global Southern Ocean</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G42" s="8" t="str">
         <f t="shared" si="1"/>
@@ -20218,7 +21175,7 @@
         <v>Global Southern Ocean</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G43" s="8" t="str">
         <f t="shared" si="1"/>
@@ -20361,10 +21318,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B48" t="s">
         <v>1214</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1215</v>
       </c>
       <c r="C48" t="s">
         <v>437</v>
@@ -20481,10 +21438,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B53" t="s">
         <v>1216</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1217</v>
       </c>
       <c r="C53" t="s">
         <v>437</v>
@@ -20733,8 +21690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21357,14 +22314,10 @@
       <c r="P10" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="15">
-        <v>41487</v>
-      </c>
-      <c r="T10" s="15">
-        <v>41516</v>
-      </c>
-      <c r="U10" t="s">
-        <v>843</v>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="V10" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -21493,14 +22446,10 @@
         <v>633</v>
       </c>
       <c r="R12" s="23"/>
-      <c r="S12" s="15">
-        <v>41487</v>
-      </c>
-      <c r="T12" s="15">
-        <v>41516</v>
-      </c>
-      <c r="U12" t="s">
-        <v>843</v>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="V12" t="s">
+        <v>1241</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>437</v>
@@ -21562,14 +22511,10 @@
       <c r="Q13" t="s">
         <v>633</v>
       </c>
-      <c r="S13" s="15">
-        <v>41487</v>
-      </c>
-      <c r="T13" s="15">
-        <v>41516</v>
-      </c>
-      <c r="U13" t="s">
-        <v>843</v>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="V13" t="s">
+        <v>1241</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>437</v>
@@ -22107,7 +23052,7 @@
         <v>1101</v>
       </c>
       <c r="X22" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>839</v>
@@ -22169,15 +23114,9 @@
       <c r="Q23" t="s">
         <v>633</v>
       </c>
-      <c r="S23" s="15">
-        <v>41487</v>
-      </c>
-      <c r="T23" s="15">
-        <v>41516</v>
-      </c>
-      <c r="U23" s="32" t="s">
-        <v>1201</v>
-      </c>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="18"/>
       <c r="W23" s="3" t="s">
         <v>437</v>
       </c>
@@ -22266,10 +23205,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F25" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G25" s="13" t="str">
         <f t="shared" ref="G25" si="10">MID(D25,10,2)</f>
@@ -22324,10 +23263,10 @@
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F26" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G26" s="13" t="str">
         <f t="shared" si="0"/>
@@ -22392,10 +23331,10 @@
         <v>1092</v>
       </c>
       <c r="E27" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F27" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G27" s="13" t="str">
         <f t="shared" ref="G27" si="15">MID(D27,10,2)</f>
@@ -22457,10 +23396,10 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F28" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G28" s="13" t="str">
         <f t="shared" si="0"/>
@@ -22729,7 +23668,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>232</v>
       </c>
@@ -22780,10 +23719,17 @@
       <c r="P33" t="s">
         <v>7</v>
       </c>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="S33" s="14">
+        <v>41572</v>
+      </c>
+      <c r="T33" s="14">
+        <v>41575</v>
+      </c>
+      <c r="U33" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>232</v>
       </c>
@@ -22834,10 +23780,17 @@
       <c r="P34" t="s">
         <v>7</v>
       </c>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="S34" s="14">
+        <v>41572</v>
+      </c>
+      <c r="T34" s="14">
+        <v>41575</v>
+      </c>
+      <c r="U34" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>232</v>
       </c>
@@ -22888,10 +23841,17 @@
       <c r="P35" t="s">
         <v>7</v>
       </c>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="S35" s="14">
+        <v>41572</v>
+      </c>
+      <c r="T35" s="14">
+        <v>41575</v>
+      </c>
+      <c r="U35" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -22942,10 +23902,17 @@
       <c r="P36" t="s">
         <v>7</v>
       </c>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="S36" s="14">
+        <v>41572</v>
+      </c>
+      <c r="T36" s="14">
+        <v>41575</v>
+      </c>
+      <c r="U36" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>232</v>
       </c>
@@ -22996,10 +23963,17 @@
       <c r="P37" t="s">
         <v>7</v>
       </c>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="S37" s="14">
+        <v>41572</v>
+      </c>
+      <c r="T37" s="14">
+        <v>41575</v>
+      </c>
+      <c r="U37" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>232</v>
       </c>
@@ -23050,10 +24024,17 @@
       <c r="P38" t="s">
         <v>7</v>
       </c>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="S38" s="14">
+        <v>41572</v>
+      </c>
+      <c r="T38" s="14">
+        <v>41575</v>
+      </c>
+      <c r="U38" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -23108,7 +24089,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -23161,7 +24142,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>144</v>
       </c>
@@ -23214,7 +24195,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -23267,7 +24248,7 @@
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -23320,7 +24301,7 @@
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -23373,7 +24354,7 @@
       <c r="S44" s="14"/>
       <c r="T44" s="14"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -23428,7 +24409,7 @@
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -23481,7 +24462,7 @@
       <c r="S46" s="14"/>
       <c r="T46" s="14"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -23536,7 +24517,7 @@
       <c r="S47" s="14"/>
       <c r="T47" s="14"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -23589,7 +24570,7 @@
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -23642,7 +24623,7 @@
       <c r="S49" s="14"/>
       <c r="T49" s="14"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -23695,7 +24676,7 @@
       <c r="S50" s="14"/>
       <c r="T50" s="14"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -23748,7 +24729,7 @@
       <c r="S51" s="14"/>
       <c r="T51" s="14"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -23801,7 +24782,7 @@
       <c r="S52" s="14"/>
       <c r="T52" s="14"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -23854,16 +24835,19 @@
         <v>7</v>
       </c>
       <c r="S53" s="14">
-        <v>41572</v>
+        <v>41852</v>
       </c>
       <c r="T53" s="14">
-        <v>41575</v>
-      </c>
-      <c r="U53" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>41852</v>
+      </c>
+      <c r="U53" s="32" t="s">
+        <v>1244</v>
+      </c>
+      <c r="V53" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -23914,16 +24898,19 @@
         <v>7</v>
       </c>
       <c r="S54" s="14">
-        <v>41572</v>
+        <v>41852</v>
       </c>
       <c r="T54" s="14">
-        <v>41575</v>
-      </c>
-      <c r="U54" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>41852</v>
+      </c>
+      <c r="U54" s="32" t="s">
+        <v>1244</v>
+      </c>
+      <c r="V54" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -23976,16 +24963,19 @@
         <v>639</v>
       </c>
       <c r="S55" s="14">
-        <v>41572</v>
+        <v>41852</v>
       </c>
       <c r="T55" s="14">
-        <v>41575</v>
-      </c>
-      <c r="U55" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>41852</v>
+      </c>
+      <c r="U55" s="32" t="s">
+        <v>1244</v>
+      </c>
+      <c r="V55" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -24040,7 +25030,7 @@
       <c r="S56" s="14"/>
       <c r="T56" s="14"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>162</v>
       </c>
@@ -24093,7 +25083,7 @@
       <c r="S57" s="14"/>
       <c r="T57" s="14"/>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -24146,7 +25136,7 @@
       <c r="S58" s="14"/>
       <c r="T58" s="14"/>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>162</v>
       </c>
@@ -24199,7 +25189,7 @@
       <c r="S59" s="14"/>
       <c r="T59" s="14"/>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>162</v>
       </c>
@@ -24252,7 +25242,7 @@
       <c r="S60" s="14"/>
       <c r="T60" s="14"/>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>162</v>
       </c>
@@ -24305,7 +25295,7 @@
       <c r="S61" s="14"/>
       <c r="T61" s="14"/>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -24367,7 +25357,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>164</v>
       </c>
@@ -24427,7 +25417,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>164</v>
       </c>
@@ -25447,7 +26437,7 @@
         <v>820</v>
       </c>
       <c r="D81" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E81" t="s">
         <v>33</v>
@@ -25994,7 +26984,7 @@
         <v>820</v>
       </c>
       <c r="D91" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -27240,7 +28230,7 @@
       <c r="S112" s="14"/>
       <c r="T112" s="14"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:21">
       <c r="A113" t="s">
         <v>199</v>
       </c>
@@ -27298,7 +28288,7 @@
       <c r="S113" s="14"/>
       <c r="T113" s="14"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:21">
       <c r="A114" t="s">
         <v>199</v>
       </c>
@@ -27351,7 +28341,7 @@
       <c r="S114" s="14"/>
       <c r="T114" s="14"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:21">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -27409,7 +28399,7 @@
       <c r="S115" s="14"/>
       <c r="T115" s="14"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:21">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -27462,7 +28452,7 @@
       <c r="S116" s="14"/>
       <c r="T116" s="14"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:21">
       <c r="A117" t="s">
         <v>253</v>
       </c>
@@ -27512,10 +28502,17 @@
       <c r="P117" t="s">
         <v>27</v>
       </c>
-      <c r="S117" s="14"/>
-      <c r="T117" s="14"/>
-    </row>
-    <row r="118" spans="1:20">
+      <c r="S117" s="14">
+        <v>41600</v>
+      </c>
+      <c r="T117" s="14">
+        <v>41613</v>
+      </c>
+      <c r="U117" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" t="s">
         <v>253</v>
       </c>
@@ -27565,10 +28562,17 @@
       <c r="P118" t="s">
         <v>27</v>
       </c>
-      <c r="S118" s="14"/>
-      <c r="T118" s="14"/>
-    </row>
-    <row r="119" spans="1:20">
+      <c r="S118" s="14">
+        <v>41600</v>
+      </c>
+      <c r="T118" s="14">
+        <v>41613</v>
+      </c>
+      <c r="U118" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" t="s">
         <v>253</v>
       </c>
@@ -27618,10 +28622,17 @@
       <c r="P119" t="s">
         <v>27</v>
       </c>
-      <c r="S119" s="14"/>
-      <c r="T119" s="14"/>
-    </row>
-    <row r="120" spans="1:20">
+      <c r="S119" s="14">
+        <v>41600</v>
+      </c>
+      <c r="T119" s="14">
+        <v>41613</v>
+      </c>
+      <c r="U119" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" t="s">
         <v>206</v>
       </c>
@@ -27676,7 +28687,7 @@
       <c r="S120" s="14"/>
       <c r="T120" s="14"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:21">
       <c r="A121" t="s">
         <v>206</v>
       </c>
@@ -27729,7 +28740,7 @@
       <c r="S121" s="14"/>
       <c r="T121" s="14"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:21">
       <c r="A122" t="s">
         <v>206</v>
       </c>
@@ -27782,7 +28793,7 @@
       <c r="S122" s="14"/>
       <c r="T122" s="14"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:21">
       <c r="A123" t="s">
         <v>206</v>
       </c>
@@ -27835,7 +28846,7 @@
       <c r="S123" s="14"/>
       <c r="T123" s="14"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:21">
       <c r="A124" t="s">
         <v>209</v>
       </c>
@@ -27890,7 +28901,7 @@
       <c r="S124" s="14"/>
       <c r="T124" s="14"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:21">
       <c r="A125" t="s">
         <v>209</v>
       </c>
@@ -27943,7 +28954,7 @@
       <c r="S125" s="14"/>
       <c r="T125" s="14"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:21">
       <c r="A126" t="s">
         <v>209</v>
       </c>
@@ -27996,7 +29007,7 @@
       <c r="S126" s="14"/>
       <c r="T126" s="14"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:21">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -28049,7 +29060,7 @@
       <c r="S127" s="14"/>
       <c r="T127" s="14"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:21">
       <c r="A128" t="s">
         <v>211</v>
       </c>
@@ -30587,7 +31598,7 @@
         <v>437</v>
       </c>
       <c r="X171" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Y171" s="3" t="s">
         <v>440</v>
@@ -30736,10 +31747,10 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F174" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G174" s="3" t="str">
         <f t="shared" ref="G174" si="59">MID(D174,10,2)</f>
@@ -30797,10 +31808,10 @@
         <v>70</v>
       </c>
       <c r="E175" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F175" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G175" s="3" t="str">
         <f t="shared" si="46"/>
@@ -30865,10 +31876,10 @@
         <v>1062</v>
       </c>
       <c r="E176" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F176" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G176" s="3" t="str">
         <f t="shared" ref="G176" si="64">MID(D176,10,2)</f>
@@ -30930,10 +31941,10 @@
         <v>71</v>
       </c>
       <c r="E177" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F177" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G177" s="3" t="str">
         <f t="shared" si="46"/>
@@ -30990,7 +32001,7 @@
     </row>
     <row r="178" spans="1:25">
       <c r="A178" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B178" t="s">
         <v>820</v>
@@ -30999,10 +32010,10 @@
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G178" s="3" t="str">
         <f t="shared" ref="G178" si="68">MID(D178,10,2)</f>
@@ -31132,7 +32143,7 @@
         <v>437</v>
       </c>
       <c r="X179" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Y179" s="3" t="s">
         <v>459</v>
@@ -31140,7 +32151,7 @@
     </row>
     <row r="180" spans="1:25">
       <c r="A180" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B180" t="s">
         <v>820</v>
@@ -31149,10 +32160,10 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F180" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G180" s="3" t="str">
         <f t="shared" ref="G180:G181" si="72">MID(D180,10,2)</f>
@@ -31207,7 +32218,7 @@
         <v>1101</v>
       </c>
       <c r="X180" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Y180" s="22" t="s">
         <v>839</v>
@@ -31285,7 +32296,7 @@
         <v>437</v>
       </c>
       <c r="X181" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="Y181" s="3" t="s">
         <v>440</v>
@@ -31449,7 +32460,7 @@
     </row>
     <row r="184" spans="1:25">
       <c r="A184" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B184" t="s">
         <v>820</v>
@@ -31458,10 +32469,10 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F184" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G184" s="3" t="str">
         <f t="shared" si="76"/>
@@ -31516,7 +32527,7 @@
         <v>1101</v>
       </c>
       <c r="X184" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="Y184" s="3" t="s">
         <v>839</v>
@@ -31530,10 +32541,10 @@
         <v>75</v>
       </c>
       <c r="E185" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F185" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G185" s="3" t="str">
         <f t="shared" si="76"/>
@@ -31576,7 +32587,7 @@
         <v>633</v>
       </c>
       <c r="S185" s="14">
-        <v>41487</v>
+        <v>41471</v>
       </c>
       <c r="T185" s="14">
         <v>41516</v>
@@ -31585,7 +32596,7 @@
         <v>843</v>
       </c>
       <c r="X185" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Y185" s="8" t="s">
         <v>449</v>
@@ -31648,7 +32659,7 @@
         <v>633</v>
       </c>
       <c r="S186" s="14">
-        <v>41487</v>
+        <v>41471</v>
       </c>
       <c r="T186" s="14">
         <v>41516</v>
@@ -31660,7 +32671,7 @@
         <v>437</v>
       </c>
       <c r="X186" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Y186" s="3" t="s">
         <v>440</v>
@@ -31668,7 +32679,7 @@
     </row>
     <row r="187" spans="1:25">
       <c r="A187" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B187" t="s">
         <v>820</v>
@@ -31677,10 +32688,10 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F187" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G187" s="3" t="str">
         <f t="shared" si="82"/>
@@ -31806,11 +32817,14 @@
       <c r="U188" s="32" t="s">
         <v>1201</v>
       </c>
+      <c r="V188" t="s">
+        <v>1243</v>
+      </c>
       <c r="W188" s="3" t="s">
         <v>437</v>
       </c>
       <c r="X188" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="Y188" s="3" t="s">
         <v>440</v>
@@ -31873,7 +32887,7 @@
         <v>633</v>
       </c>
       <c r="S189" s="14">
-        <v>41487</v>
+        <v>41471</v>
       </c>
       <c r="T189" s="14">
         <v>41516</v>
@@ -31885,7 +32899,7 @@
         <v>437</v>
       </c>
       <c r="X189" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="Y189" s="3" t="s">
         <v>459</v>
@@ -32034,10 +33048,10 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F192" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G192" s="3" t="str">
         <f t="shared" ref="G192" si="86">MID(D192,10,2)</f>
@@ -32095,10 +33109,10 @@
         <v>81</v>
       </c>
       <c r="E193" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F193" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G193" s="3" t="str">
         <f t="shared" si="76"/>
@@ -32163,10 +33177,10 @@
         <v>1066</v>
       </c>
       <c r="E194" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F194" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G194" s="3" t="str">
         <f t="shared" ref="G194" si="91">MID(D194,10,2)</f>
@@ -32228,10 +33242,10 @@
         <v>82</v>
       </c>
       <c r="E195" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F195" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G195" s="3" t="str">
         <f t="shared" si="76"/>
@@ -32343,7 +33357,7 @@
         <v>633</v>
       </c>
       <c r="S196" s="14">
-        <v>41487</v>
+        <v>41471</v>
       </c>
       <c r="T196" s="14">
         <v>41516</v>
@@ -32355,7 +33369,7 @@
         <v>437</v>
       </c>
       <c r="X196" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Y196" s="3" t="s">
         <v>437</v>
@@ -32418,7 +33432,7 @@
         <v>633</v>
       </c>
       <c r="S197" s="14">
-        <v>41487</v>
+        <v>41471</v>
       </c>
       <c r="T197" s="14">
         <v>41516</v>
@@ -32430,7 +33444,7 @@
         <v>437</v>
       </c>
       <c r="X197" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Y197" s="3" t="s">
         <v>448</v>
@@ -32493,7 +33507,7 @@
         <v>633</v>
       </c>
       <c r="S198" s="14">
-        <v>41487</v>
+        <v>41471</v>
       </c>
       <c r="T198" s="14">
         <v>41516</v>
@@ -32505,7 +33519,7 @@
         <v>437</v>
       </c>
       <c r="X198" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Y198" s="3" t="s">
         <v>459</v>
@@ -32568,7 +33582,7 @@
         <v>633</v>
       </c>
       <c r="S199" s="14">
-        <v>41487</v>
+        <v>41471</v>
       </c>
       <c r="T199" s="14">
         <v>41516</v>
@@ -32580,7 +33594,7 @@
         <v>437</v>
       </c>
       <c r="X199" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Y199" s="3" t="s">
         <v>444</v>
@@ -32726,13 +33740,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1230</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>567</v>
@@ -32818,7 +33832,7 @@
         <v>277</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>567</v>
@@ -32837,7 +33851,7 @@
         <v>1052</v>
       </c>
       <c r="D7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -32873,7 +33887,7 @@
         <v>568</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>567</v>
@@ -32932,7 +33946,7 @@
         <v>298</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -33072,7 +34086,7 @@
         <v>1052</v>
       </c>
       <c r="D19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -33279,13 +34293,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C31" t="s">
         <v>1091</v>
       </c>
       <c r="D31" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>567</v>
@@ -33296,7 +34310,7 @@
         <v>633</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="32" spans="1:9">

--- a/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
+++ b/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6677" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6671" uniqueCount="1249">
   <si>
     <t>Platform Reference ID</t>
   </si>
@@ -21776,8 +21776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27465,18 +27465,10 @@
       <c r="P95" t="s">
         <v>27</v>
       </c>
-      <c r="S95" s="13">
-        <v>41600</v>
-      </c>
-      <c r="T95" s="13">
-        <v>41613</v>
-      </c>
-      <c r="U95" s="35" t="s">
-        <v>1246</v>
-      </c>
-      <c r="V95" s="2" t="s">
-        <v>841</v>
-      </c>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
     <row r="96" spans="1:23">
@@ -27532,18 +27524,10 @@
       <c r="P96" t="s">
         <v>27</v>
       </c>
-      <c r="S96" s="13">
-        <v>41600</v>
-      </c>
-      <c r="T96" s="13">
-        <v>41613</v>
-      </c>
-      <c r="U96" s="35" t="s">
-        <v>1246</v>
-      </c>
-      <c r="V96" s="2" t="s">
-        <v>841</v>
-      </c>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
     <row r="97" spans="1:23">
@@ -27599,18 +27583,10 @@
       <c r="P97" t="s">
         <v>27</v>
       </c>
-      <c r="S97" s="13">
-        <v>41600</v>
-      </c>
-      <c r="T97" s="13">
-        <v>41613</v>
-      </c>
-      <c r="U97" s="35" t="s">
-        <v>1246</v>
-      </c>
-      <c r="V97" s="2" t="s">
-        <v>841</v>
-      </c>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+      <c r="U97" s="35"/>
+      <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
     <row r="98" spans="1:23">

--- a/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
+++ b/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32960" windowHeight="21500" tabRatio="669" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44040" windowHeight="25980" tabRatio="669" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MIOs" sheetId="14" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Nodes!$A$1:$R$200</definedName>
     <definedName name="_xlnm.Extract" localSheetId="4">Nodes!$V$2:$V$51</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6671" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6677" uniqueCount="1252">
   <si>
     <t>Platform Reference ID</t>
   </si>
@@ -3339,9 +3339,6 @@
     <t>International District</t>
   </si>
   <si>
-    <t>Southern Summit</t>
-  </si>
-  <si>
     <t>RT Data Full</t>
   </si>
   <si>
@@ -3678,9 +3675,6 @@
     <t>Local Name</t>
   </si>
   <si>
-    <t>Slope</t>
-  </si>
-  <si>
     <t>RS01SLOP</t>
   </si>
   <si>
@@ -3796,6 +3790,21 @@
   </si>
   <si>
     <t>HD camera</t>
+  </si>
+  <si>
+    <t>Array Short Name</t>
+  </si>
+  <si>
+    <t>Continental Margin</t>
+  </si>
+  <si>
+    <t>Southern Hydrate Ridge</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
   </si>
 </sst>
 </file>
@@ -3927,7 +3936,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1164">
+  <cellStyleXfs count="1202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3954,6 +3963,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5162,7 +5209,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1164">
+  <cellStyles count="1202">
     <cellStyle name="20% - Accent3" xfId="25" builtinId="38"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5745,6 +5792,25 @@
     <cellStyle name="Followed Hyperlink" xfId="1159" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1161" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1201" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -6325,6 +6391,25 @@
     <cellStyle name="Hyperlink" xfId="1158" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1160" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1200" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -6754,22 +6839,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>1200</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1201</v>
-      </c>
       <c r="D1" s="33" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6786,7 +6871,7 @@
         <v>41562</v>
       </c>
       <c r="E2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6803,7 +6888,7 @@
         <v>41562</v>
       </c>
       <c r="E3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6820,7 +6905,7 @@
         <v>41562</v>
       </c>
       <c r="E4" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6837,7 +6922,7 @@
         <v>41562</v>
       </c>
       <c r="E5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6854,7 +6939,7 @@
         <v>41562</v>
       </c>
       <c r="E6" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6871,7 +6956,7 @@
         <v>41562</v>
       </c>
       <c r="E7" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6888,7 +6973,7 @@
         <v>41562</v>
       </c>
       <c r="E8" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6905,7 +6990,7 @@
         <v>41562</v>
       </c>
       <c r="E9" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6922,7 +7007,7 @@
         <v>41562</v>
       </c>
       <c r="E10" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6939,7 +7024,7 @@
         <v>41562</v>
       </c>
       <c r="E11" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6956,7 +7041,7 @@
         <v>41562</v>
       </c>
       <c r="E12" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6973,7 +7058,7 @@
         <v>41562</v>
       </c>
       <c r="E13" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6990,7 +7075,7 @@
         <v>41562</v>
       </c>
       <c r="E14" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7007,7 +7092,7 @@
         <v>41562</v>
       </c>
       <c r="E15" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7024,7 +7109,7 @@
         <v>41562</v>
       </c>
       <c r="E16" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7041,7 +7126,7 @@
         <v>41562</v>
       </c>
       <c r="E17" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7058,7 +7143,7 @@
         <v>41562</v>
       </c>
       <c r="E18" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7075,7 +7160,7 @@
         <v>41562</v>
       </c>
       <c r="E19" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7092,7 +7177,7 @@
         <v>41562</v>
       </c>
       <c r="E20" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7109,7 +7194,7 @@
         <v>41562</v>
       </c>
       <c r="E21" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7222,10 +7307,10 @@
         <v>860</v>
       </c>
       <c r="E31" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F31" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7239,10 +7324,10 @@
         <v>860</v>
       </c>
       <c r="E32" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F32" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7256,10 +7341,10 @@
         <v>844</v>
       </c>
       <c r="E33" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F33" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7273,10 +7358,10 @@
         <v>863</v>
       </c>
       <c r="E34" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F34" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7290,10 +7375,10 @@
         <v>846</v>
       </c>
       <c r="E35" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F35" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7307,10 +7392,10 @@
         <v>863</v>
       </c>
       <c r="E36" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F36" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7324,10 +7409,10 @@
         <v>860</v>
       </c>
       <c r="E37" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F37" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7341,10 +7426,10 @@
         <v>863</v>
       </c>
       <c r="E38" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F38" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7358,10 +7443,10 @@
         <v>635</v>
       </c>
       <c r="E39" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F39" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7375,7 +7460,7 @@
         <v>860</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7645,7 +7730,7 @@
         <v>41470</v>
       </c>
       <c r="E64" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -7662,7 +7747,7 @@
         <v>41470</v>
       </c>
       <c r="E65" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -7679,7 +7764,7 @@
         <v>41470</v>
       </c>
       <c r="E66" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -7696,7 +7781,7 @@
         <v>41470</v>
       </c>
       <c r="E67" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -7713,7 +7798,7 @@
         <v>41470</v>
       </c>
       <c r="E68" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -7730,7 +7815,7 @@
         <v>41470</v>
       </c>
       <c r="E69" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -7747,7 +7832,7 @@
         <v>41470</v>
       </c>
       <c r="E70" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -7764,7 +7849,7 @@
         <v>41470</v>
       </c>
       <c r="E71" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -7781,7 +7866,7 @@
         <v>41470</v>
       </c>
       <c r="E72" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -8139,7 +8224,7 @@
         <v>41562</v>
       </c>
       <c r="E104" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -8156,7 +8241,7 @@
         <v>41562</v>
       </c>
       <c r="E105" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -8173,7 +8258,7 @@
         <v>41562</v>
       </c>
       <c r="E106" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -8190,7 +8275,7 @@
         <v>41562</v>
       </c>
       <c r="E107" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -8207,7 +8292,7 @@
         <v>41562</v>
       </c>
       <c r="E108" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -8224,7 +8309,7 @@
         <v>41562</v>
       </c>
       <c r="E109" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -8241,7 +8326,7 @@
         <v>41562</v>
       </c>
       <c r="E110" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -8258,7 +8343,7 @@
         <v>41562</v>
       </c>
       <c r="E111" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -8275,7 +8360,7 @@
         <v>41562</v>
       </c>
       <c r="E112" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -8292,7 +8377,7 @@
         <v>41562</v>
       </c>
       <c r="E113" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -8309,7 +8394,7 @@
         <v>41562</v>
       </c>
       <c r="E114" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -8326,7 +8411,7 @@
         <v>41562</v>
       </c>
       <c r="E115" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -8343,7 +8428,7 @@
         <v>41562</v>
       </c>
       <c r="E116" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -8360,7 +8445,7 @@
         <v>41562</v>
       </c>
       <c r="E117" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -8377,7 +8462,7 @@
         <v>41562</v>
       </c>
       <c r="E118" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -8394,7 +8479,7 @@
         <v>41562</v>
       </c>
       <c r="E119" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -8411,7 +8496,7 @@
         <v>41562</v>
       </c>
       <c r="E120" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -8428,7 +8513,7 @@
         <v>41562</v>
       </c>
       <c r="E121" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -8445,7 +8530,7 @@
         <v>41562</v>
       </c>
       <c r="E122" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -8462,7 +8547,7 @@
         <v>41562</v>
       </c>
       <c r="E123" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -8479,7 +8564,7 @@
         <v>41562</v>
       </c>
       <c r="E124" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -8496,7 +8581,7 @@
         <v>41562</v>
       </c>
       <c r="E125" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -8513,7 +8598,7 @@
         <v>41562</v>
       </c>
       <c r="E126" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -8530,7 +8615,7 @@
         <v>41562</v>
       </c>
       <c r="E127" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -8547,7 +8632,7 @@
         <v>41562</v>
       </c>
       <c r="E128" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -8564,7 +8649,7 @@
         <v>41562</v>
       </c>
       <c r="E129" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -8581,7 +8666,7 @@
         <v>41562</v>
       </c>
       <c r="E130" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -8598,7 +8683,7 @@
         <v>41562</v>
       </c>
       <c r="E131" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -8615,7 +8700,7 @@
         <v>41562</v>
       </c>
       <c r="E132" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -8632,7 +8717,7 @@
         <v>41562</v>
       </c>
       <c r="E133" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -9218,10 +9303,10 @@
         <v>899</v>
       </c>
       <c r="E186" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F186" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -9235,10 +9320,10 @@
         <v>899</v>
       </c>
       <c r="E187" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F187" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -9252,10 +9337,10 @@
         <v>899</v>
       </c>
       <c r="E188" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F188" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -9269,10 +9354,10 @@
         <v>899</v>
       </c>
       <c r="E189" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F189" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -9286,10 +9371,10 @@
         <v>899</v>
       </c>
       <c r="E190" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F190" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -9303,10 +9388,10 @@
         <v>899</v>
       </c>
       <c r="E191" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F191" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -9320,10 +9405,10 @@
         <v>899</v>
       </c>
       <c r="E192" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F192" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -9337,10 +9422,10 @@
         <v>899</v>
       </c>
       <c r="E193" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F193" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -9354,10 +9439,10 @@
         <v>899</v>
       </c>
       <c r="E194" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F194" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -9371,10 +9456,10 @@
         <v>853</v>
       </c>
       <c r="E195" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F195" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -9388,10 +9473,10 @@
         <v>853</v>
       </c>
       <c r="E196" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F196" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -9405,10 +9490,10 @@
         <v>853</v>
       </c>
       <c r="E197" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F197" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -9422,10 +9507,10 @@
         <v>899</v>
       </c>
       <c r="E198" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F198" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -9439,10 +9524,10 @@
         <v>853</v>
       </c>
       <c r="E199" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F199" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -9701,7 +9786,7 @@
         <v>41600</v>
       </c>
       <c r="E222" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -9718,7 +9803,7 @@
         <v>41600</v>
       </c>
       <c r="E223" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -9735,7 +9820,7 @@
         <v>41600</v>
       </c>
       <c r="E224" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -9752,7 +9837,7 @@
         <v>41600</v>
       </c>
       <c r="E225" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -9769,7 +9854,7 @@
         <v>41600</v>
       </c>
       <c r="E226" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -9786,7 +9871,7 @@
         <v>41600</v>
       </c>
       <c r="E227" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -9803,7 +9888,7 @@
         <v>41600</v>
       </c>
       <c r="E228" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -9820,7 +9905,7 @@
         <v>41600</v>
       </c>
       <c r="E229" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -9837,7 +9922,7 @@
         <v>41600</v>
       </c>
       <c r="E230" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -9854,7 +9939,7 @@
         <v>41600</v>
       </c>
       <c r="E231" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -9871,7 +9956,7 @@
         <v>41600</v>
       </c>
       <c r="E232" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -9888,7 +9973,7 @@
         <v>41600</v>
       </c>
       <c r="E233" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -9905,7 +9990,7 @@
         <v>41600</v>
       </c>
       <c r="E234" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -9922,7 +10007,7 @@
         <v>41600</v>
       </c>
       <c r="E235" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -9939,7 +10024,7 @@
         <v>41600</v>
       </c>
       <c r="E236" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -9956,7 +10041,7 @@
         <v>41600</v>
       </c>
       <c r="E237" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -9973,7 +10058,7 @@
         <v>41600</v>
       </c>
       <c r="E238" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -9987,7 +10072,7 @@
         <v>846</v>
       </c>
       <c r="D239" s="32" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -10004,7 +10089,7 @@
         <v>41600</v>
       </c>
       <c r="E240" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -10021,7 +10106,7 @@
         <v>41600</v>
       </c>
       <c r="E241" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -10038,7 +10123,7 @@
         <v>41600</v>
       </c>
       <c r="E242" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -10165,7 +10250,7 @@
         <v>41600</v>
       </c>
       <c r="E253" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -10182,7 +10267,7 @@
         <v>41600</v>
       </c>
       <c r="E254" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -10199,7 +10284,7 @@
         <v>41600</v>
       </c>
       <c r="E255" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -10216,7 +10301,7 @@
         <v>41600</v>
       </c>
       <c r="E256" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -10233,7 +10318,7 @@
         <v>41600</v>
       </c>
       <c r="E257" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -10250,7 +10335,7 @@
         <v>41600</v>
       </c>
       <c r="E258" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -10267,7 +10352,7 @@
         <v>41600</v>
       </c>
       <c r="E259" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -10284,7 +10369,7 @@
         <v>41600</v>
       </c>
       <c r="E260" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -10301,7 +10386,7 @@
         <v>41600</v>
       </c>
       <c r="E261" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -10318,7 +10403,7 @@
         <v>41600</v>
       </c>
       <c r="E262" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -10335,7 +10420,7 @@
         <v>41600</v>
       </c>
       <c r="E263" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -10352,7 +10437,7 @@
         <v>41600</v>
       </c>
       <c r="E264" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -10369,7 +10454,7 @@
         <v>41600</v>
       </c>
       <c r="E265" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -10386,7 +10471,7 @@
         <v>41600</v>
       </c>
       <c r="E266" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -10403,7 +10488,7 @@
         <v>41600</v>
       </c>
       <c r="E267" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -10420,7 +10505,7 @@
         <v>41600</v>
       </c>
       <c r="E268" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -10437,7 +10522,7 @@
         <v>41600</v>
       </c>
       <c r="E269" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -10454,7 +10539,7 @@
         <v>41600</v>
       </c>
       <c r="E270" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -10471,7 +10556,7 @@
         <v>41600</v>
       </c>
       <c r="E271" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -10488,7 +10573,7 @@
         <v>41600</v>
       </c>
       <c r="E272" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -10505,7 +10590,7 @@
         <v>41600</v>
       </c>
       <c r="E273" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -10522,7 +10607,7 @@
         <v>41600</v>
       </c>
       <c r="E274" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -10539,7 +10624,7 @@
         <v>41600</v>
       </c>
       <c r="E275" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -10864,7 +10949,7 @@
         <v>41600</v>
       </c>
       <c r="E304" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -10881,7 +10966,7 @@
         <v>41600</v>
       </c>
       <c r="E305" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -10898,7 +10983,7 @@
         <v>41600</v>
       </c>
       <c r="E306" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -10915,7 +11000,7 @@
         <v>41600</v>
       </c>
       <c r="E307" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -10932,7 +11017,7 @@
         <v>41600</v>
       </c>
       <c r="E308" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -11158,7 +11243,7 @@
         <v>41600</v>
       </c>
       <c r="E328" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -11175,7 +11260,7 @@
         <v>41600</v>
       </c>
       <c r="E329" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -11192,7 +11277,7 @@
         <v>41600</v>
       </c>
       <c r="E330" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -11209,7 +11294,7 @@
         <v>41600</v>
       </c>
       <c r="E331" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -11226,7 +11311,7 @@
         <v>41600</v>
       </c>
       <c r="E332" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -11243,7 +11328,7 @@
         <v>41600</v>
       </c>
       <c r="E333" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -11260,7 +11345,7 @@
         <v>41600</v>
       </c>
       <c r="E334" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -11277,7 +11362,7 @@
         <v>41600</v>
       </c>
       <c r="E335" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -11294,7 +11379,7 @@
         <v>41600</v>
       </c>
       <c r="E336" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -11311,7 +11396,7 @@
         <v>41600</v>
       </c>
       <c r="E337" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -11328,7 +11413,7 @@
         <v>41600</v>
       </c>
       <c r="E338" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -11345,7 +11430,7 @@
         <v>41600</v>
       </c>
       <c r="E339" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -11362,7 +11447,7 @@
         <v>41600</v>
       </c>
       <c r="E340" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -11379,7 +11464,7 @@
         <v>41600</v>
       </c>
       <c r="E341" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -11396,7 +11481,7 @@
         <v>41600</v>
       </c>
       <c r="E342" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -11413,7 +11498,7 @@
         <v>41600</v>
       </c>
       <c r="E343" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -11430,7 +11515,7 @@
         <v>41600</v>
       </c>
       <c r="E344" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -11447,7 +11532,7 @@
         <v>41600</v>
       </c>
       <c r="E345" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -11464,7 +11549,7 @@
         <v>41600</v>
       </c>
       <c r="E346" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -11481,7 +11566,7 @@
         <v>41600</v>
       </c>
       <c r="E347" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -11498,7 +11583,7 @@
         <v>41600</v>
       </c>
       <c r="E348" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -11515,7 +11600,7 @@
         <v>41600</v>
       </c>
       <c r="E349" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -11532,7 +11617,7 @@
         <v>41600</v>
       </c>
       <c r="E350" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -11549,7 +11634,7 @@
         <v>41600</v>
       </c>
       <c r="E351" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -11566,7 +11651,7 @@
         <v>41600</v>
       </c>
       <c r="E352" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -11583,7 +11668,7 @@
         <v>41600</v>
       </c>
       <c r="E353" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -11600,7 +11685,7 @@
         <v>41600</v>
       </c>
       <c r="E354" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -11617,7 +11702,7 @@
         <v>41600</v>
       </c>
       <c r="E355" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -11634,7 +11719,7 @@
         <v>41600</v>
       </c>
       <c r="E356" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -11651,7 +11736,7 @@
         <v>41600</v>
       </c>
       <c r="E357" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -11668,7 +11753,7 @@
         <v>41600</v>
       </c>
       <c r="E358" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -11685,7 +11770,7 @@
         <v>41600</v>
       </c>
       <c r="E359" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -11702,7 +11787,7 @@
         <v>41600</v>
       </c>
       <c r="E360" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -11719,7 +11804,7 @@
         <v>41600</v>
       </c>
       <c r="E361" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -11736,7 +11821,7 @@
         <v>41600</v>
       </c>
       <c r="E362" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -11753,7 +11838,7 @@
         <v>41600</v>
       </c>
       <c r="E363" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -11770,7 +11855,7 @@
         <v>41600</v>
       </c>
       <c r="E364" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -11787,7 +11872,7 @@
         <v>41600</v>
       </c>
       <c r="E365" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -11804,7 +11889,7 @@
         <v>41600</v>
       </c>
       <c r="E366" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -11821,7 +11906,7 @@
         <v>41600</v>
       </c>
       <c r="E367" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -11838,7 +11923,7 @@
         <v>41600</v>
       </c>
       <c r="E368" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -11855,7 +11940,7 @@
         <v>41600</v>
       </c>
       <c r="E369" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -11872,7 +11957,7 @@
         <v>41600</v>
       </c>
       <c r="E370" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -11889,7 +11974,7 @@
         <v>41600</v>
       </c>
       <c r="E371" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -11906,7 +11991,7 @@
         <v>41600</v>
       </c>
       <c r="E372" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -11923,7 +12008,7 @@
         <v>41600</v>
       </c>
       <c r="E373" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -11940,7 +12025,7 @@
         <v>41600</v>
       </c>
       <c r="E374" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -11957,7 +12042,7 @@
         <v>41600</v>
       </c>
       <c r="E375" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -12909,7 +12994,7 @@
         <v>41491</v>
       </c>
       <c r="E461" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -12926,7 +13011,7 @@
         <v>41491</v>
       </c>
       <c r="E462" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -12943,7 +13028,7 @@
         <v>41491</v>
       </c>
       <c r="E463" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -12960,7 +13045,7 @@
         <v>41491</v>
       </c>
       <c r="E464" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -12977,7 +13062,7 @@
         <v>41491</v>
       </c>
       <c r="E465" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -12994,7 +13079,7 @@
         <v>41491</v>
       </c>
       <c r="E466" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -13011,7 +13096,7 @@
         <v>41491</v>
       </c>
       <c r="E467" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -13028,7 +13113,7 @@
         <v>41491</v>
       </c>
       <c r="E468" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -13045,7 +13130,7 @@
         <v>41491</v>
       </c>
       <c r="E469" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -13062,7 +13147,7 @@
         <v>41491</v>
       </c>
       <c r="E470" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -13079,7 +13164,7 @@
         <v>41491</v>
       </c>
       <c r="E471" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -13096,7 +13181,7 @@
         <v>41491</v>
       </c>
       <c r="E472" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -13113,7 +13198,7 @@
         <v>41491</v>
       </c>
       <c r="E473" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -13130,7 +13215,7 @@
         <v>41491</v>
       </c>
       <c r="E474" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -13147,7 +13232,7 @@
         <v>41491</v>
       </c>
       <c r="E475" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -13164,7 +13249,7 @@
         <v>41491</v>
       </c>
       <c r="E476" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -13181,7 +13266,7 @@
         <v>41491</v>
       </c>
       <c r="E477" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -13198,7 +13283,7 @@
         <v>41491</v>
       </c>
       <c r="E478" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -13215,7 +13300,7 @@
         <v>41491</v>
       </c>
       <c r="E479" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -13232,7 +13317,7 @@
         <v>41491</v>
       </c>
       <c r="E480" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -13249,7 +13334,7 @@
         <v>41491</v>
       </c>
       <c r="E481" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -13266,7 +13351,7 @@
         <v>41491</v>
       </c>
       <c r="E482" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -13283,7 +13368,7 @@
         <v>41491</v>
       </c>
       <c r="E483" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -13300,7 +13385,7 @@
         <v>41491</v>
       </c>
       <c r="E484" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -13317,7 +13402,7 @@
         <v>41491</v>
       </c>
       <c r="E485" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -13334,7 +13419,7 @@
         <v>41491</v>
       </c>
       <c r="E486" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -13351,7 +13436,7 @@
         <v>41491</v>
       </c>
       <c r="E487" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -13368,7 +13453,7 @@
         <v>41491</v>
       </c>
       <c r="E488" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -13385,7 +13470,7 @@
         <v>41491</v>
       </c>
       <c r="E489" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -13402,7 +13487,7 @@
         <v>41491</v>
       </c>
       <c r="E490" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -13419,7 +13504,7 @@
         <v>41491</v>
       </c>
       <c r="E491" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -13436,7 +13521,7 @@
         <v>41491</v>
       </c>
       <c r="E492" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -13453,7 +13538,7 @@
         <v>41491</v>
       </c>
       <c r="E493" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -13470,7 +13555,7 @@
         <v>41491</v>
       </c>
       <c r="E494" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -13487,7 +13572,7 @@
         <v>41491</v>
       </c>
       <c r="E495" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -14318,7 +14403,7 @@
         <v>41443</v>
       </c>
       <c r="E570" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -14335,7 +14420,7 @@
         <v>41443</v>
       </c>
       <c r="E571" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -14352,7 +14437,7 @@
         <v>41443</v>
       </c>
       <c r="E572" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -14369,7 +14454,7 @@
         <v>41443</v>
       </c>
       <c r="E573" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -14383,7 +14468,7 @@
         <v>846</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -14397,7 +14482,7 @@
         <v>846</v>
       </c>
       <c r="F575" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -14411,7 +14496,7 @@
         <v>846</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -14425,7 +14510,7 @@
         <v>860</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -14439,7 +14524,7 @@
         <v>860</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -14453,7 +14538,7 @@
         <v>853</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -14467,7 +14552,7 @@
         <v>860</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -14481,7 +14566,7 @@
         <v>846</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -14495,7 +14580,7 @@
         <v>846</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -14509,7 +14594,7 @@
         <v>846</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -14526,7 +14611,7 @@
         <v>41471</v>
       </c>
       <c r="E584" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -14543,7 +14628,7 @@
         <v>41471</v>
       </c>
       <c r="E585" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -14560,7 +14645,7 @@
         <v>41471</v>
       </c>
       <c r="E586" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -14577,7 +14662,7 @@
         <v>41471</v>
       </c>
       <c r="E587" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -14594,7 +14679,7 @@
         <v>41471</v>
       </c>
       <c r="E588" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -14611,7 +14696,7 @@
         <v>41471</v>
       </c>
       <c r="E589" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -14628,7 +14713,7 @@
         <v>41471</v>
       </c>
       <c r="E590" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -14645,7 +14730,7 @@
         <v>41471</v>
       </c>
       <c r="E591" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -14981,7 +15066,7 @@
         <v>41471</v>
       </c>
       <c r="E621" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -14998,7 +15083,7 @@
         <v>41471</v>
       </c>
       <c r="E622" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -15015,7 +15100,7 @@
         <v>41471</v>
       </c>
       <c r="E623" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -15032,7 +15117,7 @@
         <v>41471</v>
       </c>
       <c r="E624" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -15049,7 +15134,7 @@
         <v>41471</v>
       </c>
       <c r="E625" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -15066,7 +15151,7 @@
         <v>41471</v>
       </c>
       <c r="E626" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -15083,7 +15168,7 @@
         <v>41471</v>
       </c>
       <c r="E627" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -15100,7 +15185,7 @@
         <v>41471</v>
       </c>
       <c r="E628" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -15117,7 +15202,7 @@
         <v>41471</v>
       </c>
       <c r="E629" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -15134,7 +15219,7 @@
         <v>41471</v>
       </c>
       <c r="E630" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -15151,7 +15236,7 @@
         <v>41471</v>
       </c>
       <c r="E631" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -15168,7 +15253,7 @@
         <v>41471</v>
       </c>
       <c r="E632" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -15185,7 +15270,7 @@
         <v>41471</v>
       </c>
       <c r="E633" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -15202,7 +15287,7 @@
         <v>41471</v>
       </c>
       <c r="E634" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -15219,7 +15304,7 @@
         <v>41471</v>
       </c>
       <c r="E635" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -15236,7 +15321,7 @@
         <v>41471</v>
       </c>
       <c r="E636" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
   </sheetData>
@@ -19319,7 +19404,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19462,9 +19547,7 @@
       <c r="C8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>284</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" t="s">
         <v>433</v>
       </c>
@@ -19482,24 +19565,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1">
+    <row r="1" spans="1:7" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>99</v>
       </c>
@@ -19509,17 +19592,20 @@
       <c r="C1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="11" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>572</v>
       </c>
@@ -19530,13 +19616,17 @@
         <f>VLOOKUP(LEFT(A2,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" t="str">
-        <f>C2 &amp; IF(ISBLANK(D2),"", " " &amp; D2)</f>
+      <c r="D2" t="str">
+        <f>VLOOKUP(LEFT(A2,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Endurance</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" t="str">
+        <f>C2 &amp; IF(ISBLANK(E2),"", " " &amp; E2)</f>
         <v>Coastal Endurance</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>574</v>
       </c>
@@ -19547,13 +19637,17 @@
         <f>VLOOKUP(LEFT(A3,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E32" si="0">C3 &amp; IF(ISBLANK(D3),"", " " &amp; D3)</f>
+      <c r="D3" t="str">
+        <f>VLOOKUP(LEFT(A3,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Endurance</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F32" si="0">C3 &amp; IF(ISBLANK(E3),"", " " &amp; E3)</f>
         <v>Coastal Endurance</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>576</v>
       </c>
@@ -19564,13 +19658,17 @@
         <f>VLOOKUP(LEFT(A4,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" t="str">
+      <c r="D4" t="str">
+        <f>VLOOKUP(LEFT(A4,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Endurance</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>Coastal Endurance</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>578</v>
       </c>
@@ -19581,13 +19679,17 @@
         <f>VLOOKUP(LEFT(A5,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" t="str">
+      <c r="D5" t="str">
+        <f>VLOOKUP(LEFT(A5,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Endurance</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>Coastal Endurance</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>580</v>
       </c>
@@ -19598,13 +19700,17 @@
         <f>VLOOKUP(LEFT(A6,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" t="str">
+      <c r="D6" t="str">
+        <f>VLOOKUP(LEFT(A6,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Endurance</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>Coastal Endurance</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>582</v>
       </c>
@@ -19615,13 +19721,17 @@
         <f>VLOOKUP(LEFT(A7,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" t="str">
+      <c r="D7" t="str">
+        <f>VLOOKUP(LEFT(A7,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Endurance</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>Coastal Endurance</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>584</v>
       </c>
@@ -19632,13 +19742,17 @@
         <f>VLOOKUP(LEFT(A8,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" t="str">
+      <c r="D8" t="str">
+        <f>VLOOKUP(LEFT(A8,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Endurance</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>Coastal Endurance</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>586</v>
       </c>
@@ -19649,13 +19763,17 @@
         <f>VLOOKUP(LEFT(A9,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" t="str">
+      <c r="D9" t="str">
+        <f>VLOOKUP(LEFT(A9,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Pioneer</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>Coastal Pioneer</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>587</v>
       </c>
@@ -19666,13 +19784,17 @@
         <f>VLOOKUP(LEFT(A10,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" t="str">
+      <c r="D10" t="str">
+        <f>VLOOKUP(LEFT(A10,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Pioneer</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>Coastal Pioneer</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>589</v>
       </c>
@@ -19683,13 +19805,17 @@
         <f>VLOOKUP(LEFT(A11,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" t="str">
+      <c r="D11" t="str">
+        <f>VLOOKUP(LEFT(A11,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Pioneer</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>Coastal Pioneer</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>590</v>
       </c>
@@ -19700,13 +19826,17 @@
         <f>VLOOKUP(LEFT(A12,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" t="str">
+      <c r="D12" t="str">
+        <f>VLOOKUP(LEFT(A12,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Pioneer</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>Coastal Pioneer</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>591</v>
       </c>
@@ -19717,13 +19847,17 @@
         <f>VLOOKUP(LEFT(A13,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" t="str">
+      <c r="D13" t="str">
+        <f>VLOOKUP(LEFT(A13,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Pioneer</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>Coastal Pioneer</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>593</v>
       </c>
@@ -19734,13 +19868,17 @@
         <f>VLOOKUP(LEFT(A14,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" t="str">
+      <c r="D14" t="str">
+        <f>VLOOKUP(LEFT(A14,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Argentine Basin</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>Global Argentine Basin</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>595</v>
       </c>
@@ -19751,13 +19889,17 @@
         <f>VLOOKUP(LEFT(A15,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" t="str">
+      <c r="D15" t="str">
+        <f>VLOOKUP(LEFT(A15,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Argentine Basin</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>Global Argentine Basin</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>597</v>
       </c>
@@ -19768,13 +19910,17 @@
         <f>VLOOKUP(LEFT(A16,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" t="str">
+      <c r="D16" t="str">
+        <f>VLOOKUP(LEFT(A16,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Argentine Basin</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>Global Argentine Basin</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>599</v>
       </c>
@@ -19785,13 +19931,17 @@
         <f>VLOOKUP(LEFT(A17,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" t="str">
+      <c r="D17" t="str">
+        <f>VLOOKUP(LEFT(A17,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Argentine Basin</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>Global Argentine Basin</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>601</v>
       </c>
@@ -19802,13 +19952,17 @@
         <f>VLOOKUP(LEFT(A18,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" t="str">
+      <c r="D18" t="str">
+        <f>VLOOKUP(LEFT(A18,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Irminger Sea</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>Global Irminger Sea</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>603</v>
       </c>
@@ -19819,13 +19973,17 @@
         <f>VLOOKUP(LEFT(A19,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" t="str">
+      <c r="D19" t="str">
+        <f>VLOOKUP(LEFT(A19,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Irminger Sea</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>Global Irminger Sea</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>605</v>
       </c>
@@ -19836,13 +19994,17 @@
         <f>VLOOKUP(LEFT(A20,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" t="str">
+      <c r="D20" t="str">
+        <f>VLOOKUP(LEFT(A20,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Irminger Sea</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>Global Irminger Sea</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>607</v>
       </c>
@@ -19853,13 +20015,17 @@
         <f>VLOOKUP(LEFT(A21,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" t="str">
+      <c r="D21" t="str">
+        <f>VLOOKUP(LEFT(A21,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Irminger Sea</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>Global Irminger Sea</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>609</v>
       </c>
@@ -19870,13 +20036,17 @@
         <f>VLOOKUP(LEFT(A22,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" t="str">
+      <c r="D22" t="str">
+        <f>VLOOKUP(LEFT(A22,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Station Papa</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>Global Station Papa</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>611</v>
       </c>
@@ -19887,13 +20057,17 @@
         <f>VLOOKUP(LEFT(A23,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" t="str">
+      <c r="D23" t="str">
+        <f>VLOOKUP(LEFT(A23,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Station Papa</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>Global Station Papa</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>613</v>
       </c>
@@ -19904,13 +20078,17 @@
         <f>VLOOKUP(LEFT(A24,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" t="str">
+      <c r="D24" t="str">
+        <f>VLOOKUP(LEFT(A24,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Station Papa</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>Global Station Papa</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>615</v>
       </c>
@@ -19921,13 +20099,17 @@
         <f>VLOOKUP(LEFT(A25,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" t="str">
+      <c r="D25" t="str">
+        <f>VLOOKUP(LEFT(A25,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Southern Ocean</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>Global Southern Ocean</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>617</v>
       </c>
@@ -19938,13 +20120,17 @@
         <f>VLOOKUP(LEFT(A26,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" t="str">
+      <c r="D26" t="str">
+        <f>VLOOKUP(LEFT(A26,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Southern Ocean</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>Global Southern Ocean</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>619</v>
       </c>
@@ -19955,13 +20141,17 @@
         <f>VLOOKUP(LEFT(A27,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" t="str">
+      <c r="D27" t="str">
+        <f>VLOOKUP(LEFT(A27,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Southern Ocean</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>Global Southern Ocean</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>621</v>
       </c>
@@ -19972,13 +20162,17 @@
         <f>VLOOKUP(LEFT(A28,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" t="str">
+      <c r="D28" t="str">
+        <f>VLOOKUP(LEFT(A28,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>Southern Ocean</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>Global Southern Ocean</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>716</v>
       </c>
@@ -19986,18 +20180,22 @@
         <f>VLOOKUP(LEFT(A29,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Regional</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29">
+        <f>VLOOKUP(LEFT(A29,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>1058</v>
       </c>
-      <c r="E29" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>Regional Pacific City</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>623</v>
       </c>
@@ -20008,15 +20206,19 @@
         <f>VLOOKUP(LEFT(A30,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Regional</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E30" t="str">
+      <c r="D30">
+        <f>VLOOKUP(LEFT(A30,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>Regional Slope</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>Regional Continental Margin</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>625</v>
       </c>
@@ -20027,15 +20229,19 @@
         <f>VLOOKUP(LEFT(A31,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Regional</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31">
+        <f>VLOOKUP(LEFT(A31,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="E31" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v>Regional Axial</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>697</v>
       </c>
@@ -20043,14 +20249,18 @@
         <f>VLOOKUP(LEFT(A32,2),Arrays!$A$2:$D$8,3,FALSE)</f>
         <v>Regional</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32">
+        <f>VLOOKUP(LEFT(A32,2),Arrays!$A$2:$D$8,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="E32" t="str">
+      <c r="F32" t="str">
         <f t="shared" si="0"/>
         <v>Regional Mid Plate</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>712</v>
       </c>
     </row>
@@ -20069,8 +20279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20080,8 +20290,9 @@
     <col min="4" max="4" width="47.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="7" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="43.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="10.83203125" style="8"/>
+    <col min="7" max="7" width="45.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.5" style="8" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1">
@@ -20101,28 +20312,28 @@
         <v>104</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>629</v>
       </c>
       <c r="H1" s="23" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>1100</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>1101</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>1102</v>
       </c>
       <c r="K1" s="23" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>1103</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>1104</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>1105</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>710</v>
@@ -20142,7 +20353,7 @@
         <v>110</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>VLOOKUP(LEFT(A2,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A2,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -20167,7 +20378,7 @@
         <v>119</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>VLOOKUP(LEFT(A3,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A3,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -20192,7 +20403,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>VLOOKUP(LEFT(A4,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A4,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -20217,7 +20428,7 @@
         <v>130</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>VLOOKUP(LEFT(A5,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A5,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -20242,7 +20453,7 @@
         <v>136</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>VLOOKUP(LEFT(A6,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A6,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -20267,7 +20478,7 @@
         <v>138</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>VLOOKUP(LEFT(A7,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A7,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -20292,7 +20503,7 @@
         <v>274</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>VLOOKUP(LEFT(A8,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A8,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -20317,7 +20528,7 @@
         <v>141</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>VLOOKUP(LEFT(A9,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A9,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -20342,7 +20553,7 @@
         <v>230</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>VLOOKUP(LEFT(A10,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A10,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -20362,7 +20573,7 @@
         <v>-124.95</v>
       </c>
       <c r="K10" s="8">
-        <v>124.1</v>
+        <v>-124.1</v>
       </c>
       <c r="L10" s="8">
         <v>0</v>
@@ -20385,7 +20596,7 @@
         <v>143</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>VLOOKUP(LEFT(A11,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A11,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -20410,7 +20621,7 @@
         <v>146</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>VLOOKUP(LEFT(A12,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A12,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -20435,7 +20646,7 @@
         <v>148</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f>VLOOKUP(LEFT(A13,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A13,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -20460,7 +20671,7 @@
         <v>154</v>
       </c>
       <c r="E14" s="7" t="str">
-        <f>VLOOKUP(LEFT(A14,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A14,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -20485,7 +20696,7 @@
         <v>156</v>
       </c>
       <c r="E15" s="7" t="str">
-        <f>VLOOKUP(LEFT(A15,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A15,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -20510,7 +20721,7 @@
         <v>161</v>
       </c>
       <c r="E16" s="7" t="str">
-        <f>VLOOKUP(LEFT(A16,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A16,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Endurance</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -20535,7 +20746,7 @@
         <v>163</v>
       </c>
       <c r="E17" s="7" t="str">
-        <f>VLOOKUP(LEFT(A17,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A17,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -20560,7 +20771,7 @@
         <v>167</v>
       </c>
       <c r="E18" s="7" t="str">
-        <f>VLOOKUP(LEFT(A18,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A18,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -20585,7 +20796,7 @@
         <v>169</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f>VLOOKUP(LEFT(A19,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A19,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -20610,7 +20821,7 @@
         <v>171</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f>VLOOKUP(LEFT(A20,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A20,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -20635,7 +20846,7 @@
         <v>173</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f>VLOOKUP(LEFT(A21,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A21,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -20660,7 +20871,7 @@
         <v>176</v>
       </c>
       <c r="E22" s="7" t="str">
-        <f>VLOOKUP(LEFT(A22,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A22,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -20685,7 +20896,7 @@
         <v>179</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f>VLOOKUP(LEFT(A23,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A23,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -20710,7 +20921,7 @@
         <v>182</v>
       </c>
       <c r="E24" s="7" t="str">
-        <f>VLOOKUP(LEFT(A24,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A24,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -20735,7 +20946,7 @@
         <v>184</v>
       </c>
       <c r="E25" s="7" t="str">
-        <f>VLOOKUP(LEFT(A25,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A25,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -20760,7 +20971,7 @@
         <v>187</v>
       </c>
       <c r="E26" s="7" t="str">
-        <f>VLOOKUP(LEFT(A26,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A26,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -20785,11 +20996,11 @@
         <v>240</v>
       </c>
       <c r="E27" s="7" t="str">
-        <f>VLOOKUP(LEFT(A27,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A27,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Coastal Pioneer</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -20828,11 +21039,11 @@
         <v>189</v>
       </c>
       <c r="E28" s="7" t="str">
-        <f>VLOOKUP(LEFT(A28,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A28,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -20853,11 +21064,11 @@
         <v>192</v>
       </c>
       <c r="E29" s="7" t="str">
-        <f>VLOOKUP(LEFT(A29,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A29,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G29" s="7" t="str">
         <f t="shared" si="0"/>
@@ -20878,7 +21089,7 @@
         <v>198</v>
       </c>
       <c r="E30" s="7" t="str">
-        <f>VLOOKUP(LEFT(A30,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A30,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -20903,7 +21114,7 @@
         <v>203</v>
       </c>
       <c r="E31" s="7" t="str">
-        <f>VLOOKUP(LEFT(A31,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A31,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -20928,11 +21139,11 @@
         <v>251</v>
       </c>
       <c r="E32" s="7" t="str">
-        <f>VLOOKUP(LEFT(A32,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A32,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Argentine Basin</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G32" s="7" t="str">
         <f t="shared" si="0"/>
@@ -20971,11 +21182,11 @@
         <v>205</v>
       </c>
       <c r="E33" s="7" t="str">
-        <f>VLOOKUP(LEFT(A33,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A33,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -20996,11 +21207,11 @@
         <v>208</v>
       </c>
       <c r="E34" s="7" t="str">
-        <f>VLOOKUP(LEFT(A34,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A34,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G34" s="7" t="str">
         <f t="shared" ref="G34:G61" si="1">E34 &amp; IF(ISBLANK(F34),""," " &amp; F34)</f>
@@ -21021,7 +21232,7 @@
         <v>210</v>
       </c>
       <c r="E35" s="7" t="str">
-        <f>VLOOKUP(LEFT(A35,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A35,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -21046,7 +21257,7 @@
         <v>212</v>
       </c>
       <c r="E36" s="7" t="str">
-        <f>VLOOKUP(LEFT(A36,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A36,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -21071,11 +21282,11 @@
         <v>259</v>
       </c>
       <c r="E37" s="7" t="str">
-        <f>VLOOKUP(LEFT(A37,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A37,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Irminger Sea</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G37" s="7" t="str">
         <f t="shared" si="1"/>
@@ -21114,11 +21325,11 @@
         <v>214</v>
       </c>
       <c r="E38" s="7" t="str">
-        <f>VLOOKUP(LEFT(A38,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A38,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G38" s="7" t="str">
         <f t="shared" si="1"/>
@@ -21139,7 +21350,7 @@
         <v>217</v>
       </c>
       <c r="E39" s="7" t="str">
-        <f>VLOOKUP(LEFT(A39,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A39,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -21164,7 +21375,7 @@
         <v>219</v>
       </c>
       <c r="E40" s="7" t="str">
-        <f>VLOOKUP(LEFT(A40,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A40,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -21189,11 +21400,11 @@
         <v>264</v>
       </c>
       <c r="E41" s="7" t="str">
-        <f>VLOOKUP(LEFT(A41,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A41,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Station Papa</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G41" s="7" t="str">
         <f t="shared" si="1"/>
@@ -21232,11 +21443,11 @@
         <v>221</v>
       </c>
       <c r="E42" s="7" t="str">
-        <f>VLOOKUP(LEFT(A42,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A42,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G42" s="7" t="str">
         <f t="shared" si="1"/>
@@ -21257,11 +21468,11 @@
         <v>224</v>
       </c>
       <c r="E43" s="7" t="str">
-        <f>VLOOKUP(LEFT(A43,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A43,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G43" s="7" t="str">
         <f t="shared" si="1"/>
@@ -21282,7 +21493,7 @@
         <v>226</v>
       </c>
       <c r="E44" s="7" t="str">
-        <f>VLOOKUP(LEFT(A44,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A44,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -21307,7 +21518,7 @@
         <v>228</v>
       </c>
       <c r="E45" s="7" t="str">
-        <f>VLOOKUP(LEFT(A45,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A45,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -21332,11 +21543,11 @@
         <v>269</v>
       </c>
       <c r="E46" s="7" t="str">
-        <f>VLOOKUP(LEFT(A46,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A46,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Global Southern Ocean</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G46" s="7" t="str">
         <f t="shared" si="1"/>
@@ -21372,7 +21583,7 @@
         <v>1071</v>
       </c>
       <c r="E47" s="7" t="str">
-        <f>VLOOKUP(LEFT(A47,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A47,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Regional Pacific City</v>
       </c>
       <c r="F47" s="9"/>
@@ -21404,22 +21615,43 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B48" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C48" t="s">
         <v>437</v>
       </c>
       <c r="E48" s="7" t="str">
-        <f>VLOOKUP(LEFT(A48,4),Sites!$A$2:$E$32,5,FALSE)</f>
-        <v>Regional Slope</v>
+        <f>VLOOKUP(LEFT(A48,4),Sites!$A$2:$F$32,6,FALSE)</f>
+        <v>Regional Continental Margin</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="7" t="str">
         <f>E48 &amp; IF(ISBLANK(F48),""," " &amp; F48)</f>
-        <v>Regional Slope</v>
+        <v>Regional Continental Margin</v>
+      </c>
+      <c r="H48" s="8">
+        <v>44.57</v>
+      </c>
+      <c r="I48" s="8">
+        <v>44.554040000000001</v>
+      </c>
+      <c r="J48" s="8">
+        <v>-125.35235</v>
+      </c>
+      <c r="K48" s="8">
+        <v>-125.14700000000001</v>
+      </c>
+      <c r="L48" s="8">
+        <v>807</v>
+      </c>
+      <c r="M48" s="8">
+        <v>2906</v>
+      </c>
+      <c r="N48" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -21436,15 +21668,15 @@
         <v>282</v>
       </c>
       <c r="E49" s="7" t="str">
-        <f>VLOOKUP(LEFT(A49,4),Sites!$A$2:$E$32,5,FALSE)</f>
-        <v>Regional Slope</v>
+        <f>VLOOKUP(LEFT(A49,4),Sites!$A$2:$F$32,6,FALSE)</f>
+        <v>Regional Continental Margin</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="G49" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Regional Slope Base Mooring</v>
+        <v>Regional Continental Margin Base</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -21461,15 +21693,15 @@
         <v>287</v>
       </c>
       <c r="E50" s="7" t="str">
-        <f>VLOOKUP(LEFT(A50,4),Sites!$A$2:$E$32,5,FALSE)</f>
-        <v>Regional Slope</v>
+        <f>VLOOKUP(LEFT(A50,4),Sites!$A$2:$F$32,6,FALSE)</f>
+        <v>Regional Continental Margin</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>1094</v>
       </c>
       <c r="G50" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Regional Slope Base</v>
+        <v>Regional Continental Margin Base</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -21486,15 +21718,15 @@
         <v>291</v>
       </c>
       <c r="E51" s="7" t="str">
-        <f>VLOOKUP(LEFT(A51,4),Sites!$A$2:$E$32,5,FALSE)</f>
-        <v>Regional Slope</v>
+        <f>VLOOKUP(LEFT(A51,4),Sites!$A$2:$F$32,6,FALSE)</f>
+        <v>Regional Continental Margin</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>1096</v>
+        <v>1249</v>
       </c>
       <c r="G51" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Regional Slope Southern Summit</v>
+        <v>Regional Continental Margin Southern Hydrate Ridge</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -21511,29 +21743,29 @@
         <v>293</v>
       </c>
       <c r="E52" s="7" t="str">
-        <f>VLOOKUP(LEFT(A52,4),Sites!$A$2:$E$32,5,FALSE)</f>
-        <v>Regional Slope</v>
+        <f>VLOOKUP(LEFT(A52,4),Sites!$A$2:$F$32,6,FALSE)</f>
+        <v>Regional Continental Margin</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>1096</v>
+        <v>1249</v>
       </c>
       <c r="G52" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Regional Slope Southern Summit</v>
+        <v>Regional Continental Margin Southern Hydrate Ridge</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B53" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C53" t="s">
         <v>437</v>
       </c>
       <c r="E53" s="7" t="str">
-        <f>VLOOKUP(LEFT(A53,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A53,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Regional Axial</v>
       </c>
       <c r="F53" s="9"/>
@@ -21541,6 +21773,27 @@
         <f t="shared" si="1"/>
         <v>Regional Axial</v>
       </c>
+      <c r="H53" s="8">
+        <v>46.108150000000002</v>
+      </c>
+      <c r="I53" s="8">
+        <v>45.935670000000002</v>
+      </c>
+      <c r="J53" s="8">
+        <v>-130.02010999999999</v>
+      </c>
+      <c r="K53" s="8">
+        <v>-129.60316</v>
+      </c>
+      <c r="L53" s="8">
+        <v>1518</v>
+      </c>
+      <c r="M53" s="8">
+        <v>2820</v>
+      </c>
+      <c r="N53" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
@@ -21556,7 +21809,7 @@
         <v>295</v>
       </c>
       <c r="E54" s="7" t="str">
-        <f>VLOOKUP(LEFT(A54,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A54,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Regional Axial</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -21581,7 +21834,7 @@
         <v>299</v>
       </c>
       <c r="E55" s="7" t="str">
-        <f>VLOOKUP(LEFT(A55,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A55,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Regional Axial</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -21606,11 +21859,11 @@
         <v>301</v>
       </c>
       <c r="E56" s="7" t="str">
-        <f>VLOOKUP(LEFT(A56,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A56,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Regional Axial</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G56" s="7" t="str">
         <f t="shared" si="1"/>
@@ -21631,7 +21884,7 @@
         <v>303</v>
       </c>
       <c r="E57" s="7" t="str">
-        <f>VLOOKUP(LEFT(A57,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A57,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Regional Axial</v>
       </c>
       <c r="F57" s="9" t="s">
@@ -21656,7 +21909,7 @@
         <v>305</v>
       </c>
       <c r="E58" s="7" t="str">
-        <f>VLOOKUP(LEFT(A58,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A58,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Regional Axial</v>
       </c>
       <c r="F58" s="9" t="s">
@@ -21681,7 +21934,7 @@
         <v>307</v>
       </c>
       <c r="E59" s="7" t="str">
-        <f>VLOOKUP(LEFT(A59,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A59,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Regional Axial</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -21706,7 +21959,7 @@
         <v>309</v>
       </c>
       <c r="E60" s="7" t="str">
-        <f>VLOOKUP(LEFT(A60,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A60,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Regional Axial</v>
       </c>
       <c r="F60" s="9" t="s">
@@ -21728,7 +21981,7 @@
         <v>448</v>
       </c>
       <c r="E61" s="7" t="str">
-        <f>VLOOKUP(LEFT(A61,4),Sites!$A$2:$E$32,5,FALSE)</f>
+        <f>VLOOKUP(LEFT(A61,4),Sites!$A$2:$F$32,6,FALSE)</f>
         <v>Regional Mid Plate</v>
       </c>
       <c r="F61" s="9"/>
@@ -21774,10 +22027,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView topLeftCell="F20" workbookViewId="0">
+      <selection activeCell="R111" sqref="R111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21792,7 +22045,7 @@
     <col min="8" max="8" width="6.5" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
     <col min="13" max="13" width="67.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" customWidth="1"/>
@@ -21808,7 +22061,7 @@
     <col min="25" max="25" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="27" customFormat="1">
+    <row r="1" spans="1:30" s="27" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>101</v>
       </c>
@@ -21870,13 +22123,13 @@
         <v>718</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>840</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="X1" s="18" t="s">
         <v>832</v>
@@ -21887,8 +22140,20 @@
       <c r="Z1" s="18" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="11" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -21948,7 +22213,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -22009,7 +22274,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -22070,7 +22335,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -22131,7 +22396,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -22192,7 +22457,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -22253,7 +22518,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -22306,7 +22571,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="35"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -22360,7 +22625,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="35"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -22416,10 +22681,10 @@
       <c r="T10" s="14"/>
       <c r="U10" s="36"/>
       <c r="W10" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -22483,10 +22748,10 @@
       </c>
       <c r="U11" s="36"/>
       <c r="V11" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Y11" t="s">
         <v>1065</v>
@@ -22495,7 +22760,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -22550,7 +22815,7 @@
       <c r="T12" s="14"/>
       <c r="U12" s="36"/>
       <c r="W12" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>437</v>
@@ -22562,7 +22827,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -22616,7 +22881,7 @@
       <c r="T13" s="14"/>
       <c r="U13" s="36"/>
       <c r="W13" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>437</v>
@@ -22628,7 +22893,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -22684,7 +22949,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="35"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -22738,7 +23003,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="35"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -23015,7 +23280,7 @@
         <v>41516</v>
       </c>
       <c r="U20" s="38" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V20" t="s">
         <v>841</v>
@@ -23082,7 +23347,7 @@
         <v>41516</v>
       </c>
       <c r="U21" s="38" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V21" t="s">
         <v>841</v>
@@ -23161,13 +23426,13 @@
       </c>
       <c r="U22" s="36"/>
       <c r="V22" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Y22" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>837</v>
@@ -23322,10 +23587,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F25" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G25" s="12" t="str">
         <f t="shared" ref="G25" si="10">MID(D25,10,2)</f>
@@ -23381,10 +23646,10 @@
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F26" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G26" s="12" t="str">
         <f t="shared" si="0"/>
@@ -23450,10 +23715,10 @@
         <v>1090</v>
       </c>
       <c r="E27" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F27" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G27" s="12" t="str">
         <f t="shared" ref="G27" si="15">MID(D27,10,2)</f>
@@ -23516,10 +23781,10 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F28" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G28" s="12" t="str">
         <f t="shared" si="0"/>
@@ -24986,13 +25251,13 @@
         <v>41852</v>
       </c>
       <c r="U53" s="38" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V53" s="31" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="W53" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -25052,13 +25317,13 @@
         <v>41852</v>
       </c>
       <c r="U54" s="38" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V54" s="31" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="W54" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -25120,13 +25385,13 @@
         <v>41852</v>
       </c>
       <c r="U55" s="38" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V55" s="31" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="W55" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -25514,7 +25779,7 @@
         <v>41613</v>
       </c>
       <c r="U62" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V62" t="s">
         <v>841</v>
@@ -25577,7 +25842,7 @@
         <v>41613</v>
       </c>
       <c r="U63" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V63" t="s">
         <v>841</v>
@@ -25640,7 +25905,7 @@
         <v>41613</v>
       </c>
       <c r="U64" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V64" t="s">
         <v>841</v>
@@ -25703,7 +25968,7 @@
         <v>41613</v>
       </c>
       <c r="U65" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>841</v>
@@ -25767,7 +26032,7 @@
         <v>41613</v>
       </c>
       <c r="U66" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>841</v>
@@ -25997,7 +26262,7 @@
         <v>41613</v>
       </c>
       <c r="U70" s="38" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>841</v>
@@ -26064,7 +26329,7 @@
         <v>41613</v>
       </c>
       <c r="U71" s="38" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>841</v>
@@ -26130,7 +26395,7 @@
         <v>41613</v>
       </c>
       <c r="U72" s="38" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>841</v>
@@ -26197,7 +26462,7 @@
         <v>41613</v>
       </c>
       <c r="U73" s="38" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>841</v>
@@ -26263,7 +26528,7 @@
         <v>41613</v>
       </c>
       <c r="U74" s="38" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V74" s="2" t="s">
         <v>841</v>
@@ -26330,7 +26595,7 @@
         <v>41613</v>
       </c>
       <c r="U75" s="38" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V75" s="2" t="s">
         <v>841</v>
@@ -26396,7 +26661,7 @@
         <v>41613</v>
       </c>
       <c r="U76" s="38" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>841</v>
@@ -26463,7 +26728,7 @@
         <v>41613</v>
       </c>
       <c r="U77" s="38" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>841</v>
@@ -26642,7 +26907,7 @@
         <v>818</v>
       </c>
       <c r="D81" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E81" t="s">
         <v>33</v>
@@ -27022,7 +27287,7 @@
         <v>41613</v>
       </c>
       <c r="U87" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>841</v>
@@ -27201,7 +27466,7 @@
         <v>818</v>
       </c>
       <c r="D91" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -27646,7 +27911,7 @@
         <v>41613</v>
       </c>
       <c r="U98" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>841</v>
@@ -27710,7 +27975,7 @@
         <v>41613</v>
       </c>
       <c r="U99" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>841</v>
@@ -27774,7 +28039,7 @@
         <v>41613</v>
       </c>
       <c r="U100" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>841</v>
@@ -27838,7 +28103,7 @@
         <v>41613</v>
       </c>
       <c r="U101" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V101" s="2" t="s">
         <v>841</v>
@@ -27902,7 +28167,7 @@
         <v>41613</v>
       </c>
       <c r="U102" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V102" s="2" t="s">
         <v>841</v>
@@ -27966,7 +28231,7 @@
         <v>41613</v>
       </c>
       <c r="U103" s="35" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V103" s="2" t="s">
         <v>841</v>
@@ -29737,7 +30002,7 @@
         <v>41489</v>
       </c>
       <c r="U135" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V135" t="s">
         <v>841</v>
@@ -29800,7 +30065,7 @@
         <v>41489</v>
       </c>
       <c r="U136" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V136" t="s">
         <v>841</v>
@@ -29863,7 +30128,7 @@
         <v>41489</v>
       </c>
       <c r="U137" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V137" t="s">
         <v>841</v>
@@ -29926,7 +30191,7 @@
         <v>41489</v>
       </c>
       <c r="U138" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V138" t="s">
         <v>841</v>
@@ -29989,7 +30254,7 @@
         <v>41489</v>
       </c>
       <c r="U139" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V139" t="s">
         <v>841</v>
@@ -30057,7 +30322,7 @@
         <v>41489</v>
       </c>
       <c r="U140" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V140" t="s">
         <v>841</v>
@@ -30120,7 +30385,7 @@
         <v>41489</v>
       </c>
       <c r="U141" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V141" t="s">
         <v>841</v>
@@ -30188,7 +30453,7 @@
         <v>41489</v>
       </c>
       <c r="U142" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V142" t="s">
         <v>841</v>
@@ -30251,7 +30516,7 @@
         <v>41489</v>
       </c>
       <c r="U143" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V143" t="s">
         <v>841</v>
@@ -30314,7 +30579,7 @@
         <v>41489</v>
       </c>
       <c r="U144" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V144" t="s">
         <v>841</v>
@@ -30377,7 +30642,7 @@
         <v>41489</v>
       </c>
       <c r="U145" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V145" t="s">
         <v>841</v>
@@ -30440,7 +30705,7 @@
         <v>41489</v>
       </c>
       <c r="U146" s="35" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V146" t="s">
         <v>841</v>
@@ -31381,10 +31646,10 @@
         <v>40969</v>
       </c>
       <c r="U163" s="35" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V163" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="164" spans="1:26">
@@ -31446,10 +31711,10 @@
         <v>40969</v>
       </c>
       <c r="U164" s="35" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V164" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="165" spans="1:26">
@@ -31511,10 +31776,10 @@
         <v>40969</v>
       </c>
       <c r="U165" s="35" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V165" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="166" spans="1:26">
@@ -31576,10 +31841,10 @@
         <v>40969</v>
       </c>
       <c r="U166" s="35" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V166" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="167" spans="1:26">
@@ -31641,10 +31906,10 @@
         <v>40969</v>
       </c>
       <c r="U167" s="35" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V167" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="168" spans="1:26">
@@ -31706,10 +31971,10 @@
         <v>40969</v>
       </c>
       <c r="U168" s="35" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V168" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="169" spans="1:26">
@@ -31771,10 +32036,10 @@
         <v>40969</v>
       </c>
       <c r="U169" s="35" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V169" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="170" spans="1:26">
@@ -31836,10 +32101,10 @@
         <v>40969</v>
       </c>
       <c r="U170" s="35" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V170" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="171" spans="1:26">
@@ -31876,7 +32141,7 @@
       </c>
       <c r="K171" t="str">
         <f>VLOOKUP(A171,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope Base Mooring</v>
+        <v>Regional Continental Margin Base</v>
       </c>
       <c r="L171" t="str">
         <f t="shared" ref="L171" si="58">I171 &amp; IF(ISBLANK(J171),""," " &amp; J171)</f>
@@ -31884,7 +32149,7 @@
       </c>
       <c r="M171" t="str">
         <f t="shared" si="45"/>
-        <v>Low Voltage Node 01A - Regional Slope Base Mooring</v>
+        <v>Low Voltage Node 01A - Regional Continental Margin Base</v>
       </c>
       <c r="N171" t="s">
         <v>11</v>
@@ -31905,16 +32170,16 @@
         <v>41852</v>
       </c>
       <c r="U171" s="35" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V171" s="31" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="X171" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y171" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="Z171" s="3" t="s">
         <v>440</v>
@@ -31954,7 +32219,7 @@
       </c>
       <c r="K172" t="str">
         <f>VLOOKUP(A172,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope Base Mooring</v>
+        <v>Regional Continental Margin Base</v>
       </c>
       <c r="L172" t="str">
         <f t="shared" si="51"/>
@@ -31962,7 +32227,7 @@
       </c>
       <c r="M172" t="str">
         <f t="shared" si="45"/>
-        <v>Deep Profiler Mooring 01A - Regional Slope Base Mooring</v>
+        <v>Deep Profiler Mooring 01A - Regional Continental Margin Base</v>
       </c>
       <c r="N172" t="s">
         <v>64</v>
@@ -32019,7 +32284,7 @@
       </c>
       <c r="K173" t="str">
         <f>VLOOKUP(A173,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope Base Mooring</v>
+        <v>Regional Continental Margin Base</v>
       </c>
       <c r="L173" t="str">
         <f t="shared" si="51"/>
@@ -32027,7 +32292,7 @@
       </c>
       <c r="M173" t="str">
         <f t="shared" si="45"/>
-        <v>Low Power JBox 01A - Regional Slope Base Mooring</v>
+        <v>Low Power JBox 01A - Regional Continental Margin Base</v>
       </c>
       <c r="N173" t="s">
         <v>11</v>
@@ -32065,10 +32330,10 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F174" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G174" s="3" t="str">
         <f t="shared" ref="G174" si="59">MID(D174,10,2)</f>
@@ -32088,7 +32353,7 @@
       </c>
       <c r="K174" t="str">
         <f>VLOOKUP(A174,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope Base Mooring</v>
+        <v>Regional Continental Margin Base</v>
       </c>
       <c r="L174" t="str">
         <f t="shared" ref="L174" si="62">I174 &amp; IF(ISBLANK(J174),""," " &amp; J174)</f>
@@ -32096,7 +32361,7 @@
       </c>
       <c r="M174" t="str">
         <f t="shared" ref="M174" si="63">L174 &amp; " - " &amp; K174</f>
-        <v>Shallow Profiler Mooring 01A - Regional Slope Base Mooring</v>
+        <v>Shallow Profiler Mooring 01A - Regional Continental Margin Base</v>
       </c>
       <c r="N174" t="s">
         <v>67</v>
@@ -32127,10 +32392,10 @@
         <v>70</v>
       </c>
       <c r="E175" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F175" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G175" s="3" t="str">
         <f t="shared" si="46"/>
@@ -32150,7 +32415,7 @@
       </c>
       <c r="K175" t="str">
         <f>VLOOKUP(A175,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope Base Mooring</v>
+        <v>Regional Continental Margin Base</v>
       </c>
       <c r="L175" t="str">
         <f t="shared" si="51"/>
@@ -32158,7 +32423,7 @@
       </c>
       <c r="M175" t="str">
         <f t="shared" si="45"/>
-        <v>200m Platform 01A - Regional Slope Base Mooring</v>
+        <v>200m Platform 01A - Regional Continental Margin Base</v>
       </c>
       <c r="N175" t="s">
         <v>11</v>
@@ -32196,10 +32461,10 @@
         <v>1060</v>
       </c>
       <c r="E176" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F176" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G176" s="3" t="str">
         <f t="shared" ref="G176" si="64">MID(D176,10,2)</f>
@@ -32219,7 +32484,7 @@
       </c>
       <c r="K176" t="str">
         <f>VLOOKUP(A176,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope Base Mooring</v>
+        <v>Regional Continental Margin Base</v>
       </c>
       <c r="L176" t="str">
         <f t="shared" ref="L176" si="67">I176 &amp; IF(ISBLANK(J176),""," " &amp; J176)</f>
@@ -32227,7 +32492,7 @@
       </c>
       <c r="M176" t="str">
         <f t="shared" si="45"/>
-        <v>Shallow Profiler Controller 01A - Regional Slope Base Mooring</v>
+        <v>Shallow Profiler Controller 01A - Regional Continental Margin Base</v>
       </c>
       <c r="N176" t="s">
         <v>67</v>
@@ -32262,10 +32527,10 @@
         <v>71</v>
       </c>
       <c r="E177" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F177" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G177" s="3" t="str">
         <f t="shared" si="46"/>
@@ -32285,7 +32550,7 @@
       </c>
       <c r="K177" t="str">
         <f>VLOOKUP(A177,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope Base Mooring</v>
+        <v>Regional Continental Margin Base</v>
       </c>
       <c r="L177" t="str">
         <f t="shared" si="51"/>
@@ -32293,7 +32558,7 @@
       </c>
       <c r="M177" t="str">
         <f t="shared" si="45"/>
-        <v>Shallow Profiler Science Float 01A - Regional Slope Base Mooring</v>
+        <v>Shallow Profiler Science Float 01A - Regional Continental Margin Base</v>
       </c>
       <c r="N177" t="s">
         <v>67</v>
@@ -32323,7 +32588,7 @@
     </row>
     <row r="178" spans="1:26">
       <c r="A178" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B178" t="s">
         <v>818</v>
@@ -32332,10 +32597,10 @@
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G178" s="3" t="str">
         <f t="shared" ref="G178" si="68">MID(D178,10,2)</f>
@@ -32355,7 +32620,7 @@
       </c>
       <c r="K178" t="str">
         <f>VLOOKUP(A178,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope</v>
+        <v>Regional Continental Margin</v>
       </c>
       <c r="L178" t="str">
         <f t="shared" ref="L178" si="71">I178 &amp; IF(ISBLANK(J178),""," " &amp; J178)</f>
@@ -32363,7 +32628,7 @@
       </c>
       <c r="M178" t="str">
         <f t="shared" si="45"/>
-        <v>Primary Node 01A - Regional Slope</v>
+        <v>Primary Node 01A - Regional Continental Margin</v>
       </c>
       <c r="N178" t="s">
         <v>11</v>
@@ -32384,13 +32649,13 @@
         <v>41153</v>
       </c>
       <c r="U178" s="35" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V178" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X178" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Y178" t="s">
         <v>1072</v>
@@ -32433,7 +32698,7 @@
       </c>
       <c r="K179" t="str">
         <f>VLOOKUP(A179,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope Base</v>
+        <v>Regional Continental Margin Base</v>
       </c>
       <c r="L179" t="str">
         <f t="shared" si="51"/>
@@ -32441,7 +32706,7 @@
       </c>
       <c r="M179" t="str">
         <f t="shared" si="45"/>
-        <v>Medium Power JBox 01A - Regional Slope Base</v>
+        <v>Medium Power JBox 01A - Regional Continental Margin Base</v>
       </c>
       <c r="N179" t="s">
         <v>11</v>
@@ -32462,7 +32727,7 @@
         <v>41486</v>
       </c>
       <c r="U179" s="35" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V179" t="s">
         <v>841</v>
@@ -32471,7 +32736,7 @@
         <v>437</v>
       </c>
       <c r="Y179" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="Z179" s="3" t="s">
         <v>459</v>
@@ -32479,7 +32744,7 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B180" t="s">
         <v>818</v>
@@ -32488,10 +32753,10 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F180" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G180" s="3" t="str">
         <f t="shared" ref="G180:G181" si="72">MID(D180,10,2)</f>
@@ -32511,7 +32776,7 @@
       </c>
       <c r="K180" t="str">
         <f>VLOOKUP(A180,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope</v>
+        <v>Regional Continental Margin</v>
       </c>
       <c r="L180" t="str">
         <f t="shared" ref="L180:L181" si="75">I180 &amp; IF(ISBLANK(J180),""," " &amp; J180)</f>
@@ -32519,7 +32784,7 @@
       </c>
       <c r="M180" t="str">
         <f t="shared" si="45"/>
-        <v>Primary Node 01B - Regional Slope</v>
+        <v>Primary Node 01B - Regional Continental Margin</v>
       </c>
       <c r="N180" t="s">
         <v>11</v>
@@ -32541,13 +32806,13 @@
       </c>
       <c r="U180" s="35"/>
       <c r="V180" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X180" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Y180" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="Z180" s="21" t="s">
         <v>837</v>
@@ -32587,7 +32852,7 @@
       </c>
       <c r="K181" t="str">
         <f>VLOOKUP(A181,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope Southern Summit</v>
+        <v>Regional Continental Margin Southern Hydrate Ridge</v>
       </c>
       <c r="L181" t="str">
         <f t="shared" si="75"/>
@@ -32595,7 +32860,7 @@
       </c>
       <c r="M181" t="str">
         <f t="shared" si="45"/>
-        <v>Low Voltage Node 01B - Regional Slope Southern Summit</v>
+        <v>Low Voltage Node 01B - Regional Continental Margin Southern Hydrate Ridge</v>
       </c>
       <c r="N181" t="s">
         <v>11</v>
@@ -32617,16 +32882,16 @@
       </c>
       <c r="U181" s="35"/>
       <c r="V181" s="31" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="W181" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="X181" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y181" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="Z181" s="3" t="s">
         <v>440</v>
@@ -32666,7 +32931,7 @@
       </c>
       <c r="K182" t="str">
         <f>VLOOKUP(A182,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope Southern Summit</v>
+        <v>Regional Continental Margin Southern Hydrate Ridge</v>
       </c>
       <c r="L182" t="str">
         <f t="shared" si="51"/>
@@ -32674,7 +32939,7 @@
       </c>
       <c r="M182" t="str">
         <f t="shared" si="45"/>
-        <v>Low Power JBox 01B - Regional Slope Southern Summit</v>
+        <v>Low Power JBox 01B - Regional Continental Margin Southern Hydrate Ridge</v>
       </c>
       <c r="N182" t="s">
         <v>11</v>
@@ -32696,10 +32961,10 @@
       </c>
       <c r="U182" s="35"/>
       <c r="V182" s="31" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="W182" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="X182" s="3" t="s">
         <v>437</v>
@@ -32745,7 +33010,7 @@
       </c>
       <c r="K183" t="str">
         <f>VLOOKUP(A183,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Slope Southern Summit</v>
+        <v>Regional Continental Margin Southern Hydrate Ridge</v>
       </c>
       <c r="L183" t="str">
         <f t="shared" si="51"/>
@@ -32753,7 +33018,7 @@
       </c>
       <c r="M183" t="str">
         <f t="shared" si="45"/>
-        <v>Medium Power JBox 01B - Regional Slope Southern Summit</v>
+        <v>Medium Power JBox 01B - Regional Continental Margin Southern Hydrate Ridge</v>
       </c>
       <c r="N183" t="s">
         <v>11</v>
@@ -32775,10 +33040,10 @@
       </c>
       <c r="U183" s="35"/>
       <c r="V183" s="31" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="W183" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="X183" s="3" t="s">
         <v>437</v>
@@ -32792,7 +33057,7 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B184" t="s">
         <v>818</v>
@@ -32801,10 +33066,10 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F184" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G184" s="3" t="str">
         <f t="shared" si="76"/>
@@ -32854,13 +33119,13 @@
       </c>
       <c r="U184" s="35"/>
       <c r="V184" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X184" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Y184" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="Z184" s="3" t="s">
         <v>837</v>
@@ -32926,13 +33191,13 @@
         <v>41516</v>
       </c>
       <c r="U185" s="35" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V185" t="s">
         <v>841</v>
       </c>
       <c r="Y185" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="Z185" s="7" t="s">
         <v>449</v>
@@ -33001,7 +33266,7 @@
         <v>41516</v>
       </c>
       <c r="U186" s="35" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V186" t="s">
         <v>841</v>
@@ -33010,7 +33275,7 @@
         <v>437</v>
       </c>
       <c r="Y186" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="Z186" s="3" t="s">
         <v>440</v>
@@ -33018,7 +33283,7 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B187" t="s">
         <v>818</v>
@@ -33027,10 +33292,10 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F187" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G187" s="3" t="str">
         <f t="shared" si="82"/>
@@ -33080,10 +33345,10 @@
       </c>
       <c r="U187" s="35"/>
       <c r="V187" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X187" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Y187" t="s">
         <v>1068</v>
@@ -33156,16 +33421,16 @@
       </c>
       <c r="U188" s="35"/>
       <c r="V188" s="31" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W188" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="X188" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y188" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="Z188" s="3" t="s">
         <v>440</v>
@@ -33234,7 +33499,7 @@
         <v>41516</v>
       </c>
       <c r="U189" s="35" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V189" t="s">
         <v>841</v>
@@ -33243,7 +33508,7 @@
         <v>437</v>
       </c>
       <c r="Y189" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="Z189" s="3" t="s">
         <v>459</v>
@@ -33394,10 +33659,10 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F192" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G192" s="3" t="str">
         <f t="shared" ref="G192" si="86">MID(D192,10,2)</f>
@@ -33456,10 +33721,10 @@
         <v>81</v>
       </c>
       <c r="E193" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F193" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G193" s="3" t="str">
         <f t="shared" si="76"/>
@@ -33525,10 +33790,10 @@
         <v>1064</v>
       </c>
       <c r="E194" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F194" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G194" s="3" t="str">
         <f t="shared" ref="G194" si="91">MID(D194,10,2)</f>
@@ -33591,10 +33856,10 @@
         <v>82</v>
       </c>
       <c r="E195" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F195" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G195" s="3" t="str">
         <f t="shared" si="76"/>
@@ -33713,7 +33978,7 @@
         <v>41516</v>
       </c>
       <c r="U196" s="35" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V196" t="s">
         <v>841</v>
@@ -33722,7 +33987,7 @@
         <v>437</v>
       </c>
       <c r="Y196" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="Z196" s="3" t="s">
         <v>437</v>
@@ -33791,7 +34056,7 @@
         <v>41516</v>
       </c>
       <c r="U197" s="35" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V197" t="s">
         <v>841</v>
@@ -33800,7 +34065,7 @@
         <v>437</v>
       </c>
       <c r="Y197" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="Z197" s="3" t="s">
         <v>448</v>
@@ -33869,7 +34134,7 @@
         <v>41516</v>
       </c>
       <c r="U198" s="35" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V198" t="s">
         <v>841</v>
@@ -33878,7 +34143,7 @@
         <v>437</v>
       </c>
       <c r="Y198" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="Z198" s="3" t="s">
         <v>459</v>
@@ -33947,7 +34212,7 @@
         <v>41516</v>
       </c>
       <c r="U199" s="35" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V199" t="s">
         <v>841</v>
@@ -33956,7 +34221,7 @@
         <v>437</v>
       </c>
       <c r="Y199" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="Z199" s="3" t="s">
         <v>444</v>
@@ -34026,10 +34291,10 @@
       </c>
       <c r="U200" s="35"/>
       <c r="V200" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X200" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Y200" t="s">
         <v>1072</v>
@@ -34103,13 +34368,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>567</v>
@@ -34195,7 +34460,7 @@
         <v>277</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>567</v>
@@ -34214,7 +34479,7 @@
         <v>1050</v>
       </c>
       <c r="D7" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -34250,7 +34515,7 @@
         <v>568</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>567</v>
@@ -34309,7 +34574,7 @@
         <v>298</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -34445,7 +34710,7 @@
         <v>1050</v>
       </c>
       <c r="D19" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -34652,13 +34917,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C31" t="s">
         <v>1089</v>
       </c>
       <c r="D31" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>567</v>
@@ -34669,7 +34934,7 @@
         <v>633</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -35187,37 +35452,37 @@
         <v>1038</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>817</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1174</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>839</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -35234,10 +35499,10 @@
         <v>843</v>
       </c>
       <c r="E2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>818</v>
@@ -35257,10 +35522,10 @@
         <v>843</v>
       </c>
       <c r="E3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>818</v>
@@ -35280,7 +35545,7 @@
         <v>848</v>
       </c>
       <c r="E4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -35298,10 +35563,10 @@
         <v>848</v>
       </c>
       <c r="E5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>418</v>
@@ -35324,13 +35589,13 @@
         <v>848</v>
       </c>
       <c r="E6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -35347,10 +35612,10 @@
         <v>848</v>
       </c>
       <c r="E7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G7" t="s">
         <v>418</v>
@@ -35373,13 +35638,13 @@
         <v>848</v>
       </c>
       <c r="E8" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -35397,13 +35662,13 @@
         <v>848</v>
       </c>
       <c r="E9" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -35420,10 +35685,10 @@
         <v>859</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -35440,7 +35705,7 @@
         <v>859</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G11" t="s">
         <v>418</v>
@@ -35463,10 +35728,10 @@
         <v>859</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -35483,10 +35748,10 @@
         <v>859</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -35517,10 +35782,10 @@
         <v>859</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G15" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H15" t="s">
         <v>633</v>
@@ -35543,7 +35808,7 @@
         <v>859</v>
       </c>
       <c r="G16" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>818</v>
@@ -35563,7 +35828,7 @@
         <v>859</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G17" t="s">
         <v>418</v>
@@ -35586,7 +35851,7 @@
         <v>873</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G18" t="s">
         <v>418</v>
@@ -35595,7 +35860,7 @@
         <v>633</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -35612,7 +35877,7 @@
         <v>875</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G19" t="s">
         <v>418</v>
@@ -35635,7 +35900,7 @@
         <v>875</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G20" t="s">
         <v>418</v>
@@ -35672,7 +35937,7 @@
         <v>880</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G22" t="s">
         <v>418</v>
@@ -35695,7 +35960,7 @@
         <v>732</v>
       </c>
       <c r="G23" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>818</v>
@@ -35715,13 +35980,13 @@
         <v>883</v>
       </c>
       <c r="E24" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G24" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>633</v>
@@ -35744,13 +36009,13 @@
         <v>883</v>
       </c>
       <c r="E25" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G25" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>633</v>
@@ -35773,13 +36038,13 @@
         <v>883</v>
       </c>
       <c r="E26" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G26" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -35796,13 +36061,13 @@
         <v>883</v>
       </c>
       <c r="E27" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G27" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -35819,10 +36084,10 @@
         <v>883</v>
       </c>
       <c r="E28" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G28" t="s">
         <v>418</v>
@@ -35845,10 +36110,10 @@
         <v>883</v>
       </c>
       <c r="E29" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G29" t="s">
         <v>418</v>
@@ -35871,7 +36136,7 @@
         <v>736</v>
       </c>
       <c r="G30" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>818</v>
@@ -35891,10 +36156,10 @@
         <v>892</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G31" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -35925,10 +36190,10 @@
         <v>892</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -35959,7 +36224,7 @@
         <v>740</v>
       </c>
       <c r="G35" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>818</v>
@@ -35979,10 +36244,10 @@
         <v>740</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -36013,10 +36278,10 @@
         <v>740</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -36075,7 +36340,7 @@
         <v>908</v>
       </c>
       <c r="G42" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>818</v>
@@ -36095,10 +36360,10 @@
         <v>908</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -36129,7 +36394,7 @@
         <v>912</v>
       </c>
       <c r="G45" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>818</v>
@@ -36149,10 +36414,10 @@
         <v>912</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G46" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -36197,7 +36462,7 @@
         <v>912</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G49" t="s">
         <v>418</v>
@@ -36248,7 +36513,7 @@
         <v>912</v>
       </c>
       <c r="G52" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>818</v>
@@ -36268,7 +36533,7 @@
         <v>912</v>
       </c>
       <c r="G53" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>818</v>
@@ -36291,7 +36556,7 @@
         <v>745</v>
       </c>
       <c r="G54" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -36370,7 +36635,7 @@
         <v>930</v>
       </c>
       <c r="G59" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>818</v>
@@ -36390,10 +36655,10 @@
         <v>930</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G60" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -36438,7 +36703,7 @@
         <v>930</v>
       </c>
       <c r="G63" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>818</v>
@@ -36458,7 +36723,7 @@
         <v>930</v>
       </c>
       <c r="G64" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>818</v>
@@ -36478,7 +36743,7 @@
         <v>937</v>
       </c>
       <c r="G65" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>818</v>
@@ -36498,10 +36763,10 @@
         <v>937</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G66" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -36532,7 +36797,7 @@
         <v>937</v>
       </c>
       <c r="G68" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>818</v>
@@ -36552,7 +36817,7 @@
         <v>937</v>
       </c>
       <c r="G69" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>818</v>
@@ -36572,7 +36837,7 @@
         <v>937</v>
       </c>
       <c r="G70" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>818</v>
@@ -36592,7 +36857,7 @@
         <v>937</v>
       </c>
       <c r="G71" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>818</v>
@@ -36612,10 +36877,10 @@
         <v>945</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G72" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -36632,7 +36897,7 @@
         <v>947</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G73" t="s">
         <v>418</v>
@@ -36658,7 +36923,7 @@
         <v>949</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G74" t="s">
         <v>418</v>
@@ -36684,7 +36949,7 @@
         <v>762</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G75" t="s">
         <v>418</v>
@@ -36707,10 +36972,10 @@
         <v>952</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G76" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>633</v>
@@ -36733,7 +36998,7 @@
         <v>954</v>
       </c>
       <c r="G77" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>818</v>
@@ -36753,10 +37018,10 @@
         <v>954</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G78" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -36773,10 +37038,10 @@
         <v>954</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G79" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H79" s="21" t="s">
         <v>633</v>
@@ -36799,7 +37064,7 @@
         <v>954</v>
       </c>
       <c r="G80" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>818</v>
@@ -36819,7 +37084,7 @@
         <v>959</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G81" t="s">
         <v>418</v>
@@ -36845,7 +37110,7 @@
         <v>959</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G82" t="s">
         <v>418</v>
@@ -36888,7 +37153,7 @@
         <v>962</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G84" t="s">
         <v>418</v>
@@ -36914,7 +37179,7 @@
         <v>965</v>
       </c>
       <c r="G85" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>818</v>
@@ -36934,10 +37199,10 @@
         <v>965</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G86" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -36968,7 +37233,7 @@
         <v>965</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G88" t="s">
         <v>418</v>
@@ -36991,7 +37256,7 @@
         <v>965</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G89" t="s">
         <v>418</v>
@@ -37034,7 +37299,7 @@
         <v>973</v>
       </c>
       <c r="G91" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>818</v>
@@ -37068,10 +37333,10 @@
         <v>973</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G93" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -37102,7 +37367,7 @@
         <v>973</v>
       </c>
       <c r="G95" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>818</v>
@@ -37122,7 +37387,7 @@
         <v>973</v>
       </c>
       <c r="G96" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>818</v>
@@ -37142,10 +37407,10 @@
         <v>980</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G97" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H97" s="21" t="s">
         <v>633</v>
@@ -37168,7 +37433,7 @@
         <v>982</v>
       </c>
       <c r="G98" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -37185,10 +37450,10 @@
         <v>982</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G99" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -37205,7 +37470,7 @@
         <v>982</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G100" t="s">
         <v>418</v>
@@ -37228,13 +37493,13 @@
         <v>986</v>
       </c>
       <c r="E101" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G101" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -37251,10 +37516,10 @@
         <v>986</v>
       </c>
       <c r="E102" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G102" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -37271,7 +37536,7 @@
         <v>986</v>
       </c>
       <c r="E103" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -37288,10 +37553,10 @@
         <v>986</v>
       </c>
       <c r="E104" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G104" t="s">
         <v>418</v>
@@ -37314,7 +37579,7 @@
         <v>986</v>
       </c>
       <c r="E105" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -37331,10 +37596,10 @@
         <v>986</v>
       </c>
       <c r="E106" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G106" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>818</v>
@@ -37354,10 +37619,10 @@
         <v>986</v>
       </c>
       <c r="E107" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G107" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>818</v>
@@ -37377,7 +37642,7 @@
         <v>994</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G108" t="s">
         <v>418</v>
@@ -37400,10 +37665,10 @@
         <v>996</v>
       </c>
       <c r="E109" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G109" s="31" t="s">
         <v>418</v>
@@ -37426,13 +37691,13 @@
         <v>996</v>
       </c>
       <c r="E110" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G110" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H110" s="21" t="s">
         <v>633</v>
@@ -37455,10 +37720,10 @@
         <v>996</v>
       </c>
       <c r="E111" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G111" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>818</v>
@@ -37481,7 +37746,7 @@
         <v>1067</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G112" t="s">
         <v>418</v>
@@ -37507,7 +37772,7 @@
         <v>1067</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G113" t="s">
         <v>418</v>
@@ -37530,7 +37795,7 @@
         <v>1003</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G114" t="s">
         <v>418</v>
@@ -37539,7 +37804,7 @@
         <v>633</v>
       </c>
       <c r="O114" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -37556,7 +37821,7 @@
         <v>1005</v>
       </c>
       <c r="G115" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>818</v>
@@ -37576,10 +37841,10 @@
         <v>1005</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G116" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -37596,10 +37861,10 @@
         <v>1005</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G117" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H117" s="21" t="s">
         <v>633</v>
@@ -37622,10 +37887,10 @@
         <v>1009</v>
       </c>
       <c r="E118" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G118" t="s">
         <v>418</v>
@@ -37648,7 +37913,7 @@
         <v>1011</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G119" t="s">
         <v>418</v>
@@ -37671,7 +37936,7 @@
         <v>1013</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G120" t="s">
         <v>418</v>
@@ -37694,10 +37959,10 @@
         <v>1015</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G121" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -37714,10 +37979,10 @@
         <v>1017</v>
       </c>
       <c r="E122" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G122" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>818</v>
@@ -37737,13 +38002,13 @@
         <v>1017</v>
       </c>
       <c r="E123" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G123" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -37760,10 +38025,10 @@
         <v>1017</v>
       </c>
       <c r="E124" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G124" t="s">
         <v>418</v>
@@ -37786,10 +38051,10 @@
         <v>1017</v>
       </c>
       <c r="E125" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G125" t="s">
         <v>418</v>
@@ -37812,10 +38077,10 @@
         <v>1017</v>
       </c>
       <c r="E126" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G126" t="s">
         <v>418</v>
@@ -37838,7 +38103,7 @@
         <v>1017</v>
       </c>
       <c r="E127" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -37855,7 +38120,7 @@
         <v>1017</v>
       </c>
       <c r="E128" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -37872,10 +38137,10 @@
         <v>1025</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G129" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H129" s="21" t="s">
         <v>633</v>
@@ -37898,7 +38163,7 @@
         <v>1025</v>
       </c>
       <c r="G130" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -37929,10 +38194,10 @@
         <v>1029</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G132" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H132" s="21" t="s">
         <v>633</v>
@@ -37969,7 +38234,7 @@
         <v>1031</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G134" t="s">
         <v>418</v>
@@ -37992,10 +38257,10 @@
         <v>1031</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G135" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H135" s="21" t="s">
         <v>633</v>
@@ -38018,7 +38283,7 @@
         <v>1035</v>
       </c>
       <c r="G136" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>818</v>
@@ -38051,73 +38316,73 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>633</v>
@@ -38128,7 +38393,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C14" t="s">
         <v>633</v>
@@ -38136,32 +38401,32 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -38171,67 +38436,67 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C34" t="s">
         <v>633</v>
@@ -38239,37 +38504,37 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C41" t="s">
         <v>633</v>
@@ -38277,12 +38542,12 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C43" t="s">
         <v>633</v>
@@ -38290,7 +38555,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C44" t="s">
         <v>633</v>
@@ -38298,32 +38563,32 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C50" t="s">
         <v>633</v>
@@ -38331,17 +38596,17 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C53" t="s">
         <v>633</v>
@@ -38349,27 +38614,27 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>

--- a/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
+++ b/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41940" windowHeight="29100" tabRatio="669" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41940" windowHeight="29100" tabRatio="669" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MIOs" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6779" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6779" uniqueCount="1265">
   <si>
     <t>Platform Reference ID</t>
   </si>
@@ -3379,9 +3379,6 @@
   </si>
   <si>
     <t>Connection</t>
-  </si>
-  <si>
-    <t>Base Mooring</t>
   </si>
   <si>
     <t>ADCPS_I</t>
@@ -6958,22 +6955,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1199</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1200</v>
-      </c>
       <c r="D1" s="31" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>1230</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6990,7 +6987,7 @@
         <v>41562</v>
       </c>
       <c r="E2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7007,7 +7004,7 @@
         <v>41562</v>
       </c>
       <c r="E3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7024,7 +7021,7 @@
         <v>41562</v>
       </c>
       <c r="E4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7041,7 +7038,7 @@
         <v>41562</v>
       </c>
       <c r="E5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7058,7 +7055,7 @@
         <v>41562</v>
       </c>
       <c r="E6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7075,7 +7072,7 @@
         <v>41562</v>
       </c>
       <c r="E7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7092,7 +7089,7 @@
         <v>41562</v>
       </c>
       <c r="E8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7109,7 +7106,7 @@
         <v>41562</v>
       </c>
       <c r="E9" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7126,7 +7123,7 @@
         <v>41562</v>
       </c>
       <c r="E10" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7143,7 +7140,7 @@
         <v>41562</v>
       </c>
       <c r="E11" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7160,7 +7157,7 @@
         <v>41562</v>
       </c>
       <c r="E12" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7177,7 +7174,7 @@
         <v>41562</v>
       </c>
       <c r="E13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7194,7 +7191,7 @@
         <v>41562</v>
       </c>
       <c r="E14" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7211,7 +7208,7 @@
         <v>41562</v>
       </c>
       <c r="E15" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7228,7 +7225,7 @@
         <v>41562</v>
       </c>
       <c r="E16" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7245,7 +7242,7 @@
         <v>41562</v>
       </c>
       <c r="E17" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7262,7 +7259,7 @@
         <v>41562</v>
       </c>
       <c r="E18" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7279,7 +7276,7 @@
         <v>41562</v>
       </c>
       <c r="E19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7296,7 +7293,7 @@
         <v>41562</v>
       </c>
       <c r="E20" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7313,7 +7310,7 @@
         <v>41562</v>
       </c>
       <c r="E21" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7426,10 +7423,10 @@
         <v>860</v>
       </c>
       <c r="E31" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F31" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7443,10 +7440,10 @@
         <v>860</v>
       </c>
       <c r="E32" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F32" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7460,10 +7457,10 @@
         <v>844</v>
       </c>
       <c r="E33" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F33" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7477,10 +7474,10 @@
         <v>863</v>
       </c>
       <c r="E34" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F34" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7494,10 +7491,10 @@
         <v>846</v>
       </c>
       <c r="E35" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F35" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7511,10 +7508,10 @@
         <v>863</v>
       </c>
       <c r="E36" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F36" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7528,10 +7525,10 @@
         <v>860</v>
       </c>
       <c r="E37" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F37" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7545,10 +7542,10 @@
         <v>863</v>
       </c>
       <c r="E38" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F38" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7562,10 +7559,10 @@
         <v>635</v>
       </c>
       <c r="E39" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F39" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7579,7 +7576,7 @@
         <v>860</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7849,7 +7846,7 @@
         <v>41470</v>
       </c>
       <c r="E64" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -7866,7 +7863,7 @@
         <v>41470</v>
       </c>
       <c r="E65" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -7883,7 +7880,7 @@
         <v>41470</v>
       </c>
       <c r="E66" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -7900,7 +7897,7 @@
         <v>41470</v>
       </c>
       <c r="E67" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -7917,7 +7914,7 @@
         <v>41470</v>
       </c>
       <c r="E68" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -7934,7 +7931,7 @@
         <v>41470</v>
       </c>
       <c r="E69" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -7951,7 +7948,7 @@
         <v>41470</v>
       </c>
       <c r="E70" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -7968,7 +7965,7 @@
         <v>41470</v>
       </c>
       <c r="E71" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -7985,7 +7982,7 @@
         <v>41470</v>
       </c>
       <c r="E72" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -8343,7 +8340,7 @@
         <v>41562</v>
       </c>
       <c r="E104" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -8360,7 +8357,7 @@
         <v>41562</v>
       </c>
       <c r="E105" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -8377,7 +8374,7 @@
         <v>41562</v>
       </c>
       <c r="E106" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -8394,7 +8391,7 @@
         <v>41562</v>
       </c>
       <c r="E107" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -8411,7 +8408,7 @@
         <v>41562</v>
       </c>
       <c r="E108" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -8428,7 +8425,7 @@
         <v>41562</v>
       </c>
       <c r="E109" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -8445,7 +8442,7 @@
         <v>41562</v>
       </c>
       <c r="E110" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -8462,7 +8459,7 @@
         <v>41562</v>
       </c>
       <c r="E111" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -8479,7 +8476,7 @@
         <v>41562</v>
       </c>
       <c r="E112" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -8496,7 +8493,7 @@
         <v>41562</v>
       </c>
       <c r="E113" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -8513,7 +8510,7 @@
         <v>41562</v>
       </c>
       <c r="E114" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -8530,7 +8527,7 @@
         <v>41562</v>
       </c>
       <c r="E115" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -8547,7 +8544,7 @@
         <v>41562</v>
       </c>
       <c r="E116" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -8564,7 +8561,7 @@
         <v>41562</v>
       </c>
       <c r="E117" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -8581,7 +8578,7 @@
         <v>41562</v>
       </c>
       <c r="E118" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -8598,7 +8595,7 @@
         <v>41562</v>
       </c>
       <c r="E119" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -8615,7 +8612,7 @@
         <v>41562</v>
       </c>
       <c r="E120" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -8632,7 +8629,7 @@
         <v>41562</v>
       </c>
       <c r="E121" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -8649,7 +8646,7 @@
         <v>41562</v>
       </c>
       <c r="E122" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -8666,7 +8663,7 @@
         <v>41562</v>
       </c>
       <c r="E123" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -8683,7 +8680,7 @@
         <v>41562</v>
       </c>
       <c r="E124" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -8700,7 +8697,7 @@
         <v>41562</v>
       </c>
       <c r="E125" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -8717,7 +8714,7 @@
         <v>41562</v>
       </c>
       <c r="E126" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -8734,7 +8731,7 @@
         <v>41562</v>
       </c>
       <c r="E127" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -8751,7 +8748,7 @@
         <v>41562</v>
       </c>
       <c r="E128" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -8768,7 +8765,7 @@
         <v>41562</v>
       </c>
       <c r="E129" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -8785,7 +8782,7 @@
         <v>41562</v>
       </c>
       <c r="E130" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -8802,7 +8799,7 @@
         <v>41562</v>
       </c>
       <c r="E131" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -8819,7 +8816,7 @@
         <v>41562</v>
       </c>
       <c r="E132" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -8836,7 +8833,7 @@
         <v>41562</v>
       </c>
       <c r="E133" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -9422,10 +9419,10 @@
         <v>899</v>
       </c>
       <c r="E186" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F186" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -9439,10 +9436,10 @@
         <v>899</v>
       </c>
       <c r="E187" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F187" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -9456,10 +9453,10 @@
         <v>899</v>
       </c>
       <c r="E188" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F188" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -9473,10 +9470,10 @@
         <v>899</v>
       </c>
       <c r="E189" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F189" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -9490,10 +9487,10 @@
         <v>899</v>
       </c>
       <c r="E190" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F190" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -9507,10 +9504,10 @@
         <v>899</v>
       </c>
       <c r="E191" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F191" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -9524,10 +9521,10 @@
         <v>899</v>
       </c>
       <c r="E192" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F192" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -9541,10 +9538,10 @@
         <v>899</v>
       </c>
       <c r="E193" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F193" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -9558,10 +9555,10 @@
         <v>899</v>
       </c>
       <c r="E194" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F194" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -9575,10 +9572,10 @@
         <v>853</v>
       </c>
       <c r="E195" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F195" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -9592,10 +9589,10 @@
         <v>853</v>
       </c>
       <c r="E196" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F196" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -9609,10 +9606,10 @@
         <v>853</v>
       </c>
       <c r="E197" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F197" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -9626,10 +9623,10 @@
         <v>899</v>
       </c>
       <c r="E198" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F198" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -9643,10 +9640,10 @@
         <v>853</v>
       </c>
       <c r="E199" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F199" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -9905,7 +9902,7 @@
         <v>41600</v>
       </c>
       <c r="E222" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -9922,7 +9919,7 @@
         <v>41600</v>
       </c>
       <c r="E223" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -9939,7 +9936,7 @@
         <v>41600</v>
       </c>
       <c r="E224" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -9956,7 +9953,7 @@
         <v>41600</v>
       </c>
       <c r="E225" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -9973,7 +9970,7 @@
         <v>41600</v>
       </c>
       <c r="E226" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -9990,7 +9987,7 @@
         <v>41600</v>
       </c>
       <c r="E227" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -10007,7 +10004,7 @@
         <v>41600</v>
       </c>
       <c r="E228" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -10024,7 +10021,7 @@
         <v>41600</v>
       </c>
       <c r="E229" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -10041,7 +10038,7 @@
         <v>41600</v>
       </c>
       <c r="E230" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -10058,7 +10055,7 @@
         <v>41600</v>
       </c>
       <c r="E231" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -10075,7 +10072,7 @@
         <v>41600</v>
       </c>
       <c r="E232" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -10092,7 +10089,7 @@
         <v>41600</v>
       </c>
       <c r="E233" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -10109,7 +10106,7 @@
         <v>41600</v>
       </c>
       <c r="E234" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -10126,7 +10123,7 @@
         <v>41600</v>
       </c>
       <c r="E235" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -10143,7 +10140,7 @@
         <v>41600</v>
       </c>
       <c r="E236" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -10160,7 +10157,7 @@
         <v>41600</v>
       </c>
       <c r="E237" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -10177,7 +10174,7 @@
         <v>41600</v>
       </c>
       <c r="E238" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -10191,7 +10188,7 @@
         <v>846</v>
       </c>
       <c r="D239" s="30" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -10208,7 +10205,7 @@
         <v>41600</v>
       </c>
       <c r="E240" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -10225,7 +10222,7 @@
         <v>41600</v>
       </c>
       <c r="E241" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -10242,7 +10239,7 @@
         <v>41600</v>
       </c>
       <c r="E242" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -10369,7 +10366,7 @@
         <v>41600</v>
       </c>
       <c r="E253" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -10386,7 +10383,7 @@
         <v>41600</v>
       </c>
       <c r="E254" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -10403,7 +10400,7 @@
         <v>41600</v>
       </c>
       <c r="E255" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -10420,7 +10417,7 @@
         <v>41600</v>
       </c>
       <c r="E256" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -10437,7 +10434,7 @@
         <v>41600</v>
       </c>
       <c r="E257" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -10454,7 +10451,7 @@
         <v>41600</v>
       </c>
       <c r="E258" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -10471,7 +10468,7 @@
         <v>41600</v>
       </c>
       <c r="E259" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -10488,7 +10485,7 @@
         <v>41600</v>
       </c>
       <c r="E260" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -10505,7 +10502,7 @@
         <v>41600</v>
       </c>
       <c r="E261" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -10522,7 +10519,7 @@
         <v>41600</v>
       </c>
       <c r="E262" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -10539,7 +10536,7 @@
         <v>41600</v>
       </c>
       <c r="E263" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -10556,7 +10553,7 @@
         <v>41600</v>
       </c>
       <c r="E264" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -10573,7 +10570,7 @@
         <v>41600</v>
       </c>
       <c r="E265" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -10590,7 +10587,7 @@
         <v>41600</v>
       </c>
       <c r="E266" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -10607,7 +10604,7 @@
         <v>41600</v>
       </c>
       <c r="E267" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -10624,7 +10621,7 @@
         <v>41600</v>
       </c>
       <c r="E268" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -10641,7 +10638,7 @@
         <v>41600</v>
       </c>
       <c r="E269" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -10658,7 +10655,7 @@
         <v>41600</v>
       </c>
       <c r="E270" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -10675,7 +10672,7 @@
         <v>41600</v>
       </c>
       <c r="E271" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -10692,7 +10689,7 @@
         <v>41600</v>
       </c>
       <c r="E272" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -10709,7 +10706,7 @@
         <v>41600</v>
       </c>
       <c r="E273" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -10726,7 +10723,7 @@
         <v>41600</v>
       </c>
       <c r="E274" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -10743,7 +10740,7 @@
         <v>41600</v>
       </c>
       <c r="E275" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -11068,7 +11065,7 @@
         <v>41600</v>
       </c>
       <c r="E304" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -11085,7 +11082,7 @@
         <v>41600</v>
       </c>
       <c r="E305" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -11102,7 +11099,7 @@
         <v>41600</v>
       </c>
       <c r="E306" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -11119,7 +11116,7 @@
         <v>41600</v>
       </c>
       <c r="E307" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -11136,7 +11133,7 @@
         <v>41600</v>
       </c>
       <c r="E308" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -11362,7 +11359,7 @@
         <v>41600</v>
       </c>
       <c r="E328" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -11379,7 +11376,7 @@
         <v>41600</v>
       </c>
       <c r="E329" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -11396,7 +11393,7 @@
         <v>41600</v>
       </c>
       <c r="E330" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -11413,7 +11410,7 @@
         <v>41600</v>
       </c>
       <c r="E331" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -11430,7 +11427,7 @@
         <v>41600</v>
       </c>
       <c r="E332" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -11447,7 +11444,7 @@
         <v>41600</v>
       </c>
       <c r="E333" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -11464,7 +11461,7 @@
         <v>41600</v>
       </c>
       <c r="E334" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -11481,7 +11478,7 @@
         <v>41600</v>
       </c>
       <c r="E335" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -11498,7 +11495,7 @@
         <v>41600</v>
       </c>
       <c r="E336" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -11515,7 +11512,7 @@
         <v>41600</v>
       </c>
       <c r="E337" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -11532,7 +11529,7 @@
         <v>41600</v>
       </c>
       <c r="E338" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -11549,7 +11546,7 @@
         <v>41600</v>
       </c>
       <c r="E339" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -11566,7 +11563,7 @@
         <v>41600</v>
       </c>
       <c r="E340" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -11583,7 +11580,7 @@
         <v>41600</v>
       </c>
       <c r="E341" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -11600,7 +11597,7 @@
         <v>41600</v>
       </c>
       <c r="E342" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -11617,7 +11614,7 @@
         <v>41600</v>
       </c>
       <c r="E343" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -11634,7 +11631,7 @@
         <v>41600</v>
       </c>
       <c r="E344" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -11651,7 +11648,7 @@
         <v>41600</v>
       </c>
       <c r="E345" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -11668,7 +11665,7 @@
         <v>41600</v>
       </c>
       <c r="E346" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -11685,7 +11682,7 @@
         <v>41600</v>
       </c>
       <c r="E347" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -11702,7 +11699,7 @@
         <v>41600</v>
       </c>
       <c r="E348" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -11719,7 +11716,7 @@
         <v>41600</v>
       </c>
       <c r="E349" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -11736,7 +11733,7 @@
         <v>41600</v>
       </c>
       <c r="E350" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -11753,7 +11750,7 @@
         <v>41600</v>
       </c>
       <c r="E351" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -11770,7 +11767,7 @@
         <v>41600</v>
       </c>
       <c r="E352" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -11787,7 +11784,7 @@
         <v>41600</v>
       </c>
       <c r="E353" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -11804,7 +11801,7 @@
         <v>41600</v>
       </c>
       <c r="E354" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -11821,7 +11818,7 @@
         <v>41600</v>
       </c>
       <c r="E355" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -11838,7 +11835,7 @@
         <v>41600</v>
       </c>
       <c r="E356" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -11855,7 +11852,7 @@
         <v>41600</v>
       </c>
       <c r="E357" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -11872,7 +11869,7 @@
         <v>41600</v>
       </c>
       <c r="E358" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -11889,7 +11886,7 @@
         <v>41600</v>
       </c>
       <c r="E359" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -11906,7 +11903,7 @@
         <v>41600</v>
       </c>
       <c r="E360" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -11923,7 +11920,7 @@
         <v>41600</v>
       </c>
       <c r="E361" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -11940,7 +11937,7 @@
         <v>41600</v>
       </c>
       <c r="E362" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -11957,7 +11954,7 @@
         <v>41600</v>
       </c>
       <c r="E363" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -11974,7 +11971,7 @@
         <v>41600</v>
       </c>
       <c r="E364" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -11991,7 +11988,7 @@
         <v>41600</v>
       </c>
       <c r="E365" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -12008,7 +12005,7 @@
         <v>41600</v>
       </c>
       <c r="E366" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -12025,7 +12022,7 @@
         <v>41600</v>
       </c>
       <c r="E367" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -12042,7 +12039,7 @@
         <v>41600</v>
       </c>
       <c r="E368" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -12059,7 +12056,7 @@
         <v>41600</v>
       </c>
       <c r="E369" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -12076,7 +12073,7 @@
         <v>41600</v>
       </c>
       <c r="E370" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -12093,7 +12090,7 @@
         <v>41600</v>
       </c>
       <c r="E371" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -12110,7 +12107,7 @@
         <v>41600</v>
       </c>
       <c r="E372" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -12127,7 +12124,7 @@
         <v>41600</v>
       </c>
       <c r="E373" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -12144,7 +12141,7 @@
         <v>41600</v>
       </c>
       <c r="E374" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -12161,7 +12158,7 @@
         <v>41600</v>
       </c>
       <c r="E375" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -13113,7 +13110,7 @@
         <v>41491</v>
       </c>
       <c r="E461" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -13130,7 +13127,7 @@
         <v>41491</v>
       </c>
       <c r="E462" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -13147,7 +13144,7 @@
         <v>41491</v>
       </c>
       <c r="E463" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -13164,7 +13161,7 @@
         <v>41491</v>
       </c>
       <c r="E464" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -13181,7 +13178,7 @@
         <v>41491</v>
       </c>
       <c r="E465" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -13198,7 +13195,7 @@
         <v>41491</v>
       </c>
       <c r="E466" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -13215,7 +13212,7 @@
         <v>41491</v>
       </c>
       <c r="E467" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -13232,7 +13229,7 @@
         <v>41491</v>
       </c>
       <c r="E468" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -13249,7 +13246,7 @@
         <v>41491</v>
       </c>
       <c r="E469" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -13266,7 +13263,7 @@
         <v>41491</v>
       </c>
       <c r="E470" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -13283,7 +13280,7 @@
         <v>41491</v>
       </c>
       <c r="E471" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -13300,7 +13297,7 @@
         <v>41491</v>
       </c>
       <c r="E472" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -13317,7 +13314,7 @@
         <v>41491</v>
       </c>
       <c r="E473" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -13334,7 +13331,7 @@
         <v>41491</v>
       </c>
       <c r="E474" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -13351,7 +13348,7 @@
         <v>41491</v>
       </c>
       <c r="E475" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -13368,7 +13365,7 @@
         <v>41491</v>
       </c>
       <c r="E476" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -13385,7 +13382,7 @@
         <v>41491</v>
       </c>
       <c r="E477" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -13402,7 +13399,7 @@
         <v>41491</v>
       </c>
       <c r="E478" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -13419,7 +13416,7 @@
         <v>41491</v>
       </c>
       <c r="E479" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -13436,7 +13433,7 @@
         <v>41491</v>
       </c>
       <c r="E480" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -13453,7 +13450,7 @@
         <v>41491</v>
       </c>
       <c r="E481" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -13470,7 +13467,7 @@
         <v>41491</v>
       </c>
       <c r="E482" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -13487,7 +13484,7 @@
         <v>41491</v>
       </c>
       <c r="E483" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -13504,7 +13501,7 @@
         <v>41491</v>
       </c>
       <c r="E484" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -13521,7 +13518,7 @@
         <v>41491</v>
       </c>
       <c r="E485" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -13538,7 +13535,7 @@
         <v>41491</v>
       </c>
       <c r="E486" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -13555,7 +13552,7 @@
         <v>41491</v>
       </c>
       <c r="E487" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -13572,7 +13569,7 @@
         <v>41491</v>
       </c>
       <c r="E488" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -13589,7 +13586,7 @@
         <v>41491</v>
       </c>
       <c r="E489" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -13606,7 +13603,7 @@
         <v>41491</v>
       </c>
       <c r="E490" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -13623,7 +13620,7 @@
         <v>41491</v>
       </c>
       <c r="E491" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -13640,7 +13637,7 @@
         <v>41491</v>
       </c>
       <c r="E492" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -13657,7 +13654,7 @@
         <v>41491</v>
       </c>
       <c r="E493" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -13674,7 +13671,7 @@
         <v>41491</v>
       </c>
       <c r="E494" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -13691,7 +13688,7 @@
         <v>41491</v>
       </c>
       <c r="E495" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -14522,7 +14519,7 @@
         <v>41443</v>
       </c>
       <c r="E570" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -14539,7 +14536,7 @@
         <v>41443</v>
       </c>
       <c r="E571" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -14556,7 +14553,7 @@
         <v>41443</v>
       </c>
       <c r="E572" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -14573,7 +14570,7 @@
         <v>41443</v>
       </c>
       <c r="E573" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -14587,7 +14584,7 @@
         <v>846</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -14601,7 +14598,7 @@
         <v>846</v>
       </c>
       <c r="F575" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -14615,7 +14612,7 @@
         <v>846</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -14629,7 +14626,7 @@
         <v>860</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -14643,7 +14640,7 @@
         <v>860</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -14657,7 +14654,7 @@
         <v>853</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -14671,7 +14668,7 @@
         <v>860</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -14685,7 +14682,7 @@
         <v>846</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -14699,7 +14696,7 @@
         <v>846</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -14713,7 +14710,7 @@
         <v>846</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -14730,7 +14727,7 @@
         <v>41471</v>
       </c>
       <c r="E584" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -14747,7 +14744,7 @@
         <v>41471</v>
       </c>
       <c r="E585" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -14764,7 +14761,7 @@
         <v>41471</v>
       </c>
       <c r="E586" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -14781,7 +14778,7 @@
         <v>41471</v>
       </c>
       <c r="E587" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -14798,7 +14795,7 @@
         <v>41471</v>
       </c>
       <c r="E588" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -14815,7 +14812,7 @@
         <v>41471</v>
       </c>
       <c r="E589" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -14832,7 +14829,7 @@
         <v>41471</v>
       </c>
       <c r="E590" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -14849,7 +14846,7 @@
         <v>41471</v>
       </c>
       <c r="E591" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -15185,7 +15182,7 @@
         <v>41471</v>
       </c>
       <c r="E621" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -15202,7 +15199,7 @@
         <v>41471</v>
       </c>
       <c r="E622" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -15219,7 +15216,7 @@
         <v>41471</v>
       </c>
       <c r="E623" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -15236,7 +15233,7 @@
         <v>41471</v>
       </c>
       <c r="E624" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -15253,7 +15250,7 @@
         <v>41471</v>
       </c>
       <c r="E625" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -15270,7 +15267,7 @@
         <v>41471</v>
       </c>
       <c r="E626" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -15287,7 +15284,7 @@
         <v>41471</v>
       </c>
       <c r="E627" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -15304,7 +15301,7 @@
         <v>41471</v>
       </c>
       <c r="E628" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -15321,7 +15318,7 @@
         <v>41471</v>
       </c>
       <c r="E629" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -15338,7 +15335,7 @@
         <v>41471</v>
       </c>
       <c r="E630" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -15355,7 +15352,7 @@
         <v>41471</v>
       </c>
       <c r="E631" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -15372,7 +15369,7 @@
         <v>41471</v>
       </c>
       <c r="E632" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -15389,7 +15386,7 @@
         <v>41471</v>
       </c>
       <c r="E633" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -15406,7 +15403,7 @@
         <v>41471</v>
       </c>
       <c r="E634" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -15423,7 +15420,7 @@
         <v>41471</v>
       </c>
       <c r="E635" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -15440,7 +15437,7 @@
         <v>41471</v>
       </c>
       <c r="E636" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
   </sheetData>
@@ -19712,7 +19709,7 @@
         <v>103</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>627</v>
@@ -20330,7 +20327,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -20398,8 +20395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20431,7 +20428,7 @@
         <v>104</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>629</v>
@@ -21119,7 +21116,7 @@
         <v>Coastal Pioneer</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21162,7 +21159,7 @@
         <v>Global Argentine Basin</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21187,7 +21184,7 @@
         <v>Global Argentine Basin</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21262,7 +21259,7 @@
         <v>Global Argentine Basin</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G32" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21305,7 +21302,7 @@
         <v>Global Irminger Sea</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G33" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21330,7 +21327,7 @@
         <v>Global Irminger Sea</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G34" s="6" t="str">
         <f t="shared" ref="G34:G61" si="1">E34 &amp; IF(ISBLANK(F34),""," " &amp; F34)</f>
@@ -21405,7 +21402,7 @@
         <v>Global Irminger Sea</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G37" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21448,7 +21445,7 @@
         <v>Global Station Papa</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G38" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21523,7 +21520,7 @@
         <v>Global Station Papa</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G41" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21566,7 +21563,7 @@
         <v>Global Southern Ocean</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G42" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21591,7 +21588,7 @@
         <v>Global Southern Ocean</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G43" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21666,7 +21663,7 @@
         <v>Global Southern Ocean</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G46" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21734,10 +21731,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B48" t="s">
         <v>1208</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1209</v>
       </c>
       <c r="C48" t="s">
         <v>437</v>
@@ -21841,7 +21838,7 @@
         <v>Regional Continental Margin</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G51" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21866,7 +21863,7 @@
         <v>Regional Continental Margin</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G52" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21875,10 +21872,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B53" t="s">
         <v>1210</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1211</v>
       </c>
       <c r="C53" t="s">
         <v>437</v>
@@ -21982,11 +21979,11 @@
         <v>Regional Axial</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="G56" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Regional Axial Base Mooring</v>
+        <v>Regional Axial Base</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -22242,13 +22239,13 @@
         <v>718</v>
       </c>
       <c r="U1" s="32" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>840</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>832</v>
@@ -22260,10 +22257,10 @@
         <v>715</v>
       </c>
       <c r="AA1" s="10" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>1250</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>1251</v>
       </c>
       <c r="AC1" s="22" t="s">
         <v>1103</v>
@@ -22800,7 +22797,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="34"/>
       <c r="W10" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -22867,7 +22864,7 @@
       </c>
       <c r="U11" s="34"/>
       <c r="V11" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="X11" s="3" t="s">
         <v>1098</v>
@@ -22934,7 +22931,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="34"/>
       <c r="W12" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>437</v>
@@ -23000,7 +22997,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="34"/>
       <c r="W13" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>437</v>
@@ -23399,7 +23396,7 @@
         <v>41516</v>
       </c>
       <c r="U20" s="36" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V20" t="s">
         <v>841</v>
@@ -23466,7 +23463,7 @@
         <v>41516</v>
       </c>
       <c r="U21" s="36" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V21" t="s">
         <v>841</v>
@@ -23545,13 +23542,13 @@
       </c>
       <c r="U22" s="34"/>
       <c r="V22" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>1098</v>
       </c>
       <c r="Y22" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>837</v>
@@ -23706,10 +23703,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F25" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G25" s="11" t="str">
         <f t="shared" ref="G25" si="10">MID(D25,10,2)</f>
@@ -23765,10 +23762,10 @@
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F26" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -23834,10 +23831,10 @@
         <v>1090</v>
       </c>
       <c r="E27" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F27" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G27" s="11" t="str">
         <f t="shared" ref="G27" si="15">MID(D27,10,2)</f>
@@ -23900,10 +23897,10 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F28" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -25370,13 +25367,13 @@
         <v>41852</v>
       </c>
       <c r="U53" s="36" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V53" s="29" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="W53" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -25436,13 +25433,13 @@
         <v>41852</v>
       </c>
       <c r="U54" s="36" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V54" s="29" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="W54" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -25504,13 +25501,13 @@
         <v>41852</v>
       </c>
       <c r="U55" s="36" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V55" s="29" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="W55" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -25898,7 +25895,7 @@
         <v>41613</v>
       </c>
       <c r="U62" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V62" t="s">
         <v>841</v>
@@ -25961,7 +25958,7 @@
         <v>41613</v>
       </c>
       <c r="U63" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V63" t="s">
         <v>841</v>
@@ -26024,7 +26021,7 @@
         <v>41613</v>
       </c>
       <c r="U64" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V64" t="s">
         <v>841</v>
@@ -26087,7 +26084,7 @@
         <v>41613</v>
       </c>
       <c r="U65" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>841</v>
@@ -26151,7 +26148,7 @@
         <v>41613</v>
       </c>
       <c r="U66" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>841</v>
@@ -26381,7 +26378,7 @@
         <v>41613</v>
       </c>
       <c r="U70" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>841</v>
@@ -26448,7 +26445,7 @@
         <v>41613</v>
       </c>
       <c r="U71" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>841</v>
@@ -26514,7 +26511,7 @@
         <v>41613</v>
       </c>
       <c r="U72" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>841</v>
@@ -26581,7 +26578,7 @@
         <v>41613</v>
       </c>
       <c r="U73" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>841</v>
@@ -26647,7 +26644,7 @@
         <v>41613</v>
       </c>
       <c r="U74" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V74" s="2" t="s">
         <v>841</v>
@@ -26714,7 +26711,7 @@
         <v>41613</v>
       </c>
       <c r="U75" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V75" s="2" t="s">
         <v>841</v>
@@ -26780,7 +26777,7 @@
         <v>41613</v>
       </c>
       <c r="U76" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>841</v>
@@ -26847,7 +26844,7 @@
         <v>41613</v>
       </c>
       <c r="U77" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>841</v>
@@ -27026,7 +27023,7 @@
         <v>818</v>
       </c>
       <c r="D81" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E81" t="s">
         <v>33</v>
@@ -27406,7 +27403,7 @@
         <v>41613</v>
       </c>
       <c r="U87" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>841</v>
@@ -27585,7 +27582,7 @@
         <v>818</v>
       </c>
       <c r="D91" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -28030,7 +28027,7 @@
         <v>41613</v>
       </c>
       <c r="U98" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>841</v>
@@ -28094,7 +28091,7 @@
         <v>41613</v>
       </c>
       <c r="U99" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>841</v>
@@ -28158,7 +28155,7 @@
         <v>41613</v>
       </c>
       <c r="U100" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>841</v>
@@ -28222,7 +28219,7 @@
         <v>41613</v>
       </c>
       <c r="U101" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V101" s="2" t="s">
         <v>841</v>
@@ -28286,7 +28283,7 @@
         <v>41613</v>
       </c>
       <c r="U102" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V102" s="2" t="s">
         <v>841</v>
@@ -28350,7 +28347,7 @@
         <v>41613</v>
       </c>
       <c r="U103" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V103" s="2" t="s">
         <v>841</v>
@@ -30121,7 +30118,7 @@
         <v>41489</v>
       </c>
       <c r="U135" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V135" t="s">
         <v>841</v>
@@ -30184,7 +30181,7 @@
         <v>41489</v>
       </c>
       <c r="U136" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V136" t="s">
         <v>841</v>
@@ -30247,7 +30244,7 @@
         <v>41489</v>
       </c>
       <c r="U137" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V137" t="s">
         <v>841</v>
@@ -30310,7 +30307,7 @@
         <v>41489</v>
       </c>
       <c r="U138" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V138" t="s">
         <v>841</v>
@@ -30373,7 +30370,7 @@
         <v>41489</v>
       </c>
       <c r="U139" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V139" t="s">
         <v>841</v>
@@ -30441,7 +30438,7 @@
         <v>41489</v>
       </c>
       <c r="U140" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V140" t="s">
         <v>841</v>
@@ -30504,7 +30501,7 @@
         <v>41489</v>
       </c>
       <c r="U141" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V141" t="s">
         <v>841</v>
@@ -30572,7 +30569,7 @@
         <v>41489</v>
       </c>
       <c r="U142" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V142" t="s">
         <v>841</v>
@@ -30635,7 +30632,7 @@
         <v>41489</v>
       </c>
       <c r="U143" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V143" t="s">
         <v>841</v>
@@ -30698,7 +30695,7 @@
         <v>41489</v>
       </c>
       <c r="U144" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V144" t="s">
         <v>841</v>
@@ -30761,7 +30758,7 @@
         <v>41489</v>
       </c>
       <c r="U145" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V145" t="s">
         <v>841</v>
@@ -30824,7 +30821,7 @@
         <v>41489</v>
       </c>
       <c r="U146" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V146" t="s">
         <v>841</v>
@@ -31765,10 +31762,10 @@
         <v>40969</v>
       </c>
       <c r="U163" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V163" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="164" spans="1:26">
@@ -31830,10 +31827,10 @@
         <v>40969</v>
       </c>
       <c r="U164" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V164" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="165" spans="1:26">
@@ -31895,10 +31892,10 @@
         <v>40969</v>
       </c>
       <c r="U165" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V165" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="166" spans="1:26">
@@ -31960,10 +31957,10 @@
         <v>40969</v>
       </c>
       <c r="U166" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V166" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="167" spans="1:26">
@@ -32025,10 +32022,10 @@
         <v>40969</v>
       </c>
       <c r="U167" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V167" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="168" spans="1:26">
@@ -32090,10 +32087,10 @@
         <v>40969</v>
       </c>
       <c r="U168" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V168" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="169" spans="1:26">
@@ -32155,10 +32152,10 @@
         <v>40969</v>
       </c>
       <c r="U169" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V169" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="170" spans="1:26">
@@ -32220,10 +32217,10 @@
         <v>40969</v>
       </c>
       <c r="U170" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V170" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="171" spans="1:26">
@@ -32289,16 +32286,16 @@
         <v>41852</v>
       </c>
       <c r="U171" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V171" s="29" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="X171" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y171" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Z171" s="3" t="s">
         <v>440</v>
@@ -32449,10 +32446,10 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F174" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G174" s="3" t="str">
         <f t="shared" ref="G174" si="59">MID(D174,10,2)</f>
@@ -32511,10 +32508,10 @@
         <v>70</v>
       </c>
       <c r="E175" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F175" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G175" s="3" t="str">
         <f t="shared" si="46"/>
@@ -32580,10 +32577,10 @@
         <v>1060</v>
       </c>
       <c r="E176" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F176" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G176" s="3" t="str">
         <f t="shared" ref="G176" si="64">MID(D176,10,2)</f>
@@ -32646,10 +32643,10 @@
         <v>71</v>
       </c>
       <c r="E177" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F177" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G177" s="3" t="str">
         <f t="shared" si="46"/>
@@ -32707,7 +32704,7 @@
     </row>
     <row r="178" spans="1:26">
       <c r="A178" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B178" t="s">
         <v>818</v>
@@ -32716,10 +32713,10 @@
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G178" s="3" t="str">
         <f t="shared" ref="G178" si="68">MID(D178,10,2)</f>
@@ -32768,10 +32765,10 @@
         <v>41153</v>
       </c>
       <c r="U178" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V178" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="X178" s="3" t="s">
         <v>1098</v>
@@ -32846,7 +32843,7 @@
         <v>41486</v>
       </c>
       <c r="U179" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V179" t="s">
         <v>841</v>
@@ -32855,7 +32852,7 @@
         <v>437</v>
       </c>
       <c r="Y179" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Z179" s="3" t="s">
         <v>459</v>
@@ -32863,7 +32860,7 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B180" t="s">
         <v>818</v>
@@ -32872,10 +32869,10 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F180" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G180" s="3" t="str">
         <f t="shared" ref="G180:G181" si="72">MID(D180,10,2)</f>
@@ -32925,13 +32922,13 @@
       </c>
       <c r="U180" s="33"/>
       <c r="V180" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="X180" s="3" t="s">
         <v>1098</v>
       </c>
       <c r="Y180" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Z180" s="20" t="s">
         <v>837</v>
@@ -33001,16 +32998,16 @@
       </c>
       <c r="U181" s="33"/>
       <c r="V181" s="29" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="W181" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="X181" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y181" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Z181" s="3" t="s">
         <v>440</v>
@@ -33080,10 +33077,10 @@
       </c>
       <c r="U182" s="33"/>
       <c r="V182" s="29" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="W182" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="X182" s="3" t="s">
         <v>437</v>
@@ -33159,10 +33156,10 @@
       </c>
       <c r="U183" s="33"/>
       <c r="V183" s="29" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="W183" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="X183" s="3" t="s">
         <v>437</v>
@@ -33176,7 +33173,7 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B184" t="s">
         <v>818</v>
@@ -33185,10 +33182,10 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F184" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G184" s="3" t="str">
         <f t="shared" si="76"/>
@@ -33238,13 +33235,13 @@
       </c>
       <c r="U184" s="33"/>
       <c r="V184" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="X184" s="3" t="s">
         <v>1098</v>
       </c>
       <c r="Y184" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Z184" s="3" t="s">
         <v>837</v>
@@ -33310,13 +33307,13 @@
         <v>41516</v>
       </c>
       <c r="U185" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V185" t="s">
         <v>841</v>
       </c>
       <c r="Y185" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z185" s="6" t="s">
         <v>449</v>
@@ -33385,7 +33382,7 @@
         <v>41516</v>
       </c>
       <c r="U186" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V186" t="s">
         <v>841</v>
@@ -33394,7 +33391,7 @@
         <v>437</v>
       </c>
       <c r="Y186" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z186" s="3" t="s">
         <v>440</v>
@@ -33402,7 +33399,7 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B187" t="s">
         <v>818</v>
@@ -33411,10 +33408,10 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F187" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G187" s="3" t="str">
         <f t="shared" si="82"/>
@@ -33464,7 +33461,7 @@
       </c>
       <c r="U187" s="33"/>
       <c r="V187" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="X187" s="3" t="s">
         <v>1098</v>
@@ -33540,16 +33537,16 @@
       </c>
       <c r="U188" s="33"/>
       <c r="V188" s="29" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="W188" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="X188" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y188" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Z188" s="3" t="s">
         <v>440</v>
@@ -33618,7 +33615,7 @@
         <v>41516</v>
       </c>
       <c r="U189" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V189" t="s">
         <v>841</v>
@@ -33627,7 +33624,7 @@
         <v>437</v>
       </c>
       <c r="Y189" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Z189" s="3" t="s">
         <v>459</v>
@@ -33667,7 +33664,7 @@
       </c>
       <c r="K190" t="str">
         <f>VLOOKUP(A190,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Axial Base Mooring</v>
+        <v>Regional Axial Base</v>
       </c>
       <c r="L190" t="str">
         <f t="shared" si="51"/>
@@ -33675,7 +33672,7 @@
       </c>
       <c r="M190" t="str">
         <f t="shared" si="45"/>
-        <v>Deep Profiler Mooring 03A - Regional Axial Base Mooring</v>
+        <v>Deep Profiler Mooring 03A - Regional Axial Base</v>
       </c>
       <c r="N190" t="s">
         <v>64</v>
@@ -33732,7 +33729,7 @@
       </c>
       <c r="K191" t="str">
         <f>VLOOKUP(A191,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Axial Base Mooring</v>
+        <v>Regional Axial Base</v>
       </c>
       <c r="L191" t="str">
         <f t="shared" si="51"/>
@@ -33740,7 +33737,7 @@
       </c>
       <c r="M191" t="str">
         <f t="shared" si="45"/>
-        <v>Low Power JBox 03A - Regional Axial Base Mooring</v>
+        <v>Low Power JBox 03A - Regional Axial Base</v>
       </c>
       <c r="N191" t="s">
         <v>11</v>
@@ -33778,10 +33775,10 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F192" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G192" s="3" t="str">
         <f t="shared" ref="G192" si="86">MID(D192,10,2)</f>
@@ -33801,7 +33798,7 @@
       </c>
       <c r="K192" t="str">
         <f>VLOOKUP(A192,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Axial Base Mooring</v>
+        <v>Regional Axial Base</v>
       </c>
       <c r="L192" t="str">
         <f t="shared" ref="L192" si="89">I192 &amp; IF(ISBLANK(J192),""," " &amp; J192)</f>
@@ -33809,7 +33806,7 @@
       </c>
       <c r="M192" t="str">
         <f t="shared" ref="M192" si="90">L192 &amp; " - " &amp; K192</f>
-        <v>Shallow Profiler Mooring 03A - Regional Axial Base Mooring</v>
+        <v>Shallow Profiler Mooring 03A - Regional Axial Base</v>
       </c>
       <c r="N192" t="s">
         <v>67</v>
@@ -33840,10 +33837,10 @@
         <v>81</v>
       </c>
       <c r="E193" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F193" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G193" s="3" t="str">
         <f t="shared" si="76"/>
@@ -33863,7 +33860,7 @@
       </c>
       <c r="K193" t="str">
         <f>VLOOKUP(A193,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Axial Base Mooring</v>
+        <v>Regional Axial Base</v>
       </c>
       <c r="L193" t="str">
         <f t="shared" si="51"/>
@@ -33871,7 +33868,7 @@
       </c>
       <c r="M193" t="str">
         <f t="shared" si="45"/>
-        <v>200m Platform 03A - Regional Axial Base Mooring</v>
+        <v>200m Platform 03A - Regional Axial Base</v>
       </c>
       <c r="N193" t="s">
         <v>11</v>
@@ -33909,10 +33906,10 @@
         <v>1064</v>
       </c>
       <c r="E194" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F194" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G194" s="3" t="str">
         <f t="shared" ref="G194" si="91">MID(D194,10,2)</f>
@@ -33932,7 +33929,7 @@
       </c>
       <c r="K194" t="str">
         <f>VLOOKUP(A194,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Axial Base Mooring</v>
+        <v>Regional Axial Base</v>
       </c>
       <c r="L194" t="str">
         <f t="shared" ref="L194" si="94">I194 &amp; IF(ISBLANK(J194),""," " &amp; J194)</f>
@@ -33940,7 +33937,7 @@
       </c>
       <c r="M194" t="str">
         <f t="shared" si="45"/>
-        <v>Shallow Profiler Controller 03A - Regional Axial Base Mooring</v>
+        <v>Shallow Profiler Controller 03A - Regional Axial Base</v>
       </c>
       <c r="N194" t="s">
         <v>67</v>
@@ -33975,10 +33972,10 @@
         <v>82</v>
       </c>
       <c r="E195" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F195" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G195" s="3" t="str">
         <f t="shared" si="76"/>
@@ -33998,7 +33995,7 @@
       </c>
       <c r="K195" t="str">
         <f>VLOOKUP(A195,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Regional Axial Base Mooring</v>
+        <v>Regional Axial Base</v>
       </c>
       <c r="L195" t="str">
         <f t="shared" si="51"/>
@@ -34006,7 +34003,7 @@
       </c>
       <c r="M195" t="str">
         <f t="shared" si="45"/>
-        <v>Shallow Profiler Science Float 03A - Regional Axial Base Mooring</v>
+        <v>Shallow Profiler Science Float 03A - Regional Axial Base</v>
       </c>
       <c r="N195" t="s">
         <v>67</v>
@@ -34097,7 +34094,7 @@
         <v>41516</v>
       </c>
       <c r="U196" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V196" t="s">
         <v>841</v>
@@ -34106,7 +34103,7 @@
         <v>437</v>
       </c>
       <c r="Y196" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z196" s="3" t="s">
         <v>437</v>
@@ -34175,7 +34172,7 @@
         <v>41516</v>
       </c>
       <c r="U197" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V197" t="s">
         <v>841</v>
@@ -34184,7 +34181,7 @@
         <v>437</v>
       </c>
       <c r="Y197" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z197" s="3" t="s">
         <v>448</v>
@@ -34253,7 +34250,7 @@
         <v>41516</v>
       </c>
       <c r="U198" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V198" t="s">
         <v>841</v>
@@ -34262,7 +34259,7 @@
         <v>437</v>
       </c>
       <c r="Y198" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z198" s="3" t="s">
         <v>459</v>
@@ -34331,7 +34328,7 @@
         <v>41516</v>
       </c>
       <c r="U199" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V199" t="s">
         <v>841</v>
@@ -34340,7 +34337,7 @@
         <v>437</v>
       </c>
       <c r="Y199" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z199" s="3" t="s">
         <v>444</v>
@@ -34410,7 +34407,7 @@
       </c>
       <c r="U200" s="33"/>
       <c r="V200" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="X200" s="3" t="s">
         <v>1098</v>
@@ -34487,13 +34484,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1224</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>567</v>
@@ -34579,7 +34576,7 @@
         <v>277</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>567</v>
@@ -34598,7 +34595,7 @@
         <v>1050</v>
       </c>
       <c r="D7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -34634,7 +34631,7 @@
         <v>568</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>567</v>
@@ -34693,7 +34690,7 @@
         <v>298</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -34829,7 +34826,7 @@
         <v>1050</v>
       </c>
       <c r="D19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -35036,13 +35033,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C31" t="s">
         <v>1089</v>
       </c>
       <c r="D31" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>567</v>
@@ -35053,7 +35050,7 @@
         <v>633</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -35542,7 +35539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -35574,19 +35571,19 @@
         <v>1038</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>1261</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>1262</v>
-      </c>
       <c r="I1" s="17" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>1109</v>
@@ -35595,13 +35592,13 @@
         <v>817</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>1171</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>1172</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>1173</v>
-      </c>
       <c r="N1" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>839</v>
@@ -35613,7 +35610,7 @@
         <v>1096</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -35630,7 +35627,7 @@
         <v>843</v>
       </c>
       <c r="E2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>1106</v>
@@ -35653,7 +35650,7 @@
         <v>843</v>
       </c>
       <c r="E3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>1106</v>
@@ -35676,7 +35673,7 @@
         <v>848</v>
       </c>
       <c r="E4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -35694,17 +35691,17 @@
         <v>848</v>
       </c>
       <c r="E5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>418</v>
@@ -35727,10 +35724,10 @@
         <v>848</v>
       </c>
       <c r="E6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J6" t="s">
         <v>1107</v>
@@ -35750,10 +35747,10 @@
         <v>848</v>
       </c>
       <c r="E7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J7" t="s">
         <v>418</v>
@@ -35776,17 +35773,17 @@
         <v>848</v>
       </c>
       <c r="E8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J8" t="s">
         <v>1106</v>
@@ -35807,10 +35804,10 @@
         <v>848</v>
       </c>
       <c r="E9" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J9" t="s">
         <v>1107</v>
@@ -35830,7 +35827,7 @@
         <v>859</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J10" t="s">
         <v>1107</v>
@@ -35850,7 +35847,7 @@
         <v>859</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="J11" t="s">
         <v>418</v>
@@ -35873,7 +35870,7 @@
         <v>859</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J12" t="s">
         <v>1107</v>
@@ -35893,7 +35890,7 @@
         <v>859</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="J13" t="s">
         <v>1107</v>
@@ -35927,7 +35924,7 @@
         <v>859</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J15" t="s">
         <v>1108</v>
@@ -35973,7 +35970,7 @@
         <v>859</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J17" t="s">
         <v>418</v>
@@ -35996,16 +35993,16 @@
         <v>873</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J18" t="s">
         <v>418</v>
@@ -36014,7 +36011,7 @@
         <v>633</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -36031,7 +36028,7 @@
         <v>875</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J19" t="s">
         <v>418</v>
@@ -36054,16 +36051,16 @@
         <v>875</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="J20" t="s">
         <v>418</v>
@@ -36100,16 +36097,16 @@
         <v>880</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J22" t="s">
         <v>418</v>
@@ -36152,10 +36149,10 @@
         <v>883</v>
       </c>
       <c r="E24" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J24" t="s">
         <v>1108</v>
@@ -36181,10 +36178,10 @@
         <v>883</v>
       </c>
       <c r="E25" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J25" t="s">
         <v>1108</v>
@@ -36210,10 +36207,10 @@
         <v>883</v>
       </c>
       <c r="E26" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J26" t="s">
         <v>1107</v>
@@ -36233,10 +36230,10 @@
         <v>883</v>
       </c>
       <c r="E27" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J27" t="s">
         <v>1107</v>
@@ -36256,10 +36253,10 @@
         <v>883</v>
       </c>
       <c r="E28" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="J28" t="s">
         <v>418</v>
@@ -36282,17 +36279,17 @@
         <v>883</v>
       </c>
       <c r="E29" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H29" s="37"/>
       <c r="I29" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="J29" t="s">
         <v>418</v>
@@ -36315,7 +36312,7 @@
         <v>736</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G30" s="40" t="s">
         <v>194</v>
@@ -36342,14 +36339,14 @@
         <v>892</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G31" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H31" s="40"/>
       <c r="I31" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J31" t="s">
         <v>1106</v>
@@ -36372,7 +36369,7 @@
         <v>2014</v>
       </c>
       <c r="H32" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -36389,7 +36386,7 @@
         <v>892</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J33" t="s">
         <v>1107</v>
@@ -36423,7 +36420,7 @@
         <v>740</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>194</v>
@@ -36450,7 +36447,7 @@
         <v>740</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J36" t="s">
         <v>1107</v>
@@ -36484,7 +36481,7 @@
         <v>740</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="J38" t="s">
         <v>1107</v>
@@ -36518,7 +36515,7 @@
         <v>740</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>194</v>
@@ -36573,7 +36570,7 @@
         <v>908</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J43" t="s">
         <v>1107</v>
@@ -36607,7 +36604,7 @@
         <v>912</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G45" s="40" t="s">
         <v>194</v>
@@ -36634,7 +36631,7 @@
         <v>912</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J46" t="s">
         <v>1107</v>
@@ -36682,16 +36679,16 @@
         <v>912</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G49" s="37" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H49" s="37" t="s">
         <v>1264</v>
       </c>
-      <c r="H49" s="37" t="s">
-        <v>1265</v>
-      </c>
       <c r="I49" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="J49" t="s">
         <v>418</v>
@@ -36728,7 +36725,7 @@
         <v>912</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>194</v>
@@ -36749,7 +36746,7 @@
         <v>912</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>194</v>
@@ -36858,10 +36855,10 @@
         <v>928</v>
       </c>
       <c r="F58" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H58" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J58" t="s">
         <v>418</v>
@@ -36884,7 +36881,7 @@
         <v>930</v>
       </c>
       <c r="F59" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G59" s="40" t="s">
         <v>194</v>
@@ -36911,7 +36908,7 @@
         <v>930</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J60" t="s">
         <v>1107</v>
@@ -36959,7 +36956,7 @@
         <v>930</v>
       </c>
       <c r="F63" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>194</v>
@@ -36986,7 +36983,7 @@
         <v>930</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G64" s="40" t="s">
         <v>194</v>
@@ -37033,7 +37030,7 @@
         <v>937</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J66" t="s">
         <v>1107</v>
@@ -37067,7 +37064,7 @@
         <v>937</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>194</v>
@@ -37154,7 +37151,7 @@
         <v>945</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J72" t="s">
         <v>1107</v>
@@ -37174,16 +37171,16 @@
         <v>947</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G73" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H73" s="39" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="J73" t="s">
         <v>418</v>
@@ -37209,16 +37206,16 @@
         <v>949</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G74" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H74" s="39" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="J74" t="s">
         <v>418</v>
@@ -37244,16 +37241,16 @@
         <v>762</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G75" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H75" s="39" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J75" t="s">
         <v>418</v>
@@ -37276,7 +37273,7 @@
         <v>952</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="J76" t="s">
         <v>1108</v>
@@ -37302,7 +37299,7 @@
         <v>954</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G77" s="40" t="s">
         <v>194</v>
@@ -37329,7 +37326,7 @@
         <v>954</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J78" t="s">
         <v>1107</v>
@@ -37349,7 +37346,7 @@
         <v>954</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J79" t="s">
         <v>1108</v>
@@ -37395,16 +37392,16 @@
         <v>959</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G81" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H81" s="39" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J81" t="s">
         <v>418</v>
@@ -37430,16 +37427,16 @@
         <v>959</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G82" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H82" s="39" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J82" t="s">
         <v>418</v>
@@ -37482,16 +37479,16 @@
         <v>962</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G84" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H84" s="39" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J84" t="s">
         <v>418</v>
@@ -37517,7 +37514,7 @@
         <v>965</v>
       </c>
       <c r="F85" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G85" s="40" t="s">
         <v>194</v>
@@ -37544,7 +37541,7 @@
         <v>965</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J86" t="s">
         <v>1107</v>
@@ -37564,7 +37561,7 @@
         <v>965</v>
       </c>
       <c r="F87" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -37581,14 +37578,14 @@
         <v>965</v>
       </c>
       <c r="F88" s="37" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G88" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H88" s="37"/>
       <c r="I88" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J88" t="s">
         <v>418</v>
@@ -37611,7 +37608,7 @@
         <v>965</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J89" t="s">
         <v>418</v>
@@ -37634,10 +37631,10 @@
         <v>971</v>
       </c>
       <c r="F90" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J90" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>818</v>
@@ -37691,7 +37688,7 @@
         <v>973</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="J93" t="s">
         <v>1107</v>
@@ -37765,7 +37762,7 @@
         <v>980</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="J97" t="s">
         <v>1108</v>
@@ -37791,7 +37788,7 @@
         <v>982</v>
       </c>
       <c r="F98" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G98" s="40" t="s">
         <v>194</v>
@@ -37815,7 +37812,7 @@
         <v>982</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J99" t="s">
         <v>1107</v>
@@ -37835,14 +37832,14 @@
         <v>982</v>
       </c>
       <c r="F100" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G100" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H100" s="38"/>
       <c r="I100" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J100" t="s">
         <v>418</v>
@@ -37865,10 +37862,10 @@
         <v>986</v>
       </c>
       <c r="E101" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J101" t="s">
         <v>1107</v>
@@ -37888,7 +37885,7 @@
         <v>986</v>
       </c>
       <c r="E102" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J102" t="s">
         <v>1107</v>
@@ -37908,7 +37905,7 @@
         <v>986</v>
       </c>
       <c r="E103" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -37925,17 +37922,17 @@
         <v>986</v>
       </c>
       <c r="E104" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F104" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G104" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H104" s="38"/>
       <c r="I104" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J104" t="s">
         <v>418</v>
@@ -37958,7 +37955,7 @@
         <v>986</v>
       </c>
       <c r="E105" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -37975,10 +37972,10 @@
         <v>986</v>
       </c>
       <c r="E106" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F106" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G106" s="40" t="s">
         <v>194</v>
@@ -38005,7 +38002,7 @@
         <v>986</v>
       </c>
       <c r="E107" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J107" t="s">
         <v>1107</v>
@@ -38028,16 +38025,16 @@
         <v>994</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G108" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H108" s="39" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J108" t="s">
         <v>418</v>
@@ -38060,10 +38057,10 @@
         <v>996</v>
       </c>
       <c r="E109" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J109" s="29" t="s">
         <v>418</v>
@@ -38086,10 +38083,10 @@
         <v>996</v>
       </c>
       <c r="E110" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J110" t="s">
         <v>1108</v>
@@ -38115,7 +38112,7 @@
         <v>996</v>
       </c>
       <c r="E111" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="J111" t="s">
         <v>1107</v>
@@ -38141,14 +38138,14 @@
         <v>1067</v>
       </c>
       <c r="F112" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G112" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H112" s="38"/>
       <c r="I112" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J112" t="s">
         <v>418</v>
@@ -38174,7 +38171,7 @@
         <v>1067</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J113" t="s">
         <v>418</v>
@@ -38197,16 +38194,16 @@
         <v>1003</v>
       </c>
       <c r="F114" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G114" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H114" s="39" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J114" t="s">
         <v>418</v>
@@ -38215,7 +38212,7 @@
         <v>633</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -38232,7 +38229,7 @@
         <v>1005</v>
       </c>
       <c r="F115" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G115" s="40" t="s">
         <v>194</v>
@@ -38259,7 +38256,7 @@
         <v>1005</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J116" t="s">
         <v>1107</v>
@@ -38279,7 +38276,7 @@
         <v>1005</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J117" t="s">
         <v>1108</v>
@@ -38305,13 +38302,13 @@
         <v>1009</v>
       </c>
       <c r="E118" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F118" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J118" t="s">
         <v>418</v>
@@ -38334,14 +38331,14 @@
         <v>1011</v>
       </c>
       <c r="F119" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G119" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H119" s="38"/>
       <c r="I119" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J119" t="s">
         <v>418</v>
@@ -38364,14 +38361,14 @@
         <v>1013</v>
       </c>
       <c r="F120" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G120" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H120" s="38"/>
       <c r="I120" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J120" t="s">
         <v>418</v>
@@ -38394,7 +38391,7 @@
         <v>1015</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J121" t="s">
         <v>1107</v>
@@ -38414,10 +38411,10 @@
         <v>1017</v>
       </c>
       <c r="E122" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F122" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G122" s="40" t="s">
         <v>194</v>
@@ -38444,10 +38441,10 @@
         <v>1017</v>
       </c>
       <c r="E123" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J123" t="s">
         <v>1107</v>
@@ -38467,17 +38464,17 @@
         <v>1017</v>
       </c>
       <c r="E124" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F124" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G124" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H124" s="38"/>
       <c r="I124" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J124" t="s">
         <v>418</v>
@@ -38500,17 +38497,17 @@
         <v>1017</v>
       </c>
       <c r="E125" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F125" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G125" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H125" s="38"/>
       <c r="I125" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J125" t="s">
         <v>418</v>
@@ -38533,10 +38530,10 @@
         <v>1017</v>
       </c>
       <c r="E126" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J126" t="s">
         <v>418</v>
@@ -38559,7 +38556,7 @@
         <v>1017</v>
       </c>
       <c r="E127" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -38576,7 +38573,7 @@
         <v>1017</v>
       </c>
       <c r="E128" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -38593,7 +38590,7 @@
         <v>1025</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J129" t="s">
         <v>1108</v>
@@ -38650,7 +38647,7 @@
         <v>1029</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J132" t="s">
         <v>1108</v>
@@ -38690,7 +38687,7 @@
         <v>1031</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J134" t="s">
         <v>418</v>
@@ -38713,7 +38710,7 @@
         <v>1031</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J135" t="s">
         <v>1108</v>
@@ -38739,7 +38736,7 @@
         <v>1035</v>
       </c>
       <c r="F136" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G136" s="41"/>
       <c r="H136" s="41"/>
@@ -38777,73 +38774,73 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1105</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>633</v>
@@ -38854,7 +38851,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C14" t="s">
         <v>633</v>
@@ -38862,32 +38859,32 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -38897,67 +38894,67 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C34" t="s">
         <v>633</v>
@@ -38965,37 +38962,37 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C41" t="s">
         <v>633</v>
@@ -39003,12 +39000,12 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C43" t="s">
         <v>633</v>
@@ -39016,7 +39013,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C44" t="s">
         <v>633</v>
@@ -39024,32 +39021,32 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C50" t="s">
         <v>633</v>
@@ -39057,17 +39054,17 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C53" t="s">
         <v>633</v>
@@ -39075,27 +39072,27 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
   </sheetData>

--- a/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
+++ b/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41940" windowHeight="29100" tabRatio="669" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="669" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MIOs" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6779" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6779" uniqueCount="1264">
   <si>
     <t>Platform Reference ID</t>
   </si>
@@ -3184,9 +3184,6 @@
   </si>
   <si>
     <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Mobile Zone</t>
   </si>
   <si>
     <t>Central Inshore</t>
@@ -4005,7 +4002,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1224">
+  <cellStyleXfs count="1226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4032,6 +4029,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5303,7 +5302,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1224">
+  <cellStyles count="1226">
     <cellStyle name="20% - Accent3" xfId="25" builtinId="38"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5916,6 +5915,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1219" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1221" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1225" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -6526,6 +6526,7 @@
     <cellStyle name="Hyperlink" xfId="1218" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1220" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1224" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -6955,22 +6956,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1198</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1199</v>
-      </c>
       <c r="D1" s="31" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>1229</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6987,7 +6988,7 @@
         <v>41562</v>
       </c>
       <c r="E2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7004,7 +7005,7 @@
         <v>41562</v>
       </c>
       <c r="E3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7021,7 +7022,7 @@
         <v>41562</v>
       </c>
       <c r="E4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7038,7 +7039,7 @@
         <v>41562</v>
       </c>
       <c r="E5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7055,7 +7056,7 @@
         <v>41562</v>
       </c>
       <c r="E6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7072,7 +7073,7 @@
         <v>41562</v>
       </c>
       <c r="E7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7089,7 +7090,7 @@
         <v>41562</v>
       </c>
       <c r="E8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7106,7 +7107,7 @@
         <v>41562</v>
       </c>
       <c r="E9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7123,7 +7124,7 @@
         <v>41562</v>
       </c>
       <c r="E10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7140,7 +7141,7 @@
         <v>41562</v>
       </c>
       <c r="E11" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7157,7 +7158,7 @@
         <v>41562</v>
       </c>
       <c r="E12" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7174,7 +7175,7 @@
         <v>41562</v>
       </c>
       <c r="E13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7191,7 +7192,7 @@
         <v>41562</v>
       </c>
       <c r="E14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7208,7 +7209,7 @@
         <v>41562</v>
       </c>
       <c r="E15" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7225,7 +7226,7 @@
         <v>41562</v>
       </c>
       <c r="E16" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7242,7 +7243,7 @@
         <v>41562</v>
       </c>
       <c r="E17" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7259,7 +7260,7 @@
         <v>41562</v>
       </c>
       <c r="E18" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7276,7 +7277,7 @@
         <v>41562</v>
       </c>
       <c r="E19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7293,7 +7294,7 @@
         <v>41562</v>
       </c>
       <c r="E20" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7310,7 +7311,7 @@
         <v>41562</v>
       </c>
       <c r="E21" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7423,10 +7424,10 @@
         <v>860</v>
       </c>
       <c r="E31" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F31" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7440,10 +7441,10 @@
         <v>860</v>
       </c>
       <c r="E32" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F32" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7457,10 +7458,10 @@
         <v>844</v>
       </c>
       <c r="E33" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F33" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7474,10 +7475,10 @@
         <v>863</v>
       </c>
       <c r="E34" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F34" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7491,10 +7492,10 @@
         <v>846</v>
       </c>
       <c r="E35" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F35" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7508,10 +7509,10 @@
         <v>863</v>
       </c>
       <c r="E36" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F36" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7525,10 +7526,10 @@
         <v>860</v>
       </c>
       <c r="E37" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7542,10 +7543,10 @@
         <v>863</v>
       </c>
       <c r="E38" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F38" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7559,10 +7560,10 @@
         <v>635</v>
       </c>
       <c r="E39" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F39" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7576,7 +7577,7 @@
         <v>860</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7846,7 +7847,7 @@
         <v>41470</v>
       </c>
       <c r="E64" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -7863,7 +7864,7 @@
         <v>41470</v>
       </c>
       <c r="E65" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -7880,7 +7881,7 @@
         <v>41470</v>
       </c>
       <c r="E66" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -7897,7 +7898,7 @@
         <v>41470</v>
       </c>
       <c r="E67" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -7914,7 +7915,7 @@
         <v>41470</v>
       </c>
       <c r="E68" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -7931,7 +7932,7 @@
         <v>41470</v>
       </c>
       <c r="E69" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -7948,7 +7949,7 @@
         <v>41470</v>
       </c>
       <c r="E70" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -7965,7 +7966,7 @@
         <v>41470</v>
       </c>
       <c r="E71" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -7982,7 +7983,7 @@
         <v>41470</v>
       </c>
       <c r="E72" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -8340,7 +8341,7 @@
         <v>41562</v>
       </c>
       <c r="E104" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -8357,7 +8358,7 @@
         <v>41562</v>
       </c>
       <c r="E105" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -8374,7 +8375,7 @@
         <v>41562</v>
       </c>
       <c r="E106" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -8391,7 +8392,7 @@
         <v>41562</v>
       </c>
       <c r="E107" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -8408,7 +8409,7 @@
         <v>41562</v>
       </c>
       <c r="E108" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -8425,7 +8426,7 @@
         <v>41562</v>
       </c>
       <c r="E109" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -8442,7 +8443,7 @@
         <v>41562</v>
       </c>
       <c r="E110" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -8459,7 +8460,7 @@
         <v>41562</v>
       </c>
       <c r="E111" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -8476,7 +8477,7 @@
         <v>41562</v>
       </c>
       <c r="E112" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -8493,7 +8494,7 @@
         <v>41562</v>
       </c>
       <c r="E113" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -8510,7 +8511,7 @@
         <v>41562</v>
       </c>
       <c r="E114" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -8527,7 +8528,7 @@
         <v>41562</v>
       </c>
       <c r="E115" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -8544,7 +8545,7 @@
         <v>41562</v>
       </c>
       <c r="E116" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -8561,7 +8562,7 @@
         <v>41562</v>
       </c>
       <c r="E117" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -8578,7 +8579,7 @@
         <v>41562</v>
       </c>
       <c r="E118" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -8595,7 +8596,7 @@
         <v>41562</v>
       </c>
       <c r="E119" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -8612,7 +8613,7 @@
         <v>41562</v>
       </c>
       <c r="E120" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -8629,7 +8630,7 @@
         <v>41562</v>
       </c>
       <c r="E121" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -8646,7 +8647,7 @@
         <v>41562</v>
       </c>
       <c r="E122" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -8663,7 +8664,7 @@
         <v>41562</v>
       </c>
       <c r="E123" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -8680,7 +8681,7 @@
         <v>41562</v>
       </c>
       <c r="E124" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -8697,7 +8698,7 @@
         <v>41562</v>
       </c>
       <c r="E125" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -8714,7 +8715,7 @@
         <v>41562</v>
       </c>
       <c r="E126" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -8731,7 +8732,7 @@
         <v>41562</v>
       </c>
       <c r="E127" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -8748,7 +8749,7 @@
         <v>41562</v>
       </c>
       <c r="E128" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -8765,7 +8766,7 @@
         <v>41562</v>
       </c>
       <c r="E129" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -8782,7 +8783,7 @@
         <v>41562</v>
       </c>
       <c r="E130" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -8799,7 +8800,7 @@
         <v>41562</v>
       </c>
       <c r="E131" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -8816,7 +8817,7 @@
         <v>41562</v>
       </c>
       <c r="E132" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -8833,7 +8834,7 @@
         <v>41562</v>
       </c>
       <c r="E133" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -9419,10 +9420,10 @@
         <v>899</v>
       </c>
       <c r="E186" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F186" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -9436,10 +9437,10 @@
         <v>899</v>
       </c>
       <c r="E187" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F187" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -9453,10 +9454,10 @@
         <v>899</v>
       </c>
       <c r="E188" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F188" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -9470,10 +9471,10 @@
         <v>899</v>
       </c>
       <c r="E189" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F189" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -9487,10 +9488,10 @@
         <v>899</v>
       </c>
       <c r="E190" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F190" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -9504,10 +9505,10 @@
         <v>899</v>
       </c>
       <c r="E191" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F191" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -9521,10 +9522,10 @@
         <v>899</v>
       </c>
       <c r="E192" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F192" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -9538,10 +9539,10 @@
         <v>899</v>
       </c>
       <c r="E193" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F193" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -9555,10 +9556,10 @@
         <v>899</v>
       </c>
       <c r="E194" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F194" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -9572,10 +9573,10 @@
         <v>853</v>
       </c>
       <c r="E195" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F195" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -9589,10 +9590,10 @@
         <v>853</v>
       </c>
       <c r="E196" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F196" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -9606,10 +9607,10 @@
         <v>853</v>
       </c>
       <c r="E197" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F197" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -9623,10 +9624,10 @@
         <v>899</v>
       </c>
       <c r="E198" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F198" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -9640,10 +9641,10 @@
         <v>853</v>
       </c>
       <c r="E199" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F199" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -9902,7 +9903,7 @@
         <v>41600</v>
       </c>
       <c r="E222" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -9919,7 +9920,7 @@
         <v>41600</v>
       </c>
       <c r="E223" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -9936,7 +9937,7 @@
         <v>41600</v>
       </c>
       <c r="E224" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -9953,7 +9954,7 @@
         <v>41600</v>
       </c>
       <c r="E225" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -9970,7 +9971,7 @@
         <v>41600</v>
       </c>
       <c r="E226" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -9987,7 +9988,7 @@
         <v>41600</v>
       </c>
       <c r="E227" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -10004,7 +10005,7 @@
         <v>41600</v>
       </c>
       <c r="E228" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -10021,7 +10022,7 @@
         <v>41600</v>
       </c>
       <c r="E229" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -10038,7 +10039,7 @@
         <v>41600</v>
       </c>
       <c r="E230" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -10055,7 +10056,7 @@
         <v>41600</v>
       </c>
       <c r="E231" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -10072,7 +10073,7 @@
         <v>41600</v>
       </c>
       <c r="E232" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -10089,7 +10090,7 @@
         <v>41600</v>
       </c>
       <c r="E233" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -10106,7 +10107,7 @@
         <v>41600</v>
       </c>
       <c r="E234" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -10123,7 +10124,7 @@
         <v>41600</v>
       </c>
       <c r="E235" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -10140,7 +10141,7 @@
         <v>41600</v>
       </c>
       <c r="E236" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -10157,7 +10158,7 @@
         <v>41600</v>
       </c>
       <c r="E237" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -10174,7 +10175,7 @@
         <v>41600</v>
       </c>
       <c r="E238" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -10188,7 +10189,7 @@
         <v>846</v>
       </c>
       <c r="D239" s="30" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -10205,7 +10206,7 @@
         <v>41600</v>
       </c>
       <c r="E240" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -10222,7 +10223,7 @@
         <v>41600</v>
       </c>
       <c r="E241" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -10239,7 +10240,7 @@
         <v>41600</v>
       </c>
       <c r="E242" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -10366,7 +10367,7 @@
         <v>41600</v>
       </c>
       <c r="E253" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -10383,7 +10384,7 @@
         <v>41600</v>
       </c>
       <c r="E254" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -10400,7 +10401,7 @@
         <v>41600</v>
       </c>
       <c r="E255" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -10417,7 +10418,7 @@
         <v>41600</v>
       </c>
       <c r="E256" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -10434,7 +10435,7 @@
         <v>41600</v>
       </c>
       <c r="E257" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -10451,7 +10452,7 @@
         <v>41600</v>
       </c>
       <c r="E258" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -10468,7 +10469,7 @@
         <v>41600</v>
       </c>
       <c r="E259" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -10485,7 +10486,7 @@
         <v>41600</v>
       </c>
       <c r="E260" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -10502,7 +10503,7 @@
         <v>41600</v>
       </c>
       <c r="E261" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -10519,7 +10520,7 @@
         <v>41600</v>
       </c>
       <c r="E262" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -10536,7 +10537,7 @@
         <v>41600</v>
       </c>
       <c r="E263" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -10553,7 +10554,7 @@
         <v>41600</v>
       </c>
       <c r="E264" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -10570,7 +10571,7 @@
         <v>41600</v>
       </c>
       <c r="E265" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -10587,7 +10588,7 @@
         <v>41600</v>
       </c>
       <c r="E266" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -10604,7 +10605,7 @@
         <v>41600</v>
       </c>
       <c r="E267" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -10621,7 +10622,7 @@
         <v>41600</v>
       </c>
       <c r="E268" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -10638,7 +10639,7 @@
         <v>41600</v>
       </c>
       <c r="E269" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -10655,7 +10656,7 @@
         <v>41600</v>
       </c>
       <c r="E270" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -10672,7 +10673,7 @@
         <v>41600</v>
       </c>
       <c r="E271" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -10689,7 +10690,7 @@
         <v>41600</v>
       </c>
       <c r="E272" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -10706,7 +10707,7 @@
         <v>41600</v>
       </c>
       <c r="E273" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -10723,7 +10724,7 @@
         <v>41600</v>
       </c>
       <c r="E274" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -10740,7 +10741,7 @@
         <v>41600</v>
       </c>
       <c r="E275" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -11065,7 +11066,7 @@
         <v>41600</v>
       </c>
       <c r="E304" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -11082,7 +11083,7 @@
         <v>41600</v>
       </c>
       <c r="E305" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -11099,7 +11100,7 @@
         <v>41600</v>
       </c>
       <c r="E306" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -11116,7 +11117,7 @@
         <v>41600</v>
       </c>
       <c r="E307" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -11133,7 +11134,7 @@
         <v>41600</v>
       </c>
       <c r="E308" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -11359,7 +11360,7 @@
         <v>41600</v>
       </c>
       <c r="E328" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -11376,7 +11377,7 @@
         <v>41600</v>
       </c>
       <c r="E329" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -11393,7 +11394,7 @@
         <v>41600</v>
       </c>
       <c r="E330" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -11410,7 +11411,7 @@
         <v>41600</v>
       </c>
       <c r="E331" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -11427,7 +11428,7 @@
         <v>41600</v>
       </c>
       <c r="E332" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -11444,7 +11445,7 @@
         <v>41600</v>
       </c>
       <c r="E333" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -11461,7 +11462,7 @@
         <v>41600</v>
       </c>
       <c r="E334" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -11478,7 +11479,7 @@
         <v>41600</v>
       </c>
       <c r="E335" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -11495,7 +11496,7 @@
         <v>41600</v>
       </c>
       <c r="E336" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -11512,7 +11513,7 @@
         <v>41600</v>
       </c>
       <c r="E337" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -11529,7 +11530,7 @@
         <v>41600</v>
       </c>
       <c r="E338" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -11546,7 +11547,7 @@
         <v>41600</v>
       </c>
       <c r="E339" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -11563,7 +11564,7 @@
         <v>41600</v>
       </c>
       <c r="E340" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -11580,7 +11581,7 @@
         <v>41600</v>
       </c>
       <c r="E341" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -11597,7 +11598,7 @@
         <v>41600</v>
       </c>
       <c r="E342" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -11614,7 +11615,7 @@
         <v>41600</v>
       </c>
       <c r="E343" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -11631,7 +11632,7 @@
         <v>41600</v>
       </c>
       <c r="E344" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -11648,7 +11649,7 @@
         <v>41600</v>
       </c>
       <c r="E345" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -11665,7 +11666,7 @@
         <v>41600</v>
       </c>
       <c r="E346" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -11682,7 +11683,7 @@
         <v>41600</v>
       </c>
       <c r="E347" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -11699,7 +11700,7 @@
         <v>41600</v>
       </c>
       <c r="E348" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -11716,7 +11717,7 @@
         <v>41600</v>
       </c>
       <c r="E349" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -11733,7 +11734,7 @@
         <v>41600</v>
       </c>
       <c r="E350" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -11750,7 +11751,7 @@
         <v>41600</v>
       </c>
       <c r="E351" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -11767,7 +11768,7 @@
         <v>41600</v>
       </c>
       <c r="E352" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -11784,7 +11785,7 @@
         <v>41600</v>
       </c>
       <c r="E353" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -11801,7 +11802,7 @@
         <v>41600</v>
       </c>
       <c r="E354" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -11818,7 +11819,7 @@
         <v>41600</v>
       </c>
       <c r="E355" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -11835,7 +11836,7 @@
         <v>41600</v>
       </c>
       <c r="E356" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -11852,7 +11853,7 @@
         <v>41600</v>
       </c>
       <c r="E357" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -11869,7 +11870,7 @@
         <v>41600</v>
       </c>
       <c r="E358" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -11886,7 +11887,7 @@
         <v>41600</v>
       </c>
       <c r="E359" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -11903,7 +11904,7 @@
         <v>41600</v>
       </c>
       <c r="E360" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -11920,7 +11921,7 @@
         <v>41600</v>
       </c>
       <c r="E361" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -11937,7 +11938,7 @@
         <v>41600</v>
       </c>
       <c r="E362" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -11954,7 +11955,7 @@
         <v>41600</v>
       </c>
       <c r="E363" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -11971,7 +11972,7 @@
         <v>41600</v>
       </c>
       <c r="E364" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -11988,7 +11989,7 @@
         <v>41600</v>
       </c>
       <c r="E365" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -12005,7 +12006,7 @@
         <v>41600</v>
       </c>
       <c r="E366" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -12022,7 +12023,7 @@
         <v>41600</v>
       </c>
       <c r="E367" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -12039,7 +12040,7 @@
         <v>41600</v>
       </c>
       <c r="E368" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -12056,7 +12057,7 @@
         <v>41600</v>
       </c>
       <c r="E369" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -12073,7 +12074,7 @@
         <v>41600</v>
       </c>
       <c r="E370" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -12090,7 +12091,7 @@
         <v>41600</v>
       </c>
       <c r="E371" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -12107,7 +12108,7 @@
         <v>41600</v>
       </c>
       <c r="E372" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -12124,7 +12125,7 @@
         <v>41600</v>
       </c>
       <c r="E373" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -12141,7 +12142,7 @@
         <v>41600</v>
       </c>
       <c r="E374" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -12158,7 +12159,7 @@
         <v>41600</v>
       </c>
       <c r="E375" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -13110,7 +13111,7 @@
         <v>41491</v>
       </c>
       <c r="E461" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -13127,7 +13128,7 @@
         <v>41491</v>
       </c>
       <c r="E462" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -13144,7 +13145,7 @@
         <v>41491</v>
       </c>
       <c r="E463" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -13161,7 +13162,7 @@
         <v>41491</v>
       </c>
       <c r="E464" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -13178,7 +13179,7 @@
         <v>41491</v>
       </c>
       <c r="E465" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -13195,7 +13196,7 @@
         <v>41491</v>
       </c>
       <c r="E466" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -13212,7 +13213,7 @@
         <v>41491</v>
       </c>
       <c r="E467" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -13229,7 +13230,7 @@
         <v>41491</v>
       </c>
       <c r="E468" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -13246,7 +13247,7 @@
         <v>41491</v>
       </c>
       <c r="E469" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -13263,7 +13264,7 @@
         <v>41491</v>
       </c>
       <c r="E470" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -13280,7 +13281,7 @@
         <v>41491</v>
       </c>
       <c r="E471" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -13297,7 +13298,7 @@
         <v>41491</v>
       </c>
       <c r="E472" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -13314,7 +13315,7 @@
         <v>41491</v>
       </c>
       <c r="E473" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -13331,7 +13332,7 @@
         <v>41491</v>
       </c>
       <c r="E474" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -13348,7 +13349,7 @@
         <v>41491</v>
       </c>
       <c r="E475" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -13365,7 +13366,7 @@
         <v>41491</v>
       </c>
       <c r="E476" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -13382,7 +13383,7 @@
         <v>41491</v>
       </c>
       <c r="E477" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -13399,7 +13400,7 @@
         <v>41491</v>
       </c>
       <c r="E478" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -13416,7 +13417,7 @@
         <v>41491</v>
       </c>
       <c r="E479" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -13433,7 +13434,7 @@
         <v>41491</v>
       </c>
       <c r="E480" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -13450,7 +13451,7 @@
         <v>41491</v>
       </c>
       <c r="E481" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -13467,7 +13468,7 @@
         <v>41491</v>
       </c>
       <c r="E482" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -13484,7 +13485,7 @@
         <v>41491</v>
       </c>
       <c r="E483" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -13501,7 +13502,7 @@
         <v>41491</v>
       </c>
       <c r="E484" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -13518,7 +13519,7 @@
         <v>41491</v>
       </c>
       <c r="E485" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -13535,7 +13536,7 @@
         <v>41491</v>
       </c>
       <c r="E486" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -13552,7 +13553,7 @@
         <v>41491</v>
       </c>
       <c r="E487" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -13569,7 +13570,7 @@
         <v>41491</v>
       </c>
       <c r="E488" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -13586,7 +13587,7 @@
         <v>41491</v>
       </c>
       <c r="E489" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -13603,7 +13604,7 @@
         <v>41491</v>
       </c>
       <c r="E490" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -13620,7 +13621,7 @@
         <v>41491</v>
       </c>
       <c r="E491" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -13637,7 +13638,7 @@
         <v>41491</v>
       </c>
       <c r="E492" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -13654,7 +13655,7 @@
         <v>41491</v>
       </c>
       <c r="E493" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -13671,7 +13672,7 @@
         <v>41491</v>
       </c>
       <c r="E494" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -13688,7 +13689,7 @@
         <v>41491</v>
       </c>
       <c r="E495" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -14519,7 +14520,7 @@
         <v>41443</v>
       </c>
       <c r="E570" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -14536,7 +14537,7 @@
         <v>41443</v>
       </c>
       <c r="E571" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -14553,7 +14554,7 @@
         <v>41443</v>
       </c>
       <c r="E572" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -14570,7 +14571,7 @@
         <v>41443</v>
       </c>
       <c r="E573" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -14584,7 +14585,7 @@
         <v>846</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -14598,7 +14599,7 @@
         <v>846</v>
       </c>
       <c r="F575" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -14612,7 +14613,7 @@
         <v>846</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -14626,7 +14627,7 @@
         <v>860</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -14640,7 +14641,7 @@
         <v>860</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -14654,7 +14655,7 @@
         <v>853</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -14668,7 +14669,7 @@
         <v>860</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -14682,7 +14683,7 @@
         <v>846</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -14696,7 +14697,7 @@
         <v>846</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -14710,7 +14711,7 @@
         <v>846</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -14727,7 +14728,7 @@
         <v>41471</v>
       </c>
       <c r="E584" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -14744,7 +14745,7 @@
         <v>41471</v>
       </c>
       <c r="E585" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -14761,7 +14762,7 @@
         <v>41471</v>
       </c>
       <c r="E586" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -14778,7 +14779,7 @@
         <v>41471</v>
       </c>
       <c r="E587" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -14795,7 +14796,7 @@
         <v>41471</v>
       </c>
       <c r="E588" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -14812,7 +14813,7 @@
         <v>41471</v>
       </c>
       <c r="E589" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -14829,7 +14830,7 @@
         <v>41471</v>
       </c>
       <c r="E590" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -14846,7 +14847,7 @@
         <v>41471</v>
       </c>
       <c r="E591" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -15182,7 +15183,7 @@
         <v>41471</v>
       </c>
       <c r="E621" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -15199,7 +15200,7 @@
         <v>41471</v>
       </c>
       <c r="E622" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -15216,7 +15217,7 @@
         <v>41471</v>
       </c>
       <c r="E623" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -15233,7 +15234,7 @@
         <v>41471</v>
       </c>
       <c r="E624" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -15250,7 +15251,7 @@
         <v>41471</v>
       </c>
       <c r="E625" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -15267,7 +15268,7 @@
         <v>41471</v>
       </c>
       <c r="E626" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -15284,7 +15285,7 @@
         <v>41471</v>
       </c>
       <c r="E627" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -15301,7 +15302,7 @@
         <v>41471</v>
       </c>
       <c r="E628" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -15318,7 +15319,7 @@
         <v>41471</v>
       </c>
       <c r="E629" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -15335,7 +15336,7 @@
         <v>41471</v>
       </c>
       <c r="E630" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -15352,7 +15353,7 @@
         <v>41471</v>
       </c>
       <c r="E631" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -15369,7 +15370,7 @@
         <v>41471</v>
       </c>
       <c r="E632" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -15386,7 +15387,7 @@
         <v>41471</v>
       </c>
       <c r="E633" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -15403,7 +15404,7 @@
         <v>41471</v>
       </c>
       <c r="E634" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -15420,7 +15421,7 @@
         <v>41471</v>
       </c>
       <c r="E635" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -15437,7 +15438,7 @@
         <v>41471</v>
       </c>
       <c r="E636" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
@@ -18021,7 +18022,7 @@
         <v>715</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>699</v>
@@ -19684,7 +19685,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19709,7 +19710,7 @@
         <v>103</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>627</v>
@@ -20301,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -20327,7 +20328,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -20396,7 +20397,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20428,28 +20429,28 @@
         <v>104</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>629</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>1099</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>1100</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>1102</v>
       </c>
-      <c r="K1" s="22" t="s">
-        <v>1101</v>
-      </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>1103</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>1104</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>710</v>
@@ -20673,11 +20674,11 @@
         <v>Coastal Endurance</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>1045</v>
+        <v>1238</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Coastal Endurance Mobile Zone</v>
+        <v>Coastal Endurance Mobile Assets</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -20916,7 +20917,7 @@
         <v>Coastal Pioneer</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -20941,7 +20942,7 @@
         <v>Coastal Pioneer</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21116,7 +21117,7 @@
         <v>Coastal Pioneer</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21159,7 +21160,7 @@
         <v>Global Argentine Basin</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21184,7 +21185,7 @@
         <v>Global Argentine Basin</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21209,7 +21210,7 @@
         <v>Global Argentine Basin</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21234,7 +21235,7 @@
         <v>Global Argentine Basin</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21259,7 +21260,7 @@
         <v>Global Argentine Basin</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G32" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21302,7 +21303,7 @@
         <v>Global Irminger Sea</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G33" s="6" t="str">
         <f t="shared" si="0"/>
@@ -21327,7 +21328,7 @@
         <v>Global Irminger Sea</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G34" s="6" t="str">
         <f t="shared" ref="G34:G61" si="1">E34 &amp; IF(ISBLANK(F34),""," " &amp; F34)</f>
@@ -21352,7 +21353,7 @@
         <v>Global Irminger Sea</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G35" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21377,7 +21378,7 @@
         <v>Global Irminger Sea</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G36" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21402,7 +21403,7 @@
         <v>Global Irminger Sea</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G37" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21445,7 +21446,7 @@
         <v>Global Station Papa</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G38" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21470,7 +21471,7 @@
         <v>Global Station Papa</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G39" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21495,7 +21496,7 @@
         <v>Global Station Papa</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G40" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21520,7 +21521,7 @@
         <v>Global Station Papa</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G41" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21563,7 +21564,7 @@
         <v>Global Southern Ocean</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G42" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21588,7 +21589,7 @@
         <v>Global Southern Ocean</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G43" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21613,7 +21614,7 @@
         <v>Global Southern Ocean</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G44" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21638,7 +21639,7 @@
         <v>Global Southern Ocean</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G45" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21663,7 +21664,7 @@
         <v>Global Southern Ocean</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G46" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21690,13 +21691,13 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B47" t="s">
         <v>1069</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="3" t="s">
         <v>1070</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>1071</v>
       </c>
       <c r="E47" s="6" t="str">
         <f>VLOOKUP(LEFT(A47,4),Sites!$A$2:$F$32,6,FALSE)</f>
@@ -21731,10 +21732,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B48" t="s">
         <v>1207</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1208</v>
       </c>
       <c r="C48" t="s">
         <v>437</v>
@@ -21788,7 +21789,7 @@
         <v>Regional Continental Margin</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G49" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21813,7 +21814,7 @@
         <v>Regional Continental Margin</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G50" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21838,7 +21839,7 @@
         <v>Regional Continental Margin</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G51" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21863,7 +21864,7 @@
         <v>Regional Continental Margin</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G52" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21872,10 +21873,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B53" t="s">
         <v>1209</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1210</v>
       </c>
       <c r="C53" t="s">
         <v>437</v>
@@ -21954,7 +21955,7 @@
         <v>Regional Axial</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G55" s="6" t="str">
         <f t="shared" si="1"/>
@@ -21979,7 +21980,7 @@
         <v>Regional Axial</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G56" s="6" t="str">
         <f t="shared" si="1"/>
@@ -22054,7 +22055,7 @@
         <v>Regional Axial</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G59" s="6" t="str">
         <f t="shared" si="1"/>
@@ -22079,7 +22080,7 @@
         <v>Regional Axial</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G60" s="6" t="str">
         <f t="shared" si="1"/>
@@ -22182,7 +22183,7 @@
         <v>101</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>559</v>
@@ -22209,7 +22210,7 @@
         <v>636</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>627</v>
@@ -22227,7 +22228,7 @@
         <v>3</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="R1" s="24" t="s">
         <v>631</v>
@@ -22239,34 +22240,34 @@
         <v>718</v>
       </c>
       <c r="U1" s="32" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>840</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>832</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Z1" s="17" t="s">
         <v>715</v>
       </c>
       <c r="AA1" s="10" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>1249</v>
       </c>
-      <c r="AB1" s="10" t="s">
-        <v>1250</v>
-      </c>
       <c r="AC1" s="22" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AD1" s="22" t="s">
         <v>1103</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -22797,7 +22798,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="34"/>
       <c r="W10" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -22811,10 +22812,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F11" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -22864,13 +22865,13 @@
       </c>
       <c r="U11" s="34"/>
       <c r="V11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Y11" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>837</v>
@@ -22931,7 +22932,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="34"/>
       <c r="W12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>437</v>
@@ -22997,13 +22998,13 @@
       <c r="T13" s="13"/>
       <c r="U13" s="34"/>
       <c r="W13" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y13" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Z13" s="3" t="s">
         <v>440</v>
@@ -23396,7 +23397,7 @@
         <v>41516</v>
       </c>
       <c r="U20" s="36" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V20" t="s">
         <v>841</v>
@@ -23463,7 +23464,7 @@
         <v>41516</v>
       </c>
       <c r="U21" s="36" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V21" t="s">
         <v>841</v>
@@ -23472,7 +23473,7 @@
         <v>437</v>
       </c>
       <c r="Y21" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>448</v>
@@ -23489,10 +23490,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F22" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G22" s="11" t="str">
         <f t="shared" ref="G22:G23" si="5">MID(D22,10,2)</f>
@@ -23542,13 +23543,13 @@
       </c>
       <c r="U22" s="34"/>
       <c r="V22" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Y22" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>837</v>
@@ -23565,10 +23566,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F23" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G23" s="11" t="str">
         <f t="shared" si="5"/>
@@ -23618,7 +23619,7 @@
         <v>437</v>
       </c>
       <c r="Y23" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>440</v>
@@ -23681,14 +23682,14 @@
         <v>633</v>
       </c>
       <c r="R24" s="21" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="33"/>
       <c r="X24" s="3"/>
       <c r="Y24" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Z24" s="3"/>
     </row>
@@ -23703,10 +23704,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F25" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G25" s="11" t="str">
         <f t="shared" ref="G25" si="10">MID(D25,10,2)</f>
@@ -23762,10 +23763,10 @@
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F26" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -23814,7 +23815,7 @@
         <v>437</v>
       </c>
       <c r="Y26" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>440</v>
@@ -23828,13 +23829,13 @@
         <v>818</v>
       </c>
       <c r="D27" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E27" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F27" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G27" s="11" t="str">
         <f t="shared" ref="G27" si="15">MID(D27,10,2)</f>
@@ -23897,10 +23898,10 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F28" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -23950,7 +23951,7 @@
         <v>437</v>
       </c>
       <c r="Y28" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Z28" s="3" t="s">
         <v>444</v>
@@ -24206,7 +24207,7 @@
       </c>
       <c r="K33" t="str">
         <f>VLOOKUP(A33,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Coastal Endurance Mobile Zone</v>
+        <v>Coastal Endurance Mobile Assets</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" ref="L33:L39" si="18">I33 &amp; IF(ISBLANK(J33),""," " &amp; J33)</f>
@@ -24214,7 +24215,7 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="4"/>
-        <v>Glider 001 - Coastal Endurance Mobile Zone</v>
+        <v>Glider 001 - Coastal Endurance Mobile Assets</v>
       </c>
       <c r="N33" t="s">
         <v>54</v>
@@ -24268,7 +24269,7 @@
       </c>
       <c r="K34" t="str">
         <f>VLOOKUP(A34,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Coastal Endurance Mobile Zone</v>
+        <v>Coastal Endurance Mobile Assets</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="18"/>
@@ -24276,7 +24277,7 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="4"/>
-        <v>Glider 002 - Coastal Endurance Mobile Zone</v>
+        <v>Glider 002 - Coastal Endurance Mobile Assets</v>
       </c>
       <c r="N34" t="s">
         <v>54</v>
@@ -24330,7 +24331,7 @@
       </c>
       <c r="K35" t="str">
         <f>VLOOKUP(A35,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Coastal Endurance Mobile Zone</v>
+        <v>Coastal Endurance Mobile Assets</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="18"/>
@@ -24338,7 +24339,7 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" si="4"/>
-        <v>Glider 003 - Coastal Endurance Mobile Zone</v>
+        <v>Glider 003 - Coastal Endurance Mobile Assets</v>
       </c>
       <c r="N35" t="s">
         <v>54</v>
@@ -24392,7 +24393,7 @@
       </c>
       <c r="K36" t="str">
         <f>VLOOKUP(A36,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Coastal Endurance Mobile Zone</v>
+        <v>Coastal Endurance Mobile Assets</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="18"/>
@@ -24400,7 +24401,7 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" si="4"/>
-        <v>Glider 004 - Coastal Endurance Mobile Zone</v>
+        <v>Glider 004 - Coastal Endurance Mobile Assets</v>
       </c>
       <c r="N36" t="s">
         <v>54</v>
@@ -24454,7 +24455,7 @@
       </c>
       <c r="K37" t="str">
         <f>VLOOKUP(A37,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Coastal Endurance Mobile Zone</v>
+        <v>Coastal Endurance Mobile Assets</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="18"/>
@@ -24462,7 +24463,7 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" si="4"/>
-        <v>Glider 005 - Coastal Endurance Mobile Zone</v>
+        <v>Glider 005 - Coastal Endurance Mobile Assets</v>
       </c>
       <c r="N37" t="s">
         <v>54</v>
@@ -24516,7 +24517,7 @@
       </c>
       <c r="K38" t="str">
         <f>VLOOKUP(A38,Subsites!A$2:G$61,7,FALSE)</f>
-        <v>Coastal Endurance Mobile Zone</v>
+        <v>Coastal Endurance Mobile Assets</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="18"/>
@@ -24524,7 +24525,7 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" si="4"/>
-        <v>Glider 006 - Coastal Endurance Mobile Zone</v>
+        <v>Glider 006 - Coastal Endurance Mobile Assets</v>
       </c>
       <c r="N38" t="s">
         <v>54</v>
@@ -25367,13 +25368,13 @@
         <v>41852</v>
       </c>
       <c r="U53" s="36" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V53" s="29" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="W53" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -25433,13 +25434,13 @@
         <v>41852</v>
       </c>
       <c r="U54" s="36" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V54" s="29" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="W54" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -25501,13 +25502,13 @@
         <v>41852</v>
       </c>
       <c r="U55" s="36" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V55" s="29" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="W55" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -25895,7 +25896,7 @@
         <v>41613</v>
       </c>
       <c r="U62" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V62" t="s">
         <v>841</v>
@@ -25958,7 +25959,7 @@
         <v>41613</v>
       </c>
       <c r="U63" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V63" t="s">
         <v>841</v>
@@ -26021,7 +26022,7 @@
         <v>41613</v>
       </c>
       <c r="U64" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V64" t="s">
         <v>841</v>
@@ -26084,7 +26085,7 @@
         <v>41613</v>
       </c>
       <c r="U65" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>841</v>
@@ -26148,7 +26149,7 @@
         <v>41613</v>
       </c>
       <c r="U66" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>841</v>
@@ -26378,7 +26379,7 @@
         <v>41613</v>
       </c>
       <c r="U70" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>841</v>
@@ -26445,7 +26446,7 @@
         <v>41613</v>
       </c>
       <c r="U71" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>841</v>
@@ -26511,7 +26512,7 @@
         <v>41613</v>
       </c>
       <c r="U72" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>841</v>
@@ -26578,7 +26579,7 @@
         <v>41613</v>
       </c>
       <c r="U73" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>841</v>
@@ -26644,7 +26645,7 @@
         <v>41613</v>
       </c>
       <c r="U74" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V74" s="2" t="s">
         <v>841</v>
@@ -26711,7 +26712,7 @@
         <v>41613</v>
       </c>
       <c r="U75" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V75" s="2" t="s">
         <v>841</v>
@@ -26777,7 +26778,7 @@
         <v>41613</v>
       </c>
       <c r="U76" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>841</v>
@@ -26844,7 +26845,7 @@
         <v>41613</v>
       </c>
       <c r="U77" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>841</v>
@@ -27023,7 +27024,7 @@
         <v>818</v>
       </c>
       <c r="D81" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E81" t="s">
         <v>33</v>
@@ -27403,7 +27404,7 @@
         <v>41613</v>
       </c>
       <c r="U87" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>841</v>
@@ -27582,7 +27583,7 @@
         <v>818</v>
       </c>
       <c r="D91" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -28027,7 +28028,7 @@
         <v>41613</v>
       </c>
       <c r="U98" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>841</v>
@@ -28091,7 +28092,7 @@
         <v>41613</v>
       </c>
       <c r="U99" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>841</v>
@@ -28155,7 +28156,7 @@
         <v>41613</v>
       </c>
       <c r="U100" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>841</v>
@@ -28219,7 +28220,7 @@
         <v>41613</v>
       </c>
       <c r="U101" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V101" s="2" t="s">
         <v>841</v>
@@ -28283,7 +28284,7 @@
         <v>41613</v>
       </c>
       <c r="U102" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V102" s="2" t="s">
         <v>841</v>
@@ -28347,7 +28348,7 @@
         <v>41613</v>
       </c>
       <c r="U103" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V103" s="2" t="s">
         <v>841</v>
@@ -30118,7 +30119,7 @@
         <v>41489</v>
       </c>
       <c r="U135" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V135" t="s">
         <v>841</v>
@@ -30181,7 +30182,7 @@
         <v>41489</v>
       </c>
       <c r="U136" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V136" t="s">
         <v>841</v>
@@ -30244,7 +30245,7 @@
         <v>41489</v>
       </c>
       <c r="U137" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V137" t="s">
         <v>841</v>
@@ -30307,7 +30308,7 @@
         <v>41489</v>
       </c>
       <c r="U138" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V138" t="s">
         <v>841</v>
@@ -30370,7 +30371,7 @@
         <v>41489</v>
       </c>
       <c r="U139" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V139" t="s">
         <v>841</v>
@@ -30438,7 +30439,7 @@
         <v>41489</v>
       </c>
       <c r="U140" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V140" t="s">
         <v>841</v>
@@ -30501,7 +30502,7 @@
         <v>41489</v>
       </c>
       <c r="U141" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V141" t="s">
         <v>841</v>
@@ -30569,7 +30570,7 @@
         <v>41489</v>
       </c>
       <c r="U142" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V142" t="s">
         <v>841</v>
@@ -30632,7 +30633,7 @@
         <v>41489</v>
       </c>
       <c r="U143" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V143" t="s">
         <v>841</v>
@@ -30695,7 +30696,7 @@
         <v>41489</v>
       </c>
       <c r="U144" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V144" t="s">
         <v>841</v>
@@ -30758,7 +30759,7 @@
         <v>41489</v>
       </c>
       <c r="U145" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V145" t="s">
         <v>841</v>
@@ -30821,7 +30822,7 @@
         <v>41489</v>
       </c>
       <c r="U146" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V146" t="s">
         <v>841</v>
@@ -31707,7 +31708,7 @@
     </row>
     <row r="163" spans="1:26">
       <c r="A163" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B163" t="s">
         <v>818</v>
@@ -31716,10 +31717,10 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F163" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G163" s="3" t="str">
         <f t="shared" ref="G163:G170" si="52">MID(D163,10,2)</f>
@@ -31762,27 +31763,27 @@
         <v>40969</v>
       </c>
       <c r="U163" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V163" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="164" spans="1:26">
       <c r="A164" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B164" t="s">
         <v>818</v>
       </c>
       <c r="D164" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E164" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F164" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G164" s="3" t="str">
         <f t="shared" si="52"/>
@@ -31827,27 +31828,27 @@
         <v>40969</v>
       </c>
       <c r="U164" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V164" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="165" spans="1:26">
       <c r="A165" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B165" t="s">
         <v>818</v>
       </c>
       <c r="D165" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E165" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F165" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G165" s="3" t="str">
         <f t="shared" si="52"/>
@@ -31892,27 +31893,27 @@
         <v>40969</v>
       </c>
       <c r="U165" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V165" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="166" spans="1:26">
       <c r="A166" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B166" t="s">
         <v>818</v>
       </c>
       <c r="D166" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E166" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F166" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G166" s="3" t="str">
         <f t="shared" si="52"/>
@@ -31957,27 +31958,27 @@
         <v>40969</v>
       </c>
       <c r="U166" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V166" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="167" spans="1:26">
       <c r="A167" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B167" t="s">
         <v>818</v>
       </c>
       <c r="D167" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E167" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F167" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G167" s="3" t="str">
         <f t="shared" si="52"/>
@@ -32022,27 +32023,27 @@
         <v>40969</v>
       </c>
       <c r="U167" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V167" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="168" spans="1:26">
       <c r="A168" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B168" t="s">
         <v>818</v>
       </c>
       <c r="D168" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E168" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F168" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G168" s="3" t="str">
         <f t="shared" si="52"/>
@@ -32087,27 +32088,27 @@
         <v>40969</v>
       </c>
       <c r="U168" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V168" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="169" spans="1:26">
       <c r="A169" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B169" t="s">
         <v>818</v>
       </c>
       <c r="D169" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E169" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F169" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G169" s="3" t="str">
         <f t="shared" si="52"/>
@@ -32152,27 +32153,27 @@
         <v>40969</v>
       </c>
       <c r="U169" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V169" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="170" spans="1:26">
       <c r="A170" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B170" t="s">
         <v>818</v>
       </c>
       <c r="D170" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E170" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F170" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G170" s="3" t="str">
         <f t="shared" si="52"/>
@@ -32217,10 +32218,10 @@
         <v>40969</v>
       </c>
       <c r="U170" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V170" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="171" spans="1:26">
@@ -32234,10 +32235,10 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F171" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G171" s="3" t="str">
         <f t="shared" ref="G171" si="55">MID(D171,10,2)</f>
@@ -32286,16 +32287,16 @@
         <v>41852</v>
       </c>
       <c r="U171" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V171" s="29" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="X171" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y171" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Z171" s="3" t="s">
         <v>440</v>
@@ -32362,7 +32363,7 @@
       <c r="U172" s="33"/>
       <c r="X172" s="3"/>
       <c r="Y172" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="Z172" s="3"/>
     </row>
@@ -32429,7 +32430,7 @@
         <v>437</v>
       </c>
       <c r="Y173" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="Z173" s="3" t="s">
         <v>448</v>
@@ -32446,10 +32447,10 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F174" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G174" s="3" t="str">
         <f t="shared" ref="G174" si="59">MID(D174,10,2)</f>
@@ -32508,10 +32509,10 @@
         <v>70</v>
       </c>
       <c r="E175" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F175" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G175" s="3" t="str">
         <f t="shared" si="46"/>
@@ -32560,7 +32561,7 @@
         <v>437</v>
       </c>
       <c r="Y175" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="Z175" s="3" t="s">
         <v>440</v>
@@ -32574,13 +32575,13 @@
         <v>818</v>
       </c>
       <c r="D176" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E176" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F176" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G176" s="3" t="str">
         <f t="shared" ref="G176" si="64">MID(D176,10,2)</f>
@@ -32643,10 +32644,10 @@
         <v>71</v>
       </c>
       <c r="E177" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F177" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G177" s="3" t="str">
         <f t="shared" si="46"/>
@@ -32696,7 +32697,7 @@
         <v>437</v>
       </c>
       <c r="Y177" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Z177" s="3" t="s">
         <v>444</v>
@@ -32704,7 +32705,7 @@
     </row>
     <row r="178" spans="1:26">
       <c r="A178" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B178" t="s">
         <v>818</v>
@@ -32713,10 +32714,10 @@
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G178" s="3" t="str">
         <f t="shared" ref="G178" si="68">MID(D178,10,2)</f>
@@ -32765,16 +32766,16 @@
         <v>41153</v>
       </c>
       <c r="U178" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V178" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="X178" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Y178" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Z178" s="3" t="s">
         <v>833</v>
@@ -32843,7 +32844,7 @@
         <v>41486</v>
       </c>
       <c r="U179" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V179" t="s">
         <v>841</v>
@@ -32852,7 +32853,7 @@
         <v>437</v>
       </c>
       <c r="Y179" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Z179" s="3" t="s">
         <v>459</v>
@@ -32860,7 +32861,7 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B180" t="s">
         <v>818</v>
@@ -32869,10 +32870,10 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F180" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G180" s="3" t="str">
         <f t="shared" ref="G180:G181" si="72">MID(D180,10,2)</f>
@@ -32922,13 +32923,13 @@
       </c>
       <c r="U180" s="33"/>
       <c r="V180" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="X180" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Y180" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Z180" s="20" t="s">
         <v>837</v>
@@ -32945,10 +32946,10 @@
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F181" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G181" s="3" t="str">
         <f t="shared" si="72"/>
@@ -32998,16 +32999,16 @@
       </c>
       <c r="U181" s="33"/>
       <c r="V181" s="29" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="W181" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X181" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y181" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Z181" s="3" t="s">
         <v>440</v>
@@ -33077,16 +33078,16 @@
       </c>
       <c r="U182" s="33"/>
       <c r="V182" s="29" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="W182" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X182" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y182" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Z182" s="3" t="s">
         <v>448</v>
@@ -33156,16 +33157,16 @@
       </c>
       <c r="U183" s="33"/>
       <c r="V183" s="29" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="W183" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X183" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y183" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Z183" s="3" t="s">
         <v>440</v>
@@ -33173,7 +33174,7 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B184" t="s">
         <v>818</v>
@@ -33182,10 +33183,10 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F184" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G184" s="3" t="str">
         <f t="shared" si="76"/>
@@ -33235,13 +33236,13 @@
       </c>
       <c r="U184" s="33"/>
       <c r="V184" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="X184" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Y184" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z184" s="3" t="s">
         <v>837</v>
@@ -33307,13 +33308,13 @@
         <v>41516</v>
       </c>
       <c r="U185" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V185" t="s">
         <v>841</v>
       </c>
       <c r="Y185" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Z185" s="6" t="s">
         <v>449</v>
@@ -33382,7 +33383,7 @@
         <v>41516</v>
       </c>
       <c r="U186" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V186" t="s">
         <v>841</v>
@@ -33391,7 +33392,7 @@
         <v>437</v>
       </c>
       <c r="Y186" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Z186" s="3" t="s">
         <v>440</v>
@@ -33399,7 +33400,7 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B187" t="s">
         <v>818</v>
@@ -33408,10 +33409,10 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F187" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G187" s="3" t="str">
         <f t="shared" si="82"/>
@@ -33461,13 +33462,13 @@
       </c>
       <c r="U187" s="33"/>
       <c r="V187" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="X187" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Y187" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Z187" s="3" t="s">
         <v>837</v>
@@ -33484,10 +33485,10 @@
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F188" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G188" s="3" t="str">
         <f t="shared" si="82"/>
@@ -33537,16 +33538,16 @@
       </c>
       <c r="U188" s="33"/>
       <c r="V188" s="29" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="W188" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="X188" s="3" t="s">
         <v>437</v>
       </c>
       <c r="Y188" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z188" s="3" t="s">
         <v>440</v>
@@ -33615,7 +33616,7 @@
         <v>41516</v>
       </c>
       <c r="U189" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V189" t="s">
         <v>841</v>
@@ -33624,7 +33625,7 @@
         <v>437</v>
       </c>
       <c r="Y189" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Z189" s="3" t="s">
         <v>459</v>
@@ -33691,7 +33692,7 @@
       <c r="U190" s="33"/>
       <c r="X190" s="3"/>
       <c r="Y190" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Z190" s="3"/>
     </row>
@@ -33758,7 +33759,7 @@
         <v>437</v>
       </c>
       <c r="Y191" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Z191" s="3" t="s">
         <v>448</v>
@@ -33775,10 +33776,10 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F192" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G192" s="3" t="str">
         <f t="shared" ref="G192" si="86">MID(D192,10,2)</f>
@@ -33837,10 +33838,10 @@
         <v>81</v>
       </c>
       <c r="E193" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F193" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G193" s="3" t="str">
         <f t="shared" si="76"/>
@@ -33889,7 +33890,7 @@
         <v>437</v>
       </c>
       <c r="Y193" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Z193" s="3" t="s">
         <v>440</v>
@@ -33903,13 +33904,13 @@
         <v>818</v>
       </c>
       <c r="D194" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E194" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F194" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G194" s="3" t="str">
         <f t="shared" ref="G194" si="91">MID(D194,10,2)</f>
@@ -33972,10 +33973,10 @@
         <v>82</v>
       </c>
       <c r="E195" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F195" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G195" s="3" t="str">
         <f t="shared" si="76"/>
@@ -34025,7 +34026,7 @@
         <v>437</v>
       </c>
       <c r="Y195" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Z195" s="3" t="s">
         <v>444</v>
@@ -34094,7 +34095,7 @@
         <v>41516</v>
       </c>
       <c r="U196" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V196" t="s">
         <v>841</v>
@@ -34103,7 +34104,7 @@
         <v>437</v>
       </c>
       <c r="Y196" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Z196" s="3" t="s">
         <v>437</v>
@@ -34172,7 +34173,7 @@
         <v>41516</v>
       </c>
       <c r="U197" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V197" t="s">
         <v>841</v>
@@ -34181,7 +34182,7 @@
         <v>437</v>
       </c>
       <c r="Y197" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Z197" s="3" t="s">
         <v>448</v>
@@ -34250,7 +34251,7 @@
         <v>41516</v>
       </c>
       <c r="U198" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V198" t="s">
         <v>841</v>
@@ -34259,7 +34260,7 @@
         <v>437</v>
       </c>
       <c r="Y198" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Z198" s="3" t="s">
         <v>459</v>
@@ -34328,7 +34329,7 @@
         <v>41516</v>
       </c>
       <c r="U199" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V199" t="s">
         <v>841</v>
@@ -34337,7 +34338,7 @@
         <v>437</v>
       </c>
       <c r="Y199" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Z199" s="3" t="s">
         <v>444</v>
@@ -34354,10 +34355,10 @@
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F200" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G200" s="3" t="str">
         <f t="shared" ref="G200" si="95">MID(D200,10,2)</f>
@@ -34407,13 +34408,13 @@
       </c>
       <c r="U200" s="33"/>
       <c r="V200" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="X200" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Y200" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Z200" s="20" t="s">
         <v>833</v>
@@ -34484,13 +34485,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1223</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>567</v>
@@ -34508,13 +34509,13 @@
         <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>243</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>567</v>
@@ -34529,7 +34530,7 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>127</v>
@@ -34576,7 +34577,7 @@
         <v>277</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>567</v>
@@ -34586,16 +34587,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B7" t="s">
         <v>1049</v>
       </c>
-      <c r="B7" t="s">
-        <v>1050</v>
-      </c>
       <c r="C7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -34625,13 +34626,13 @@
         <v>558</v>
       </c>
       <c r="B9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>568</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>567</v>
@@ -34690,7 +34691,7 @@
         <v>298</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -34704,10 +34705,10 @@
         <v>286</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>567</v>
@@ -34723,13 +34724,13 @@
         <v>656</v>
       </c>
       <c r="B14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -34782,10 +34783,10 @@
         <v>290</v>
       </c>
       <c r="C17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>567</v>
@@ -34823,10 +34824,10 @@
         <v>279</v>
       </c>
       <c r="C19" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -34837,13 +34838,13 @@
         <v>834</v>
       </c>
       <c r="B20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -34851,7 +34852,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B21" t="s">
         <v>559</v>
@@ -34888,13 +34889,13 @@
         <v>653</v>
       </c>
       <c r="B23" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C23" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D23" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>567</v>
@@ -34943,13 +34944,13 @@
         <v>659</v>
       </c>
       <c r="B26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -34977,7 +34978,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C28" t="s">
         <v>717</v>
@@ -34994,7 +34995,7 @@
         <v>633</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -35033,13 +35034,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C31" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D31" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>567</v>
@@ -35050,7 +35051,7 @@
         <v>633</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -35058,10 +35059,10 @@
         <v>670</v>
       </c>
       <c r="C32" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D32" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>567</v>
@@ -35072,7 +35073,7 @@
         <v>633</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -35080,13 +35081,13 @@
         <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -35571,46 +35572,46 @@
         <v>1038</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>1260</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>1261</v>
-      </c>
       <c r="I1" s="17" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>817</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>1171</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>1172</v>
-      </c>
       <c r="N1" s="10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>839</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -35627,10 +35628,10 @@
         <v>843</v>
       </c>
       <c r="E2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>818</v>
@@ -35650,10 +35651,10 @@
         <v>843</v>
       </c>
       <c r="E3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>818</v>
@@ -35673,7 +35674,7 @@
         <v>848</v>
       </c>
       <c r="E4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -35691,17 +35692,17 @@
         <v>848</v>
       </c>
       <c r="E5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>418</v>
@@ -35724,13 +35725,13 @@
         <v>848</v>
       </c>
       <c r="E6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -35747,10 +35748,10 @@
         <v>848</v>
       </c>
       <c r="E7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="J7" t="s">
         <v>418</v>
@@ -35773,20 +35774,20 @@
         <v>848</v>
       </c>
       <c r="E8" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -35804,13 +35805,13 @@
         <v>848</v>
       </c>
       <c r="E9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J9" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -35827,10 +35828,10 @@
         <v>859</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J10" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -35847,7 +35848,7 @@
         <v>859</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J11" t="s">
         <v>418</v>
@@ -35870,10 +35871,10 @@
         <v>859</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -35890,10 +35891,10 @@
         <v>859</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -35924,10 +35925,10 @@
         <v>859</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="J15" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K15" t="s">
         <v>633</v>
@@ -35950,7 +35951,7 @@
         <v>859</v>
       </c>
       <c r="J16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>818</v>
@@ -35970,7 +35971,7 @@
         <v>859</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J17" t="s">
         <v>418</v>
@@ -35993,16 +35994,16 @@
         <v>873</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J18" t="s">
         <v>418</v>
@@ -36011,7 +36012,7 @@
         <v>633</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -36028,7 +36029,7 @@
         <v>875</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J19" t="s">
         <v>418</v>
@@ -36051,16 +36052,16 @@
         <v>875</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J20" t="s">
         <v>418</v>
@@ -36097,16 +36098,16 @@
         <v>880</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="J22" t="s">
         <v>418</v>
@@ -36129,7 +36130,7 @@
         <v>732</v>
       </c>
       <c r="J23" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>818</v>
@@ -36149,13 +36150,13 @@
         <v>883</v>
       </c>
       <c r="E24" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="J24" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K24" s="20" t="s">
         <v>633</v>
@@ -36178,13 +36179,13 @@
         <v>883</v>
       </c>
       <c r="E25" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="J25" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>633</v>
@@ -36207,13 +36208,13 @@
         <v>883</v>
       </c>
       <c r="E26" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="J26" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -36230,13 +36231,13 @@
         <v>883</v>
       </c>
       <c r="E27" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="J27" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -36253,10 +36254,10 @@
         <v>883</v>
       </c>
       <c r="E28" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J28" t="s">
         <v>418</v>
@@ -36279,17 +36280,17 @@
         <v>883</v>
       </c>
       <c r="E29" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H29" s="37"/>
       <c r="I29" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J29" t="s">
         <v>418</v>
@@ -36312,14 +36313,14 @@
         <v>736</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G30" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H30" s="41"/>
       <c r="J30" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>818</v>
@@ -36339,17 +36340,17 @@
         <v>892</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G31" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H31" s="40"/>
       <c r="I31" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="J31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -36369,7 +36370,7 @@
         <v>2014</v>
       </c>
       <c r="H32" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -36386,10 +36387,10 @@
         <v>892</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="J33" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -36420,14 +36421,14 @@
         <v>740</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H35" s="40"/>
       <c r="J35" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>818</v>
@@ -36447,10 +36448,10 @@
         <v>740</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J36" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -36481,10 +36482,10 @@
         <v>740</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -36515,7 +36516,7 @@
         <v>740</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>194</v>
@@ -36550,7 +36551,7 @@
         <v>908</v>
       </c>
       <c r="J42" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>818</v>
@@ -36570,10 +36571,10 @@
         <v>908</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="J43" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -36604,14 +36605,14 @@
         <v>912</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G45" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H45" s="40"/>
       <c r="J45" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>818</v>
@@ -36631,10 +36632,10 @@
         <v>912</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J46" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -36679,16 +36680,16 @@
         <v>912</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G49" s="37" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H49" s="37" t="s">
         <v>1263</v>
       </c>
-      <c r="H49" s="37" t="s">
-        <v>1264</v>
-      </c>
       <c r="I49" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J49" t="s">
         <v>418</v>
@@ -36725,7 +36726,7 @@
         <v>912</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>194</v>
@@ -36746,14 +36747,14 @@
         <v>912</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H52" s="41"/>
       <c r="J52" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>818</v>
@@ -36773,7 +36774,7 @@
         <v>912</v>
       </c>
       <c r="J53" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>818</v>
@@ -36796,7 +36797,7 @@
         <v>745</v>
       </c>
       <c r="J54" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -36855,10 +36856,10 @@
         <v>928</v>
       </c>
       <c r="F58" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H58" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="J58" t="s">
         <v>418</v>
@@ -36881,14 +36882,14 @@
         <v>930</v>
       </c>
       <c r="F59" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G59" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H59" s="41"/>
       <c r="J59" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>818</v>
@@ -36908,10 +36909,10 @@
         <v>930</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="J60" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -36956,14 +36957,14 @@
         <v>930</v>
       </c>
       <c r="F63" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H63" s="41"/>
       <c r="J63" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>818</v>
@@ -36983,14 +36984,14 @@
         <v>930</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G64" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H64" s="41"/>
       <c r="J64" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>818</v>
@@ -37010,7 +37011,7 @@
         <v>937</v>
       </c>
       <c r="J65" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>818</v>
@@ -37030,10 +37031,10 @@
         <v>937</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J66" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -37064,14 +37065,14 @@
         <v>937</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H68" s="41"/>
       <c r="J68" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>818</v>
@@ -37091,7 +37092,7 @@
         <v>937</v>
       </c>
       <c r="J69" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>818</v>
@@ -37111,7 +37112,7 @@
         <v>937</v>
       </c>
       <c r="J70" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>818</v>
@@ -37131,7 +37132,7 @@
         <v>937</v>
       </c>
       <c r="J71" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>818</v>
@@ -37151,10 +37152,10 @@
         <v>945</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J72" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -37171,16 +37172,16 @@
         <v>947</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G73" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H73" s="39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J73" t="s">
         <v>418</v>
@@ -37206,16 +37207,16 @@
         <v>949</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G74" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H74" s="39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="J74" t="s">
         <v>418</v>
@@ -37241,16 +37242,16 @@
         <v>762</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G75" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H75" s="39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="J75" t="s">
         <v>418</v>
@@ -37273,10 +37274,10 @@
         <v>952</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J76" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K76" s="20" t="s">
         <v>633</v>
@@ -37299,14 +37300,14 @@
         <v>954</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G77" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H77" s="41"/>
       <c r="J77" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>818</v>
@@ -37326,10 +37327,10 @@
         <v>954</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="J78" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -37346,10 +37347,10 @@
         <v>954</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J79" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K79" s="20" t="s">
         <v>633</v>
@@ -37372,7 +37373,7 @@
         <v>954</v>
       </c>
       <c r="J80" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>818</v>
@@ -37392,16 +37393,16 @@
         <v>959</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G81" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H81" s="39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J81" t="s">
         <v>418</v>
@@ -37427,16 +37428,16 @@
         <v>959</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G82" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H82" s="39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J82" t="s">
         <v>418</v>
@@ -37479,16 +37480,16 @@
         <v>962</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G84" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H84" s="39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J84" t="s">
         <v>418</v>
@@ -37514,14 +37515,14 @@
         <v>965</v>
       </c>
       <c r="F85" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G85" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H85" s="41"/>
       <c r="J85" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>818</v>
@@ -37541,10 +37542,10 @@
         <v>965</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J86" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -37561,7 +37562,7 @@
         <v>965</v>
       </c>
       <c r="F87" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -37578,14 +37579,14 @@
         <v>965</v>
       </c>
       <c r="F88" s="37" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G88" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H88" s="37"/>
       <c r="I88" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J88" t="s">
         <v>418</v>
@@ -37608,7 +37609,7 @@
         <v>965</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J89" t="s">
         <v>418</v>
@@ -37631,10 +37632,10 @@
         <v>971</v>
       </c>
       <c r="F90" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J90" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>818</v>
@@ -37654,7 +37655,7 @@
         <v>973</v>
       </c>
       <c r="J91" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>818</v>
@@ -37688,10 +37689,10 @@
         <v>973</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J93" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -37722,7 +37723,7 @@
         <v>973</v>
       </c>
       <c r="J95" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>818</v>
@@ -37742,7 +37743,7 @@
         <v>973</v>
       </c>
       <c r="J96" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>818</v>
@@ -37762,10 +37763,10 @@
         <v>980</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J97" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K97" s="20" t="s">
         <v>633</v>
@@ -37788,14 +37789,14 @@
         <v>982</v>
       </c>
       <c r="F98" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G98" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H98" s="41"/>
       <c r="J98" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -37812,10 +37813,10 @@
         <v>982</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J99" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -37832,14 +37833,14 @@
         <v>982</v>
       </c>
       <c r="F100" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G100" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H100" s="38"/>
       <c r="I100" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J100" t="s">
         <v>418</v>
@@ -37862,13 +37863,13 @@
         <v>986</v>
       </c>
       <c r="E101" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J101" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -37885,10 +37886,10 @@
         <v>986</v>
       </c>
       <c r="E102" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J102" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -37905,7 +37906,7 @@
         <v>986</v>
       </c>
       <c r="E103" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -37922,17 +37923,17 @@
         <v>986</v>
       </c>
       <c r="E104" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F104" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G104" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H104" s="38"/>
       <c r="I104" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J104" t="s">
         <v>418</v>
@@ -37955,7 +37956,7 @@
         <v>986</v>
       </c>
       <c r="E105" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -37972,17 +37973,17 @@
         <v>986</v>
       </c>
       <c r="E106" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F106" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G106" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H106" s="41"/>
       <c r="J106" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>818</v>
@@ -38002,10 +38003,10 @@
         <v>986</v>
       </c>
       <c r="E107" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J107" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>818</v>
@@ -38025,16 +38026,16 @@
         <v>994</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G108" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H108" s="39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J108" t="s">
         <v>418</v>
@@ -38057,10 +38058,10 @@
         <v>996</v>
       </c>
       <c r="E109" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J109" s="29" t="s">
         <v>418</v>
@@ -38083,13 +38084,13 @@
         <v>996</v>
       </c>
       <c r="E110" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J110" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K110" s="20" t="s">
         <v>633</v>
@@ -38112,10 +38113,10 @@
         <v>996</v>
       </c>
       <c r="E111" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="J111" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>818</v>
@@ -38135,17 +38136,17 @@
         <v>1000</v>
       </c>
       <c r="E112" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F112" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G112" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H112" s="38"/>
       <c r="I112" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J112" t="s">
         <v>418</v>
@@ -38168,10 +38169,10 @@
         <v>1000</v>
       </c>
       <c r="E113" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J113" t="s">
         <v>418</v>
@@ -38194,16 +38195,16 @@
         <v>1003</v>
       </c>
       <c r="F114" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G114" s="39" t="s">
         <v>432</v>
       </c>
       <c r="H114" s="39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J114" t="s">
         <v>418</v>
@@ -38212,7 +38213,7 @@
         <v>633</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -38229,14 +38230,14 @@
         <v>1005</v>
       </c>
       <c r="F115" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G115" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H115" s="41"/>
       <c r="J115" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>818</v>
@@ -38256,10 +38257,10 @@
         <v>1005</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J116" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -38276,10 +38277,10 @@
         <v>1005</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J117" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K117" s="20" t="s">
         <v>633</v>
@@ -38302,13 +38303,13 @@
         <v>1009</v>
       </c>
       <c r="E118" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F118" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J118" t="s">
         <v>418</v>
@@ -38331,14 +38332,14 @@
         <v>1011</v>
       </c>
       <c r="F119" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G119" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H119" s="38"/>
       <c r="I119" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J119" t="s">
         <v>418</v>
@@ -38361,14 +38362,14 @@
         <v>1013</v>
       </c>
       <c r="F120" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G120" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H120" s="38"/>
       <c r="I120" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J120" t="s">
         <v>418</v>
@@ -38391,10 +38392,10 @@
         <v>1015</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J121" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -38411,17 +38412,17 @@
         <v>1017</v>
       </c>
       <c r="E122" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F122" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G122" s="40" t="s">
         <v>194</v>
       </c>
       <c r="H122" s="41"/>
       <c r="J122" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>818</v>
@@ -38441,13 +38442,13 @@
         <v>1017</v>
       </c>
       <c r="E123" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J123" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -38464,17 +38465,17 @@
         <v>1017</v>
       </c>
       <c r="E124" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F124" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G124" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H124" s="38"/>
       <c r="I124" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J124" t="s">
         <v>418</v>
@@ -38497,17 +38498,17 @@
         <v>1017</v>
       </c>
       <c r="E125" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F125" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G125" s="37" t="s">
         <v>432</v>
       </c>
       <c r="H125" s="38"/>
       <c r="I125" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J125" t="s">
         <v>418</v>
@@ -38530,10 +38531,10 @@
         <v>1017</v>
       </c>
       <c r="E126" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J126" t="s">
         <v>418</v>
@@ -38556,7 +38557,7 @@
         <v>1017</v>
       </c>
       <c r="E127" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -38573,7 +38574,7 @@
         <v>1017</v>
       </c>
       <c r="E128" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -38590,10 +38591,10 @@
         <v>1025</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J129" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K129" s="20" t="s">
         <v>633</v>
@@ -38616,7 +38617,7 @@
         <v>1025</v>
       </c>
       <c r="J130" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -38647,10 +38648,10 @@
         <v>1029</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J132" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K132" s="20" t="s">
         <v>633</v>
@@ -38687,7 +38688,7 @@
         <v>1031</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J134" t="s">
         <v>418</v>
@@ -38710,10 +38711,10 @@
         <v>1031</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J135" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K135" s="20" t="s">
         <v>633</v>
@@ -38736,12 +38737,12 @@
         <v>1035</v>
       </c>
       <c r="F136" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G136" s="41"/>
       <c r="H136" s="41"/>
       <c r="J136" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>818</v>
@@ -38774,73 +38775,73 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>633</v>
@@ -38851,7 +38852,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C14" t="s">
         <v>633</v>
@@ -38859,32 +38860,32 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -38894,67 +38895,67 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C34" t="s">
         <v>633</v>
@@ -38962,37 +38963,37 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C41" t="s">
         <v>633</v>
@@ -39000,12 +39001,12 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C43" t="s">
         <v>633</v>
@@ -39013,7 +39014,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C44" t="s">
         <v>633</v>
@@ -39021,32 +39022,32 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C50" t="s">
         <v>633</v>
@@ -39054,17 +39055,17 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C53" t="s">
         <v>633</v>
@@ -39072,27 +39073,27 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>

--- a/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
+++ b/res/preload/r2_ioc/ooi_assets/OOIResourceMappings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="669" activeTab="3"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="28780" windowHeight="15740" tabRatio="669" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MIOs" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6779" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="1269">
   <si>
     <t>Platform Reference ID</t>
   </si>
@@ -3841,6 +3841,21 @@
   </si>
   <si>
     <t>2 different regimes!!!</t>
+  </si>
+  <si>
+    <t>not in SAF</t>
+  </si>
+  <si>
+    <t>missing/added</t>
+  </si>
+  <si>
+    <t>dropped from SAF</t>
+  </si>
+  <si>
+    <t>pushed</t>
+  </si>
+  <si>
+    <t>check ?</t>
   </si>
 </sst>
 </file>
@@ -4002,7 +4017,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1226">
+  <cellStyleXfs count="1280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4029,6 +4044,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5302,7 +5371,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1226">
+  <cellStyles count="1280">
     <cellStyle name="20% - Accent3" xfId="25" builtinId="38"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5916,6 +5985,33 @@
     <cellStyle name="Followed Hyperlink" xfId="1221" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1223" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1279" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -6527,6 +6623,33 @@
     <cellStyle name="Hyperlink" xfId="1220" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1222" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1278" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -6939,10 +7062,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F636"/>
+  <dimension ref="A1:F645"/>
   <sheetViews>
-    <sheetView topLeftCell="A575" workbookViewId="0">
-      <selection activeCell="B621" sqref="B621"/>
+    <sheetView topLeftCell="A608" workbookViewId="0">
+      <selection activeCell="A638" sqref="A638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6950,7 +7073,7 @@
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7864,7 +7987,7 @@
         <v>41470</v>
       </c>
       <c r="E65" t="s">
-        <v>1227</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -13292,7 +13415,7 @@
         <v>807</v>
       </c>
       <c r="C472" t="s">
-        <v>899</v>
+        <v>855</v>
       </c>
       <c r="D472" s="30">
         <v>41491</v>
@@ -13360,7 +13483,7 @@
         <v>807</v>
       </c>
       <c r="C476" t="s">
-        <v>899</v>
+        <v>855</v>
       </c>
       <c r="D476" s="30">
         <v>41491</v>
@@ -13408,16 +13531,16 @@
         <v>402</v>
       </c>
       <c r="B479" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C479" t="s">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="D479" s="30">
         <v>41491</v>
       </c>
       <c r="E479" t="s">
-        <v>1227</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -13425,7 +13548,7 @@
         <v>402</v>
       </c>
       <c r="B480" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="C480" t="s">
         <v>863</v>
@@ -13442,10 +13565,10 @@
         <v>402</v>
       </c>
       <c r="B481" t="s">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="C481" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D481" s="30">
         <v>41491</v>
@@ -13456,13 +13579,13 @@
     </row>
     <row r="482" spans="1:5">
       <c r="A482" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B482" t="s">
-        <v>721</v>
+        <v>787</v>
       </c>
       <c r="C482" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="D482" s="30">
         <v>41491</v>
@@ -13476,10 +13599,10 @@
         <v>403</v>
       </c>
       <c r="B483" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="C483" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="D483" s="30">
         <v>41491</v>
@@ -13493,10 +13616,10 @@
         <v>403</v>
       </c>
       <c r="B484" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C484" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D484" s="30">
         <v>41491</v>
@@ -13510,16 +13633,16 @@
         <v>403</v>
       </c>
       <c r="B485" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="C485" t="s">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="D485" s="30">
         <v>41491</v>
       </c>
       <c r="E485" t="s">
-        <v>1227</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -13527,10 +13650,10 @@
         <v>403</v>
       </c>
       <c r="B486" t="s">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="C486" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D486" s="30">
         <v>41491</v>
@@ -13541,13 +13664,13 @@
     </row>
     <row r="487" spans="1:5">
       <c r="A487" t="s">
-        <v>265</v>
+        <v>403</v>
       </c>
       <c r="B487" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="C487" t="s">
-        <v>570</v>
+        <v>863</v>
       </c>
       <c r="D487" s="30">
         <v>41491</v>
@@ -13558,13 +13681,13 @@
     </row>
     <row r="488" spans="1:5">
       <c r="A488" t="s">
-        <v>265</v>
+        <v>403</v>
       </c>
       <c r="B488" t="s">
-        <v>743</v>
+        <v>787</v>
       </c>
       <c r="C488" t="s">
-        <v>570</v>
+        <v>867</v>
       </c>
       <c r="D488" s="30">
         <v>41491</v>
@@ -13578,7 +13701,7 @@
         <v>265</v>
       </c>
       <c r="B489" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="C489" t="s">
         <v>570</v>
@@ -13592,10 +13715,10 @@
     </row>
     <row r="490" spans="1:5">
       <c r="A490" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B490" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="C490" t="s">
         <v>570</v>
@@ -13609,10 +13732,10 @@
     </row>
     <row r="491" spans="1:5">
       <c r="A491" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B491" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C491" t="s">
         <v>570</v>
@@ -13629,7 +13752,7 @@
         <v>267</v>
       </c>
       <c r="B492" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="C492" t="s">
         <v>570</v>
@@ -13643,10 +13766,10 @@
     </row>
     <row r="493" spans="1:5">
       <c r="A493" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B493" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="C493" t="s">
         <v>570</v>
@@ -13660,10 +13783,10 @@
     </row>
     <row r="494" spans="1:5">
       <c r="A494" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B494" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C494" t="s">
         <v>570</v>
@@ -13680,7 +13803,7 @@
         <v>268</v>
       </c>
       <c r="B495" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="C495" t="s">
         <v>570</v>
@@ -13694,186 +13817,198 @@
     </row>
     <row r="496" spans="1:5">
       <c r="A496" t="s">
-        <v>404</v>
+        <v>268</v>
       </c>
       <c r="B496" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C496" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
+        <v>570</v>
+      </c>
+      <c r="D496" s="30">
+        <v>41491</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
       <c r="A497" t="s">
-        <v>404</v>
+        <v>268</v>
       </c>
       <c r="B497" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="C497" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
+        <v>570</v>
+      </c>
+      <c r="D497" s="30">
+        <v>41491</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
       <c r="A498" t="s">
         <v>404</v>
       </c>
       <c r="B498" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="C498" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
       <c r="A499" t="s">
         <v>404</v>
       </c>
       <c r="B499" t="s">
+        <v>733</v>
+      </c>
+      <c r="C499" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" t="s">
+        <v>404</v>
+      </c>
+      <c r="B500" t="s">
+        <v>753</v>
+      </c>
+      <c r="C500" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" t="s">
+        <v>404</v>
+      </c>
+      <c r="B501" t="s">
         <v>809</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C501" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
-      <c r="A500" t="s">
+    <row r="502" spans="1:5">
+      <c r="A502" t="s">
         <v>405</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B502" t="s">
         <v>737</v>
       </c>
-      <c r="C500" t="s">
+      <c r="C502" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
-      <c r="A501" t="s">
+    <row r="503" spans="1:5">
+      <c r="A503" t="s">
         <v>405</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B503" t="s">
         <v>787</v>
       </c>
-      <c r="C501" t="s">
+      <c r="C503" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
-      <c r="A502" t="s">
-        <v>406</v>
-      </c>
-      <c r="B502" t="s">
-        <v>745</v>
-      </c>
-      <c r="C502" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
-      <c r="A503" t="s">
-        <v>406</v>
-      </c>
-      <c r="B503" t="s">
-        <v>763</v>
-      </c>
-      <c r="C503" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:5">
       <c r="A504" t="s">
         <v>406</v>
       </c>
       <c r="B504" t="s">
-        <v>783</v>
+        <v>745</v>
       </c>
       <c r="C504" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:5">
       <c r="A505" t="s">
         <v>406</v>
       </c>
       <c r="B505" t="s">
-        <v>811</v>
+        <v>763</v>
       </c>
       <c r="C505" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:5">
       <c r="A506" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B506" t="s">
-        <v>815</v>
+        <v>783</v>
       </c>
       <c r="C506" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:5">
       <c r="A507" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B507" t="s">
-        <v>739</v>
+        <v>811</v>
       </c>
       <c r="C507" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
       <c r="A508" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B508" t="s">
-        <v>743</v>
+        <v>815</v>
       </c>
       <c r="C508" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
       <c r="A509" t="s">
         <v>408</v>
       </c>
       <c r="B509" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C509" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:5">
       <c r="A510" t="s">
         <v>408</v>
       </c>
       <c r="B510" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="C510" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:5">
       <c r="A511" t="s">
         <v>408</v>
       </c>
       <c r="B511" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="C511" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:5">
       <c r="A512" t="s">
         <v>408</v>
       </c>
       <c r="B512" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="C512" t="s">
         <v>899</v>
@@ -13884,7 +14019,7 @@
         <v>408</v>
       </c>
       <c r="B513" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="C513" t="s">
         <v>899</v>
@@ -13892,24 +14027,24 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B514" t="s">
-        <v>739</v>
+        <v>785</v>
       </c>
       <c r="C514" t="s">
-        <v>855</v>
+        <v>899</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B515" t="s">
-        <v>743</v>
+        <v>797</v>
       </c>
       <c r="C515" t="s">
-        <v>855</v>
+        <v>899</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -13917,7 +14052,7 @@
         <v>409</v>
       </c>
       <c r="B516" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C516" t="s">
         <v>855</v>
@@ -13928,18 +14063,18 @@
         <v>409</v>
       </c>
       <c r="B517" t="s">
-        <v>807</v>
+        <v>743</v>
       </c>
       <c r="C517" t="s">
-        <v>899</v>
+        <v>855</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B518" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="C518" t="s">
         <v>855</v>
@@ -13947,13 +14082,13 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B519" t="s">
-        <v>743</v>
+        <v>807</v>
       </c>
       <c r="C519" t="s">
-        <v>855</v>
+        <v>899</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -13961,7 +14096,7 @@
         <v>410</v>
       </c>
       <c r="B520" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C520" t="s">
         <v>855</v>
@@ -13972,18 +14107,18 @@
         <v>410</v>
       </c>
       <c r="B521" t="s">
-        <v>807</v>
+        <v>743</v>
       </c>
       <c r="C521" t="s">
-        <v>899</v>
+        <v>855</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B522" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="C522" t="s">
         <v>855</v>
@@ -13991,13 +14126,13 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B523" t="s">
-        <v>737</v>
+        <v>807</v>
       </c>
       <c r="C523" t="s">
-        <v>869</v>
+        <v>899</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -14005,10 +14140,10 @@
         <v>411</v>
       </c>
       <c r="B524" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="C524" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -14016,10 +14151,10 @@
         <v>411</v>
       </c>
       <c r="B525" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="C525" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -14027,32 +14162,32 @@
         <v>411</v>
       </c>
       <c r="B526" t="s">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="C526" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B527" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="C527" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B528" t="s">
-        <v>737</v>
+        <v>787</v>
       </c>
       <c r="C528" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -14060,10 +14195,10 @@
         <v>412</v>
       </c>
       <c r="B529" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="C529" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -14071,10 +14206,10 @@
         <v>412</v>
       </c>
       <c r="B530" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="C530" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -14082,32 +14217,32 @@
         <v>412</v>
       </c>
       <c r="B531" t="s">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="C531" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>270</v>
+        <v>412</v>
       </c>
       <c r="B532" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="C532" t="s">
-        <v>570</v>
+        <v>863</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>270</v>
+        <v>412</v>
       </c>
       <c r="B533" t="s">
-        <v>743</v>
+        <v>787</v>
       </c>
       <c r="C533" t="s">
-        <v>570</v>
+        <v>867</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -14115,7 +14250,7 @@
         <v>270</v>
       </c>
       <c r="B534" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="C534" t="s">
         <v>570</v>
@@ -14123,10 +14258,10 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B535" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="C535" t="s">
         <v>570</v>
@@ -14134,10 +14269,10 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B536" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C536" t="s">
         <v>570</v>
@@ -14148,7 +14283,7 @@
         <v>272</v>
       </c>
       <c r="B537" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="C537" t="s">
         <v>570</v>
@@ -14156,10 +14291,10 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B538" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="C538" t="s">
         <v>570</v>
@@ -14167,10 +14302,10 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B539" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C539" t="s">
         <v>570</v>
@@ -14181,7 +14316,7 @@
         <v>273</v>
       </c>
       <c r="B540" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="C540" t="s">
         <v>570</v>
@@ -14189,24 +14324,24 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="B541" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C541" t="s">
-        <v>855</v>
+        <v>570</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="B542" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C542" t="s">
-        <v>863</v>
+        <v>570</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -14214,10 +14349,10 @@
         <v>68</v>
       </c>
       <c r="B543" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="C543" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -14225,10 +14360,10 @@
         <v>68</v>
       </c>
       <c r="B544" t="s">
-        <v>777</v>
+        <v>743</v>
       </c>
       <c r="C544" t="s">
-        <v>635</v>
+        <v>863</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -14236,7 +14371,7 @@
         <v>68</v>
       </c>
       <c r="B545" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="C545" t="s">
         <v>846</v>
@@ -14244,24 +14379,24 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B546" t="s">
-        <v>723</v>
+        <v>777</v>
       </c>
       <c r="C546" t="s">
-        <v>865</v>
+        <v>635</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B547" t="s">
-        <v>739</v>
+        <v>807</v>
       </c>
       <c r="C547" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -14269,10 +14404,10 @@
         <v>69</v>
       </c>
       <c r="B548" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="C548" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -14280,10 +14415,10 @@
         <v>69</v>
       </c>
       <c r="B549" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="C549" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -14291,10 +14426,10 @@
         <v>69</v>
       </c>
       <c r="B550" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="C550" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -14302,29 +14437,29 @@
         <v>69</v>
       </c>
       <c r="B551" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="C551" t="s">
-        <v>635</v>
+        <v>846</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B552" t="s">
-        <v>723</v>
+        <v>757</v>
       </c>
       <c r="C552" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B553" t="s">
-        <v>727</v>
+        <v>777</v>
       </c>
       <c r="C553" t="s">
         <v>635</v>
@@ -14335,10 +14470,10 @@
         <v>70</v>
       </c>
       <c r="B554" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="C554" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -14346,10 +14481,10 @@
         <v>70</v>
       </c>
       <c r="B555" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="C555" t="s">
-        <v>863</v>
+        <v>635</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -14357,10 +14492,10 @@
         <v>70</v>
       </c>
       <c r="B556" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C556" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -14368,10 +14503,10 @@
         <v>70</v>
       </c>
       <c r="B557" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="C557" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -14379,10 +14514,10 @@
         <v>70</v>
       </c>
       <c r="B558" t="s">
-        <v>787</v>
+        <v>751</v>
       </c>
       <c r="C558" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -14390,7 +14525,7 @@
         <v>70</v>
       </c>
       <c r="B559" t="s">
-        <v>805</v>
+        <v>757</v>
       </c>
       <c r="C559" t="s">
         <v>846</v>
@@ -14398,154 +14533,142 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B560" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
       <c r="C560" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:5">
       <c r="A561" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B561" t="s">
-        <v>741</v>
+        <v>805</v>
       </c>
       <c r="C561" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:5">
       <c r="A562" t="s">
         <v>71</v>
       </c>
       <c r="B562" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="C562" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
       <c r="A563" t="s">
         <v>71</v>
       </c>
       <c r="B563" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="C563" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:5">
       <c r="A564" t="s">
         <v>71</v>
       </c>
       <c r="B564" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="C564" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:5">
       <c r="A565" t="s">
         <v>71</v>
       </c>
       <c r="B565" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="C565" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:5">
       <c r="A566" t="s">
         <v>71</v>
       </c>
       <c r="B566" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C566" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
       <c r="A567" t="s">
         <v>71</v>
       </c>
       <c r="B567" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C567" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:5">
       <c r="A568" t="s">
         <v>71</v>
       </c>
       <c r="B568" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="C568" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:5">
       <c r="A569" t="s">
         <v>71</v>
       </c>
       <c r="B569" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="C569" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="570" spans="1:6">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
       <c r="A570" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B570" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="C570" t="s">
         <v>846</v>
       </c>
-      <c r="D570" s="30">
-        <v>41443</v>
-      </c>
-      <c r="E570" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="571" spans="1:6">
+    </row>
+    <row r="571" spans="1:5">
       <c r="A571" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B571" t="s">
-        <v>769</v>
+        <v>809</v>
       </c>
       <c r="C571" t="s">
-        <v>846</v>
-      </c>
-      <c r="D571" s="30">
-        <v>41443</v>
-      </c>
-      <c r="E571" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="572" spans="1:6">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
       <c r="A572" t="s">
         <v>72</v>
       </c>
       <c r="B572" t="s">
-        <v>793</v>
+        <v>759</v>
       </c>
       <c r="C572" t="s">
         <v>846</v>
@@ -14557,63 +14680,69 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:5">
       <c r="A573" t="s">
         <v>72</v>
       </c>
       <c r="B573" t="s">
-        <v>807</v>
+        <v>769</v>
       </c>
       <c r="C573" t="s">
-        <v>860</v>
-      </c>
-      <c r="D573" s="30">
-        <v>41443</v>
+        <v>846</v>
       </c>
       <c r="E573" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="574" spans="1:6">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
       <c r="A574" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B574" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="C574" t="s">
         <v>846</v>
       </c>
-      <c r="F574" s="2" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="575" spans="1:6">
+      <c r="D574" s="30">
+        <v>41443</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
       <c r="A575" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B575" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="C575" t="s">
         <v>846</v>
       </c>
-      <c r="F575" s="2" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="576" spans="1:6">
+      <c r="D575" s="30">
+        <v>41443</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
       <c r="A576" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B576" t="s">
-        <v>775</v>
+        <v>807</v>
       </c>
       <c r="C576" t="s">
-        <v>846</v>
-      </c>
-      <c r="F576" s="2" t="s">
-        <v>1231</v>
+        <v>860</v>
+      </c>
+      <c r="D576" s="30">
+        <v>41443</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -14621,10 +14750,10 @@
         <v>73</v>
       </c>
       <c r="B577" t="s">
-        <v>793</v>
+        <v>759</v>
       </c>
       <c r="C577" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="F577" s="2" t="s">
         <v>1231</v>
@@ -14635,10 +14764,10 @@
         <v>73</v>
       </c>
       <c r="B578" t="s">
-        <v>807</v>
+        <v>771</v>
       </c>
       <c r="C578" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="F578" s="2" t="s">
         <v>1231</v>
@@ -14646,13 +14775,13 @@
     </row>
     <row r="579" spans="1:6">
       <c r="A579" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B579" t="s">
-        <v>721</v>
+        <v>775</v>
       </c>
       <c r="C579" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F579" s="2" t="s">
         <v>1231</v>
@@ -14660,10 +14789,10 @@
     </row>
     <row r="580" spans="1:6">
       <c r="A580" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B580" t="s">
-        <v>727</v>
+        <v>793</v>
       </c>
       <c r="C580" t="s">
         <v>860</v>
@@ -14674,13 +14803,13 @@
     </row>
     <row r="581" spans="1:6">
       <c r="A581" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B581" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="C581" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="F581" s="2" t="s">
         <v>1231</v>
@@ -14691,10 +14820,10 @@
         <v>74</v>
       </c>
       <c r="B582" t="s">
-        <v>761</v>
+        <v>721</v>
       </c>
       <c r="C582" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="F582" s="2" t="s">
         <v>1231</v>
@@ -14705,10 +14834,10 @@
         <v>74</v>
       </c>
       <c r="B583" t="s">
-        <v>779</v>
+        <v>727</v>
       </c>
       <c r="C583" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="F583" s="2" t="s">
         <v>1231</v>
@@ -14716,41 +14845,35 @@
     </row>
     <row r="584" spans="1:6">
       <c r="A584" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B584" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="C584" t="s">
         <v>846</v>
       </c>
-      <c r="D584" s="30">
-        <v>41471</v>
-      </c>
-      <c r="E584" t="s">
-        <v>1227</v>
+      <c r="F584" s="2" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="585" spans="1:6">
       <c r="A585" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B585" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="C585" t="s">
         <v>846</v>
       </c>
-      <c r="D585" s="30">
-        <v>41471</v>
-      </c>
-      <c r="E585" t="s">
-        <v>1227</v>
+      <c r="F585" s="2" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="586" spans="1:6">
       <c r="A586" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B586" t="s">
         <v>779</v>
@@ -14758,19 +14881,16 @@
       <c r="C586" t="s">
         <v>846</v>
       </c>
-      <c r="D586" s="30">
-        <v>41471</v>
-      </c>
-      <c r="E586" t="s">
-        <v>1227</v>
+      <c r="F586" s="2" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="587" spans="1:6">
       <c r="A587" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B587" t="s">
-        <v>801</v>
+        <v>729</v>
       </c>
       <c r="C587" t="s">
         <v>846</v>
@@ -14784,10 +14904,10 @@
     </row>
     <row r="588" spans="1:6">
       <c r="A588" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B588" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="C588" t="s">
         <v>846</v>
@@ -14801,10 +14921,10 @@
     </row>
     <row r="589" spans="1:6">
       <c r="A589" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B589" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="C589" t="s">
         <v>846</v>
@@ -14818,10 +14938,10 @@
     </row>
     <row r="590" spans="1:6">
       <c r="A590" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B590" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="C590" t="s">
         <v>846</v>
@@ -14838,10 +14958,10 @@
         <v>78</v>
       </c>
       <c r="B591" t="s">
-        <v>807</v>
+        <v>759</v>
       </c>
       <c r="C591" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="D591" s="30">
         <v>41471</v>
@@ -14852,397 +14972,394 @@
     </row>
     <row r="592" spans="1:6">
       <c r="A592" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B592" t="s">
-        <v>739</v>
+        <v>769</v>
       </c>
       <c r="C592" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3">
+        <v>846</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
       <c r="A593" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B593" t="s">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="C593" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3">
+        <v>846</v>
+      </c>
+      <c r="D593" s="30">
+        <v>41471</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
       <c r="A594" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B594" t="s">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="C594" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="595" spans="1:3">
+      <c r="D594" s="30">
+        <v>41471</v>
+      </c>
+      <c r="E594" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
       <c r="A595" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B595" t="s">
-        <v>777</v>
+        <v>807</v>
       </c>
       <c r="C595" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3">
+        <v>860</v>
+      </c>
+      <c r="D595" s="30">
+        <v>41471</v>
+      </c>
+      <c r="E595" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
       <c r="A596" t="s">
         <v>79</v>
       </c>
       <c r="B596" t="s">
+        <v>739</v>
+      </c>
+      <c r="C596" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" t="s">
+        <v>79</v>
+      </c>
+      <c r="B597" t="s">
+        <v>743</v>
+      </c>
+      <c r="C597" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" t="s">
+        <v>79</v>
+      </c>
+      <c r="B598" t="s">
+        <v>753</v>
+      </c>
+      <c r="C598" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" t="s">
+        <v>79</v>
+      </c>
+      <c r="B599" t="s">
+        <v>777</v>
+      </c>
+      <c r="C599" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" t="s">
+        <v>79</v>
+      </c>
+      <c r="B600" t="s">
         <v>807</v>
-      </c>
-      <c r="C596" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3">
-      <c r="A597" t="s">
-        <v>80</v>
-      </c>
-      <c r="B597" t="s">
-        <v>723</v>
-      </c>
-      <c r="C597" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3">
-      <c r="A598" t="s">
-        <v>80</v>
-      </c>
-      <c r="B598" t="s">
-        <v>739</v>
-      </c>
-      <c r="C598" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3">
-      <c r="A599" t="s">
-        <v>80</v>
-      </c>
-      <c r="B599" t="s">
-        <v>743</v>
-      </c>
-      <c r="C599" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3">
-      <c r="A600" t="s">
-        <v>80</v>
-      </c>
-      <c r="B600" t="s">
-        <v>755</v>
       </c>
       <c r="C600" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:5">
       <c r="A601" t="s">
         <v>80</v>
       </c>
       <c r="B601" t="s">
-        <v>757</v>
+        <v>723</v>
       </c>
       <c r="C601" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
       <c r="A602" t="s">
         <v>80</v>
       </c>
       <c r="B602" t="s">
-        <v>777</v>
+        <v>739</v>
       </c>
       <c r="C602" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
       <c r="A603" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B603" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="C603" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:5">
       <c r="A604" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B604" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="C604" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
       <c r="A605" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B605" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="C605" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:5">
       <c r="A606" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B606" t="s">
-        <v>743</v>
+        <v>777</v>
       </c>
       <c r="C606" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
       <c r="A607" t="s">
         <v>81</v>
       </c>
       <c r="B607" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="C607" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:5">
       <c r="A608" t="s">
         <v>81</v>
       </c>
       <c r="B608" t="s">
-        <v>757</v>
+        <v>727</v>
       </c>
       <c r="C608" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="609" spans="1:5">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
       <c r="A609" t="s">
         <v>81</v>
       </c>
       <c r="B609" t="s">
-        <v>787</v>
+        <v>739</v>
       </c>
       <c r="C609" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:3">
       <c r="A610" t="s">
         <v>81</v>
       </c>
       <c r="B610" t="s">
-        <v>805</v>
+        <v>743</v>
       </c>
       <c r="C610" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="611" spans="1:5">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
       <c r="A611" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B611" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="C611" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="612" spans="1:5">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
       <c r="A612" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B612" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="C612" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:3">
       <c r="A613" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B613" t="s">
-        <v>753</v>
+        <v>787</v>
       </c>
       <c r="C613" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="614" spans="1:5">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
       <c r="A614" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B614" t="s">
-        <v>765</v>
+        <v>805</v>
       </c>
       <c r="C614" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:3">
       <c r="A615" t="s">
         <v>82</v>
       </c>
       <c r="B615" t="s">
-        <v>777</v>
+        <v>739</v>
       </c>
       <c r="C615" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="616" spans="1:5">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
       <c r="A616" t="s">
         <v>82</v>
       </c>
       <c r="B616" t="s">
-        <v>781</v>
+        <v>741</v>
       </c>
       <c r="C616" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:3">
       <c r="A617" t="s">
         <v>82</v>
       </c>
       <c r="B617" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="C617" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="618" spans="1:5">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
       <c r="A618" t="s">
         <v>82</v>
       </c>
       <c r="B618" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="C618" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:3">
       <c r="A619" t="s">
         <v>82</v>
       </c>
       <c r="B619" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="C619" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="620" spans="1:5">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
       <c r="A620" t="s">
         <v>82</v>
       </c>
       <c r="B620" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="C620" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="621" spans="1:5">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
       <c r="A621" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B621" t="s">
-        <v>725</v>
+        <v>785</v>
       </c>
       <c r="C621" t="s">
         <v>846</v>
       </c>
-      <c r="D621" s="30">
-        <v>41471</v>
-      </c>
-      <c r="E621" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="622" spans="1:5">
+    </row>
+    <row r="622" spans="1:3">
       <c r="A622" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B622" t="s">
-        <v>759</v>
+        <v>787</v>
       </c>
       <c r="C622" t="s">
         <v>846</v>
       </c>
-      <c r="D622" s="30">
-        <v>41471</v>
-      </c>
-      <c r="E622" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="623" spans="1:5">
+    </row>
+    <row r="623" spans="1:3">
       <c r="A623" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B623" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="C623" t="s">
         <v>846</v>
       </c>
-      <c r="D623" s="30">
-        <v>41471</v>
-      </c>
-      <c r="E623" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="624" spans="1:5">
+    </row>
+    <row r="624" spans="1:3">
       <c r="A624" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B624" t="s">
-        <v>725</v>
+        <v>809</v>
       </c>
       <c r="C624" t="s">
-        <v>846</v>
-      </c>
-      <c r="D624" s="30">
-        <v>41471</v>
-      </c>
-      <c r="E624" t="s">
-        <v>1227</v>
+        <v>863</v>
       </c>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B625" t="s">
-        <v>759</v>
+        <v>725</v>
       </c>
       <c r="C625" t="s">
         <v>846</v>
@@ -15256,10 +15373,10 @@
     </row>
     <row r="626" spans="1:5">
       <c r="A626" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B626" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="C626" t="s">
         <v>846</v>
@@ -15273,10 +15390,10 @@
     </row>
     <row r="627" spans="1:5">
       <c r="A627" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B627" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C627" t="s">
         <v>846</v>
@@ -15290,10 +15407,10 @@
     </row>
     <row r="628" spans="1:5">
       <c r="A628" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B628" t="s">
-        <v>799</v>
+        <v>725</v>
       </c>
       <c r="C628" t="s">
         <v>846</v>
@@ -15307,10 +15424,10 @@
     </row>
     <row r="629" spans="1:5">
       <c r="A629" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B629" t="s">
-        <v>803</v>
+        <v>759</v>
       </c>
       <c r="C629" t="s">
         <v>846</v>
@@ -15324,44 +15441,41 @@
     </row>
     <row r="630" spans="1:5">
       <c r="A630" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B630" t="s">
-        <v>725</v>
+        <v>771</v>
       </c>
       <c r="C630" t="s">
         <v>846</v>
       </c>
-      <c r="D630" s="30">
-        <v>41471</v>
-      </c>
       <c r="E630" t="s">
-        <v>1227</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="631" spans="1:5">
       <c r="A631" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B631" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="C631" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="D631" s="30">
         <v>41471</v>
       </c>
       <c r="E631" t="s">
-        <v>1227</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="632" spans="1:5">
       <c r="A632" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B632" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="C632" t="s">
         <v>846</v>
@@ -15375,27 +15489,24 @@
     </row>
     <row r="633" spans="1:5">
       <c r="A633" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B633" t="s">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="C633" t="s">
         <v>846</v>
       </c>
-      <c r="D633" s="30">
-        <v>41471</v>
-      </c>
       <c r="E633" t="s">
-        <v>1227</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="634" spans="1:5">
       <c r="A634" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B634" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="C634" t="s">
         <v>846</v>
@@ -15409,35 +15520,176 @@
     </row>
     <row r="635" spans="1:5">
       <c r="A635" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B635" t="s">
-        <v>795</v>
+        <v>727</v>
       </c>
       <c r="C635" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="D635" s="30">
         <v>41471</v>
       </c>
       <c r="E635" t="s">
-        <v>1227</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="636" spans="1:5">
       <c r="A636" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B636" t="s">
-        <v>807</v>
+        <v>761</v>
       </c>
       <c r="C636" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="D636" s="30">
         <v>41471</v>
       </c>
       <c r="E636" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" t="s">
+        <v>85</v>
+      </c>
+      <c r="B637" t="s">
+        <v>789</v>
+      </c>
+      <c r="C637" t="s">
+        <v>846</v>
+      </c>
+      <c r="D637" s="30">
+        <v>41471</v>
+      </c>
+      <c r="E637" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" t="s">
+        <v>85</v>
+      </c>
+      <c r="B638" t="s">
+        <v>795</v>
+      </c>
+      <c r="C638" t="s">
+        <v>846</v>
+      </c>
+      <c r="D638" s="30">
+        <v>41471</v>
+      </c>
+      <c r="E638" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" t="s">
+        <v>86</v>
+      </c>
+      <c r="B639" t="s">
+        <v>725</v>
+      </c>
+      <c r="C639" t="s">
+        <v>846</v>
+      </c>
+      <c r="D639" s="30">
+        <v>41471</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" t="s">
+        <v>86</v>
+      </c>
+      <c r="B640" t="s">
+        <v>727</v>
+      </c>
+      <c r="C640" t="s">
+        <v>860</v>
+      </c>
+      <c r="E640" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" t="s">
+        <v>86</v>
+      </c>
+      <c r="B641" t="s">
+        <v>761</v>
+      </c>
+      <c r="C641" t="s">
+        <v>846</v>
+      </c>
+      <c r="E641" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" t="s">
+        <v>86</v>
+      </c>
+      <c r="B642" t="s">
+        <v>775</v>
+      </c>
+      <c r="C642" t="s">
+        <v>846</v>
+      </c>
+      <c r="D642" s="30">
+        <v>41471</v>
+      </c>
+      <c r="E642" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" t="s">
+        <v>86</v>
+      </c>
+      <c r="B643" t="s">
+        <v>789</v>
+      </c>
+      <c r="C643" t="s">
+        <v>846</v>
+      </c>
+      <c r="E643" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" t="s">
+        <v>86</v>
+      </c>
+      <c r="B644" t="s">
+        <v>795</v>
+      </c>
+      <c r="C644" t="s">
+        <v>846</v>
+      </c>
+      <c r="E644" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" t="s">
+        <v>86</v>
+      </c>
+      <c r="B645" t="s">
+        <v>807</v>
+      </c>
+      <c r="C645" t="s">
+        <v>860</v>
+      </c>
+      <c r="D645" s="30">
+        <v>41471</v>
+      </c>
+      <c r="E645" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -15457,7 +15709,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20396,7 +20648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
@@ -22146,7 +22398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView topLeftCell="F20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R111" sqref="R111"/>
     </sheetView>
   </sheetViews>
@@ -35540,8 +35792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -36666,7 +36918,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>743</v>
       </c>
@@ -36698,7 +36950,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>743</v>
       </c>
@@ -36712,7 +36964,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>743</v>
       </c>
@@ -36733,7 +36985,7 @@
       </c>
       <c r="H51" s="41"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>743</v>
       </c>
@@ -36760,7 +37012,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>743</v>
       </c>
@@ -36780,7 +37032,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>745</v>
       </c>
@@ -36800,7 +37052,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>745</v>
       </c>
@@ -36814,7 +37066,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>747</v>
       </c>
@@ -36828,7 +37080,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>747</v>
       </c>
@@ -36842,7 +37094,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>749</v>
       </c>
@@ -36867,8 +37119,14 @@
       <c r="K58" s="3" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" t="s">
+        <v>818</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>751</v>
       </c>
@@ -36895,7 +37153,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>751</v>
       </c>
@@ -36915,7 +37173,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>751</v>
       </c>
@@ -36929,7 +37187,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>751</v>
       </c>
@@ -36943,7 +37201,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>751</v>
       </c>
@@ -36970,7 +37228,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>751</v>
       </c>
@@ -37639,6 +37897,12 @@
       </c>
       <c r="K90" s="3" t="s">
         <v>818</v>
+      </c>
+      <c r="L90" t="s">
+        <v>818</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -38763,8 +39027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
